--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\proyecto-grado\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA64342B-1CA1-49FB-A82E-B06A3FFB53A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA0052A-38D0-4B85-B42D-EA5BE4D7D1DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -940,7 +940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -970,6 +972,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008352E896BEBC3B4BBE556B9821A22447" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f913282166a0f4e6fae5234b1a10d1bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a77fb7f8-12c9-4609-ac08-7d2a28f77de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1fdcbb55615e8c28d62e918f83ed0de" ns2:_="">
     <xsd:import namespace="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
@@ -1147,15 +1158,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1163,6 +1165,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3839E01-B9A0-42A9-8974-3B924CEB6D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1176,14 +1186,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\proyecto-grado\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\proyecto-grado\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA0052A-38D0-4B85-B42D-EA5BE4D7D1DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="495" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -21,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="42">
-  <si>
-    <t>type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="41">
   <si>
     <t>Class</t>
   </si>
@@ -47,9 +43,6 @@
     <t>pet</t>
   </si>
   <si>
-    <t>pet.org.springframework.samples.petclinic.model.BaseEntity.NamedEntity</t>
-  </si>
-  <si>
     <t>pet.org.springframework.samples.petclinic.model.Person</t>
   </si>
   <si>
@@ -134,9 +127,6 @@
     <t>repository</t>
   </si>
   <si>
-    <t>visit</t>
-  </si>
-  <si>
     <t>org.springframework.samples.petclinic.model</t>
   </si>
   <si>
@@ -147,12 +137,18 @@
   </si>
   <si>
     <t>NamedEntity</t>
+  </si>
+  <si>
+    <t>pet.org.springframework.samples.petclinic.model.NamedEntity</t>
+  </si>
+  <si>
+    <t>UsesClass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,436 +494,436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="31" customWidth="1"/>
-    <col min="5" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
-      </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -937,32 +933,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.81640625" customWidth="1"/>
-    <col min="2" max="2" width="77.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -981,6 +1103,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008352E896BEBC3B4BBE556B9821A22447" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f913282166a0f4e6fae5234b1a10d1bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a77fb7f8-12c9-4609-ac08-7d2a28f77de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1fdcbb55615e8c28d62e918f83ed0de" ns2:_="">
     <xsd:import namespace="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
@@ -1158,12 +1286,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
   <ds:schemaRefs>
@@ -1173,6 +1295,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3839E01-B9A0-42A9-8974-3B924CEB6D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1188,20 +1326,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="495" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="1095" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="62">
   <si>
     <t>Class</t>
   </si>
@@ -34,18 +34,12 @@
     <t>calls</t>
   </si>
   <si>
-    <t>pet.org.springframework.samples.petclinic.model.BaseEntity</t>
-  </si>
-  <si>
     <t>BaseEntity</t>
   </si>
   <si>
     <t>pet</t>
   </si>
   <si>
-    <t>pet.org.springframework.samples.petclinic.model.Person</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
@@ -61,36 +55,21 @@
     <t>owner.org.springframework.samples.petclinic.model.Person</t>
   </si>
   <si>
-    <t>pet.org.springframework.samples.petclinic.owner.Owner</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>pet.org.springframework.samples.petclinic.owner.Pet</t>
-  </si>
-  <si>
     <t>Pet</t>
   </si>
   <si>
     <t>PetController</t>
   </si>
   <si>
-    <t>pet.org.springframework.samples.petclinic.owner.PetRepository</t>
-  </si>
-  <si>
     <t>PetRepository</t>
   </si>
   <si>
-    <t>pet.org.springframework.samples.petclinic.owner.PetType</t>
-  </si>
-  <si>
     <t>PetType</t>
   </si>
   <si>
-    <t>pet.org.springframework.samples.petclinic.visit.Visit</t>
-  </si>
-  <si>
     <t>Visit</t>
   </si>
   <si>
@@ -139,10 +118,94 @@
     <t>NamedEntity</t>
   </si>
   <si>
-    <t>pet.org.springframework.samples.petclinic.model.NamedEntity</t>
-  </si>
-  <si>
-    <t>UsesClass</t>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Uses Class</t>
+  </si>
+  <si>
+    <t>Has Method</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>pet1</t>
+  </si>
+  <si>
+    <t>PetController.processCreationForm(@PathVariable("ownerId") int ownerId, @RequestBody Pet pet)</t>
+  </si>
+  <si>
+    <t>PetController.processUpdateForm(@PathVariable("ownerId") int ownerId, @PathVariable("petId") int petId, @RequestBody Pet pet)</t>
+  </si>
+  <si>
+    <t>PetController.processFindForm(@PathVariable("ownerId") int ownerId)</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.owner.PetController.processCreationForm(@PathVariable("ownerId") int ownerId, @RequestBody Pet pet)</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.owner.PetController.processUpdateForm(@PathVariable("ownerId") int ownerId, @PathVariable("petId") int petId, @RequestBody Pet pet)</t>
+  </si>
+  <si>
+    <t>pet2</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.owner.PetController.processFindForm(@PathVariable("ownerId") int ownerId)</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.model.BaseEntity</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.model.NamedEntity</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.model.Person</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.owner.Owner</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.owner.Pet</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.owner.PetController</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.owner.PetRepository</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.owner.PetType</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.visit.Visit</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.owner.Owner</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.owner.Pet</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.owner.PetController</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.owner.PetRepository</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.owner.PetType</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.visit.Visit</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.model.BaseEntity</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.model.NamedEntity</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.model.Person</t>
   </si>
 </sst>
 </file>
@@ -495,17 +558,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="31" customWidth="1"/>
+    <col min="1" max="1" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
@@ -514,324 +578,324 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,91 +903,367 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -934,15 +1274,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="2" width="77.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
@@ -958,133 +1298,245 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1103,12 +1555,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008352E896BEBC3B4BBE556B9821A22447" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f913282166a0f4e6fae5234b1a10d1bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a77fb7f8-12c9-4609-ac08-7d2a28f77de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1fdcbb55615e8c28d62e918f83ed0de" ns2:_="">
     <xsd:import namespace="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
@@ -1286,6 +1732,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
   <ds:schemaRefs>
@@ -1295,22 +1747,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3839E01-B9A0-42A9-8974-3B924CEB6D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1326,4 +1762,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1095" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="3495" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="69">
   <si>
     <t>Class</t>
   </si>
@@ -37,9 +37,6 @@
     <t>BaseEntity</t>
   </si>
   <si>
-    <t>pet</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
@@ -133,27 +130,9 @@
     <t>pet1</t>
   </si>
   <si>
-    <t>PetController.processCreationForm(@PathVariable("ownerId") int ownerId, @RequestBody Pet pet)</t>
-  </si>
-  <si>
-    <t>PetController.processUpdateForm(@PathVariable("ownerId") int ownerId, @PathVariable("petId") int petId, @RequestBody Pet pet)</t>
-  </si>
-  <si>
-    <t>PetController.processFindForm(@PathVariable("ownerId") int ownerId)</t>
-  </si>
-  <si>
-    <t>pet1.org.springframework.samples.petclinic.owner.PetController.processCreationForm(@PathVariable("ownerId") int ownerId, @RequestBody Pet pet)</t>
-  </si>
-  <si>
-    <t>pet1.org.springframework.samples.petclinic.owner.PetController.processUpdateForm(@PathVariable("ownerId") int ownerId, @PathVariable("petId") int petId, @RequestBody Pet pet)</t>
-  </si>
-  <si>
     <t>pet2</t>
   </si>
   <si>
-    <t>pet2.org.springframework.samples.petclinic.owner.PetController.processFindForm(@PathVariable("ownerId") int ownerId)</t>
-  </si>
-  <si>
     <t>pet1.org.springframework.samples.petclinic.model.BaseEntity</t>
   </si>
   <si>
@@ -206,6 +185,48 @@
   </si>
   <si>
     <t>pet2.org.springframework.samples.petclinic.model.Person</t>
+  </si>
+  <si>
+    <t>PetController.processCreationForm(int, Pet)</t>
+  </si>
+  <si>
+    <t>PetController.processUpdateForm(int , int , Pet)</t>
+  </si>
+  <si>
+    <t>PetController.processFindForm(int)</t>
+  </si>
+  <si>
+    <t>OwnerController.processCreationForm(Owner)</t>
+  </si>
+  <si>
+    <t>OwnerController.processUpdateOwnerForm(Owner, int)</t>
+  </si>
+  <si>
+    <t>OwnerController.showOwner(int)</t>
+  </si>
+  <si>
+    <t>OwnerController.processFindForm(Owner)</t>
+  </si>
+  <si>
+    <t>owner.org.springframework.samples.petclinic.owner.OwnerController.processUpdateOwnerForm(Owner, int)</t>
+  </si>
+  <si>
+    <t>owner.org.springframework.samples.petclinic.owner.OwnerController.processCreationForm(Owner)</t>
+  </si>
+  <si>
+    <t>owner.org.springframework.samples.petclinic.owner.OwnerController.processFindForm(Owner)</t>
+  </si>
+  <si>
+    <t>owner.org.springframework.samples.petclinic.owner.OwnerController.showOwner(int)</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.owner.PetController.processUpdateForm(int, int, Pet)</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.owner.PetController.processCreationForm(int, Pet)</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.owner.PetController.processFindForm(int)</t>
   </si>
 </sst>
 </file>
@@ -558,18 +579,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.140625" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
@@ -578,324 +599,324 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -903,367 +924,459 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
         <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
         <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1274,16 +1387,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+    <col min="2" max="2" width="169.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1298,245 +1411,301 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1546,6 +1715,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1554,7 +1729,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008352E896BEBC3B4BBE556B9821A22447" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f913282166a0f4e6fae5234b1a10d1bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a77fb7f8-12c9-4609-ac08-7d2a28f77de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1fdcbb55615e8c28d62e918f83ed0de" ns2:_="">
     <xsd:import namespace="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
@@ -1732,13 +1907,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1746,7 +1931,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3839E01-B9A0-42A9-8974-3B924CEB6D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1762,20 +1947,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\proyecto-grado\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A8625D-0232-4C4B-90B1-88C45A56FC17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F7CDAF-34F9-4F51-B87A-CAB4EE9EA8C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,23 @@
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
     <sheet name="Edges" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="84">
   <si>
     <t>Class</t>
   </si>
@@ -249,6 +260,30 @@
   </si>
   <si>
     <t>SpringBootApplication</t>
+  </si>
+  <si>
+    <t>Has field</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.owner.PetController.pets</t>
+  </si>
+  <si>
+    <t>PetController.pets</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.owner.PetController.pets</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.samples.petclinic.owner.PetController.owners</t>
+  </si>
+  <si>
+    <t>PetController.owners</t>
+  </si>
+  <si>
+    <t>Has Field</t>
   </si>
 </sst>
 </file>
@@ -601,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1493,6 +1528,75 @@
         <v>5</v>
       </c>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1501,9 +1605,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1834,6 +1940,48 @@
         <v>21</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1841,18 +1989,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2034,14 +2182,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2053,6 +2193,14 @@
     <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\proyecto-grado\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prado\OneDrive\Documentos\GitHub\proyecto-grado\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F7CDAF-34F9-4F51-B87A-CAB4EE9EA8C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC61DD4-7478-4623-A6E2-6D22932C3698}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -642,19 +642,19 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.1796875" customWidth="1"/>
-    <col min="2" max="2" width="45.26953125" customWidth="1"/>
-    <col min="3" max="3" width="69.7265625" customWidth="1"/>
+    <col min="1" max="1" width="96.21875" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="3" max="3" width="69.77734375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="5" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -677,7 +677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -700,7 +700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -723,7 +723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -769,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -792,7 +792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -815,7 +815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -838,7 +838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -861,7 +861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -884,7 +884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -907,7 +907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -930,7 +930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -953,7 +953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -976,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -1607,18 +1607,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.1796875" customWidth="1"/>
-    <col min="2" max="2" width="169.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="84.77734375" customWidth="1"/>
+    <col min="2" max="2" width="99.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1989,21 +1989,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008352E896BEBC3B4BBE556B9821A22447" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f913282166a0f4e6fae5234b1a10d1bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a77fb7f8-12c9-4609-ac08-7d2a28f77de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1fdcbb55615e8c28d62e918f83ed0de" ns2:_="">
     <xsd:import namespace="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
@@ -2181,31 +2166,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3839E01-B9A0-42A9-8974-3B924CEB6D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2221,4 +2197,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prado\OneDrive\Documentos\GitHub\proyecto-grado\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC61DD4-7478-4623-A6E2-6D22932C3698}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C3A8B0-DF19-43A8-B94E-101AAAFDCD97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1607,9 +1607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1989,6 +1987,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008352E896BEBC3B4BBE556B9821A22447" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f913282166a0f4e6fae5234b1a10d1bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a77fb7f8-12c9-4609-ac08-7d2a28f77de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1fdcbb55615e8c28d62e918f83ed0de" ns2:_="">
     <xsd:import namespace="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
@@ -2166,22 +2179,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3839E01-B9A0-42A9-8974-3B924CEB6D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2197,28 +2219,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prado\OneDrive\Documentos\GitHub\proyecto-grado\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C3A8B0-DF19-43A8-B94E-101AAAFDCD97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE9F58B-24F7-4F9A-8A9E-3AA267FB31CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="86">
   <si>
     <t>Class</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>Has Field</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.owner.PetController.owners</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.samples.petclinic.owner.OwnerRepository</t>
   </si>
 </sst>
 </file>
@@ -636,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,13 +1536,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -1571,18 +1577,18 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -1595,6 +1601,52 @@
       </c>
       <c r="G41" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1605,9 +1657,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:XFD31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1616,7 +1670,7 @@
     <col min="3" max="3" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1630,7 +1684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1644,7 +1698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1658,7 +1712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1672,7 +1726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1686,7 +1740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1700,7 +1754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1714,7 +1768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1728,7 +1782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1742,12 +1796,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -1756,12 +1810,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1770,12 +1824,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -1783,13 +1837,4108 @@
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CV12" s="1"/>
+      <c r="CZ12" s="1"/>
+      <c r="DD12" s="1"/>
+      <c r="DH12" s="1"/>
+      <c r="DL12" s="1"/>
+      <c r="DP12" s="1"/>
+      <c r="DT12" s="1"/>
+      <c r="DX12" s="1"/>
+      <c r="EB12" s="1"/>
+      <c r="EF12" s="1"/>
+      <c r="EJ12" s="1"/>
+      <c r="EN12" s="1"/>
+      <c r="ER12" s="1"/>
+      <c r="EV12" s="1"/>
+      <c r="EZ12" s="1"/>
+      <c r="FD12" s="1"/>
+      <c r="FH12" s="1"/>
+      <c r="FL12" s="1"/>
+      <c r="FP12" s="1"/>
+      <c r="FT12" s="1"/>
+      <c r="FX12" s="1"/>
+      <c r="GB12" s="1"/>
+      <c r="GF12" s="1"/>
+      <c r="GJ12" s="1"/>
+      <c r="GN12" s="1"/>
+      <c r="GR12" s="1"/>
+      <c r="GV12" s="1"/>
+      <c r="GZ12" s="1"/>
+      <c r="HD12" s="1"/>
+      <c r="HH12" s="1"/>
+      <c r="HL12" s="1"/>
+      <c r="HP12" s="1"/>
+      <c r="HT12" s="1"/>
+      <c r="HX12" s="1"/>
+      <c r="IB12" s="1"/>
+      <c r="IF12" s="1"/>
+      <c r="IJ12" s="1"/>
+      <c r="IN12" s="1"/>
+      <c r="IR12" s="1"/>
+      <c r="IV12" s="1"/>
+      <c r="IZ12" s="1"/>
+      <c r="JD12" s="1"/>
+      <c r="JH12" s="1"/>
+      <c r="JL12" s="1"/>
+      <c r="JP12" s="1"/>
+      <c r="JT12" s="1"/>
+      <c r="JX12" s="1"/>
+      <c r="KB12" s="1"/>
+      <c r="KF12" s="1"/>
+      <c r="KJ12" s="1"/>
+      <c r="KN12" s="1"/>
+      <c r="KR12" s="1"/>
+      <c r="KV12" s="1"/>
+      <c r="KZ12" s="1"/>
+      <c r="LD12" s="1"/>
+      <c r="LH12" s="1"/>
+      <c r="LL12" s="1"/>
+      <c r="LP12" s="1"/>
+      <c r="LT12" s="1"/>
+      <c r="LX12" s="1"/>
+      <c r="MB12" s="1"/>
+      <c r="MF12" s="1"/>
+      <c r="MJ12" s="1"/>
+      <c r="MN12" s="1"/>
+      <c r="MR12" s="1"/>
+      <c r="MV12" s="1"/>
+      <c r="MZ12" s="1"/>
+      <c r="ND12" s="1"/>
+      <c r="NH12" s="1"/>
+      <c r="NL12" s="1"/>
+      <c r="NP12" s="1"/>
+      <c r="NT12" s="1"/>
+      <c r="NX12" s="1"/>
+      <c r="OB12" s="1"/>
+      <c r="OF12" s="1"/>
+      <c r="OJ12" s="1"/>
+      <c r="ON12" s="1"/>
+      <c r="OR12" s="1"/>
+      <c r="OV12" s="1"/>
+      <c r="OZ12" s="1"/>
+      <c r="PD12" s="1"/>
+      <c r="PH12" s="1"/>
+      <c r="PL12" s="1"/>
+      <c r="PP12" s="1"/>
+      <c r="PT12" s="1"/>
+      <c r="PX12" s="1"/>
+      <c r="QB12" s="1"/>
+      <c r="QF12" s="1"/>
+      <c r="QJ12" s="1"/>
+      <c r="QN12" s="1"/>
+      <c r="QR12" s="1"/>
+      <c r="QV12" s="1"/>
+      <c r="QZ12" s="1"/>
+      <c r="RD12" s="1"/>
+      <c r="RH12" s="1"/>
+      <c r="RL12" s="1"/>
+      <c r="RP12" s="1"/>
+      <c r="RT12" s="1"/>
+      <c r="RX12" s="1"/>
+      <c r="SB12" s="1"/>
+      <c r="SF12" s="1"/>
+      <c r="SJ12" s="1"/>
+      <c r="SN12" s="1"/>
+      <c r="SR12" s="1"/>
+      <c r="SV12" s="1"/>
+      <c r="SZ12" s="1"/>
+      <c r="TD12" s="1"/>
+      <c r="TH12" s="1"/>
+      <c r="TL12" s="1"/>
+      <c r="TP12" s="1"/>
+      <c r="TT12" s="1"/>
+      <c r="TX12" s="1"/>
+      <c r="UB12" s="1"/>
+      <c r="UF12" s="1"/>
+      <c r="UJ12" s="1"/>
+      <c r="UN12" s="1"/>
+      <c r="UR12" s="1"/>
+      <c r="UV12" s="1"/>
+      <c r="UZ12" s="1"/>
+      <c r="VD12" s="1"/>
+      <c r="VH12" s="1"/>
+      <c r="VL12" s="1"/>
+      <c r="VP12" s="1"/>
+      <c r="VT12" s="1"/>
+      <c r="VX12" s="1"/>
+      <c r="WB12" s="1"/>
+      <c r="WF12" s="1"/>
+      <c r="WJ12" s="1"/>
+      <c r="WN12" s="1"/>
+      <c r="WR12" s="1"/>
+      <c r="WV12" s="1"/>
+      <c r="WZ12" s="1"/>
+      <c r="XD12" s="1"/>
+      <c r="XH12" s="1"/>
+      <c r="XL12" s="1"/>
+      <c r="XP12" s="1"/>
+      <c r="XT12" s="1"/>
+      <c r="XX12" s="1"/>
+      <c r="YB12" s="1"/>
+      <c r="YF12" s="1"/>
+      <c r="YJ12" s="1"/>
+      <c r="YN12" s="1"/>
+      <c r="YR12" s="1"/>
+      <c r="YV12" s="1"/>
+      <c r="YZ12" s="1"/>
+      <c r="ZD12" s="1"/>
+      <c r="ZH12" s="1"/>
+      <c r="ZL12" s="1"/>
+      <c r="ZP12" s="1"/>
+      <c r="ZT12" s="1"/>
+      <c r="ZX12" s="1"/>
+      <c r="AAB12" s="1"/>
+      <c r="AAF12" s="1"/>
+      <c r="AAJ12" s="1"/>
+      <c r="AAN12" s="1"/>
+      <c r="AAR12" s="1"/>
+      <c r="AAV12" s="1"/>
+      <c r="AAZ12" s="1"/>
+      <c r="ABD12" s="1"/>
+      <c r="ABH12" s="1"/>
+      <c r="ABL12" s="1"/>
+      <c r="ABP12" s="1"/>
+      <c r="ABT12" s="1"/>
+      <c r="ABX12" s="1"/>
+      <c r="ACB12" s="1"/>
+      <c r="ACF12" s="1"/>
+      <c r="ACJ12" s="1"/>
+      <c r="ACN12" s="1"/>
+      <c r="ACR12" s="1"/>
+      <c r="ACV12" s="1"/>
+      <c r="ACZ12" s="1"/>
+      <c r="ADD12" s="1"/>
+      <c r="ADH12" s="1"/>
+      <c r="ADL12" s="1"/>
+      <c r="ADP12" s="1"/>
+      <c r="ADT12" s="1"/>
+      <c r="ADX12" s="1"/>
+      <c r="AEB12" s="1"/>
+      <c r="AEF12" s="1"/>
+      <c r="AEJ12" s="1"/>
+      <c r="AEN12" s="1"/>
+      <c r="AER12" s="1"/>
+      <c r="AEV12" s="1"/>
+      <c r="AEZ12" s="1"/>
+      <c r="AFD12" s="1"/>
+      <c r="AFH12" s="1"/>
+      <c r="AFL12" s="1"/>
+      <c r="AFP12" s="1"/>
+      <c r="AFT12" s="1"/>
+      <c r="AFX12" s="1"/>
+      <c r="AGB12" s="1"/>
+      <c r="AGF12" s="1"/>
+      <c r="AGJ12" s="1"/>
+      <c r="AGN12" s="1"/>
+      <c r="AGR12" s="1"/>
+      <c r="AGV12" s="1"/>
+      <c r="AGZ12" s="1"/>
+      <c r="AHD12" s="1"/>
+      <c r="AHH12" s="1"/>
+      <c r="AHL12" s="1"/>
+      <c r="AHP12" s="1"/>
+      <c r="AHT12" s="1"/>
+      <c r="AHX12" s="1"/>
+      <c r="AIB12" s="1"/>
+      <c r="AIF12" s="1"/>
+      <c r="AIJ12" s="1"/>
+      <c r="AIN12" s="1"/>
+      <c r="AIR12" s="1"/>
+      <c r="AIV12" s="1"/>
+      <c r="AIZ12" s="1"/>
+      <c r="AJD12" s="1"/>
+      <c r="AJH12" s="1"/>
+      <c r="AJL12" s="1"/>
+      <c r="AJP12" s="1"/>
+      <c r="AJT12" s="1"/>
+      <c r="AJX12" s="1"/>
+      <c r="AKB12" s="1"/>
+      <c r="AKF12" s="1"/>
+      <c r="AKJ12" s="1"/>
+      <c r="AKN12" s="1"/>
+      <c r="AKR12" s="1"/>
+      <c r="AKV12" s="1"/>
+      <c r="AKZ12" s="1"/>
+      <c r="ALD12" s="1"/>
+      <c r="ALH12" s="1"/>
+      <c r="ALL12" s="1"/>
+      <c r="ALP12" s="1"/>
+      <c r="ALT12" s="1"/>
+      <c r="ALX12" s="1"/>
+      <c r="AMB12" s="1"/>
+      <c r="AMF12" s="1"/>
+      <c r="AMJ12" s="1"/>
+      <c r="AMN12" s="1"/>
+      <c r="AMR12" s="1"/>
+      <c r="AMV12" s="1"/>
+      <c r="AMZ12" s="1"/>
+      <c r="AND12" s="1"/>
+      <c r="ANH12" s="1"/>
+      <c r="ANL12" s="1"/>
+      <c r="ANP12" s="1"/>
+      <c r="ANT12" s="1"/>
+      <c r="ANX12" s="1"/>
+      <c r="AOB12" s="1"/>
+      <c r="AOF12" s="1"/>
+      <c r="AOJ12" s="1"/>
+      <c r="AON12" s="1"/>
+      <c r="AOR12" s="1"/>
+      <c r="AOV12" s="1"/>
+      <c r="AOZ12" s="1"/>
+      <c r="APD12" s="1"/>
+      <c r="APH12" s="1"/>
+      <c r="APL12" s="1"/>
+      <c r="APP12" s="1"/>
+      <c r="APT12" s="1"/>
+      <c r="APX12" s="1"/>
+      <c r="AQB12" s="1"/>
+      <c r="AQF12" s="1"/>
+      <c r="AQJ12" s="1"/>
+      <c r="AQN12" s="1"/>
+      <c r="AQR12" s="1"/>
+      <c r="AQV12" s="1"/>
+      <c r="AQZ12" s="1"/>
+      <c r="ARD12" s="1"/>
+      <c r="ARH12" s="1"/>
+      <c r="ARL12" s="1"/>
+      <c r="ARP12" s="1"/>
+      <c r="ART12" s="1"/>
+      <c r="ARX12" s="1"/>
+      <c r="ASB12" s="1"/>
+      <c r="ASF12" s="1"/>
+      <c r="ASJ12" s="1"/>
+      <c r="ASN12" s="1"/>
+      <c r="ASR12" s="1"/>
+      <c r="ASV12" s="1"/>
+      <c r="ASZ12" s="1"/>
+      <c r="ATD12" s="1"/>
+      <c r="ATH12" s="1"/>
+      <c r="ATL12" s="1"/>
+      <c r="ATP12" s="1"/>
+      <c r="ATT12" s="1"/>
+      <c r="ATX12" s="1"/>
+      <c r="AUB12" s="1"/>
+      <c r="AUF12" s="1"/>
+      <c r="AUJ12" s="1"/>
+      <c r="AUN12" s="1"/>
+      <c r="AUR12" s="1"/>
+      <c r="AUV12" s="1"/>
+      <c r="AUZ12" s="1"/>
+      <c r="AVD12" s="1"/>
+      <c r="AVH12" s="1"/>
+      <c r="AVL12" s="1"/>
+      <c r="AVP12" s="1"/>
+      <c r="AVT12" s="1"/>
+      <c r="AVX12" s="1"/>
+      <c r="AWB12" s="1"/>
+      <c r="AWF12" s="1"/>
+      <c r="AWJ12" s="1"/>
+      <c r="AWN12" s="1"/>
+      <c r="AWR12" s="1"/>
+      <c r="AWV12" s="1"/>
+      <c r="AWZ12" s="1"/>
+      <c r="AXD12" s="1"/>
+      <c r="AXH12" s="1"/>
+      <c r="AXL12" s="1"/>
+      <c r="AXP12" s="1"/>
+      <c r="AXT12" s="1"/>
+      <c r="AXX12" s="1"/>
+      <c r="AYB12" s="1"/>
+      <c r="AYF12" s="1"/>
+      <c r="AYJ12" s="1"/>
+      <c r="AYN12" s="1"/>
+      <c r="AYR12" s="1"/>
+      <c r="AYV12" s="1"/>
+      <c r="AYZ12" s="1"/>
+      <c r="AZD12" s="1"/>
+      <c r="AZH12" s="1"/>
+      <c r="AZL12" s="1"/>
+      <c r="AZP12" s="1"/>
+      <c r="AZT12" s="1"/>
+      <c r="AZX12" s="1"/>
+      <c r="BAB12" s="1"/>
+      <c r="BAF12" s="1"/>
+      <c r="BAJ12" s="1"/>
+      <c r="BAN12" s="1"/>
+      <c r="BAR12" s="1"/>
+      <c r="BAV12" s="1"/>
+      <c r="BAZ12" s="1"/>
+      <c r="BBD12" s="1"/>
+      <c r="BBH12" s="1"/>
+      <c r="BBL12" s="1"/>
+      <c r="BBP12" s="1"/>
+      <c r="BBT12" s="1"/>
+      <c r="BBX12" s="1"/>
+      <c r="BCB12" s="1"/>
+      <c r="BCF12" s="1"/>
+      <c r="BCJ12" s="1"/>
+      <c r="BCN12" s="1"/>
+      <c r="BCR12" s="1"/>
+      <c r="BCV12" s="1"/>
+      <c r="BCZ12" s="1"/>
+      <c r="BDD12" s="1"/>
+      <c r="BDH12" s="1"/>
+      <c r="BDL12" s="1"/>
+      <c r="BDP12" s="1"/>
+      <c r="BDT12" s="1"/>
+      <c r="BDX12" s="1"/>
+      <c r="BEB12" s="1"/>
+      <c r="BEF12" s="1"/>
+      <c r="BEJ12" s="1"/>
+      <c r="BEN12" s="1"/>
+      <c r="BER12" s="1"/>
+      <c r="BEV12" s="1"/>
+      <c r="BEZ12" s="1"/>
+      <c r="BFD12" s="1"/>
+      <c r="BFH12" s="1"/>
+      <c r="BFL12" s="1"/>
+      <c r="BFP12" s="1"/>
+      <c r="BFT12" s="1"/>
+      <c r="BFX12" s="1"/>
+      <c r="BGB12" s="1"/>
+      <c r="BGF12" s="1"/>
+      <c r="BGJ12" s="1"/>
+      <c r="BGN12" s="1"/>
+      <c r="BGR12" s="1"/>
+      <c r="BGV12" s="1"/>
+      <c r="BGZ12" s="1"/>
+      <c r="BHD12" s="1"/>
+      <c r="BHH12" s="1"/>
+      <c r="BHL12" s="1"/>
+      <c r="BHP12" s="1"/>
+      <c r="BHT12" s="1"/>
+      <c r="BHX12" s="1"/>
+      <c r="BIB12" s="1"/>
+      <c r="BIF12" s="1"/>
+      <c r="BIJ12" s="1"/>
+      <c r="BIN12" s="1"/>
+      <c r="BIR12" s="1"/>
+      <c r="BIV12" s="1"/>
+      <c r="BIZ12" s="1"/>
+      <c r="BJD12" s="1"/>
+      <c r="BJH12" s="1"/>
+      <c r="BJL12" s="1"/>
+      <c r="BJP12" s="1"/>
+      <c r="BJT12" s="1"/>
+      <c r="BJX12" s="1"/>
+      <c r="BKB12" s="1"/>
+      <c r="BKF12" s="1"/>
+      <c r="BKJ12" s="1"/>
+      <c r="BKN12" s="1"/>
+      <c r="BKR12" s="1"/>
+      <c r="BKV12" s="1"/>
+      <c r="BKZ12" s="1"/>
+      <c r="BLD12" s="1"/>
+      <c r="BLH12" s="1"/>
+      <c r="BLL12" s="1"/>
+      <c r="BLP12" s="1"/>
+      <c r="BLT12" s="1"/>
+      <c r="BLX12" s="1"/>
+      <c r="BMB12" s="1"/>
+      <c r="BMF12" s="1"/>
+      <c r="BMJ12" s="1"/>
+      <c r="BMN12" s="1"/>
+      <c r="BMR12" s="1"/>
+      <c r="BMV12" s="1"/>
+      <c r="BMZ12" s="1"/>
+      <c r="BND12" s="1"/>
+      <c r="BNH12" s="1"/>
+      <c r="BNL12" s="1"/>
+      <c r="BNP12" s="1"/>
+      <c r="BNT12" s="1"/>
+      <c r="BNX12" s="1"/>
+      <c r="BOB12" s="1"/>
+      <c r="BOF12" s="1"/>
+      <c r="BOJ12" s="1"/>
+      <c r="BON12" s="1"/>
+      <c r="BOR12" s="1"/>
+      <c r="BOV12" s="1"/>
+      <c r="BOZ12" s="1"/>
+      <c r="BPD12" s="1"/>
+      <c r="BPH12" s="1"/>
+      <c r="BPL12" s="1"/>
+      <c r="BPP12" s="1"/>
+      <c r="BPT12" s="1"/>
+      <c r="BPX12" s="1"/>
+      <c r="BQB12" s="1"/>
+      <c r="BQF12" s="1"/>
+      <c r="BQJ12" s="1"/>
+      <c r="BQN12" s="1"/>
+      <c r="BQR12" s="1"/>
+      <c r="BQV12" s="1"/>
+      <c r="BQZ12" s="1"/>
+      <c r="BRD12" s="1"/>
+      <c r="BRH12" s="1"/>
+      <c r="BRL12" s="1"/>
+      <c r="BRP12" s="1"/>
+      <c r="BRT12" s="1"/>
+      <c r="BRX12" s="1"/>
+      <c r="BSB12" s="1"/>
+      <c r="BSF12" s="1"/>
+      <c r="BSJ12" s="1"/>
+      <c r="BSN12" s="1"/>
+      <c r="BSR12" s="1"/>
+      <c r="BSV12" s="1"/>
+      <c r="BSZ12" s="1"/>
+      <c r="BTD12" s="1"/>
+      <c r="BTH12" s="1"/>
+      <c r="BTL12" s="1"/>
+      <c r="BTP12" s="1"/>
+      <c r="BTT12" s="1"/>
+      <c r="BTX12" s="1"/>
+      <c r="BUB12" s="1"/>
+      <c r="BUF12" s="1"/>
+      <c r="BUJ12" s="1"/>
+      <c r="BUN12" s="1"/>
+      <c r="BUR12" s="1"/>
+      <c r="BUV12" s="1"/>
+      <c r="BUZ12" s="1"/>
+      <c r="BVD12" s="1"/>
+      <c r="BVH12" s="1"/>
+      <c r="BVL12" s="1"/>
+      <c r="BVP12" s="1"/>
+      <c r="BVT12" s="1"/>
+      <c r="BVX12" s="1"/>
+      <c r="BWB12" s="1"/>
+      <c r="BWF12" s="1"/>
+      <c r="BWJ12" s="1"/>
+      <c r="BWN12" s="1"/>
+      <c r="BWR12" s="1"/>
+      <c r="BWV12" s="1"/>
+      <c r="BWZ12" s="1"/>
+      <c r="BXD12" s="1"/>
+      <c r="BXH12" s="1"/>
+      <c r="BXL12" s="1"/>
+      <c r="BXP12" s="1"/>
+      <c r="BXT12" s="1"/>
+      <c r="BXX12" s="1"/>
+      <c r="BYB12" s="1"/>
+      <c r="BYF12" s="1"/>
+      <c r="BYJ12" s="1"/>
+      <c r="BYN12" s="1"/>
+      <c r="BYR12" s="1"/>
+      <c r="BYV12" s="1"/>
+      <c r="BYZ12" s="1"/>
+      <c r="BZD12" s="1"/>
+      <c r="BZH12" s="1"/>
+      <c r="BZL12" s="1"/>
+      <c r="BZP12" s="1"/>
+      <c r="BZT12" s="1"/>
+      <c r="BZX12" s="1"/>
+      <c r="CAB12" s="1"/>
+      <c r="CAF12" s="1"/>
+      <c r="CAJ12" s="1"/>
+      <c r="CAN12" s="1"/>
+      <c r="CAR12" s="1"/>
+      <c r="CAV12" s="1"/>
+      <c r="CAZ12" s="1"/>
+      <c r="CBD12" s="1"/>
+      <c r="CBH12" s="1"/>
+      <c r="CBL12" s="1"/>
+      <c r="CBP12" s="1"/>
+      <c r="CBT12" s="1"/>
+      <c r="CBX12" s="1"/>
+      <c r="CCB12" s="1"/>
+      <c r="CCF12" s="1"/>
+      <c r="CCJ12" s="1"/>
+      <c r="CCN12" s="1"/>
+      <c r="CCR12" s="1"/>
+      <c r="CCV12" s="1"/>
+      <c r="CCZ12" s="1"/>
+      <c r="CDD12" s="1"/>
+      <c r="CDH12" s="1"/>
+      <c r="CDL12" s="1"/>
+      <c r="CDP12" s="1"/>
+      <c r="CDT12" s="1"/>
+      <c r="CDX12" s="1"/>
+      <c r="CEB12" s="1"/>
+      <c r="CEF12" s="1"/>
+      <c r="CEJ12" s="1"/>
+      <c r="CEN12" s="1"/>
+      <c r="CER12" s="1"/>
+      <c r="CEV12" s="1"/>
+      <c r="CEZ12" s="1"/>
+      <c r="CFD12" s="1"/>
+      <c r="CFH12" s="1"/>
+      <c r="CFL12" s="1"/>
+      <c r="CFP12" s="1"/>
+      <c r="CFT12" s="1"/>
+      <c r="CFX12" s="1"/>
+      <c r="CGB12" s="1"/>
+      <c r="CGF12" s="1"/>
+      <c r="CGJ12" s="1"/>
+      <c r="CGN12" s="1"/>
+      <c r="CGR12" s="1"/>
+      <c r="CGV12" s="1"/>
+      <c r="CGZ12" s="1"/>
+      <c r="CHD12" s="1"/>
+      <c r="CHH12" s="1"/>
+      <c r="CHL12" s="1"/>
+      <c r="CHP12" s="1"/>
+      <c r="CHT12" s="1"/>
+      <c r="CHX12" s="1"/>
+      <c r="CIB12" s="1"/>
+      <c r="CIF12" s="1"/>
+      <c r="CIJ12" s="1"/>
+      <c r="CIN12" s="1"/>
+      <c r="CIR12" s="1"/>
+      <c r="CIV12" s="1"/>
+      <c r="CIZ12" s="1"/>
+      <c r="CJD12" s="1"/>
+      <c r="CJH12" s="1"/>
+      <c r="CJL12" s="1"/>
+      <c r="CJP12" s="1"/>
+      <c r="CJT12" s="1"/>
+      <c r="CJX12" s="1"/>
+      <c r="CKB12" s="1"/>
+      <c r="CKF12" s="1"/>
+      <c r="CKJ12" s="1"/>
+      <c r="CKN12" s="1"/>
+      <c r="CKR12" s="1"/>
+      <c r="CKV12" s="1"/>
+      <c r="CKZ12" s="1"/>
+      <c r="CLD12" s="1"/>
+      <c r="CLH12" s="1"/>
+      <c r="CLL12" s="1"/>
+      <c r="CLP12" s="1"/>
+      <c r="CLT12" s="1"/>
+      <c r="CLX12" s="1"/>
+      <c r="CMB12" s="1"/>
+      <c r="CMF12" s="1"/>
+      <c r="CMJ12" s="1"/>
+      <c r="CMN12" s="1"/>
+      <c r="CMR12" s="1"/>
+      <c r="CMV12" s="1"/>
+      <c r="CMZ12" s="1"/>
+      <c r="CND12" s="1"/>
+      <c r="CNH12" s="1"/>
+      <c r="CNL12" s="1"/>
+      <c r="CNP12" s="1"/>
+      <c r="CNT12" s="1"/>
+      <c r="CNX12" s="1"/>
+      <c r="COB12" s="1"/>
+      <c r="COF12" s="1"/>
+      <c r="COJ12" s="1"/>
+      <c r="CON12" s="1"/>
+      <c r="COR12" s="1"/>
+      <c r="COV12" s="1"/>
+      <c r="COZ12" s="1"/>
+      <c r="CPD12" s="1"/>
+      <c r="CPH12" s="1"/>
+      <c r="CPL12" s="1"/>
+      <c r="CPP12" s="1"/>
+      <c r="CPT12" s="1"/>
+      <c r="CPX12" s="1"/>
+      <c r="CQB12" s="1"/>
+      <c r="CQF12" s="1"/>
+      <c r="CQJ12" s="1"/>
+      <c r="CQN12" s="1"/>
+      <c r="CQR12" s="1"/>
+      <c r="CQV12" s="1"/>
+      <c r="CQZ12" s="1"/>
+      <c r="CRD12" s="1"/>
+      <c r="CRH12" s="1"/>
+      <c r="CRL12" s="1"/>
+      <c r="CRP12" s="1"/>
+      <c r="CRT12" s="1"/>
+      <c r="CRX12" s="1"/>
+      <c r="CSB12" s="1"/>
+      <c r="CSF12" s="1"/>
+      <c r="CSJ12" s="1"/>
+      <c r="CSN12" s="1"/>
+      <c r="CSR12" s="1"/>
+      <c r="CSV12" s="1"/>
+      <c r="CSZ12" s="1"/>
+      <c r="CTD12" s="1"/>
+      <c r="CTH12" s="1"/>
+      <c r="CTL12" s="1"/>
+      <c r="CTP12" s="1"/>
+      <c r="CTT12" s="1"/>
+      <c r="CTX12" s="1"/>
+      <c r="CUB12" s="1"/>
+      <c r="CUF12" s="1"/>
+      <c r="CUJ12" s="1"/>
+      <c r="CUN12" s="1"/>
+      <c r="CUR12" s="1"/>
+      <c r="CUV12" s="1"/>
+      <c r="CUZ12" s="1"/>
+      <c r="CVD12" s="1"/>
+      <c r="CVH12" s="1"/>
+      <c r="CVL12" s="1"/>
+      <c r="CVP12" s="1"/>
+      <c r="CVT12" s="1"/>
+      <c r="CVX12" s="1"/>
+      <c r="CWB12" s="1"/>
+      <c r="CWF12" s="1"/>
+      <c r="CWJ12" s="1"/>
+      <c r="CWN12" s="1"/>
+      <c r="CWR12" s="1"/>
+      <c r="CWV12" s="1"/>
+      <c r="CWZ12" s="1"/>
+      <c r="CXD12" s="1"/>
+      <c r="CXH12" s="1"/>
+      <c r="CXL12" s="1"/>
+      <c r="CXP12" s="1"/>
+      <c r="CXT12" s="1"/>
+      <c r="CXX12" s="1"/>
+      <c r="CYB12" s="1"/>
+      <c r="CYF12" s="1"/>
+      <c r="CYJ12" s="1"/>
+      <c r="CYN12" s="1"/>
+      <c r="CYR12" s="1"/>
+      <c r="CYV12" s="1"/>
+      <c r="CYZ12" s="1"/>
+      <c r="CZD12" s="1"/>
+      <c r="CZH12" s="1"/>
+      <c r="CZL12" s="1"/>
+      <c r="CZP12" s="1"/>
+      <c r="CZT12" s="1"/>
+      <c r="CZX12" s="1"/>
+      <c r="DAB12" s="1"/>
+      <c r="DAF12" s="1"/>
+      <c r="DAJ12" s="1"/>
+      <c r="DAN12" s="1"/>
+      <c r="DAR12" s="1"/>
+      <c r="DAV12" s="1"/>
+      <c r="DAZ12" s="1"/>
+      <c r="DBD12" s="1"/>
+      <c r="DBH12" s="1"/>
+      <c r="DBL12" s="1"/>
+      <c r="DBP12" s="1"/>
+      <c r="DBT12" s="1"/>
+      <c r="DBX12" s="1"/>
+      <c r="DCB12" s="1"/>
+      <c r="DCF12" s="1"/>
+      <c r="DCJ12" s="1"/>
+      <c r="DCN12" s="1"/>
+      <c r="DCR12" s="1"/>
+      <c r="DCV12" s="1"/>
+      <c r="DCZ12" s="1"/>
+      <c r="DDD12" s="1"/>
+      <c r="DDH12" s="1"/>
+      <c r="DDL12" s="1"/>
+      <c r="DDP12" s="1"/>
+      <c r="DDT12" s="1"/>
+      <c r="DDX12" s="1"/>
+      <c r="DEB12" s="1"/>
+      <c r="DEF12" s="1"/>
+      <c r="DEJ12" s="1"/>
+      <c r="DEN12" s="1"/>
+      <c r="DER12" s="1"/>
+      <c r="DEV12" s="1"/>
+      <c r="DEZ12" s="1"/>
+      <c r="DFD12" s="1"/>
+      <c r="DFH12" s="1"/>
+      <c r="DFL12" s="1"/>
+      <c r="DFP12" s="1"/>
+      <c r="DFT12" s="1"/>
+      <c r="DFX12" s="1"/>
+      <c r="DGB12" s="1"/>
+      <c r="DGF12" s="1"/>
+      <c r="DGJ12" s="1"/>
+      <c r="DGN12" s="1"/>
+      <c r="DGR12" s="1"/>
+      <c r="DGV12" s="1"/>
+      <c r="DGZ12" s="1"/>
+      <c r="DHD12" s="1"/>
+      <c r="DHH12" s="1"/>
+      <c r="DHL12" s="1"/>
+      <c r="DHP12" s="1"/>
+      <c r="DHT12" s="1"/>
+      <c r="DHX12" s="1"/>
+      <c r="DIB12" s="1"/>
+      <c r="DIF12" s="1"/>
+      <c r="DIJ12" s="1"/>
+      <c r="DIN12" s="1"/>
+      <c r="DIR12" s="1"/>
+      <c r="DIV12" s="1"/>
+      <c r="DIZ12" s="1"/>
+      <c r="DJD12" s="1"/>
+      <c r="DJH12" s="1"/>
+      <c r="DJL12" s="1"/>
+      <c r="DJP12" s="1"/>
+      <c r="DJT12" s="1"/>
+      <c r="DJX12" s="1"/>
+      <c r="DKB12" s="1"/>
+      <c r="DKF12" s="1"/>
+      <c r="DKJ12" s="1"/>
+      <c r="DKN12" s="1"/>
+      <c r="DKR12" s="1"/>
+      <c r="DKV12" s="1"/>
+      <c r="DKZ12" s="1"/>
+      <c r="DLD12" s="1"/>
+      <c r="DLH12" s="1"/>
+      <c r="DLL12" s="1"/>
+      <c r="DLP12" s="1"/>
+      <c r="DLT12" s="1"/>
+      <c r="DLX12" s="1"/>
+      <c r="DMB12" s="1"/>
+      <c r="DMF12" s="1"/>
+      <c r="DMJ12" s="1"/>
+      <c r="DMN12" s="1"/>
+      <c r="DMR12" s="1"/>
+      <c r="DMV12" s="1"/>
+      <c r="DMZ12" s="1"/>
+      <c r="DND12" s="1"/>
+      <c r="DNH12" s="1"/>
+      <c r="DNL12" s="1"/>
+      <c r="DNP12" s="1"/>
+      <c r="DNT12" s="1"/>
+      <c r="DNX12" s="1"/>
+      <c r="DOB12" s="1"/>
+      <c r="DOF12" s="1"/>
+      <c r="DOJ12" s="1"/>
+      <c r="DON12" s="1"/>
+      <c r="DOR12" s="1"/>
+      <c r="DOV12" s="1"/>
+      <c r="DOZ12" s="1"/>
+      <c r="DPD12" s="1"/>
+      <c r="DPH12" s="1"/>
+      <c r="DPL12" s="1"/>
+      <c r="DPP12" s="1"/>
+      <c r="DPT12" s="1"/>
+      <c r="DPX12" s="1"/>
+      <c r="DQB12" s="1"/>
+      <c r="DQF12" s="1"/>
+      <c r="DQJ12" s="1"/>
+      <c r="DQN12" s="1"/>
+      <c r="DQR12" s="1"/>
+      <c r="DQV12" s="1"/>
+      <c r="DQZ12" s="1"/>
+      <c r="DRD12" s="1"/>
+      <c r="DRH12" s="1"/>
+      <c r="DRL12" s="1"/>
+      <c r="DRP12" s="1"/>
+      <c r="DRT12" s="1"/>
+      <c r="DRX12" s="1"/>
+      <c r="DSB12" s="1"/>
+      <c r="DSF12" s="1"/>
+      <c r="DSJ12" s="1"/>
+      <c r="DSN12" s="1"/>
+      <c r="DSR12" s="1"/>
+      <c r="DSV12" s="1"/>
+      <c r="DSZ12" s="1"/>
+      <c r="DTD12" s="1"/>
+      <c r="DTH12" s="1"/>
+      <c r="DTL12" s="1"/>
+      <c r="DTP12" s="1"/>
+      <c r="DTT12" s="1"/>
+      <c r="DTX12" s="1"/>
+      <c r="DUB12" s="1"/>
+      <c r="DUF12" s="1"/>
+      <c r="DUJ12" s="1"/>
+      <c r="DUN12" s="1"/>
+      <c r="DUR12" s="1"/>
+      <c r="DUV12" s="1"/>
+      <c r="DUZ12" s="1"/>
+      <c r="DVD12" s="1"/>
+      <c r="DVH12" s="1"/>
+      <c r="DVL12" s="1"/>
+      <c r="DVP12" s="1"/>
+      <c r="DVT12" s="1"/>
+      <c r="DVX12" s="1"/>
+      <c r="DWB12" s="1"/>
+      <c r="DWF12" s="1"/>
+      <c r="DWJ12" s="1"/>
+      <c r="DWN12" s="1"/>
+      <c r="DWR12" s="1"/>
+      <c r="DWV12" s="1"/>
+      <c r="DWZ12" s="1"/>
+      <c r="DXD12" s="1"/>
+      <c r="DXH12" s="1"/>
+      <c r="DXL12" s="1"/>
+      <c r="DXP12" s="1"/>
+      <c r="DXT12" s="1"/>
+      <c r="DXX12" s="1"/>
+      <c r="DYB12" s="1"/>
+      <c r="DYF12" s="1"/>
+      <c r="DYJ12" s="1"/>
+      <c r="DYN12" s="1"/>
+      <c r="DYR12" s="1"/>
+      <c r="DYV12" s="1"/>
+      <c r="DYZ12" s="1"/>
+      <c r="DZD12" s="1"/>
+      <c r="DZH12" s="1"/>
+      <c r="DZL12" s="1"/>
+      <c r="DZP12" s="1"/>
+      <c r="DZT12" s="1"/>
+      <c r="DZX12" s="1"/>
+      <c r="EAB12" s="1"/>
+      <c r="EAF12" s="1"/>
+      <c r="EAJ12" s="1"/>
+      <c r="EAN12" s="1"/>
+      <c r="EAR12" s="1"/>
+      <c r="EAV12" s="1"/>
+      <c r="EAZ12" s="1"/>
+      <c r="EBD12" s="1"/>
+      <c r="EBH12" s="1"/>
+      <c r="EBL12" s="1"/>
+      <c r="EBP12" s="1"/>
+      <c r="EBT12" s="1"/>
+      <c r="EBX12" s="1"/>
+      <c r="ECB12" s="1"/>
+      <c r="ECF12" s="1"/>
+      <c r="ECJ12" s="1"/>
+      <c r="ECN12" s="1"/>
+      <c r="ECR12" s="1"/>
+      <c r="ECV12" s="1"/>
+      <c r="ECZ12" s="1"/>
+      <c r="EDD12" s="1"/>
+      <c r="EDH12" s="1"/>
+      <c r="EDL12" s="1"/>
+      <c r="EDP12" s="1"/>
+      <c r="EDT12" s="1"/>
+      <c r="EDX12" s="1"/>
+      <c r="EEB12" s="1"/>
+      <c r="EEF12" s="1"/>
+      <c r="EEJ12" s="1"/>
+      <c r="EEN12" s="1"/>
+      <c r="EER12" s="1"/>
+      <c r="EEV12" s="1"/>
+      <c r="EEZ12" s="1"/>
+      <c r="EFD12" s="1"/>
+      <c r="EFH12" s="1"/>
+      <c r="EFL12" s="1"/>
+      <c r="EFP12" s="1"/>
+      <c r="EFT12" s="1"/>
+      <c r="EFX12" s="1"/>
+      <c r="EGB12" s="1"/>
+      <c r="EGF12" s="1"/>
+      <c r="EGJ12" s="1"/>
+      <c r="EGN12" s="1"/>
+      <c r="EGR12" s="1"/>
+      <c r="EGV12" s="1"/>
+      <c r="EGZ12" s="1"/>
+      <c r="EHD12" s="1"/>
+      <c r="EHH12" s="1"/>
+      <c r="EHL12" s="1"/>
+      <c r="EHP12" s="1"/>
+      <c r="EHT12" s="1"/>
+      <c r="EHX12" s="1"/>
+      <c r="EIB12" s="1"/>
+      <c r="EIF12" s="1"/>
+      <c r="EIJ12" s="1"/>
+      <c r="EIN12" s="1"/>
+      <c r="EIR12" s="1"/>
+      <c r="EIV12" s="1"/>
+      <c r="EIZ12" s="1"/>
+      <c r="EJD12" s="1"/>
+      <c r="EJH12" s="1"/>
+      <c r="EJL12" s="1"/>
+      <c r="EJP12" s="1"/>
+      <c r="EJT12" s="1"/>
+      <c r="EJX12" s="1"/>
+      <c r="EKB12" s="1"/>
+      <c r="EKF12" s="1"/>
+      <c r="EKJ12" s="1"/>
+      <c r="EKN12" s="1"/>
+      <c r="EKR12" s="1"/>
+      <c r="EKV12" s="1"/>
+      <c r="EKZ12" s="1"/>
+      <c r="ELD12" s="1"/>
+      <c r="ELH12" s="1"/>
+      <c r="ELL12" s="1"/>
+      <c r="ELP12" s="1"/>
+      <c r="ELT12" s="1"/>
+      <c r="ELX12" s="1"/>
+      <c r="EMB12" s="1"/>
+      <c r="EMF12" s="1"/>
+      <c r="EMJ12" s="1"/>
+      <c r="EMN12" s="1"/>
+      <c r="EMR12" s="1"/>
+      <c r="EMV12" s="1"/>
+      <c r="EMZ12" s="1"/>
+      <c r="END12" s="1"/>
+      <c r="ENH12" s="1"/>
+      <c r="ENL12" s="1"/>
+      <c r="ENP12" s="1"/>
+      <c r="ENT12" s="1"/>
+      <c r="ENX12" s="1"/>
+      <c r="EOB12" s="1"/>
+      <c r="EOF12" s="1"/>
+      <c r="EOJ12" s="1"/>
+      <c r="EON12" s="1"/>
+      <c r="EOR12" s="1"/>
+      <c r="EOV12" s="1"/>
+      <c r="EOZ12" s="1"/>
+      <c r="EPD12" s="1"/>
+      <c r="EPH12" s="1"/>
+      <c r="EPL12" s="1"/>
+      <c r="EPP12" s="1"/>
+      <c r="EPT12" s="1"/>
+      <c r="EPX12" s="1"/>
+      <c r="EQB12" s="1"/>
+      <c r="EQF12" s="1"/>
+      <c r="EQJ12" s="1"/>
+      <c r="EQN12" s="1"/>
+      <c r="EQR12" s="1"/>
+      <c r="EQV12" s="1"/>
+      <c r="EQZ12" s="1"/>
+      <c r="ERD12" s="1"/>
+      <c r="ERH12" s="1"/>
+      <c r="ERL12" s="1"/>
+      <c r="ERP12" s="1"/>
+      <c r="ERT12" s="1"/>
+      <c r="ERX12" s="1"/>
+      <c r="ESB12" s="1"/>
+      <c r="ESF12" s="1"/>
+      <c r="ESJ12" s="1"/>
+      <c r="ESN12" s="1"/>
+      <c r="ESR12" s="1"/>
+      <c r="ESV12" s="1"/>
+      <c r="ESZ12" s="1"/>
+      <c r="ETD12" s="1"/>
+      <c r="ETH12" s="1"/>
+      <c r="ETL12" s="1"/>
+      <c r="ETP12" s="1"/>
+      <c r="ETT12" s="1"/>
+      <c r="ETX12" s="1"/>
+      <c r="EUB12" s="1"/>
+      <c r="EUF12" s="1"/>
+      <c r="EUJ12" s="1"/>
+      <c r="EUN12" s="1"/>
+      <c r="EUR12" s="1"/>
+      <c r="EUV12" s="1"/>
+      <c r="EUZ12" s="1"/>
+      <c r="EVD12" s="1"/>
+      <c r="EVH12" s="1"/>
+      <c r="EVL12" s="1"/>
+      <c r="EVP12" s="1"/>
+      <c r="EVT12" s="1"/>
+      <c r="EVX12" s="1"/>
+      <c r="EWB12" s="1"/>
+      <c r="EWF12" s="1"/>
+      <c r="EWJ12" s="1"/>
+      <c r="EWN12" s="1"/>
+      <c r="EWR12" s="1"/>
+      <c r="EWV12" s="1"/>
+      <c r="EWZ12" s="1"/>
+      <c r="EXD12" s="1"/>
+      <c r="EXH12" s="1"/>
+      <c r="EXL12" s="1"/>
+      <c r="EXP12" s="1"/>
+      <c r="EXT12" s="1"/>
+      <c r="EXX12" s="1"/>
+      <c r="EYB12" s="1"/>
+      <c r="EYF12" s="1"/>
+      <c r="EYJ12" s="1"/>
+      <c r="EYN12" s="1"/>
+      <c r="EYR12" s="1"/>
+      <c r="EYV12" s="1"/>
+      <c r="EYZ12" s="1"/>
+      <c r="EZD12" s="1"/>
+      <c r="EZH12" s="1"/>
+      <c r="EZL12" s="1"/>
+      <c r="EZP12" s="1"/>
+      <c r="EZT12" s="1"/>
+      <c r="EZX12" s="1"/>
+      <c r="FAB12" s="1"/>
+      <c r="FAF12" s="1"/>
+      <c r="FAJ12" s="1"/>
+      <c r="FAN12" s="1"/>
+      <c r="FAR12" s="1"/>
+      <c r="FAV12" s="1"/>
+      <c r="FAZ12" s="1"/>
+      <c r="FBD12" s="1"/>
+      <c r="FBH12" s="1"/>
+      <c r="FBL12" s="1"/>
+      <c r="FBP12" s="1"/>
+      <c r="FBT12" s="1"/>
+      <c r="FBX12" s="1"/>
+      <c r="FCB12" s="1"/>
+      <c r="FCF12" s="1"/>
+      <c r="FCJ12" s="1"/>
+      <c r="FCN12" s="1"/>
+      <c r="FCR12" s="1"/>
+      <c r="FCV12" s="1"/>
+      <c r="FCZ12" s="1"/>
+      <c r="FDD12" s="1"/>
+      <c r="FDH12" s="1"/>
+      <c r="FDL12" s="1"/>
+      <c r="FDP12" s="1"/>
+      <c r="FDT12" s="1"/>
+      <c r="FDX12" s="1"/>
+      <c r="FEB12" s="1"/>
+      <c r="FEF12" s="1"/>
+      <c r="FEJ12" s="1"/>
+      <c r="FEN12" s="1"/>
+      <c r="FER12" s="1"/>
+      <c r="FEV12" s="1"/>
+      <c r="FEZ12" s="1"/>
+      <c r="FFD12" s="1"/>
+      <c r="FFH12" s="1"/>
+      <c r="FFL12" s="1"/>
+      <c r="FFP12" s="1"/>
+      <c r="FFT12" s="1"/>
+      <c r="FFX12" s="1"/>
+      <c r="FGB12" s="1"/>
+      <c r="FGF12" s="1"/>
+      <c r="FGJ12" s="1"/>
+      <c r="FGN12" s="1"/>
+      <c r="FGR12" s="1"/>
+      <c r="FGV12" s="1"/>
+      <c r="FGZ12" s="1"/>
+      <c r="FHD12" s="1"/>
+      <c r="FHH12" s="1"/>
+      <c r="FHL12" s="1"/>
+      <c r="FHP12" s="1"/>
+      <c r="FHT12" s="1"/>
+      <c r="FHX12" s="1"/>
+      <c r="FIB12" s="1"/>
+      <c r="FIF12" s="1"/>
+      <c r="FIJ12" s="1"/>
+      <c r="FIN12" s="1"/>
+      <c r="FIR12" s="1"/>
+      <c r="FIV12" s="1"/>
+      <c r="FIZ12" s="1"/>
+      <c r="FJD12" s="1"/>
+      <c r="FJH12" s="1"/>
+      <c r="FJL12" s="1"/>
+      <c r="FJP12" s="1"/>
+      <c r="FJT12" s="1"/>
+      <c r="FJX12" s="1"/>
+      <c r="FKB12" s="1"/>
+      <c r="FKF12" s="1"/>
+      <c r="FKJ12" s="1"/>
+      <c r="FKN12" s="1"/>
+      <c r="FKR12" s="1"/>
+      <c r="FKV12" s="1"/>
+      <c r="FKZ12" s="1"/>
+      <c r="FLD12" s="1"/>
+      <c r="FLH12" s="1"/>
+      <c r="FLL12" s="1"/>
+      <c r="FLP12" s="1"/>
+      <c r="FLT12" s="1"/>
+      <c r="FLX12" s="1"/>
+      <c r="FMB12" s="1"/>
+      <c r="FMF12" s="1"/>
+      <c r="FMJ12" s="1"/>
+      <c r="FMN12" s="1"/>
+      <c r="FMR12" s="1"/>
+      <c r="FMV12" s="1"/>
+      <c r="FMZ12" s="1"/>
+      <c r="FND12" s="1"/>
+      <c r="FNH12" s="1"/>
+      <c r="FNL12" s="1"/>
+      <c r="FNP12" s="1"/>
+      <c r="FNT12" s="1"/>
+      <c r="FNX12" s="1"/>
+      <c r="FOB12" s="1"/>
+      <c r="FOF12" s="1"/>
+      <c r="FOJ12" s="1"/>
+      <c r="FON12" s="1"/>
+      <c r="FOR12" s="1"/>
+      <c r="FOV12" s="1"/>
+      <c r="FOZ12" s="1"/>
+      <c r="FPD12" s="1"/>
+      <c r="FPH12" s="1"/>
+      <c r="FPL12" s="1"/>
+      <c r="FPP12" s="1"/>
+      <c r="FPT12" s="1"/>
+      <c r="FPX12" s="1"/>
+      <c r="FQB12" s="1"/>
+      <c r="FQF12" s="1"/>
+      <c r="FQJ12" s="1"/>
+      <c r="FQN12" s="1"/>
+      <c r="FQR12" s="1"/>
+      <c r="FQV12" s="1"/>
+      <c r="FQZ12" s="1"/>
+      <c r="FRD12" s="1"/>
+      <c r="FRH12" s="1"/>
+      <c r="FRL12" s="1"/>
+      <c r="FRP12" s="1"/>
+      <c r="FRT12" s="1"/>
+      <c r="FRX12" s="1"/>
+      <c r="FSB12" s="1"/>
+      <c r="FSF12" s="1"/>
+      <c r="FSJ12" s="1"/>
+      <c r="FSN12" s="1"/>
+      <c r="FSR12" s="1"/>
+      <c r="FSV12" s="1"/>
+      <c r="FSZ12" s="1"/>
+      <c r="FTD12" s="1"/>
+      <c r="FTH12" s="1"/>
+      <c r="FTL12" s="1"/>
+      <c r="FTP12" s="1"/>
+      <c r="FTT12" s="1"/>
+      <c r="FTX12" s="1"/>
+      <c r="FUB12" s="1"/>
+      <c r="FUF12" s="1"/>
+      <c r="FUJ12" s="1"/>
+      <c r="FUN12" s="1"/>
+      <c r="FUR12" s="1"/>
+      <c r="FUV12" s="1"/>
+      <c r="FUZ12" s="1"/>
+      <c r="FVD12" s="1"/>
+      <c r="FVH12" s="1"/>
+      <c r="FVL12" s="1"/>
+      <c r="FVP12" s="1"/>
+      <c r="FVT12" s="1"/>
+      <c r="FVX12" s="1"/>
+      <c r="FWB12" s="1"/>
+      <c r="FWF12" s="1"/>
+      <c r="FWJ12" s="1"/>
+      <c r="FWN12" s="1"/>
+      <c r="FWR12" s="1"/>
+      <c r="FWV12" s="1"/>
+      <c r="FWZ12" s="1"/>
+      <c r="FXD12" s="1"/>
+      <c r="FXH12" s="1"/>
+      <c r="FXL12" s="1"/>
+      <c r="FXP12" s="1"/>
+      <c r="FXT12" s="1"/>
+      <c r="FXX12" s="1"/>
+      <c r="FYB12" s="1"/>
+      <c r="FYF12" s="1"/>
+      <c r="FYJ12" s="1"/>
+      <c r="FYN12" s="1"/>
+      <c r="FYR12" s="1"/>
+      <c r="FYV12" s="1"/>
+      <c r="FYZ12" s="1"/>
+      <c r="FZD12" s="1"/>
+      <c r="FZH12" s="1"/>
+      <c r="FZL12" s="1"/>
+      <c r="FZP12" s="1"/>
+      <c r="FZT12" s="1"/>
+      <c r="FZX12" s="1"/>
+      <c r="GAB12" s="1"/>
+      <c r="GAF12" s="1"/>
+      <c r="GAJ12" s="1"/>
+      <c r="GAN12" s="1"/>
+      <c r="GAR12" s="1"/>
+      <c r="GAV12" s="1"/>
+      <c r="GAZ12" s="1"/>
+      <c r="GBD12" s="1"/>
+      <c r="GBH12" s="1"/>
+      <c r="GBL12" s="1"/>
+      <c r="GBP12" s="1"/>
+      <c r="GBT12" s="1"/>
+      <c r="GBX12" s="1"/>
+      <c r="GCB12" s="1"/>
+      <c r="GCF12" s="1"/>
+      <c r="GCJ12" s="1"/>
+      <c r="GCN12" s="1"/>
+      <c r="GCR12" s="1"/>
+      <c r="GCV12" s="1"/>
+      <c r="GCZ12" s="1"/>
+      <c r="GDD12" s="1"/>
+      <c r="GDH12" s="1"/>
+      <c r="GDL12" s="1"/>
+      <c r="GDP12" s="1"/>
+      <c r="GDT12" s="1"/>
+      <c r="GDX12" s="1"/>
+      <c r="GEB12" s="1"/>
+      <c r="GEF12" s="1"/>
+      <c r="GEJ12" s="1"/>
+      <c r="GEN12" s="1"/>
+      <c r="GER12" s="1"/>
+      <c r="GEV12" s="1"/>
+      <c r="GEZ12" s="1"/>
+      <c r="GFD12" s="1"/>
+      <c r="GFH12" s="1"/>
+      <c r="GFL12" s="1"/>
+      <c r="GFP12" s="1"/>
+      <c r="GFT12" s="1"/>
+      <c r="GFX12" s="1"/>
+      <c r="GGB12" s="1"/>
+      <c r="GGF12" s="1"/>
+      <c r="GGJ12" s="1"/>
+      <c r="GGN12" s="1"/>
+      <c r="GGR12" s="1"/>
+      <c r="GGV12" s="1"/>
+      <c r="GGZ12" s="1"/>
+      <c r="GHD12" s="1"/>
+      <c r="GHH12" s="1"/>
+      <c r="GHL12" s="1"/>
+      <c r="GHP12" s="1"/>
+      <c r="GHT12" s="1"/>
+      <c r="GHX12" s="1"/>
+      <c r="GIB12" s="1"/>
+      <c r="GIF12" s="1"/>
+      <c r="GIJ12" s="1"/>
+      <c r="GIN12" s="1"/>
+      <c r="GIR12" s="1"/>
+      <c r="GIV12" s="1"/>
+      <c r="GIZ12" s="1"/>
+      <c r="GJD12" s="1"/>
+      <c r="GJH12" s="1"/>
+      <c r="GJL12" s="1"/>
+      <c r="GJP12" s="1"/>
+      <c r="GJT12" s="1"/>
+      <c r="GJX12" s="1"/>
+      <c r="GKB12" s="1"/>
+      <c r="GKF12" s="1"/>
+      <c r="GKJ12" s="1"/>
+      <c r="GKN12" s="1"/>
+      <c r="GKR12" s="1"/>
+      <c r="GKV12" s="1"/>
+      <c r="GKZ12" s="1"/>
+      <c r="GLD12" s="1"/>
+      <c r="GLH12" s="1"/>
+      <c r="GLL12" s="1"/>
+      <c r="GLP12" s="1"/>
+      <c r="GLT12" s="1"/>
+      <c r="GLX12" s="1"/>
+      <c r="GMB12" s="1"/>
+      <c r="GMF12" s="1"/>
+      <c r="GMJ12" s="1"/>
+      <c r="GMN12" s="1"/>
+      <c r="GMR12" s="1"/>
+      <c r="GMV12" s="1"/>
+      <c r="GMZ12" s="1"/>
+      <c r="GND12" s="1"/>
+      <c r="GNH12" s="1"/>
+      <c r="GNL12" s="1"/>
+      <c r="GNP12" s="1"/>
+      <c r="GNT12" s="1"/>
+      <c r="GNX12" s="1"/>
+      <c r="GOB12" s="1"/>
+      <c r="GOF12" s="1"/>
+      <c r="GOJ12" s="1"/>
+      <c r="GON12" s="1"/>
+      <c r="GOR12" s="1"/>
+      <c r="GOV12" s="1"/>
+      <c r="GOZ12" s="1"/>
+      <c r="GPD12" s="1"/>
+      <c r="GPH12" s="1"/>
+      <c r="GPL12" s="1"/>
+      <c r="GPP12" s="1"/>
+      <c r="GPT12" s="1"/>
+      <c r="GPX12" s="1"/>
+      <c r="GQB12" s="1"/>
+      <c r="GQF12" s="1"/>
+      <c r="GQJ12" s="1"/>
+      <c r="GQN12" s="1"/>
+      <c r="GQR12" s="1"/>
+      <c r="GQV12" s="1"/>
+      <c r="GQZ12" s="1"/>
+      <c r="GRD12" s="1"/>
+      <c r="GRH12" s="1"/>
+      <c r="GRL12" s="1"/>
+      <c r="GRP12" s="1"/>
+      <c r="GRT12" s="1"/>
+      <c r="GRX12" s="1"/>
+      <c r="GSB12" s="1"/>
+      <c r="GSF12" s="1"/>
+      <c r="GSJ12" s="1"/>
+      <c r="GSN12" s="1"/>
+      <c r="GSR12" s="1"/>
+      <c r="GSV12" s="1"/>
+      <c r="GSZ12" s="1"/>
+      <c r="GTD12" s="1"/>
+      <c r="GTH12" s="1"/>
+      <c r="GTL12" s="1"/>
+      <c r="GTP12" s="1"/>
+      <c r="GTT12" s="1"/>
+      <c r="GTX12" s="1"/>
+      <c r="GUB12" s="1"/>
+      <c r="GUF12" s="1"/>
+      <c r="GUJ12" s="1"/>
+      <c r="GUN12" s="1"/>
+      <c r="GUR12" s="1"/>
+      <c r="GUV12" s="1"/>
+      <c r="GUZ12" s="1"/>
+      <c r="GVD12" s="1"/>
+      <c r="GVH12" s="1"/>
+      <c r="GVL12" s="1"/>
+      <c r="GVP12" s="1"/>
+      <c r="GVT12" s="1"/>
+      <c r="GVX12" s="1"/>
+      <c r="GWB12" s="1"/>
+      <c r="GWF12" s="1"/>
+      <c r="GWJ12" s="1"/>
+      <c r="GWN12" s="1"/>
+      <c r="GWR12" s="1"/>
+      <c r="GWV12" s="1"/>
+      <c r="GWZ12" s="1"/>
+      <c r="GXD12" s="1"/>
+      <c r="GXH12" s="1"/>
+      <c r="GXL12" s="1"/>
+      <c r="GXP12" s="1"/>
+      <c r="GXT12" s="1"/>
+      <c r="GXX12" s="1"/>
+      <c r="GYB12" s="1"/>
+      <c r="GYF12" s="1"/>
+      <c r="GYJ12" s="1"/>
+      <c r="GYN12" s="1"/>
+      <c r="GYR12" s="1"/>
+      <c r="GYV12" s="1"/>
+      <c r="GYZ12" s="1"/>
+      <c r="GZD12" s="1"/>
+      <c r="GZH12" s="1"/>
+      <c r="GZL12" s="1"/>
+      <c r="GZP12" s="1"/>
+      <c r="GZT12" s="1"/>
+      <c r="GZX12" s="1"/>
+      <c r="HAB12" s="1"/>
+      <c r="HAF12" s="1"/>
+      <c r="HAJ12" s="1"/>
+      <c r="HAN12" s="1"/>
+      <c r="HAR12" s="1"/>
+      <c r="HAV12" s="1"/>
+      <c r="HAZ12" s="1"/>
+      <c r="HBD12" s="1"/>
+      <c r="HBH12" s="1"/>
+      <c r="HBL12" s="1"/>
+      <c r="HBP12" s="1"/>
+      <c r="HBT12" s="1"/>
+      <c r="HBX12" s="1"/>
+      <c r="HCB12" s="1"/>
+      <c r="HCF12" s="1"/>
+      <c r="HCJ12" s="1"/>
+      <c r="HCN12" s="1"/>
+      <c r="HCR12" s="1"/>
+      <c r="HCV12" s="1"/>
+      <c r="HCZ12" s="1"/>
+      <c r="HDD12" s="1"/>
+      <c r="HDH12" s="1"/>
+      <c r="HDL12" s="1"/>
+      <c r="HDP12" s="1"/>
+      <c r="HDT12" s="1"/>
+      <c r="HDX12" s="1"/>
+      <c r="HEB12" s="1"/>
+      <c r="HEF12" s="1"/>
+      <c r="HEJ12" s="1"/>
+      <c r="HEN12" s="1"/>
+      <c r="HER12" s="1"/>
+      <c r="HEV12" s="1"/>
+      <c r="HEZ12" s="1"/>
+      <c r="HFD12" s="1"/>
+      <c r="HFH12" s="1"/>
+      <c r="HFL12" s="1"/>
+      <c r="HFP12" s="1"/>
+      <c r="HFT12" s="1"/>
+      <c r="HFX12" s="1"/>
+      <c r="HGB12" s="1"/>
+      <c r="HGF12" s="1"/>
+      <c r="HGJ12" s="1"/>
+      <c r="HGN12" s="1"/>
+      <c r="HGR12" s="1"/>
+      <c r="HGV12" s="1"/>
+      <c r="HGZ12" s="1"/>
+      <c r="HHD12" s="1"/>
+      <c r="HHH12" s="1"/>
+      <c r="HHL12" s="1"/>
+      <c r="HHP12" s="1"/>
+      <c r="HHT12" s="1"/>
+      <c r="HHX12" s="1"/>
+      <c r="HIB12" s="1"/>
+      <c r="HIF12" s="1"/>
+      <c r="HIJ12" s="1"/>
+      <c r="HIN12" s="1"/>
+      <c r="HIR12" s="1"/>
+      <c r="HIV12" s="1"/>
+      <c r="HIZ12" s="1"/>
+      <c r="HJD12" s="1"/>
+      <c r="HJH12" s="1"/>
+      <c r="HJL12" s="1"/>
+      <c r="HJP12" s="1"/>
+      <c r="HJT12" s="1"/>
+      <c r="HJX12" s="1"/>
+      <c r="HKB12" s="1"/>
+      <c r="HKF12" s="1"/>
+      <c r="HKJ12" s="1"/>
+      <c r="HKN12" s="1"/>
+      <c r="HKR12" s="1"/>
+      <c r="HKV12" s="1"/>
+      <c r="HKZ12" s="1"/>
+      <c r="HLD12" s="1"/>
+      <c r="HLH12" s="1"/>
+      <c r="HLL12" s="1"/>
+      <c r="HLP12" s="1"/>
+      <c r="HLT12" s="1"/>
+      <c r="HLX12" s="1"/>
+      <c r="HMB12" s="1"/>
+      <c r="HMF12" s="1"/>
+      <c r="HMJ12" s="1"/>
+      <c r="HMN12" s="1"/>
+      <c r="HMR12" s="1"/>
+      <c r="HMV12" s="1"/>
+      <c r="HMZ12" s="1"/>
+      <c r="HND12" s="1"/>
+      <c r="HNH12" s="1"/>
+      <c r="HNL12" s="1"/>
+      <c r="HNP12" s="1"/>
+      <c r="HNT12" s="1"/>
+      <c r="HNX12" s="1"/>
+      <c r="HOB12" s="1"/>
+      <c r="HOF12" s="1"/>
+      <c r="HOJ12" s="1"/>
+      <c r="HON12" s="1"/>
+      <c r="HOR12" s="1"/>
+      <c r="HOV12" s="1"/>
+      <c r="HOZ12" s="1"/>
+      <c r="HPD12" s="1"/>
+      <c r="HPH12" s="1"/>
+      <c r="HPL12" s="1"/>
+      <c r="HPP12" s="1"/>
+      <c r="HPT12" s="1"/>
+      <c r="HPX12" s="1"/>
+      <c r="HQB12" s="1"/>
+      <c r="HQF12" s="1"/>
+      <c r="HQJ12" s="1"/>
+      <c r="HQN12" s="1"/>
+      <c r="HQR12" s="1"/>
+      <c r="HQV12" s="1"/>
+      <c r="HQZ12" s="1"/>
+      <c r="HRD12" s="1"/>
+      <c r="HRH12" s="1"/>
+      <c r="HRL12" s="1"/>
+      <c r="HRP12" s="1"/>
+      <c r="HRT12" s="1"/>
+      <c r="HRX12" s="1"/>
+      <c r="HSB12" s="1"/>
+      <c r="HSF12" s="1"/>
+      <c r="HSJ12" s="1"/>
+      <c r="HSN12" s="1"/>
+      <c r="HSR12" s="1"/>
+      <c r="HSV12" s="1"/>
+      <c r="HSZ12" s="1"/>
+      <c r="HTD12" s="1"/>
+      <c r="HTH12" s="1"/>
+      <c r="HTL12" s="1"/>
+      <c r="HTP12" s="1"/>
+      <c r="HTT12" s="1"/>
+      <c r="HTX12" s="1"/>
+      <c r="HUB12" s="1"/>
+      <c r="HUF12" s="1"/>
+      <c r="HUJ12" s="1"/>
+      <c r="HUN12" s="1"/>
+      <c r="HUR12" s="1"/>
+      <c r="HUV12" s="1"/>
+      <c r="HUZ12" s="1"/>
+      <c r="HVD12" s="1"/>
+      <c r="HVH12" s="1"/>
+      <c r="HVL12" s="1"/>
+      <c r="HVP12" s="1"/>
+      <c r="HVT12" s="1"/>
+      <c r="HVX12" s="1"/>
+      <c r="HWB12" s="1"/>
+      <c r="HWF12" s="1"/>
+      <c r="HWJ12" s="1"/>
+      <c r="HWN12" s="1"/>
+      <c r="HWR12" s="1"/>
+      <c r="HWV12" s="1"/>
+      <c r="HWZ12" s="1"/>
+      <c r="HXD12" s="1"/>
+      <c r="HXH12" s="1"/>
+      <c r="HXL12" s="1"/>
+      <c r="HXP12" s="1"/>
+      <c r="HXT12" s="1"/>
+      <c r="HXX12" s="1"/>
+      <c r="HYB12" s="1"/>
+      <c r="HYF12" s="1"/>
+      <c r="HYJ12" s="1"/>
+      <c r="HYN12" s="1"/>
+      <c r="HYR12" s="1"/>
+      <c r="HYV12" s="1"/>
+      <c r="HYZ12" s="1"/>
+      <c r="HZD12" s="1"/>
+      <c r="HZH12" s="1"/>
+      <c r="HZL12" s="1"/>
+      <c r="HZP12" s="1"/>
+      <c r="HZT12" s="1"/>
+      <c r="HZX12" s="1"/>
+      <c r="IAB12" s="1"/>
+      <c r="IAF12" s="1"/>
+      <c r="IAJ12" s="1"/>
+      <c r="IAN12" s="1"/>
+      <c r="IAR12" s="1"/>
+      <c r="IAV12" s="1"/>
+      <c r="IAZ12" s="1"/>
+      <c r="IBD12" s="1"/>
+      <c r="IBH12" s="1"/>
+      <c r="IBL12" s="1"/>
+      <c r="IBP12" s="1"/>
+      <c r="IBT12" s="1"/>
+      <c r="IBX12" s="1"/>
+      <c r="ICB12" s="1"/>
+      <c r="ICF12" s="1"/>
+      <c r="ICJ12" s="1"/>
+      <c r="ICN12" s="1"/>
+      <c r="ICR12" s="1"/>
+      <c r="ICV12" s="1"/>
+      <c r="ICZ12" s="1"/>
+      <c r="IDD12" s="1"/>
+      <c r="IDH12" s="1"/>
+      <c r="IDL12" s="1"/>
+      <c r="IDP12" s="1"/>
+      <c r="IDT12" s="1"/>
+      <c r="IDX12" s="1"/>
+      <c r="IEB12" s="1"/>
+      <c r="IEF12" s="1"/>
+      <c r="IEJ12" s="1"/>
+      <c r="IEN12" s="1"/>
+      <c r="IER12" s="1"/>
+      <c r="IEV12" s="1"/>
+      <c r="IEZ12" s="1"/>
+      <c r="IFD12" s="1"/>
+      <c r="IFH12" s="1"/>
+      <c r="IFL12" s="1"/>
+      <c r="IFP12" s="1"/>
+      <c r="IFT12" s="1"/>
+      <c r="IFX12" s="1"/>
+      <c r="IGB12" s="1"/>
+      <c r="IGF12" s="1"/>
+      <c r="IGJ12" s="1"/>
+      <c r="IGN12" s="1"/>
+      <c r="IGR12" s="1"/>
+      <c r="IGV12" s="1"/>
+      <c r="IGZ12" s="1"/>
+      <c r="IHD12" s="1"/>
+      <c r="IHH12" s="1"/>
+      <c r="IHL12" s="1"/>
+      <c r="IHP12" s="1"/>
+      <c r="IHT12" s="1"/>
+      <c r="IHX12" s="1"/>
+      <c r="IIB12" s="1"/>
+      <c r="IIF12" s="1"/>
+      <c r="IIJ12" s="1"/>
+      <c r="IIN12" s="1"/>
+      <c r="IIR12" s="1"/>
+      <c r="IIV12" s="1"/>
+      <c r="IIZ12" s="1"/>
+      <c r="IJD12" s="1"/>
+      <c r="IJH12" s="1"/>
+      <c r="IJL12" s="1"/>
+      <c r="IJP12" s="1"/>
+      <c r="IJT12" s="1"/>
+      <c r="IJX12" s="1"/>
+      <c r="IKB12" s="1"/>
+      <c r="IKF12" s="1"/>
+      <c r="IKJ12" s="1"/>
+      <c r="IKN12" s="1"/>
+      <c r="IKR12" s="1"/>
+      <c r="IKV12" s="1"/>
+      <c r="IKZ12" s="1"/>
+      <c r="ILD12" s="1"/>
+      <c r="ILH12" s="1"/>
+      <c r="ILL12" s="1"/>
+      <c r="ILP12" s="1"/>
+      <c r="ILT12" s="1"/>
+      <c r="ILX12" s="1"/>
+      <c r="IMB12" s="1"/>
+      <c r="IMF12" s="1"/>
+      <c r="IMJ12" s="1"/>
+      <c r="IMN12" s="1"/>
+      <c r="IMR12" s="1"/>
+      <c r="IMV12" s="1"/>
+      <c r="IMZ12" s="1"/>
+      <c r="IND12" s="1"/>
+      <c r="INH12" s="1"/>
+      <c r="INL12" s="1"/>
+      <c r="INP12" s="1"/>
+      <c r="INT12" s="1"/>
+      <c r="INX12" s="1"/>
+      <c r="IOB12" s="1"/>
+      <c r="IOF12" s="1"/>
+      <c r="IOJ12" s="1"/>
+      <c r="ION12" s="1"/>
+      <c r="IOR12" s="1"/>
+      <c r="IOV12" s="1"/>
+      <c r="IOZ12" s="1"/>
+      <c r="IPD12" s="1"/>
+      <c r="IPH12" s="1"/>
+      <c r="IPL12" s="1"/>
+      <c r="IPP12" s="1"/>
+      <c r="IPT12" s="1"/>
+      <c r="IPX12" s="1"/>
+      <c r="IQB12" s="1"/>
+      <c r="IQF12" s="1"/>
+      <c r="IQJ12" s="1"/>
+      <c r="IQN12" s="1"/>
+      <c r="IQR12" s="1"/>
+      <c r="IQV12" s="1"/>
+      <c r="IQZ12" s="1"/>
+      <c r="IRD12" s="1"/>
+      <c r="IRH12" s="1"/>
+      <c r="IRL12" s="1"/>
+      <c r="IRP12" s="1"/>
+      <c r="IRT12" s="1"/>
+      <c r="IRX12" s="1"/>
+      <c r="ISB12" s="1"/>
+      <c r="ISF12" s="1"/>
+      <c r="ISJ12" s="1"/>
+      <c r="ISN12" s="1"/>
+      <c r="ISR12" s="1"/>
+      <c r="ISV12" s="1"/>
+      <c r="ISZ12" s="1"/>
+      <c r="ITD12" s="1"/>
+      <c r="ITH12" s="1"/>
+      <c r="ITL12" s="1"/>
+      <c r="ITP12" s="1"/>
+      <c r="ITT12" s="1"/>
+      <c r="ITX12" s="1"/>
+      <c r="IUB12" s="1"/>
+      <c r="IUF12" s="1"/>
+      <c r="IUJ12" s="1"/>
+      <c r="IUN12" s="1"/>
+      <c r="IUR12" s="1"/>
+      <c r="IUV12" s="1"/>
+      <c r="IUZ12" s="1"/>
+      <c r="IVD12" s="1"/>
+      <c r="IVH12" s="1"/>
+      <c r="IVL12" s="1"/>
+      <c r="IVP12" s="1"/>
+      <c r="IVT12" s="1"/>
+      <c r="IVX12" s="1"/>
+      <c r="IWB12" s="1"/>
+      <c r="IWF12" s="1"/>
+      <c r="IWJ12" s="1"/>
+      <c r="IWN12" s="1"/>
+      <c r="IWR12" s="1"/>
+      <c r="IWV12" s="1"/>
+      <c r="IWZ12" s="1"/>
+      <c r="IXD12" s="1"/>
+      <c r="IXH12" s="1"/>
+      <c r="IXL12" s="1"/>
+      <c r="IXP12" s="1"/>
+      <c r="IXT12" s="1"/>
+      <c r="IXX12" s="1"/>
+      <c r="IYB12" s="1"/>
+      <c r="IYF12" s="1"/>
+      <c r="IYJ12" s="1"/>
+      <c r="IYN12" s="1"/>
+      <c r="IYR12" s="1"/>
+      <c r="IYV12" s="1"/>
+      <c r="IYZ12" s="1"/>
+      <c r="IZD12" s="1"/>
+      <c r="IZH12" s="1"/>
+      <c r="IZL12" s="1"/>
+      <c r="IZP12" s="1"/>
+      <c r="IZT12" s="1"/>
+      <c r="IZX12" s="1"/>
+      <c r="JAB12" s="1"/>
+      <c r="JAF12" s="1"/>
+      <c r="JAJ12" s="1"/>
+      <c r="JAN12" s="1"/>
+      <c r="JAR12" s="1"/>
+      <c r="JAV12" s="1"/>
+      <c r="JAZ12" s="1"/>
+      <c r="JBD12" s="1"/>
+      <c r="JBH12" s="1"/>
+      <c r="JBL12" s="1"/>
+      <c r="JBP12" s="1"/>
+      <c r="JBT12" s="1"/>
+      <c r="JBX12" s="1"/>
+      <c r="JCB12" s="1"/>
+      <c r="JCF12" s="1"/>
+      <c r="JCJ12" s="1"/>
+      <c r="JCN12" s="1"/>
+      <c r="JCR12" s="1"/>
+      <c r="JCV12" s="1"/>
+      <c r="JCZ12" s="1"/>
+      <c r="JDD12" s="1"/>
+      <c r="JDH12" s="1"/>
+      <c r="JDL12" s="1"/>
+      <c r="JDP12" s="1"/>
+      <c r="JDT12" s="1"/>
+      <c r="JDX12" s="1"/>
+      <c r="JEB12" s="1"/>
+      <c r="JEF12" s="1"/>
+      <c r="JEJ12" s="1"/>
+      <c r="JEN12" s="1"/>
+      <c r="JER12" s="1"/>
+      <c r="JEV12" s="1"/>
+      <c r="JEZ12" s="1"/>
+      <c r="JFD12" s="1"/>
+      <c r="JFH12" s="1"/>
+      <c r="JFL12" s="1"/>
+      <c r="JFP12" s="1"/>
+      <c r="JFT12" s="1"/>
+      <c r="JFX12" s="1"/>
+      <c r="JGB12" s="1"/>
+      <c r="JGF12" s="1"/>
+      <c r="JGJ12" s="1"/>
+      <c r="JGN12" s="1"/>
+      <c r="JGR12" s="1"/>
+      <c r="JGV12" s="1"/>
+      <c r="JGZ12" s="1"/>
+      <c r="JHD12" s="1"/>
+      <c r="JHH12" s="1"/>
+      <c r="JHL12" s="1"/>
+      <c r="JHP12" s="1"/>
+      <c r="JHT12" s="1"/>
+      <c r="JHX12" s="1"/>
+      <c r="JIB12" s="1"/>
+      <c r="JIF12" s="1"/>
+      <c r="JIJ12" s="1"/>
+      <c r="JIN12" s="1"/>
+      <c r="JIR12" s="1"/>
+      <c r="JIV12" s="1"/>
+      <c r="JIZ12" s="1"/>
+      <c r="JJD12" s="1"/>
+      <c r="JJH12" s="1"/>
+      <c r="JJL12" s="1"/>
+      <c r="JJP12" s="1"/>
+      <c r="JJT12" s="1"/>
+      <c r="JJX12" s="1"/>
+      <c r="JKB12" s="1"/>
+      <c r="JKF12" s="1"/>
+      <c r="JKJ12" s="1"/>
+      <c r="JKN12" s="1"/>
+      <c r="JKR12" s="1"/>
+      <c r="JKV12" s="1"/>
+      <c r="JKZ12" s="1"/>
+      <c r="JLD12" s="1"/>
+      <c r="JLH12" s="1"/>
+      <c r="JLL12" s="1"/>
+      <c r="JLP12" s="1"/>
+      <c r="JLT12" s="1"/>
+      <c r="JLX12" s="1"/>
+      <c r="JMB12" s="1"/>
+      <c r="JMF12" s="1"/>
+      <c r="JMJ12" s="1"/>
+      <c r="JMN12" s="1"/>
+      <c r="JMR12" s="1"/>
+      <c r="JMV12" s="1"/>
+      <c r="JMZ12" s="1"/>
+      <c r="JND12" s="1"/>
+      <c r="JNH12" s="1"/>
+      <c r="JNL12" s="1"/>
+      <c r="JNP12" s="1"/>
+      <c r="JNT12" s="1"/>
+      <c r="JNX12" s="1"/>
+      <c r="JOB12" s="1"/>
+      <c r="JOF12" s="1"/>
+      <c r="JOJ12" s="1"/>
+      <c r="JON12" s="1"/>
+      <c r="JOR12" s="1"/>
+      <c r="JOV12" s="1"/>
+      <c r="JOZ12" s="1"/>
+      <c r="JPD12" s="1"/>
+      <c r="JPH12" s="1"/>
+      <c r="JPL12" s="1"/>
+      <c r="JPP12" s="1"/>
+      <c r="JPT12" s="1"/>
+      <c r="JPX12" s="1"/>
+      <c r="JQB12" s="1"/>
+      <c r="JQF12" s="1"/>
+      <c r="JQJ12" s="1"/>
+      <c r="JQN12" s="1"/>
+      <c r="JQR12" s="1"/>
+      <c r="JQV12" s="1"/>
+      <c r="JQZ12" s="1"/>
+      <c r="JRD12" s="1"/>
+      <c r="JRH12" s="1"/>
+      <c r="JRL12" s="1"/>
+      <c r="JRP12" s="1"/>
+      <c r="JRT12" s="1"/>
+      <c r="JRX12" s="1"/>
+      <c r="JSB12" s="1"/>
+      <c r="JSF12" s="1"/>
+      <c r="JSJ12" s="1"/>
+      <c r="JSN12" s="1"/>
+      <c r="JSR12" s="1"/>
+      <c r="JSV12" s="1"/>
+      <c r="JSZ12" s="1"/>
+      <c r="JTD12" s="1"/>
+      <c r="JTH12" s="1"/>
+      <c r="JTL12" s="1"/>
+      <c r="JTP12" s="1"/>
+      <c r="JTT12" s="1"/>
+      <c r="JTX12" s="1"/>
+      <c r="JUB12" s="1"/>
+      <c r="JUF12" s="1"/>
+      <c r="JUJ12" s="1"/>
+      <c r="JUN12" s="1"/>
+      <c r="JUR12" s="1"/>
+      <c r="JUV12" s="1"/>
+      <c r="JUZ12" s="1"/>
+      <c r="JVD12" s="1"/>
+      <c r="JVH12" s="1"/>
+      <c r="JVL12" s="1"/>
+      <c r="JVP12" s="1"/>
+      <c r="JVT12" s="1"/>
+      <c r="JVX12" s="1"/>
+      <c r="JWB12" s="1"/>
+      <c r="JWF12" s="1"/>
+      <c r="JWJ12" s="1"/>
+      <c r="JWN12" s="1"/>
+      <c r="JWR12" s="1"/>
+      <c r="JWV12" s="1"/>
+      <c r="JWZ12" s="1"/>
+      <c r="JXD12" s="1"/>
+      <c r="JXH12" s="1"/>
+      <c r="JXL12" s="1"/>
+      <c r="JXP12" s="1"/>
+      <c r="JXT12" s="1"/>
+      <c r="JXX12" s="1"/>
+      <c r="JYB12" s="1"/>
+      <c r="JYF12" s="1"/>
+      <c r="JYJ12" s="1"/>
+      <c r="JYN12" s="1"/>
+      <c r="JYR12" s="1"/>
+      <c r="JYV12" s="1"/>
+      <c r="JYZ12" s="1"/>
+      <c r="JZD12" s="1"/>
+      <c r="JZH12" s="1"/>
+      <c r="JZL12" s="1"/>
+      <c r="JZP12" s="1"/>
+      <c r="JZT12" s="1"/>
+      <c r="JZX12" s="1"/>
+      <c r="KAB12" s="1"/>
+      <c r="KAF12" s="1"/>
+      <c r="KAJ12" s="1"/>
+      <c r="KAN12" s="1"/>
+      <c r="KAR12" s="1"/>
+      <c r="KAV12" s="1"/>
+      <c r="KAZ12" s="1"/>
+      <c r="KBD12" s="1"/>
+      <c r="KBH12" s="1"/>
+      <c r="KBL12" s="1"/>
+      <c r="KBP12" s="1"/>
+      <c r="KBT12" s="1"/>
+      <c r="KBX12" s="1"/>
+      <c r="KCB12" s="1"/>
+      <c r="KCF12" s="1"/>
+      <c r="KCJ12" s="1"/>
+      <c r="KCN12" s="1"/>
+      <c r="KCR12" s="1"/>
+      <c r="KCV12" s="1"/>
+      <c r="KCZ12" s="1"/>
+      <c r="KDD12" s="1"/>
+      <c r="KDH12" s="1"/>
+      <c r="KDL12" s="1"/>
+      <c r="KDP12" s="1"/>
+      <c r="KDT12" s="1"/>
+      <c r="KDX12" s="1"/>
+      <c r="KEB12" s="1"/>
+      <c r="KEF12" s="1"/>
+      <c r="KEJ12" s="1"/>
+      <c r="KEN12" s="1"/>
+      <c r="KER12" s="1"/>
+      <c r="KEV12" s="1"/>
+      <c r="KEZ12" s="1"/>
+      <c r="KFD12" s="1"/>
+      <c r="KFH12" s="1"/>
+      <c r="KFL12" s="1"/>
+      <c r="KFP12" s="1"/>
+      <c r="KFT12" s="1"/>
+      <c r="KFX12" s="1"/>
+      <c r="KGB12" s="1"/>
+      <c r="KGF12" s="1"/>
+      <c r="KGJ12" s="1"/>
+      <c r="KGN12" s="1"/>
+      <c r="KGR12" s="1"/>
+      <c r="KGV12" s="1"/>
+      <c r="KGZ12" s="1"/>
+      <c r="KHD12" s="1"/>
+      <c r="KHH12" s="1"/>
+      <c r="KHL12" s="1"/>
+      <c r="KHP12" s="1"/>
+      <c r="KHT12" s="1"/>
+      <c r="KHX12" s="1"/>
+      <c r="KIB12" s="1"/>
+      <c r="KIF12" s="1"/>
+      <c r="KIJ12" s="1"/>
+      <c r="KIN12" s="1"/>
+      <c r="KIR12" s="1"/>
+      <c r="KIV12" s="1"/>
+      <c r="KIZ12" s="1"/>
+      <c r="KJD12" s="1"/>
+      <c r="KJH12" s="1"/>
+      <c r="KJL12" s="1"/>
+      <c r="KJP12" s="1"/>
+      <c r="KJT12" s="1"/>
+      <c r="KJX12" s="1"/>
+      <c r="KKB12" s="1"/>
+      <c r="KKF12" s="1"/>
+      <c r="KKJ12" s="1"/>
+      <c r="KKN12" s="1"/>
+      <c r="KKR12" s="1"/>
+      <c r="KKV12" s="1"/>
+      <c r="KKZ12" s="1"/>
+      <c r="KLD12" s="1"/>
+      <c r="KLH12" s="1"/>
+      <c r="KLL12" s="1"/>
+      <c r="KLP12" s="1"/>
+      <c r="KLT12" s="1"/>
+      <c r="KLX12" s="1"/>
+      <c r="KMB12" s="1"/>
+      <c r="KMF12" s="1"/>
+      <c r="KMJ12" s="1"/>
+      <c r="KMN12" s="1"/>
+      <c r="KMR12" s="1"/>
+      <c r="KMV12" s="1"/>
+      <c r="KMZ12" s="1"/>
+      <c r="KND12" s="1"/>
+      <c r="KNH12" s="1"/>
+      <c r="KNL12" s="1"/>
+      <c r="KNP12" s="1"/>
+      <c r="KNT12" s="1"/>
+      <c r="KNX12" s="1"/>
+      <c r="KOB12" s="1"/>
+      <c r="KOF12" s="1"/>
+      <c r="KOJ12" s="1"/>
+      <c r="KON12" s="1"/>
+      <c r="KOR12" s="1"/>
+      <c r="KOV12" s="1"/>
+      <c r="KOZ12" s="1"/>
+      <c r="KPD12" s="1"/>
+      <c r="KPH12" s="1"/>
+      <c r="KPL12" s="1"/>
+      <c r="KPP12" s="1"/>
+      <c r="KPT12" s="1"/>
+      <c r="KPX12" s="1"/>
+      <c r="KQB12" s="1"/>
+      <c r="KQF12" s="1"/>
+      <c r="KQJ12" s="1"/>
+      <c r="KQN12" s="1"/>
+      <c r="KQR12" s="1"/>
+      <c r="KQV12" s="1"/>
+      <c r="KQZ12" s="1"/>
+      <c r="KRD12" s="1"/>
+      <c r="KRH12" s="1"/>
+      <c r="KRL12" s="1"/>
+      <c r="KRP12" s="1"/>
+      <c r="KRT12" s="1"/>
+      <c r="KRX12" s="1"/>
+      <c r="KSB12" s="1"/>
+      <c r="KSF12" s="1"/>
+      <c r="KSJ12" s="1"/>
+      <c r="KSN12" s="1"/>
+      <c r="KSR12" s="1"/>
+      <c r="KSV12" s="1"/>
+      <c r="KSZ12" s="1"/>
+      <c r="KTD12" s="1"/>
+      <c r="KTH12" s="1"/>
+      <c r="KTL12" s="1"/>
+      <c r="KTP12" s="1"/>
+      <c r="KTT12" s="1"/>
+      <c r="KTX12" s="1"/>
+      <c r="KUB12" s="1"/>
+      <c r="KUF12" s="1"/>
+      <c r="KUJ12" s="1"/>
+      <c r="KUN12" s="1"/>
+      <c r="KUR12" s="1"/>
+      <c r="KUV12" s="1"/>
+      <c r="KUZ12" s="1"/>
+      <c r="KVD12" s="1"/>
+      <c r="KVH12" s="1"/>
+      <c r="KVL12" s="1"/>
+      <c r="KVP12" s="1"/>
+      <c r="KVT12" s="1"/>
+      <c r="KVX12" s="1"/>
+      <c r="KWB12" s="1"/>
+      <c r="KWF12" s="1"/>
+      <c r="KWJ12" s="1"/>
+      <c r="KWN12" s="1"/>
+      <c r="KWR12" s="1"/>
+      <c r="KWV12" s="1"/>
+      <c r="KWZ12" s="1"/>
+      <c r="KXD12" s="1"/>
+      <c r="KXH12" s="1"/>
+      <c r="KXL12" s="1"/>
+      <c r="KXP12" s="1"/>
+      <c r="KXT12" s="1"/>
+      <c r="KXX12" s="1"/>
+      <c r="KYB12" s="1"/>
+      <c r="KYF12" s="1"/>
+      <c r="KYJ12" s="1"/>
+      <c r="KYN12" s="1"/>
+      <c r="KYR12" s="1"/>
+      <c r="KYV12" s="1"/>
+      <c r="KYZ12" s="1"/>
+      <c r="KZD12" s="1"/>
+      <c r="KZH12" s="1"/>
+      <c r="KZL12" s="1"/>
+      <c r="KZP12" s="1"/>
+      <c r="KZT12" s="1"/>
+      <c r="KZX12" s="1"/>
+      <c r="LAB12" s="1"/>
+      <c r="LAF12" s="1"/>
+      <c r="LAJ12" s="1"/>
+      <c r="LAN12" s="1"/>
+      <c r="LAR12" s="1"/>
+      <c r="LAV12" s="1"/>
+      <c r="LAZ12" s="1"/>
+      <c r="LBD12" s="1"/>
+      <c r="LBH12" s="1"/>
+      <c r="LBL12" s="1"/>
+      <c r="LBP12" s="1"/>
+      <c r="LBT12" s="1"/>
+      <c r="LBX12" s="1"/>
+      <c r="LCB12" s="1"/>
+      <c r="LCF12" s="1"/>
+      <c r="LCJ12" s="1"/>
+      <c r="LCN12" s="1"/>
+      <c r="LCR12" s="1"/>
+      <c r="LCV12" s="1"/>
+      <c r="LCZ12" s="1"/>
+      <c r="LDD12" s="1"/>
+      <c r="LDH12" s="1"/>
+      <c r="LDL12" s="1"/>
+      <c r="LDP12" s="1"/>
+      <c r="LDT12" s="1"/>
+      <c r="LDX12" s="1"/>
+      <c r="LEB12" s="1"/>
+      <c r="LEF12" s="1"/>
+      <c r="LEJ12" s="1"/>
+      <c r="LEN12" s="1"/>
+      <c r="LER12" s="1"/>
+      <c r="LEV12" s="1"/>
+      <c r="LEZ12" s="1"/>
+      <c r="LFD12" s="1"/>
+      <c r="LFH12" s="1"/>
+      <c r="LFL12" s="1"/>
+      <c r="LFP12" s="1"/>
+      <c r="LFT12" s="1"/>
+      <c r="LFX12" s="1"/>
+      <c r="LGB12" s="1"/>
+      <c r="LGF12" s="1"/>
+      <c r="LGJ12" s="1"/>
+      <c r="LGN12" s="1"/>
+      <c r="LGR12" s="1"/>
+      <c r="LGV12" s="1"/>
+      <c r="LGZ12" s="1"/>
+      <c r="LHD12" s="1"/>
+      <c r="LHH12" s="1"/>
+      <c r="LHL12" s="1"/>
+      <c r="LHP12" s="1"/>
+      <c r="LHT12" s="1"/>
+      <c r="LHX12" s="1"/>
+      <c r="LIB12" s="1"/>
+      <c r="LIF12" s="1"/>
+      <c r="LIJ12" s="1"/>
+      <c r="LIN12" s="1"/>
+      <c r="LIR12" s="1"/>
+      <c r="LIV12" s="1"/>
+      <c r="LIZ12" s="1"/>
+      <c r="LJD12" s="1"/>
+      <c r="LJH12" s="1"/>
+      <c r="LJL12" s="1"/>
+      <c r="LJP12" s="1"/>
+      <c r="LJT12" s="1"/>
+      <c r="LJX12" s="1"/>
+      <c r="LKB12" s="1"/>
+      <c r="LKF12" s="1"/>
+      <c r="LKJ12" s="1"/>
+      <c r="LKN12" s="1"/>
+      <c r="LKR12" s="1"/>
+      <c r="LKV12" s="1"/>
+      <c r="LKZ12" s="1"/>
+      <c r="LLD12" s="1"/>
+      <c r="LLH12" s="1"/>
+      <c r="LLL12" s="1"/>
+      <c r="LLP12" s="1"/>
+      <c r="LLT12" s="1"/>
+      <c r="LLX12" s="1"/>
+      <c r="LMB12" s="1"/>
+      <c r="LMF12" s="1"/>
+      <c r="LMJ12" s="1"/>
+      <c r="LMN12" s="1"/>
+      <c r="LMR12" s="1"/>
+      <c r="LMV12" s="1"/>
+      <c r="LMZ12" s="1"/>
+      <c r="LND12" s="1"/>
+      <c r="LNH12" s="1"/>
+      <c r="LNL12" s="1"/>
+      <c r="LNP12" s="1"/>
+      <c r="LNT12" s="1"/>
+      <c r="LNX12" s="1"/>
+      <c r="LOB12" s="1"/>
+      <c r="LOF12" s="1"/>
+      <c r="LOJ12" s="1"/>
+      <c r="LON12" s="1"/>
+      <c r="LOR12" s="1"/>
+      <c r="LOV12" s="1"/>
+      <c r="LOZ12" s="1"/>
+      <c r="LPD12" s="1"/>
+      <c r="LPH12" s="1"/>
+      <c r="LPL12" s="1"/>
+      <c r="LPP12" s="1"/>
+      <c r="LPT12" s="1"/>
+      <c r="LPX12" s="1"/>
+      <c r="LQB12" s="1"/>
+      <c r="LQF12" s="1"/>
+      <c r="LQJ12" s="1"/>
+      <c r="LQN12" s="1"/>
+      <c r="LQR12" s="1"/>
+      <c r="LQV12" s="1"/>
+      <c r="LQZ12" s="1"/>
+      <c r="LRD12" s="1"/>
+      <c r="LRH12" s="1"/>
+      <c r="LRL12" s="1"/>
+      <c r="LRP12" s="1"/>
+      <c r="LRT12" s="1"/>
+      <c r="LRX12" s="1"/>
+      <c r="LSB12" s="1"/>
+      <c r="LSF12" s="1"/>
+      <c r="LSJ12" s="1"/>
+      <c r="LSN12" s="1"/>
+      <c r="LSR12" s="1"/>
+      <c r="LSV12" s="1"/>
+      <c r="LSZ12" s="1"/>
+      <c r="LTD12" s="1"/>
+      <c r="LTH12" s="1"/>
+      <c r="LTL12" s="1"/>
+      <c r="LTP12" s="1"/>
+      <c r="LTT12" s="1"/>
+      <c r="LTX12" s="1"/>
+      <c r="LUB12" s="1"/>
+      <c r="LUF12" s="1"/>
+      <c r="LUJ12" s="1"/>
+      <c r="LUN12" s="1"/>
+      <c r="LUR12" s="1"/>
+      <c r="LUV12" s="1"/>
+      <c r="LUZ12" s="1"/>
+      <c r="LVD12" s="1"/>
+      <c r="LVH12" s="1"/>
+      <c r="LVL12" s="1"/>
+      <c r="LVP12" s="1"/>
+      <c r="LVT12" s="1"/>
+      <c r="LVX12" s="1"/>
+      <c r="LWB12" s="1"/>
+      <c r="LWF12" s="1"/>
+      <c r="LWJ12" s="1"/>
+      <c r="LWN12" s="1"/>
+      <c r="LWR12" s="1"/>
+      <c r="LWV12" s="1"/>
+      <c r="LWZ12" s="1"/>
+      <c r="LXD12" s="1"/>
+      <c r="LXH12" s="1"/>
+      <c r="LXL12" s="1"/>
+      <c r="LXP12" s="1"/>
+      <c r="LXT12" s="1"/>
+      <c r="LXX12" s="1"/>
+      <c r="LYB12" s="1"/>
+      <c r="LYF12" s="1"/>
+      <c r="LYJ12" s="1"/>
+      <c r="LYN12" s="1"/>
+      <c r="LYR12" s="1"/>
+      <c r="LYV12" s="1"/>
+      <c r="LYZ12" s="1"/>
+      <c r="LZD12" s="1"/>
+      <c r="LZH12" s="1"/>
+      <c r="LZL12" s="1"/>
+      <c r="LZP12" s="1"/>
+      <c r="LZT12" s="1"/>
+      <c r="LZX12" s="1"/>
+      <c r="MAB12" s="1"/>
+      <c r="MAF12" s="1"/>
+      <c r="MAJ12" s="1"/>
+      <c r="MAN12" s="1"/>
+      <c r="MAR12" s="1"/>
+      <c r="MAV12" s="1"/>
+      <c r="MAZ12" s="1"/>
+      <c r="MBD12" s="1"/>
+      <c r="MBH12" s="1"/>
+      <c r="MBL12" s="1"/>
+      <c r="MBP12" s="1"/>
+      <c r="MBT12" s="1"/>
+      <c r="MBX12" s="1"/>
+      <c r="MCB12" s="1"/>
+      <c r="MCF12" s="1"/>
+      <c r="MCJ12" s="1"/>
+      <c r="MCN12" s="1"/>
+      <c r="MCR12" s="1"/>
+      <c r="MCV12" s="1"/>
+      <c r="MCZ12" s="1"/>
+      <c r="MDD12" s="1"/>
+      <c r="MDH12" s="1"/>
+      <c r="MDL12" s="1"/>
+      <c r="MDP12" s="1"/>
+      <c r="MDT12" s="1"/>
+      <c r="MDX12" s="1"/>
+      <c r="MEB12" s="1"/>
+      <c r="MEF12" s="1"/>
+      <c r="MEJ12" s="1"/>
+      <c r="MEN12" s="1"/>
+      <c r="MER12" s="1"/>
+      <c r="MEV12" s="1"/>
+      <c r="MEZ12" s="1"/>
+      <c r="MFD12" s="1"/>
+      <c r="MFH12" s="1"/>
+      <c r="MFL12" s="1"/>
+      <c r="MFP12" s="1"/>
+      <c r="MFT12" s="1"/>
+      <c r="MFX12" s="1"/>
+      <c r="MGB12" s="1"/>
+      <c r="MGF12" s="1"/>
+      <c r="MGJ12" s="1"/>
+      <c r="MGN12" s="1"/>
+      <c r="MGR12" s="1"/>
+      <c r="MGV12" s="1"/>
+      <c r="MGZ12" s="1"/>
+      <c r="MHD12" s="1"/>
+      <c r="MHH12" s="1"/>
+      <c r="MHL12" s="1"/>
+      <c r="MHP12" s="1"/>
+      <c r="MHT12" s="1"/>
+      <c r="MHX12" s="1"/>
+      <c r="MIB12" s="1"/>
+      <c r="MIF12" s="1"/>
+      <c r="MIJ12" s="1"/>
+      <c r="MIN12" s="1"/>
+      <c r="MIR12" s="1"/>
+      <c r="MIV12" s="1"/>
+      <c r="MIZ12" s="1"/>
+      <c r="MJD12" s="1"/>
+      <c r="MJH12" s="1"/>
+      <c r="MJL12" s="1"/>
+      <c r="MJP12" s="1"/>
+      <c r="MJT12" s="1"/>
+      <c r="MJX12" s="1"/>
+      <c r="MKB12" s="1"/>
+      <c r="MKF12" s="1"/>
+      <c r="MKJ12" s="1"/>
+      <c r="MKN12" s="1"/>
+      <c r="MKR12" s="1"/>
+      <c r="MKV12" s="1"/>
+      <c r="MKZ12" s="1"/>
+      <c r="MLD12" s="1"/>
+      <c r="MLH12" s="1"/>
+      <c r="MLL12" s="1"/>
+      <c r="MLP12" s="1"/>
+      <c r="MLT12" s="1"/>
+      <c r="MLX12" s="1"/>
+      <c r="MMB12" s="1"/>
+      <c r="MMF12" s="1"/>
+      <c r="MMJ12" s="1"/>
+      <c r="MMN12" s="1"/>
+      <c r="MMR12" s="1"/>
+      <c r="MMV12" s="1"/>
+      <c r="MMZ12" s="1"/>
+      <c r="MND12" s="1"/>
+      <c r="MNH12" s="1"/>
+      <c r="MNL12" s="1"/>
+      <c r="MNP12" s="1"/>
+      <c r="MNT12" s="1"/>
+      <c r="MNX12" s="1"/>
+      <c r="MOB12" s="1"/>
+      <c r="MOF12" s="1"/>
+      <c r="MOJ12" s="1"/>
+      <c r="MON12" s="1"/>
+      <c r="MOR12" s="1"/>
+      <c r="MOV12" s="1"/>
+      <c r="MOZ12" s="1"/>
+      <c r="MPD12" s="1"/>
+      <c r="MPH12" s="1"/>
+      <c r="MPL12" s="1"/>
+      <c r="MPP12" s="1"/>
+      <c r="MPT12" s="1"/>
+      <c r="MPX12" s="1"/>
+      <c r="MQB12" s="1"/>
+      <c r="MQF12" s="1"/>
+      <c r="MQJ12" s="1"/>
+      <c r="MQN12" s="1"/>
+      <c r="MQR12" s="1"/>
+      <c r="MQV12" s="1"/>
+      <c r="MQZ12" s="1"/>
+      <c r="MRD12" s="1"/>
+      <c r="MRH12" s="1"/>
+      <c r="MRL12" s="1"/>
+      <c r="MRP12" s="1"/>
+      <c r="MRT12" s="1"/>
+      <c r="MRX12" s="1"/>
+      <c r="MSB12" s="1"/>
+      <c r="MSF12" s="1"/>
+      <c r="MSJ12" s="1"/>
+      <c r="MSN12" s="1"/>
+      <c r="MSR12" s="1"/>
+      <c r="MSV12" s="1"/>
+      <c r="MSZ12" s="1"/>
+      <c r="MTD12" s="1"/>
+      <c r="MTH12" s="1"/>
+      <c r="MTL12" s="1"/>
+      <c r="MTP12" s="1"/>
+      <c r="MTT12" s="1"/>
+      <c r="MTX12" s="1"/>
+      <c r="MUB12" s="1"/>
+      <c r="MUF12" s="1"/>
+      <c r="MUJ12" s="1"/>
+      <c r="MUN12" s="1"/>
+      <c r="MUR12" s="1"/>
+      <c r="MUV12" s="1"/>
+      <c r="MUZ12" s="1"/>
+      <c r="MVD12" s="1"/>
+      <c r="MVH12" s="1"/>
+      <c r="MVL12" s="1"/>
+      <c r="MVP12" s="1"/>
+      <c r="MVT12" s="1"/>
+      <c r="MVX12" s="1"/>
+      <c r="MWB12" s="1"/>
+      <c r="MWF12" s="1"/>
+      <c r="MWJ12" s="1"/>
+      <c r="MWN12" s="1"/>
+      <c r="MWR12" s="1"/>
+      <c r="MWV12" s="1"/>
+      <c r="MWZ12" s="1"/>
+      <c r="MXD12" s="1"/>
+      <c r="MXH12" s="1"/>
+      <c r="MXL12" s="1"/>
+      <c r="MXP12" s="1"/>
+      <c r="MXT12" s="1"/>
+      <c r="MXX12" s="1"/>
+      <c r="MYB12" s="1"/>
+      <c r="MYF12" s="1"/>
+      <c r="MYJ12" s="1"/>
+      <c r="MYN12" s="1"/>
+      <c r="MYR12" s="1"/>
+      <c r="MYV12" s="1"/>
+      <c r="MYZ12" s="1"/>
+      <c r="MZD12" s="1"/>
+      <c r="MZH12" s="1"/>
+      <c r="MZL12" s="1"/>
+      <c r="MZP12" s="1"/>
+      <c r="MZT12" s="1"/>
+      <c r="MZX12" s="1"/>
+      <c r="NAB12" s="1"/>
+      <c r="NAF12" s="1"/>
+      <c r="NAJ12" s="1"/>
+      <c r="NAN12" s="1"/>
+      <c r="NAR12" s="1"/>
+      <c r="NAV12" s="1"/>
+      <c r="NAZ12" s="1"/>
+      <c r="NBD12" s="1"/>
+      <c r="NBH12" s="1"/>
+      <c r="NBL12" s="1"/>
+      <c r="NBP12" s="1"/>
+      <c r="NBT12" s="1"/>
+      <c r="NBX12" s="1"/>
+      <c r="NCB12" s="1"/>
+      <c r="NCF12" s="1"/>
+      <c r="NCJ12" s="1"/>
+      <c r="NCN12" s="1"/>
+      <c r="NCR12" s="1"/>
+      <c r="NCV12" s="1"/>
+      <c r="NCZ12" s="1"/>
+      <c r="NDD12" s="1"/>
+      <c r="NDH12" s="1"/>
+      <c r="NDL12" s="1"/>
+      <c r="NDP12" s="1"/>
+      <c r="NDT12" s="1"/>
+      <c r="NDX12" s="1"/>
+      <c r="NEB12" s="1"/>
+      <c r="NEF12" s="1"/>
+      <c r="NEJ12" s="1"/>
+      <c r="NEN12" s="1"/>
+      <c r="NER12" s="1"/>
+      <c r="NEV12" s="1"/>
+      <c r="NEZ12" s="1"/>
+      <c r="NFD12" s="1"/>
+      <c r="NFH12" s="1"/>
+      <c r="NFL12" s="1"/>
+      <c r="NFP12" s="1"/>
+      <c r="NFT12" s="1"/>
+      <c r="NFX12" s="1"/>
+      <c r="NGB12" s="1"/>
+      <c r="NGF12" s="1"/>
+      <c r="NGJ12" s="1"/>
+      <c r="NGN12" s="1"/>
+      <c r="NGR12" s="1"/>
+      <c r="NGV12" s="1"/>
+      <c r="NGZ12" s="1"/>
+      <c r="NHD12" s="1"/>
+      <c r="NHH12" s="1"/>
+      <c r="NHL12" s="1"/>
+      <c r="NHP12" s="1"/>
+      <c r="NHT12" s="1"/>
+      <c r="NHX12" s="1"/>
+      <c r="NIB12" s="1"/>
+      <c r="NIF12" s="1"/>
+      <c r="NIJ12" s="1"/>
+      <c r="NIN12" s="1"/>
+      <c r="NIR12" s="1"/>
+      <c r="NIV12" s="1"/>
+      <c r="NIZ12" s="1"/>
+      <c r="NJD12" s="1"/>
+      <c r="NJH12" s="1"/>
+      <c r="NJL12" s="1"/>
+      <c r="NJP12" s="1"/>
+      <c r="NJT12" s="1"/>
+      <c r="NJX12" s="1"/>
+      <c r="NKB12" s="1"/>
+      <c r="NKF12" s="1"/>
+      <c r="NKJ12" s="1"/>
+      <c r="NKN12" s="1"/>
+      <c r="NKR12" s="1"/>
+      <c r="NKV12" s="1"/>
+      <c r="NKZ12" s="1"/>
+      <c r="NLD12" s="1"/>
+      <c r="NLH12" s="1"/>
+      <c r="NLL12" s="1"/>
+      <c r="NLP12" s="1"/>
+      <c r="NLT12" s="1"/>
+      <c r="NLX12" s="1"/>
+      <c r="NMB12" s="1"/>
+      <c r="NMF12" s="1"/>
+      <c r="NMJ12" s="1"/>
+      <c r="NMN12" s="1"/>
+      <c r="NMR12" s="1"/>
+      <c r="NMV12" s="1"/>
+      <c r="NMZ12" s="1"/>
+      <c r="NND12" s="1"/>
+      <c r="NNH12" s="1"/>
+      <c r="NNL12" s="1"/>
+      <c r="NNP12" s="1"/>
+      <c r="NNT12" s="1"/>
+      <c r="NNX12" s="1"/>
+      <c r="NOB12" s="1"/>
+      <c r="NOF12" s="1"/>
+      <c r="NOJ12" s="1"/>
+      <c r="NON12" s="1"/>
+      <c r="NOR12" s="1"/>
+      <c r="NOV12" s="1"/>
+      <c r="NOZ12" s="1"/>
+      <c r="NPD12" s="1"/>
+      <c r="NPH12" s="1"/>
+      <c r="NPL12" s="1"/>
+      <c r="NPP12" s="1"/>
+      <c r="NPT12" s="1"/>
+      <c r="NPX12" s="1"/>
+      <c r="NQB12" s="1"/>
+      <c r="NQF12" s="1"/>
+      <c r="NQJ12" s="1"/>
+      <c r="NQN12" s="1"/>
+      <c r="NQR12" s="1"/>
+      <c r="NQV12" s="1"/>
+      <c r="NQZ12" s="1"/>
+      <c r="NRD12" s="1"/>
+      <c r="NRH12" s="1"/>
+      <c r="NRL12" s="1"/>
+      <c r="NRP12" s="1"/>
+      <c r="NRT12" s="1"/>
+      <c r="NRX12" s="1"/>
+      <c r="NSB12" s="1"/>
+      <c r="NSF12" s="1"/>
+      <c r="NSJ12" s="1"/>
+      <c r="NSN12" s="1"/>
+      <c r="NSR12" s="1"/>
+      <c r="NSV12" s="1"/>
+      <c r="NSZ12" s="1"/>
+      <c r="NTD12" s="1"/>
+      <c r="NTH12" s="1"/>
+      <c r="NTL12" s="1"/>
+      <c r="NTP12" s="1"/>
+      <c r="NTT12" s="1"/>
+      <c r="NTX12" s="1"/>
+      <c r="NUB12" s="1"/>
+      <c r="NUF12" s="1"/>
+      <c r="NUJ12" s="1"/>
+      <c r="NUN12" s="1"/>
+      <c r="NUR12" s="1"/>
+      <c r="NUV12" s="1"/>
+      <c r="NUZ12" s="1"/>
+      <c r="NVD12" s="1"/>
+      <c r="NVH12" s="1"/>
+      <c r="NVL12" s="1"/>
+      <c r="NVP12" s="1"/>
+      <c r="NVT12" s="1"/>
+      <c r="NVX12" s="1"/>
+      <c r="NWB12" s="1"/>
+      <c r="NWF12" s="1"/>
+      <c r="NWJ12" s="1"/>
+      <c r="NWN12" s="1"/>
+      <c r="NWR12" s="1"/>
+      <c r="NWV12" s="1"/>
+      <c r="NWZ12" s="1"/>
+      <c r="NXD12" s="1"/>
+      <c r="NXH12" s="1"/>
+      <c r="NXL12" s="1"/>
+      <c r="NXP12" s="1"/>
+      <c r="NXT12" s="1"/>
+      <c r="NXX12" s="1"/>
+      <c r="NYB12" s="1"/>
+      <c r="NYF12" s="1"/>
+      <c r="NYJ12" s="1"/>
+      <c r="NYN12" s="1"/>
+      <c r="NYR12" s="1"/>
+      <c r="NYV12" s="1"/>
+      <c r="NYZ12" s="1"/>
+      <c r="NZD12" s="1"/>
+      <c r="NZH12" s="1"/>
+      <c r="NZL12" s="1"/>
+      <c r="NZP12" s="1"/>
+      <c r="NZT12" s="1"/>
+      <c r="NZX12" s="1"/>
+      <c r="OAB12" s="1"/>
+      <c r="OAF12" s="1"/>
+      <c r="OAJ12" s="1"/>
+      <c r="OAN12" s="1"/>
+      <c r="OAR12" s="1"/>
+      <c r="OAV12" s="1"/>
+      <c r="OAZ12" s="1"/>
+      <c r="OBD12" s="1"/>
+      <c r="OBH12" s="1"/>
+      <c r="OBL12" s="1"/>
+      <c r="OBP12" s="1"/>
+      <c r="OBT12" s="1"/>
+      <c r="OBX12" s="1"/>
+      <c r="OCB12" s="1"/>
+      <c r="OCF12" s="1"/>
+      <c r="OCJ12" s="1"/>
+      <c r="OCN12" s="1"/>
+      <c r="OCR12" s="1"/>
+      <c r="OCV12" s="1"/>
+      <c r="OCZ12" s="1"/>
+      <c r="ODD12" s="1"/>
+      <c r="ODH12" s="1"/>
+      <c r="ODL12" s="1"/>
+      <c r="ODP12" s="1"/>
+      <c r="ODT12" s="1"/>
+      <c r="ODX12" s="1"/>
+      <c r="OEB12" s="1"/>
+      <c r="OEF12" s="1"/>
+      <c r="OEJ12" s="1"/>
+      <c r="OEN12" s="1"/>
+      <c r="OER12" s="1"/>
+      <c r="OEV12" s="1"/>
+      <c r="OEZ12" s="1"/>
+      <c r="OFD12" s="1"/>
+      <c r="OFH12" s="1"/>
+      <c r="OFL12" s="1"/>
+      <c r="OFP12" s="1"/>
+      <c r="OFT12" s="1"/>
+      <c r="OFX12" s="1"/>
+      <c r="OGB12" s="1"/>
+      <c r="OGF12" s="1"/>
+      <c r="OGJ12" s="1"/>
+      <c r="OGN12" s="1"/>
+      <c r="OGR12" s="1"/>
+      <c r="OGV12" s="1"/>
+      <c r="OGZ12" s="1"/>
+      <c r="OHD12" s="1"/>
+      <c r="OHH12" s="1"/>
+      <c r="OHL12" s="1"/>
+      <c r="OHP12" s="1"/>
+      <c r="OHT12" s="1"/>
+      <c r="OHX12" s="1"/>
+      <c r="OIB12" s="1"/>
+      <c r="OIF12" s="1"/>
+      <c r="OIJ12" s="1"/>
+      <c r="OIN12" s="1"/>
+      <c r="OIR12" s="1"/>
+      <c r="OIV12" s="1"/>
+      <c r="OIZ12" s="1"/>
+      <c r="OJD12" s="1"/>
+      <c r="OJH12" s="1"/>
+      <c r="OJL12" s="1"/>
+      <c r="OJP12" s="1"/>
+      <c r="OJT12" s="1"/>
+      <c r="OJX12" s="1"/>
+      <c r="OKB12" s="1"/>
+      <c r="OKF12" s="1"/>
+      <c r="OKJ12" s="1"/>
+      <c r="OKN12" s="1"/>
+      <c r="OKR12" s="1"/>
+      <c r="OKV12" s="1"/>
+      <c r="OKZ12" s="1"/>
+      <c r="OLD12" s="1"/>
+      <c r="OLH12" s="1"/>
+      <c r="OLL12" s="1"/>
+      <c r="OLP12" s="1"/>
+      <c r="OLT12" s="1"/>
+      <c r="OLX12" s="1"/>
+      <c r="OMB12" s="1"/>
+      <c r="OMF12" s="1"/>
+      <c r="OMJ12" s="1"/>
+      <c r="OMN12" s="1"/>
+      <c r="OMR12" s="1"/>
+      <c r="OMV12" s="1"/>
+      <c r="OMZ12" s="1"/>
+      <c r="OND12" s="1"/>
+      <c r="ONH12" s="1"/>
+      <c r="ONL12" s="1"/>
+      <c r="ONP12" s="1"/>
+      <c r="ONT12" s="1"/>
+      <c r="ONX12" s="1"/>
+      <c r="OOB12" s="1"/>
+      <c r="OOF12" s="1"/>
+      <c r="OOJ12" s="1"/>
+      <c r="OON12" s="1"/>
+      <c r="OOR12" s="1"/>
+      <c r="OOV12" s="1"/>
+      <c r="OOZ12" s="1"/>
+      <c r="OPD12" s="1"/>
+      <c r="OPH12" s="1"/>
+      <c r="OPL12" s="1"/>
+      <c r="OPP12" s="1"/>
+      <c r="OPT12" s="1"/>
+      <c r="OPX12" s="1"/>
+      <c r="OQB12" s="1"/>
+      <c r="OQF12" s="1"/>
+      <c r="OQJ12" s="1"/>
+      <c r="OQN12" s="1"/>
+      <c r="OQR12" s="1"/>
+      <c r="OQV12" s="1"/>
+      <c r="OQZ12" s="1"/>
+      <c r="ORD12" s="1"/>
+      <c r="ORH12" s="1"/>
+      <c r="ORL12" s="1"/>
+      <c r="ORP12" s="1"/>
+      <c r="ORT12" s="1"/>
+      <c r="ORX12" s="1"/>
+      <c r="OSB12" s="1"/>
+      <c r="OSF12" s="1"/>
+      <c r="OSJ12" s="1"/>
+      <c r="OSN12" s="1"/>
+      <c r="OSR12" s="1"/>
+      <c r="OSV12" s="1"/>
+      <c r="OSZ12" s="1"/>
+      <c r="OTD12" s="1"/>
+      <c r="OTH12" s="1"/>
+      <c r="OTL12" s="1"/>
+      <c r="OTP12" s="1"/>
+      <c r="OTT12" s="1"/>
+      <c r="OTX12" s="1"/>
+      <c r="OUB12" s="1"/>
+      <c r="OUF12" s="1"/>
+      <c r="OUJ12" s="1"/>
+      <c r="OUN12" s="1"/>
+      <c r="OUR12" s="1"/>
+      <c r="OUV12" s="1"/>
+      <c r="OUZ12" s="1"/>
+      <c r="OVD12" s="1"/>
+      <c r="OVH12" s="1"/>
+      <c r="OVL12" s="1"/>
+      <c r="OVP12" s="1"/>
+      <c r="OVT12" s="1"/>
+      <c r="OVX12" s="1"/>
+      <c r="OWB12" s="1"/>
+      <c r="OWF12" s="1"/>
+      <c r="OWJ12" s="1"/>
+      <c r="OWN12" s="1"/>
+      <c r="OWR12" s="1"/>
+      <c r="OWV12" s="1"/>
+      <c r="OWZ12" s="1"/>
+      <c r="OXD12" s="1"/>
+      <c r="OXH12" s="1"/>
+      <c r="OXL12" s="1"/>
+      <c r="OXP12" s="1"/>
+      <c r="OXT12" s="1"/>
+      <c r="OXX12" s="1"/>
+      <c r="OYB12" s="1"/>
+      <c r="OYF12" s="1"/>
+      <c r="OYJ12" s="1"/>
+      <c r="OYN12" s="1"/>
+      <c r="OYR12" s="1"/>
+      <c r="OYV12" s="1"/>
+      <c r="OYZ12" s="1"/>
+      <c r="OZD12" s="1"/>
+      <c r="OZH12" s="1"/>
+      <c r="OZL12" s="1"/>
+      <c r="OZP12" s="1"/>
+      <c r="OZT12" s="1"/>
+      <c r="OZX12" s="1"/>
+      <c r="PAB12" s="1"/>
+      <c r="PAF12" s="1"/>
+      <c r="PAJ12" s="1"/>
+      <c r="PAN12" s="1"/>
+      <c r="PAR12" s="1"/>
+      <c r="PAV12" s="1"/>
+      <c r="PAZ12" s="1"/>
+      <c r="PBD12" s="1"/>
+      <c r="PBH12" s="1"/>
+      <c r="PBL12" s="1"/>
+      <c r="PBP12" s="1"/>
+      <c r="PBT12" s="1"/>
+      <c r="PBX12" s="1"/>
+      <c r="PCB12" s="1"/>
+      <c r="PCF12" s="1"/>
+      <c r="PCJ12" s="1"/>
+      <c r="PCN12" s="1"/>
+      <c r="PCR12" s="1"/>
+      <c r="PCV12" s="1"/>
+      <c r="PCZ12" s="1"/>
+      <c r="PDD12" s="1"/>
+      <c r="PDH12" s="1"/>
+      <c r="PDL12" s="1"/>
+      <c r="PDP12" s="1"/>
+      <c r="PDT12" s="1"/>
+      <c r="PDX12" s="1"/>
+      <c r="PEB12" s="1"/>
+      <c r="PEF12" s="1"/>
+      <c r="PEJ12" s="1"/>
+      <c r="PEN12" s="1"/>
+      <c r="PER12" s="1"/>
+      <c r="PEV12" s="1"/>
+      <c r="PEZ12" s="1"/>
+      <c r="PFD12" s="1"/>
+      <c r="PFH12" s="1"/>
+      <c r="PFL12" s="1"/>
+      <c r="PFP12" s="1"/>
+      <c r="PFT12" s="1"/>
+      <c r="PFX12" s="1"/>
+      <c r="PGB12" s="1"/>
+      <c r="PGF12" s="1"/>
+      <c r="PGJ12" s="1"/>
+      <c r="PGN12" s="1"/>
+      <c r="PGR12" s="1"/>
+      <c r="PGV12" s="1"/>
+      <c r="PGZ12" s="1"/>
+      <c r="PHD12" s="1"/>
+      <c r="PHH12" s="1"/>
+      <c r="PHL12" s="1"/>
+      <c r="PHP12" s="1"/>
+      <c r="PHT12" s="1"/>
+      <c r="PHX12" s="1"/>
+      <c r="PIB12" s="1"/>
+      <c r="PIF12" s="1"/>
+      <c r="PIJ12" s="1"/>
+      <c r="PIN12" s="1"/>
+      <c r="PIR12" s="1"/>
+      <c r="PIV12" s="1"/>
+      <c r="PIZ12" s="1"/>
+      <c r="PJD12" s="1"/>
+      <c r="PJH12" s="1"/>
+      <c r="PJL12" s="1"/>
+      <c r="PJP12" s="1"/>
+      <c r="PJT12" s="1"/>
+      <c r="PJX12" s="1"/>
+      <c r="PKB12" s="1"/>
+      <c r="PKF12" s="1"/>
+      <c r="PKJ12" s="1"/>
+      <c r="PKN12" s="1"/>
+      <c r="PKR12" s="1"/>
+      <c r="PKV12" s="1"/>
+      <c r="PKZ12" s="1"/>
+      <c r="PLD12" s="1"/>
+      <c r="PLH12" s="1"/>
+      <c r="PLL12" s="1"/>
+      <c r="PLP12" s="1"/>
+      <c r="PLT12" s="1"/>
+      <c r="PLX12" s="1"/>
+      <c r="PMB12" s="1"/>
+      <c r="PMF12" s="1"/>
+      <c r="PMJ12" s="1"/>
+      <c r="PMN12" s="1"/>
+      <c r="PMR12" s="1"/>
+      <c r="PMV12" s="1"/>
+      <c r="PMZ12" s="1"/>
+      <c r="PND12" s="1"/>
+      <c r="PNH12" s="1"/>
+      <c r="PNL12" s="1"/>
+      <c r="PNP12" s="1"/>
+      <c r="PNT12" s="1"/>
+      <c r="PNX12" s="1"/>
+      <c r="POB12" s="1"/>
+      <c r="POF12" s="1"/>
+      <c r="POJ12" s="1"/>
+      <c r="PON12" s="1"/>
+      <c r="POR12" s="1"/>
+      <c r="POV12" s="1"/>
+      <c r="POZ12" s="1"/>
+      <c r="PPD12" s="1"/>
+      <c r="PPH12" s="1"/>
+      <c r="PPL12" s="1"/>
+      <c r="PPP12" s="1"/>
+      <c r="PPT12" s="1"/>
+      <c r="PPX12" s="1"/>
+      <c r="PQB12" s="1"/>
+      <c r="PQF12" s="1"/>
+      <c r="PQJ12" s="1"/>
+      <c r="PQN12" s="1"/>
+      <c r="PQR12" s="1"/>
+      <c r="PQV12" s="1"/>
+      <c r="PQZ12" s="1"/>
+      <c r="PRD12" s="1"/>
+      <c r="PRH12" s="1"/>
+      <c r="PRL12" s="1"/>
+      <c r="PRP12" s="1"/>
+      <c r="PRT12" s="1"/>
+      <c r="PRX12" s="1"/>
+      <c r="PSB12" s="1"/>
+      <c r="PSF12" s="1"/>
+      <c r="PSJ12" s="1"/>
+      <c r="PSN12" s="1"/>
+      <c r="PSR12" s="1"/>
+      <c r="PSV12" s="1"/>
+      <c r="PSZ12" s="1"/>
+      <c r="PTD12" s="1"/>
+      <c r="PTH12" s="1"/>
+      <c r="PTL12" s="1"/>
+      <c r="PTP12" s="1"/>
+      <c r="PTT12" s="1"/>
+      <c r="PTX12" s="1"/>
+      <c r="PUB12" s="1"/>
+      <c r="PUF12" s="1"/>
+      <c r="PUJ12" s="1"/>
+      <c r="PUN12" s="1"/>
+      <c r="PUR12" s="1"/>
+      <c r="PUV12" s="1"/>
+      <c r="PUZ12" s="1"/>
+      <c r="PVD12" s="1"/>
+      <c r="PVH12" s="1"/>
+      <c r="PVL12" s="1"/>
+      <c r="PVP12" s="1"/>
+      <c r="PVT12" s="1"/>
+      <c r="PVX12" s="1"/>
+      <c r="PWB12" s="1"/>
+      <c r="PWF12" s="1"/>
+      <c r="PWJ12" s="1"/>
+      <c r="PWN12" s="1"/>
+      <c r="PWR12" s="1"/>
+      <c r="PWV12" s="1"/>
+      <c r="PWZ12" s="1"/>
+      <c r="PXD12" s="1"/>
+      <c r="PXH12" s="1"/>
+      <c r="PXL12" s="1"/>
+      <c r="PXP12" s="1"/>
+      <c r="PXT12" s="1"/>
+      <c r="PXX12" s="1"/>
+      <c r="PYB12" s="1"/>
+      <c r="PYF12" s="1"/>
+      <c r="PYJ12" s="1"/>
+      <c r="PYN12" s="1"/>
+      <c r="PYR12" s="1"/>
+      <c r="PYV12" s="1"/>
+      <c r="PYZ12" s="1"/>
+      <c r="PZD12" s="1"/>
+      <c r="PZH12" s="1"/>
+      <c r="PZL12" s="1"/>
+      <c r="PZP12" s="1"/>
+      <c r="PZT12" s="1"/>
+      <c r="PZX12" s="1"/>
+      <c r="QAB12" s="1"/>
+      <c r="QAF12" s="1"/>
+      <c r="QAJ12" s="1"/>
+      <c r="QAN12" s="1"/>
+      <c r="QAR12" s="1"/>
+      <c r="QAV12" s="1"/>
+      <c r="QAZ12" s="1"/>
+      <c r="QBD12" s="1"/>
+      <c r="QBH12" s="1"/>
+      <c r="QBL12" s="1"/>
+      <c r="QBP12" s="1"/>
+      <c r="QBT12" s="1"/>
+      <c r="QBX12" s="1"/>
+      <c r="QCB12" s="1"/>
+      <c r="QCF12" s="1"/>
+      <c r="QCJ12" s="1"/>
+      <c r="QCN12" s="1"/>
+      <c r="QCR12" s="1"/>
+      <c r="QCV12" s="1"/>
+      <c r="QCZ12" s="1"/>
+      <c r="QDD12" s="1"/>
+      <c r="QDH12" s="1"/>
+      <c r="QDL12" s="1"/>
+      <c r="QDP12" s="1"/>
+      <c r="QDT12" s="1"/>
+      <c r="QDX12" s="1"/>
+      <c r="QEB12" s="1"/>
+      <c r="QEF12" s="1"/>
+      <c r="QEJ12" s="1"/>
+      <c r="QEN12" s="1"/>
+      <c r="QER12" s="1"/>
+      <c r="QEV12" s="1"/>
+      <c r="QEZ12" s="1"/>
+      <c r="QFD12" s="1"/>
+      <c r="QFH12" s="1"/>
+      <c r="QFL12" s="1"/>
+      <c r="QFP12" s="1"/>
+      <c r="QFT12" s="1"/>
+      <c r="QFX12" s="1"/>
+      <c r="QGB12" s="1"/>
+      <c r="QGF12" s="1"/>
+      <c r="QGJ12" s="1"/>
+      <c r="QGN12" s="1"/>
+      <c r="QGR12" s="1"/>
+      <c r="QGV12" s="1"/>
+      <c r="QGZ12" s="1"/>
+      <c r="QHD12" s="1"/>
+      <c r="QHH12" s="1"/>
+      <c r="QHL12" s="1"/>
+      <c r="QHP12" s="1"/>
+      <c r="QHT12" s="1"/>
+      <c r="QHX12" s="1"/>
+      <c r="QIB12" s="1"/>
+      <c r="QIF12" s="1"/>
+      <c r="QIJ12" s="1"/>
+      <c r="QIN12" s="1"/>
+      <c r="QIR12" s="1"/>
+      <c r="QIV12" s="1"/>
+      <c r="QIZ12" s="1"/>
+      <c r="QJD12" s="1"/>
+      <c r="QJH12" s="1"/>
+      <c r="QJL12" s="1"/>
+      <c r="QJP12" s="1"/>
+      <c r="QJT12" s="1"/>
+      <c r="QJX12" s="1"/>
+      <c r="QKB12" s="1"/>
+      <c r="QKF12" s="1"/>
+      <c r="QKJ12" s="1"/>
+      <c r="QKN12" s="1"/>
+      <c r="QKR12" s="1"/>
+      <c r="QKV12" s="1"/>
+      <c r="QKZ12" s="1"/>
+      <c r="QLD12" s="1"/>
+      <c r="QLH12" s="1"/>
+      <c r="QLL12" s="1"/>
+      <c r="QLP12" s="1"/>
+      <c r="QLT12" s="1"/>
+      <c r="QLX12" s="1"/>
+      <c r="QMB12" s="1"/>
+      <c r="QMF12" s="1"/>
+      <c r="QMJ12" s="1"/>
+      <c r="QMN12" s="1"/>
+      <c r="QMR12" s="1"/>
+      <c r="QMV12" s="1"/>
+      <c r="QMZ12" s="1"/>
+      <c r="QND12" s="1"/>
+      <c r="QNH12" s="1"/>
+      <c r="QNL12" s="1"/>
+      <c r="QNP12" s="1"/>
+      <c r="QNT12" s="1"/>
+      <c r="QNX12" s="1"/>
+      <c r="QOB12" s="1"/>
+      <c r="QOF12" s="1"/>
+      <c r="QOJ12" s="1"/>
+      <c r="QON12" s="1"/>
+      <c r="QOR12" s="1"/>
+      <c r="QOV12" s="1"/>
+      <c r="QOZ12" s="1"/>
+      <c r="QPD12" s="1"/>
+      <c r="QPH12" s="1"/>
+      <c r="QPL12" s="1"/>
+      <c r="QPP12" s="1"/>
+      <c r="QPT12" s="1"/>
+      <c r="QPX12" s="1"/>
+      <c r="QQB12" s="1"/>
+      <c r="QQF12" s="1"/>
+      <c r="QQJ12" s="1"/>
+      <c r="QQN12" s="1"/>
+      <c r="QQR12" s="1"/>
+      <c r="QQV12" s="1"/>
+      <c r="QQZ12" s="1"/>
+      <c r="QRD12" s="1"/>
+      <c r="QRH12" s="1"/>
+      <c r="QRL12" s="1"/>
+      <c r="QRP12" s="1"/>
+      <c r="QRT12" s="1"/>
+      <c r="QRX12" s="1"/>
+      <c r="QSB12" s="1"/>
+      <c r="QSF12" s="1"/>
+      <c r="QSJ12" s="1"/>
+      <c r="QSN12" s="1"/>
+      <c r="QSR12" s="1"/>
+      <c r="QSV12" s="1"/>
+      <c r="QSZ12" s="1"/>
+      <c r="QTD12" s="1"/>
+      <c r="QTH12" s="1"/>
+      <c r="QTL12" s="1"/>
+      <c r="QTP12" s="1"/>
+      <c r="QTT12" s="1"/>
+      <c r="QTX12" s="1"/>
+      <c r="QUB12" s="1"/>
+      <c r="QUF12" s="1"/>
+      <c r="QUJ12" s="1"/>
+      <c r="QUN12" s="1"/>
+      <c r="QUR12" s="1"/>
+      <c r="QUV12" s="1"/>
+      <c r="QUZ12" s="1"/>
+      <c r="QVD12" s="1"/>
+      <c r="QVH12" s="1"/>
+      <c r="QVL12" s="1"/>
+      <c r="QVP12" s="1"/>
+      <c r="QVT12" s="1"/>
+      <c r="QVX12" s="1"/>
+      <c r="QWB12" s="1"/>
+      <c r="QWF12" s="1"/>
+      <c r="QWJ12" s="1"/>
+      <c r="QWN12" s="1"/>
+      <c r="QWR12" s="1"/>
+      <c r="QWV12" s="1"/>
+      <c r="QWZ12" s="1"/>
+      <c r="QXD12" s="1"/>
+      <c r="QXH12" s="1"/>
+      <c r="QXL12" s="1"/>
+      <c r="QXP12" s="1"/>
+      <c r="QXT12" s="1"/>
+      <c r="QXX12" s="1"/>
+      <c r="QYB12" s="1"/>
+      <c r="QYF12" s="1"/>
+      <c r="QYJ12" s="1"/>
+      <c r="QYN12" s="1"/>
+      <c r="QYR12" s="1"/>
+      <c r="QYV12" s="1"/>
+      <c r="QYZ12" s="1"/>
+      <c r="QZD12" s="1"/>
+      <c r="QZH12" s="1"/>
+      <c r="QZL12" s="1"/>
+      <c r="QZP12" s="1"/>
+      <c r="QZT12" s="1"/>
+      <c r="QZX12" s="1"/>
+      <c r="RAB12" s="1"/>
+      <c r="RAF12" s="1"/>
+      <c r="RAJ12" s="1"/>
+      <c r="RAN12" s="1"/>
+      <c r="RAR12" s="1"/>
+      <c r="RAV12" s="1"/>
+      <c r="RAZ12" s="1"/>
+      <c r="RBD12" s="1"/>
+      <c r="RBH12" s="1"/>
+      <c r="RBL12" s="1"/>
+      <c r="RBP12" s="1"/>
+      <c r="RBT12" s="1"/>
+      <c r="RBX12" s="1"/>
+      <c r="RCB12" s="1"/>
+      <c r="RCF12" s="1"/>
+      <c r="RCJ12" s="1"/>
+      <c r="RCN12" s="1"/>
+      <c r="RCR12" s="1"/>
+      <c r="RCV12" s="1"/>
+      <c r="RCZ12" s="1"/>
+      <c r="RDD12" s="1"/>
+      <c r="RDH12" s="1"/>
+      <c r="RDL12" s="1"/>
+      <c r="RDP12" s="1"/>
+      <c r="RDT12" s="1"/>
+      <c r="RDX12" s="1"/>
+      <c r="REB12" s="1"/>
+      <c r="REF12" s="1"/>
+      <c r="REJ12" s="1"/>
+      <c r="REN12" s="1"/>
+      <c r="RER12" s="1"/>
+      <c r="REV12" s="1"/>
+      <c r="REZ12" s="1"/>
+      <c r="RFD12" s="1"/>
+      <c r="RFH12" s="1"/>
+      <c r="RFL12" s="1"/>
+      <c r="RFP12" s="1"/>
+      <c r="RFT12" s="1"/>
+      <c r="RFX12" s="1"/>
+      <c r="RGB12" s="1"/>
+      <c r="RGF12" s="1"/>
+      <c r="RGJ12" s="1"/>
+      <c r="RGN12" s="1"/>
+      <c r="RGR12" s="1"/>
+      <c r="RGV12" s="1"/>
+      <c r="RGZ12" s="1"/>
+      <c r="RHD12" s="1"/>
+      <c r="RHH12" s="1"/>
+      <c r="RHL12" s="1"/>
+      <c r="RHP12" s="1"/>
+      <c r="RHT12" s="1"/>
+      <c r="RHX12" s="1"/>
+      <c r="RIB12" s="1"/>
+      <c r="RIF12" s="1"/>
+      <c r="RIJ12" s="1"/>
+      <c r="RIN12" s="1"/>
+      <c r="RIR12" s="1"/>
+      <c r="RIV12" s="1"/>
+      <c r="RIZ12" s="1"/>
+      <c r="RJD12" s="1"/>
+      <c r="RJH12" s="1"/>
+      <c r="RJL12" s="1"/>
+      <c r="RJP12" s="1"/>
+      <c r="RJT12" s="1"/>
+      <c r="RJX12" s="1"/>
+      <c r="RKB12" s="1"/>
+      <c r="RKF12" s="1"/>
+      <c r="RKJ12" s="1"/>
+      <c r="RKN12" s="1"/>
+      <c r="RKR12" s="1"/>
+      <c r="RKV12" s="1"/>
+      <c r="RKZ12" s="1"/>
+      <c r="RLD12" s="1"/>
+      <c r="RLH12" s="1"/>
+      <c r="RLL12" s="1"/>
+      <c r="RLP12" s="1"/>
+      <c r="RLT12" s="1"/>
+      <c r="RLX12" s="1"/>
+      <c r="RMB12" s="1"/>
+      <c r="RMF12" s="1"/>
+      <c r="RMJ12" s="1"/>
+      <c r="RMN12" s="1"/>
+      <c r="RMR12" s="1"/>
+      <c r="RMV12" s="1"/>
+      <c r="RMZ12" s="1"/>
+      <c r="RND12" s="1"/>
+      <c r="RNH12" s="1"/>
+      <c r="RNL12" s="1"/>
+      <c r="RNP12" s="1"/>
+      <c r="RNT12" s="1"/>
+      <c r="RNX12" s="1"/>
+      <c r="ROB12" s="1"/>
+      <c r="ROF12" s="1"/>
+      <c r="ROJ12" s="1"/>
+      <c r="RON12" s="1"/>
+      <c r="ROR12" s="1"/>
+      <c r="ROV12" s="1"/>
+      <c r="ROZ12" s="1"/>
+      <c r="RPD12" s="1"/>
+      <c r="RPH12" s="1"/>
+      <c r="RPL12" s="1"/>
+      <c r="RPP12" s="1"/>
+      <c r="RPT12" s="1"/>
+      <c r="RPX12" s="1"/>
+      <c r="RQB12" s="1"/>
+      <c r="RQF12" s="1"/>
+      <c r="RQJ12" s="1"/>
+      <c r="RQN12" s="1"/>
+      <c r="RQR12" s="1"/>
+      <c r="RQV12" s="1"/>
+      <c r="RQZ12" s="1"/>
+      <c r="RRD12" s="1"/>
+      <c r="RRH12" s="1"/>
+      <c r="RRL12" s="1"/>
+      <c r="RRP12" s="1"/>
+      <c r="RRT12" s="1"/>
+      <c r="RRX12" s="1"/>
+      <c r="RSB12" s="1"/>
+      <c r="RSF12" s="1"/>
+      <c r="RSJ12" s="1"/>
+      <c r="RSN12" s="1"/>
+      <c r="RSR12" s="1"/>
+      <c r="RSV12" s="1"/>
+      <c r="RSZ12" s="1"/>
+      <c r="RTD12" s="1"/>
+      <c r="RTH12" s="1"/>
+      <c r="RTL12" s="1"/>
+      <c r="RTP12" s="1"/>
+      <c r="RTT12" s="1"/>
+      <c r="RTX12" s="1"/>
+      <c r="RUB12" s="1"/>
+      <c r="RUF12" s="1"/>
+      <c r="RUJ12" s="1"/>
+      <c r="RUN12" s="1"/>
+      <c r="RUR12" s="1"/>
+      <c r="RUV12" s="1"/>
+      <c r="RUZ12" s="1"/>
+      <c r="RVD12" s="1"/>
+      <c r="RVH12" s="1"/>
+      <c r="RVL12" s="1"/>
+      <c r="RVP12" s="1"/>
+      <c r="RVT12" s="1"/>
+      <c r="RVX12" s="1"/>
+      <c r="RWB12" s="1"/>
+      <c r="RWF12" s="1"/>
+      <c r="RWJ12" s="1"/>
+      <c r="RWN12" s="1"/>
+      <c r="RWR12" s="1"/>
+      <c r="RWV12" s="1"/>
+      <c r="RWZ12" s="1"/>
+      <c r="RXD12" s="1"/>
+      <c r="RXH12" s="1"/>
+      <c r="RXL12" s="1"/>
+      <c r="RXP12" s="1"/>
+      <c r="RXT12" s="1"/>
+      <c r="RXX12" s="1"/>
+      <c r="RYB12" s="1"/>
+      <c r="RYF12" s="1"/>
+      <c r="RYJ12" s="1"/>
+      <c r="RYN12" s="1"/>
+      <c r="RYR12" s="1"/>
+      <c r="RYV12" s="1"/>
+      <c r="RYZ12" s="1"/>
+      <c r="RZD12" s="1"/>
+      <c r="RZH12" s="1"/>
+      <c r="RZL12" s="1"/>
+      <c r="RZP12" s="1"/>
+      <c r="RZT12" s="1"/>
+      <c r="RZX12" s="1"/>
+      <c r="SAB12" s="1"/>
+      <c r="SAF12" s="1"/>
+      <c r="SAJ12" s="1"/>
+      <c r="SAN12" s="1"/>
+      <c r="SAR12" s="1"/>
+      <c r="SAV12" s="1"/>
+      <c r="SAZ12" s="1"/>
+      <c r="SBD12" s="1"/>
+      <c r="SBH12" s="1"/>
+      <c r="SBL12" s="1"/>
+      <c r="SBP12" s="1"/>
+      <c r="SBT12" s="1"/>
+      <c r="SBX12" s="1"/>
+      <c r="SCB12" s="1"/>
+      <c r="SCF12" s="1"/>
+      <c r="SCJ12" s="1"/>
+      <c r="SCN12" s="1"/>
+      <c r="SCR12" s="1"/>
+      <c r="SCV12" s="1"/>
+      <c r="SCZ12" s="1"/>
+      <c r="SDD12" s="1"/>
+      <c r="SDH12" s="1"/>
+      <c r="SDL12" s="1"/>
+      <c r="SDP12" s="1"/>
+      <c r="SDT12" s="1"/>
+      <c r="SDX12" s="1"/>
+      <c r="SEB12" s="1"/>
+      <c r="SEF12" s="1"/>
+      <c r="SEJ12" s="1"/>
+      <c r="SEN12" s="1"/>
+      <c r="SER12" s="1"/>
+      <c r="SEV12" s="1"/>
+      <c r="SEZ12" s="1"/>
+      <c r="SFD12" s="1"/>
+      <c r="SFH12" s="1"/>
+      <c r="SFL12" s="1"/>
+      <c r="SFP12" s="1"/>
+      <c r="SFT12" s="1"/>
+      <c r="SFX12" s="1"/>
+      <c r="SGB12" s="1"/>
+      <c r="SGF12" s="1"/>
+      <c r="SGJ12" s="1"/>
+      <c r="SGN12" s="1"/>
+      <c r="SGR12" s="1"/>
+      <c r="SGV12" s="1"/>
+      <c r="SGZ12" s="1"/>
+      <c r="SHD12" s="1"/>
+      <c r="SHH12" s="1"/>
+      <c r="SHL12" s="1"/>
+      <c r="SHP12" s="1"/>
+      <c r="SHT12" s="1"/>
+      <c r="SHX12" s="1"/>
+      <c r="SIB12" s="1"/>
+      <c r="SIF12" s="1"/>
+      <c r="SIJ12" s="1"/>
+      <c r="SIN12" s="1"/>
+      <c r="SIR12" s="1"/>
+      <c r="SIV12" s="1"/>
+      <c r="SIZ12" s="1"/>
+      <c r="SJD12" s="1"/>
+      <c r="SJH12" s="1"/>
+      <c r="SJL12" s="1"/>
+      <c r="SJP12" s="1"/>
+      <c r="SJT12" s="1"/>
+      <c r="SJX12" s="1"/>
+      <c r="SKB12" s="1"/>
+      <c r="SKF12" s="1"/>
+      <c r="SKJ12" s="1"/>
+      <c r="SKN12" s="1"/>
+      <c r="SKR12" s="1"/>
+      <c r="SKV12" s="1"/>
+      <c r="SKZ12" s="1"/>
+      <c r="SLD12" s="1"/>
+      <c r="SLH12" s="1"/>
+      <c r="SLL12" s="1"/>
+      <c r="SLP12" s="1"/>
+      <c r="SLT12" s="1"/>
+      <c r="SLX12" s="1"/>
+      <c r="SMB12" s="1"/>
+      <c r="SMF12" s="1"/>
+      <c r="SMJ12" s="1"/>
+      <c r="SMN12" s="1"/>
+      <c r="SMR12" s="1"/>
+      <c r="SMV12" s="1"/>
+      <c r="SMZ12" s="1"/>
+      <c r="SND12" s="1"/>
+      <c r="SNH12" s="1"/>
+      <c r="SNL12" s="1"/>
+      <c r="SNP12" s="1"/>
+      <c r="SNT12" s="1"/>
+      <c r="SNX12" s="1"/>
+      <c r="SOB12" s="1"/>
+      <c r="SOF12" s="1"/>
+      <c r="SOJ12" s="1"/>
+      <c r="SON12" s="1"/>
+      <c r="SOR12" s="1"/>
+      <c r="SOV12" s="1"/>
+      <c r="SOZ12" s="1"/>
+      <c r="SPD12" s="1"/>
+      <c r="SPH12" s="1"/>
+      <c r="SPL12" s="1"/>
+      <c r="SPP12" s="1"/>
+      <c r="SPT12" s="1"/>
+      <c r="SPX12" s="1"/>
+      <c r="SQB12" s="1"/>
+      <c r="SQF12" s="1"/>
+      <c r="SQJ12" s="1"/>
+      <c r="SQN12" s="1"/>
+      <c r="SQR12" s="1"/>
+      <c r="SQV12" s="1"/>
+      <c r="SQZ12" s="1"/>
+      <c r="SRD12" s="1"/>
+      <c r="SRH12" s="1"/>
+      <c r="SRL12" s="1"/>
+      <c r="SRP12" s="1"/>
+      <c r="SRT12" s="1"/>
+      <c r="SRX12" s="1"/>
+      <c r="SSB12" s="1"/>
+      <c r="SSF12" s="1"/>
+      <c r="SSJ12" s="1"/>
+      <c r="SSN12" s="1"/>
+      <c r="SSR12" s="1"/>
+      <c r="SSV12" s="1"/>
+      <c r="SSZ12" s="1"/>
+      <c r="STD12" s="1"/>
+      <c r="STH12" s="1"/>
+      <c r="STL12" s="1"/>
+      <c r="STP12" s="1"/>
+      <c r="STT12" s="1"/>
+      <c r="STX12" s="1"/>
+      <c r="SUB12" s="1"/>
+      <c r="SUF12" s="1"/>
+      <c r="SUJ12" s="1"/>
+      <c r="SUN12" s="1"/>
+      <c r="SUR12" s="1"/>
+      <c r="SUV12" s="1"/>
+      <c r="SUZ12" s="1"/>
+      <c r="SVD12" s="1"/>
+      <c r="SVH12" s="1"/>
+      <c r="SVL12" s="1"/>
+      <c r="SVP12" s="1"/>
+      <c r="SVT12" s="1"/>
+      <c r="SVX12" s="1"/>
+      <c r="SWB12" s="1"/>
+      <c r="SWF12" s="1"/>
+      <c r="SWJ12" s="1"/>
+      <c r="SWN12" s="1"/>
+      <c r="SWR12" s="1"/>
+      <c r="SWV12" s="1"/>
+      <c r="SWZ12" s="1"/>
+      <c r="SXD12" s="1"/>
+      <c r="SXH12" s="1"/>
+      <c r="SXL12" s="1"/>
+      <c r="SXP12" s="1"/>
+      <c r="SXT12" s="1"/>
+      <c r="SXX12" s="1"/>
+      <c r="SYB12" s="1"/>
+      <c r="SYF12" s="1"/>
+      <c r="SYJ12" s="1"/>
+      <c r="SYN12" s="1"/>
+      <c r="SYR12" s="1"/>
+      <c r="SYV12" s="1"/>
+      <c r="SYZ12" s="1"/>
+      <c r="SZD12" s="1"/>
+      <c r="SZH12" s="1"/>
+      <c r="SZL12" s="1"/>
+      <c r="SZP12" s="1"/>
+      <c r="SZT12" s="1"/>
+      <c r="SZX12" s="1"/>
+      <c r="TAB12" s="1"/>
+      <c r="TAF12" s="1"/>
+      <c r="TAJ12" s="1"/>
+      <c r="TAN12" s="1"/>
+      <c r="TAR12" s="1"/>
+      <c r="TAV12" s="1"/>
+      <c r="TAZ12" s="1"/>
+      <c r="TBD12" s="1"/>
+      <c r="TBH12" s="1"/>
+      <c r="TBL12" s="1"/>
+      <c r="TBP12" s="1"/>
+      <c r="TBT12" s="1"/>
+      <c r="TBX12" s="1"/>
+      <c r="TCB12" s="1"/>
+      <c r="TCF12" s="1"/>
+      <c r="TCJ12" s="1"/>
+      <c r="TCN12" s="1"/>
+      <c r="TCR12" s="1"/>
+      <c r="TCV12" s="1"/>
+      <c r="TCZ12" s="1"/>
+      <c r="TDD12" s="1"/>
+      <c r="TDH12" s="1"/>
+      <c r="TDL12" s="1"/>
+      <c r="TDP12" s="1"/>
+      <c r="TDT12" s="1"/>
+      <c r="TDX12" s="1"/>
+      <c r="TEB12" s="1"/>
+      <c r="TEF12" s="1"/>
+      <c r="TEJ12" s="1"/>
+      <c r="TEN12" s="1"/>
+      <c r="TER12" s="1"/>
+      <c r="TEV12" s="1"/>
+      <c r="TEZ12" s="1"/>
+      <c r="TFD12" s="1"/>
+      <c r="TFH12" s="1"/>
+      <c r="TFL12" s="1"/>
+      <c r="TFP12" s="1"/>
+      <c r="TFT12" s="1"/>
+      <c r="TFX12" s="1"/>
+      <c r="TGB12" s="1"/>
+      <c r="TGF12" s="1"/>
+      <c r="TGJ12" s="1"/>
+      <c r="TGN12" s="1"/>
+      <c r="TGR12" s="1"/>
+      <c r="TGV12" s="1"/>
+      <c r="TGZ12" s="1"/>
+      <c r="THD12" s="1"/>
+      <c r="THH12" s="1"/>
+      <c r="THL12" s="1"/>
+      <c r="THP12" s="1"/>
+      <c r="THT12" s="1"/>
+      <c r="THX12" s="1"/>
+      <c r="TIB12" s="1"/>
+      <c r="TIF12" s="1"/>
+      <c r="TIJ12" s="1"/>
+      <c r="TIN12" s="1"/>
+      <c r="TIR12" s="1"/>
+      <c r="TIV12" s="1"/>
+      <c r="TIZ12" s="1"/>
+      <c r="TJD12" s="1"/>
+      <c r="TJH12" s="1"/>
+      <c r="TJL12" s="1"/>
+      <c r="TJP12" s="1"/>
+      <c r="TJT12" s="1"/>
+      <c r="TJX12" s="1"/>
+      <c r="TKB12" s="1"/>
+      <c r="TKF12" s="1"/>
+      <c r="TKJ12" s="1"/>
+      <c r="TKN12" s="1"/>
+      <c r="TKR12" s="1"/>
+      <c r="TKV12" s="1"/>
+      <c r="TKZ12" s="1"/>
+      <c r="TLD12" s="1"/>
+      <c r="TLH12" s="1"/>
+      <c r="TLL12" s="1"/>
+      <c r="TLP12" s="1"/>
+      <c r="TLT12" s="1"/>
+      <c r="TLX12" s="1"/>
+      <c r="TMB12" s="1"/>
+      <c r="TMF12" s="1"/>
+      <c r="TMJ12" s="1"/>
+      <c r="TMN12" s="1"/>
+      <c r="TMR12" s="1"/>
+      <c r="TMV12" s="1"/>
+      <c r="TMZ12" s="1"/>
+      <c r="TND12" s="1"/>
+      <c r="TNH12" s="1"/>
+      <c r="TNL12" s="1"/>
+      <c r="TNP12" s="1"/>
+      <c r="TNT12" s="1"/>
+      <c r="TNX12" s="1"/>
+      <c r="TOB12" s="1"/>
+      <c r="TOF12" s="1"/>
+      <c r="TOJ12" s="1"/>
+      <c r="TON12" s="1"/>
+      <c r="TOR12" s="1"/>
+      <c r="TOV12" s="1"/>
+      <c r="TOZ12" s="1"/>
+      <c r="TPD12" s="1"/>
+      <c r="TPH12" s="1"/>
+      <c r="TPL12" s="1"/>
+      <c r="TPP12" s="1"/>
+      <c r="TPT12" s="1"/>
+      <c r="TPX12" s="1"/>
+      <c r="TQB12" s="1"/>
+      <c r="TQF12" s="1"/>
+      <c r="TQJ12" s="1"/>
+      <c r="TQN12" s="1"/>
+      <c r="TQR12" s="1"/>
+      <c r="TQV12" s="1"/>
+      <c r="TQZ12" s="1"/>
+      <c r="TRD12" s="1"/>
+      <c r="TRH12" s="1"/>
+      <c r="TRL12" s="1"/>
+      <c r="TRP12" s="1"/>
+      <c r="TRT12" s="1"/>
+      <c r="TRX12" s="1"/>
+      <c r="TSB12" s="1"/>
+      <c r="TSF12" s="1"/>
+      <c r="TSJ12" s="1"/>
+      <c r="TSN12" s="1"/>
+      <c r="TSR12" s="1"/>
+      <c r="TSV12" s="1"/>
+      <c r="TSZ12" s="1"/>
+      <c r="TTD12" s="1"/>
+      <c r="TTH12" s="1"/>
+      <c r="TTL12" s="1"/>
+      <c r="TTP12" s="1"/>
+      <c r="TTT12" s="1"/>
+      <c r="TTX12" s="1"/>
+      <c r="TUB12" s="1"/>
+      <c r="TUF12" s="1"/>
+      <c r="TUJ12" s="1"/>
+      <c r="TUN12" s="1"/>
+      <c r="TUR12" s="1"/>
+      <c r="TUV12" s="1"/>
+      <c r="TUZ12" s="1"/>
+      <c r="TVD12" s="1"/>
+      <c r="TVH12" s="1"/>
+      <c r="TVL12" s="1"/>
+      <c r="TVP12" s="1"/>
+      <c r="TVT12" s="1"/>
+      <c r="TVX12" s="1"/>
+      <c r="TWB12" s="1"/>
+      <c r="TWF12" s="1"/>
+      <c r="TWJ12" s="1"/>
+      <c r="TWN12" s="1"/>
+      <c r="TWR12" s="1"/>
+      <c r="TWV12" s="1"/>
+      <c r="TWZ12" s="1"/>
+      <c r="TXD12" s="1"/>
+      <c r="TXH12" s="1"/>
+      <c r="TXL12" s="1"/>
+      <c r="TXP12" s="1"/>
+      <c r="TXT12" s="1"/>
+      <c r="TXX12" s="1"/>
+      <c r="TYB12" s="1"/>
+      <c r="TYF12" s="1"/>
+      <c r="TYJ12" s="1"/>
+      <c r="TYN12" s="1"/>
+      <c r="TYR12" s="1"/>
+      <c r="TYV12" s="1"/>
+      <c r="TYZ12" s="1"/>
+      <c r="TZD12" s="1"/>
+      <c r="TZH12" s="1"/>
+      <c r="TZL12" s="1"/>
+      <c r="TZP12" s="1"/>
+      <c r="TZT12" s="1"/>
+      <c r="TZX12" s="1"/>
+      <c r="UAB12" s="1"/>
+      <c r="UAF12" s="1"/>
+      <c r="UAJ12" s="1"/>
+      <c r="UAN12" s="1"/>
+      <c r="UAR12" s="1"/>
+      <c r="UAV12" s="1"/>
+      <c r="UAZ12" s="1"/>
+      <c r="UBD12" s="1"/>
+      <c r="UBH12" s="1"/>
+      <c r="UBL12" s="1"/>
+      <c r="UBP12" s="1"/>
+      <c r="UBT12" s="1"/>
+      <c r="UBX12" s="1"/>
+      <c r="UCB12" s="1"/>
+      <c r="UCF12" s="1"/>
+      <c r="UCJ12" s="1"/>
+      <c r="UCN12" s="1"/>
+      <c r="UCR12" s="1"/>
+      <c r="UCV12" s="1"/>
+      <c r="UCZ12" s="1"/>
+      <c r="UDD12" s="1"/>
+      <c r="UDH12" s="1"/>
+      <c r="UDL12" s="1"/>
+      <c r="UDP12" s="1"/>
+      <c r="UDT12" s="1"/>
+      <c r="UDX12" s="1"/>
+      <c r="UEB12" s="1"/>
+      <c r="UEF12" s="1"/>
+      <c r="UEJ12" s="1"/>
+      <c r="UEN12" s="1"/>
+      <c r="UER12" s="1"/>
+      <c r="UEV12" s="1"/>
+      <c r="UEZ12" s="1"/>
+      <c r="UFD12" s="1"/>
+      <c r="UFH12" s="1"/>
+      <c r="UFL12" s="1"/>
+      <c r="UFP12" s="1"/>
+      <c r="UFT12" s="1"/>
+      <c r="UFX12" s="1"/>
+      <c r="UGB12" s="1"/>
+      <c r="UGF12" s="1"/>
+      <c r="UGJ12" s="1"/>
+      <c r="UGN12" s="1"/>
+      <c r="UGR12" s="1"/>
+      <c r="UGV12" s="1"/>
+      <c r="UGZ12" s="1"/>
+      <c r="UHD12" s="1"/>
+      <c r="UHH12" s="1"/>
+      <c r="UHL12" s="1"/>
+      <c r="UHP12" s="1"/>
+      <c r="UHT12" s="1"/>
+      <c r="UHX12" s="1"/>
+      <c r="UIB12" s="1"/>
+      <c r="UIF12" s="1"/>
+      <c r="UIJ12" s="1"/>
+      <c r="UIN12" s="1"/>
+      <c r="UIR12" s="1"/>
+      <c r="UIV12" s="1"/>
+      <c r="UIZ12" s="1"/>
+      <c r="UJD12" s="1"/>
+      <c r="UJH12" s="1"/>
+      <c r="UJL12" s="1"/>
+      <c r="UJP12" s="1"/>
+      <c r="UJT12" s="1"/>
+      <c r="UJX12" s="1"/>
+      <c r="UKB12" s="1"/>
+      <c r="UKF12" s="1"/>
+      <c r="UKJ12" s="1"/>
+      <c r="UKN12" s="1"/>
+      <c r="UKR12" s="1"/>
+      <c r="UKV12" s="1"/>
+      <c r="UKZ12" s="1"/>
+      <c r="ULD12" s="1"/>
+      <c r="ULH12" s="1"/>
+      <c r="ULL12" s="1"/>
+      <c r="ULP12" s="1"/>
+      <c r="ULT12" s="1"/>
+      <c r="ULX12" s="1"/>
+      <c r="UMB12" s="1"/>
+      <c r="UMF12" s="1"/>
+      <c r="UMJ12" s="1"/>
+      <c r="UMN12" s="1"/>
+      <c r="UMR12" s="1"/>
+      <c r="UMV12" s="1"/>
+      <c r="UMZ12" s="1"/>
+      <c r="UND12" s="1"/>
+      <c r="UNH12" s="1"/>
+      <c r="UNL12" s="1"/>
+      <c r="UNP12" s="1"/>
+      <c r="UNT12" s="1"/>
+      <c r="UNX12" s="1"/>
+      <c r="UOB12" s="1"/>
+      <c r="UOF12" s="1"/>
+      <c r="UOJ12" s="1"/>
+      <c r="UON12" s="1"/>
+      <c r="UOR12" s="1"/>
+      <c r="UOV12" s="1"/>
+      <c r="UOZ12" s="1"/>
+      <c r="UPD12" s="1"/>
+      <c r="UPH12" s="1"/>
+      <c r="UPL12" s="1"/>
+      <c r="UPP12" s="1"/>
+      <c r="UPT12" s="1"/>
+      <c r="UPX12" s="1"/>
+      <c r="UQB12" s="1"/>
+      <c r="UQF12" s="1"/>
+      <c r="UQJ12" s="1"/>
+      <c r="UQN12" s="1"/>
+      <c r="UQR12" s="1"/>
+      <c r="UQV12" s="1"/>
+      <c r="UQZ12" s="1"/>
+      <c r="URD12" s="1"/>
+      <c r="URH12" s="1"/>
+      <c r="URL12" s="1"/>
+      <c r="URP12" s="1"/>
+      <c r="URT12" s="1"/>
+      <c r="URX12" s="1"/>
+      <c r="USB12" s="1"/>
+      <c r="USF12" s="1"/>
+      <c r="USJ12" s="1"/>
+      <c r="USN12" s="1"/>
+      <c r="USR12" s="1"/>
+      <c r="USV12" s="1"/>
+      <c r="USZ12" s="1"/>
+      <c r="UTD12" s="1"/>
+      <c r="UTH12" s="1"/>
+      <c r="UTL12" s="1"/>
+      <c r="UTP12" s="1"/>
+      <c r="UTT12" s="1"/>
+      <c r="UTX12" s="1"/>
+      <c r="UUB12" s="1"/>
+      <c r="UUF12" s="1"/>
+      <c r="UUJ12" s="1"/>
+      <c r="UUN12" s="1"/>
+      <c r="UUR12" s="1"/>
+      <c r="UUV12" s="1"/>
+      <c r="UUZ12" s="1"/>
+      <c r="UVD12" s="1"/>
+      <c r="UVH12" s="1"/>
+      <c r="UVL12" s="1"/>
+      <c r="UVP12" s="1"/>
+      <c r="UVT12" s="1"/>
+      <c r="UVX12" s="1"/>
+      <c r="UWB12" s="1"/>
+      <c r="UWF12" s="1"/>
+      <c r="UWJ12" s="1"/>
+      <c r="UWN12" s="1"/>
+      <c r="UWR12" s="1"/>
+      <c r="UWV12" s="1"/>
+      <c r="UWZ12" s="1"/>
+      <c r="UXD12" s="1"/>
+      <c r="UXH12" s="1"/>
+      <c r="UXL12" s="1"/>
+      <c r="UXP12" s="1"/>
+      <c r="UXT12" s="1"/>
+      <c r="UXX12" s="1"/>
+      <c r="UYB12" s="1"/>
+      <c r="UYF12" s="1"/>
+      <c r="UYJ12" s="1"/>
+      <c r="UYN12" s="1"/>
+      <c r="UYR12" s="1"/>
+      <c r="UYV12" s="1"/>
+      <c r="UYZ12" s="1"/>
+      <c r="UZD12" s="1"/>
+      <c r="UZH12" s="1"/>
+      <c r="UZL12" s="1"/>
+      <c r="UZP12" s="1"/>
+      <c r="UZT12" s="1"/>
+      <c r="UZX12" s="1"/>
+      <c r="VAB12" s="1"/>
+      <c r="VAF12" s="1"/>
+      <c r="VAJ12" s="1"/>
+      <c r="VAN12" s="1"/>
+      <c r="VAR12" s="1"/>
+      <c r="VAV12" s="1"/>
+      <c r="VAZ12" s="1"/>
+      <c r="VBD12" s="1"/>
+      <c r="VBH12" s="1"/>
+      <c r="VBL12" s="1"/>
+      <c r="VBP12" s="1"/>
+      <c r="VBT12" s="1"/>
+      <c r="VBX12" s="1"/>
+      <c r="VCB12" s="1"/>
+      <c r="VCF12" s="1"/>
+      <c r="VCJ12" s="1"/>
+      <c r="VCN12" s="1"/>
+      <c r="VCR12" s="1"/>
+      <c r="VCV12" s="1"/>
+      <c r="VCZ12" s="1"/>
+      <c r="VDD12" s="1"/>
+      <c r="VDH12" s="1"/>
+      <c r="VDL12" s="1"/>
+      <c r="VDP12" s="1"/>
+      <c r="VDT12" s="1"/>
+      <c r="VDX12" s="1"/>
+      <c r="VEB12" s="1"/>
+      <c r="VEF12" s="1"/>
+      <c r="VEJ12" s="1"/>
+      <c r="VEN12" s="1"/>
+      <c r="VER12" s="1"/>
+      <c r="VEV12" s="1"/>
+      <c r="VEZ12" s="1"/>
+      <c r="VFD12" s="1"/>
+      <c r="VFH12" s="1"/>
+      <c r="VFL12" s="1"/>
+      <c r="VFP12" s="1"/>
+      <c r="VFT12" s="1"/>
+      <c r="VFX12" s="1"/>
+      <c r="VGB12" s="1"/>
+      <c r="VGF12" s="1"/>
+      <c r="VGJ12" s="1"/>
+      <c r="VGN12" s="1"/>
+      <c r="VGR12" s="1"/>
+      <c r="VGV12" s="1"/>
+      <c r="VGZ12" s="1"/>
+      <c r="VHD12" s="1"/>
+      <c r="VHH12" s="1"/>
+      <c r="VHL12" s="1"/>
+      <c r="VHP12" s="1"/>
+      <c r="VHT12" s="1"/>
+      <c r="VHX12" s="1"/>
+      <c r="VIB12" s="1"/>
+      <c r="VIF12" s="1"/>
+      <c r="VIJ12" s="1"/>
+      <c r="VIN12" s="1"/>
+      <c r="VIR12" s="1"/>
+      <c r="VIV12" s="1"/>
+      <c r="VIZ12" s="1"/>
+      <c r="VJD12" s="1"/>
+      <c r="VJH12" s="1"/>
+      <c r="VJL12" s="1"/>
+      <c r="VJP12" s="1"/>
+      <c r="VJT12" s="1"/>
+      <c r="VJX12" s="1"/>
+      <c r="VKB12" s="1"/>
+      <c r="VKF12" s="1"/>
+      <c r="VKJ12" s="1"/>
+      <c r="VKN12" s="1"/>
+      <c r="VKR12" s="1"/>
+      <c r="VKV12" s="1"/>
+      <c r="VKZ12" s="1"/>
+      <c r="VLD12" s="1"/>
+      <c r="VLH12" s="1"/>
+      <c r="VLL12" s="1"/>
+      <c r="VLP12" s="1"/>
+      <c r="VLT12" s="1"/>
+      <c r="VLX12" s="1"/>
+      <c r="VMB12" s="1"/>
+      <c r="VMF12" s="1"/>
+      <c r="VMJ12" s="1"/>
+      <c r="VMN12" s="1"/>
+      <c r="VMR12" s="1"/>
+      <c r="VMV12" s="1"/>
+      <c r="VMZ12" s="1"/>
+      <c r="VND12" s="1"/>
+      <c r="VNH12" s="1"/>
+      <c r="VNL12" s="1"/>
+      <c r="VNP12" s="1"/>
+      <c r="VNT12" s="1"/>
+      <c r="VNX12" s="1"/>
+      <c r="VOB12" s="1"/>
+      <c r="VOF12" s="1"/>
+      <c r="VOJ12" s="1"/>
+      <c r="VON12" s="1"/>
+      <c r="VOR12" s="1"/>
+      <c r="VOV12" s="1"/>
+      <c r="VOZ12" s="1"/>
+      <c r="VPD12" s="1"/>
+      <c r="VPH12" s="1"/>
+      <c r="VPL12" s="1"/>
+      <c r="VPP12" s="1"/>
+      <c r="VPT12" s="1"/>
+      <c r="VPX12" s="1"/>
+      <c r="VQB12" s="1"/>
+      <c r="VQF12" s="1"/>
+      <c r="VQJ12" s="1"/>
+      <c r="VQN12" s="1"/>
+      <c r="VQR12" s="1"/>
+      <c r="VQV12" s="1"/>
+      <c r="VQZ12" s="1"/>
+      <c r="VRD12" s="1"/>
+      <c r="VRH12" s="1"/>
+      <c r="VRL12" s="1"/>
+      <c r="VRP12" s="1"/>
+      <c r="VRT12" s="1"/>
+      <c r="VRX12" s="1"/>
+      <c r="VSB12" s="1"/>
+      <c r="VSF12" s="1"/>
+      <c r="VSJ12" s="1"/>
+      <c r="VSN12" s="1"/>
+      <c r="VSR12" s="1"/>
+      <c r="VSV12" s="1"/>
+      <c r="VSZ12" s="1"/>
+      <c r="VTD12" s="1"/>
+      <c r="VTH12" s="1"/>
+      <c r="VTL12" s="1"/>
+      <c r="VTP12" s="1"/>
+      <c r="VTT12" s="1"/>
+      <c r="VTX12" s="1"/>
+      <c r="VUB12" s="1"/>
+      <c r="VUF12" s="1"/>
+      <c r="VUJ12" s="1"/>
+      <c r="VUN12" s="1"/>
+      <c r="VUR12" s="1"/>
+      <c r="VUV12" s="1"/>
+      <c r="VUZ12" s="1"/>
+      <c r="VVD12" s="1"/>
+      <c r="VVH12" s="1"/>
+      <c r="VVL12" s="1"/>
+      <c r="VVP12" s="1"/>
+      <c r="VVT12" s="1"/>
+      <c r="VVX12" s="1"/>
+      <c r="VWB12" s="1"/>
+      <c r="VWF12" s="1"/>
+      <c r="VWJ12" s="1"/>
+      <c r="VWN12" s="1"/>
+      <c r="VWR12" s="1"/>
+      <c r="VWV12" s="1"/>
+      <c r="VWZ12" s="1"/>
+      <c r="VXD12" s="1"/>
+      <c r="VXH12" s="1"/>
+      <c r="VXL12" s="1"/>
+      <c r="VXP12" s="1"/>
+      <c r="VXT12" s="1"/>
+      <c r="VXX12" s="1"/>
+      <c r="VYB12" s="1"/>
+      <c r="VYF12" s="1"/>
+      <c r="VYJ12" s="1"/>
+      <c r="VYN12" s="1"/>
+      <c r="VYR12" s="1"/>
+      <c r="VYV12" s="1"/>
+      <c r="VYZ12" s="1"/>
+      <c r="VZD12" s="1"/>
+      <c r="VZH12" s="1"/>
+      <c r="VZL12" s="1"/>
+      <c r="VZP12" s="1"/>
+      <c r="VZT12" s="1"/>
+      <c r="VZX12" s="1"/>
+      <c r="WAB12" s="1"/>
+      <c r="WAF12" s="1"/>
+      <c r="WAJ12" s="1"/>
+      <c r="WAN12" s="1"/>
+      <c r="WAR12" s="1"/>
+      <c r="WAV12" s="1"/>
+      <c r="WAZ12" s="1"/>
+      <c r="WBD12" s="1"/>
+      <c r="WBH12" s="1"/>
+      <c r="WBL12" s="1"/>
+      <c r="WBP12" s="1"/>
+      <c r="WBT12" s="1"/>
+      <c r="WBX12" s="1"/>
+      <c r="WCB12" s="1"/>
+      <c r="WCF12" s="1"/>
+      <c r="WCJ12" s="1"/>
+      <c r="WCN12" s="1"/>
+      <c r="WCR12" s="1"/>
+      <c r="WCV12" s="1"/>
+      <c r="WCZ12" s="1"/>
+      <c r="WDD12" s="1"/>
+      <c r="WDH12" s="1"/>
+      <c r="WDL12" s="1"/>
+      <c r="WDP12" s="1"/>
+      <c r="WDT12" s="1"/>
+      <c r="WDX12" s="1"/>
+      <c r="WEB12" s="1"/>
+      <c r="WEF12" s="1"/>
+      <c r="WEJ12" s="1"/>
+      <c r="WEN12" s="1"/>
+      <c r="WER12" s="1"/>
+      <c r="WEV12" s="1"/>
+      <c r="WEZ12" s="1"/>
+      <c r="WFD12" s="1"/>
+      <c r="WFH12" s="1"/>
+      <c r="WFL12" s="1"/>
+      <c r="WFP12" s="1"/>
+      <c r="WFT12" s="1"/>
+      <c r="WFX12" s="1"/>
+      <c r="WGB12" s="1"/>
+      <c r="WGF12" s="1"/>
+      <c r="WGJ12" s="1"/>
+      <c r="WGN12" s="1"/>
+      <c r="WGR12" s="1"/>
+      <c r="WGV12" s="1"/>
+      <c r="WGZ12" s="1"/>
+      <c r="WHD12" s="1"/>
+      <c r="WHH12" s="1"/>
+      <c r="WHL12" s="1"/>
+      <c r="WHP12" s="1"/>
+      <c r="WHT12" s="1"/>
+      <c r="WHX12" s="1"/>
+      <c r="WIB12" s="1"/>
+      <c r="WIF12" s="1"/>
+      <c r="WIJ12" s="1"/>
+      <c r="WIN12" s="1"/>
+      <c r="WIR12" s="1"/>
+      <c r="WIV12" s="1"/>
+      <c r="WIZ12" s="1"/>
+      <c r="WJD12" s="1"/>
+      <c r="WJH12" s="1"/>
+      <c r="WJL12" s="1"/>
+      <c r="WJP12" s="1"/>
+      <c r="WJT12" s="1"/>
+      <c r="WJX12" s="1"/>
+      <c r="WKB12" s="1"/>
+      <c r="WKF12" s="1"/>
+      <c r="WKJ12" s="1"/>
+      <c r="WKN12" s="1"/>
+      <c r="WKR12" s="1"/>
+      <c r="WKV12" s="1"/>
+      <c r="WKZ12" s="1"/>
+      <c r="WLD12" s="1"/>
+      <c r="WLH12" s="1"/>
+      <c r="WLL12" s="1"/>
+      <c r="WLP12" s="1"/>
+      <c r="WLT12" s="1"/>
+      <c r="WLX12" s="1"/>
+      <c r="WMB12" s="1"/>
+      <c r="WMF12" s="1"/>
+      <c r="WMJ12" s="1"/>
+      <c r="WMN12" s="1"/>
+      <c r="WMR12" s="1"/>
+      <c r="WMV12" s="1"/>
+      <c r="WMZ12" s="1"/>
+      <c r="WND12" s="1"/>
+      <c r="WNH12" s="1"/>
+      <c r="WNL12" s="1"/>
+      <c r="WNP12" s="1"/>
+      <c r="WNT12" s="1"/>
+      <c r="WNX12" s="1"/>
+      <c r="WOB12" s="1"/>
+      <c r="WOF12" s="1"/>
+      <c r="WOJ12" s="1"/>
+      <c r="WON12" s="1"/>
+      <c r="WOR12" s="1"/>
+      <c r="WOV12" s="1"/>
+      <c r="WOZ12" s="1"/>
+      <c r="WPD12" s="1"/>
+      <c r="WPH12" s="1"/>
+      <c r="WPL12" s="1"/>
+      <c r="WPP12" s="1"/>
+      <c r="WPT12" s="1"/>
+      <c r="WPX12" s="1"/>
+      <c r="WQB12" s="1"/>
+      <c r="WQF12" s="1"/>
+      <c r="WQJ12" s="1"/>
+      <c r="WQN12" s="1"/>
+      <c r="WQR12" s="1"/>
+      <c r="WQV12" s="1"/>
+      <c r="WQZ12" s="1"/>
+      <c r="WRD12" s="1"/>
+      <c r="WRH12" s="1"/>
+      <c r="WRL12" s="1"/>
+      <c r="WRP12" s="1"/>
+      <c r="WRT12" s="1"/>
+      <c r="WRX12" s="1"/>
+      <c r="WSB12" s="1"/>
+      <c r="WSF12" s="1"/>
+      <c r="WSJ12" s="1"/>
+      <c r="WSN12" s="1"/>
+      <c r="WSR12" s="1"/>
+      <c r="WSV12" s="1"/>
+      <c r="WSZ12" s="1"/>
+      <c r="WTD12" s="1"/>
+      <c r="WTH12" s="1"/>
+      <c r="WTL12" s="1"/>
+      <c r="WTP12" s="1"/>
+      <c r="WTT12" s="1"/>
+      <c r="WTX12" s="1"/>
+      <c r="WUB12" s="1"/>
+      <c r="WUF12" s="1"/>
+      <c r="WUJ12" s="1"/>
+      <c r="WUN12" s="1"/>
+      <c r="WUR12" s="1"/>
+      <c r="WUV12" s="1"/>
+      <c r="WUZ12" s="1"/>
+      <c r="WVD12" s="1"/>
+      <c r="WVH12" s="1"/>
+      <c r="WVL12" s="1"/>
+      <c r="WVP12" s="1"/>
+      <c r="WVT12" s="1"/>
+      <c r="WVX12" s="1"/>
+      <c r="WWB12" s="1"/>
+      <c r="WWF12" s="1"/>
+      <c r="WWJ12" s="1"/>
+      <c r="WWN12" s="1"/>
+      <c r="WWR12" s="1"/>
+      <c r="WWV12" s="1"/>
+      <c r="WWZ12" s="1"/>
+      <c r="WXD12" s="1"/>
+      <c r="WXH12" s="1"/>
+      <c r="WXL12" s="1"/>
+      <c r="WXP12" s="1"/>
+      <c r="WXT12" s="1"/>
+      <c r="WXX12" s="1"/>
+      <c r="WYB12" s="1"/>
+      <c r="WYF12" s="1"/>
+      <c r="WYJ12" s="1"/>
+      <c r="WYN12" s="1"/>
+      <c r="WYR12" s="1"/>
+      <c r="WYV12" s="1"/>
+      <c r="WYZ12" s="1"/>
+      <c r="WZD12" s="1"/>
+      <c r="WZH12" s="1"/>
+      <c r="WZL12" s="1"/>
+      <c r="WZP12" s="1"/>
+      <c r="WZT12" s="1"/>
+      <c r="WZX12" s="1"/>
+      <c r="XAB12" s="1"/>
+      <c r="XAF12" s="1"/>
+      <c r="XAJ12" s="1"/>
+      <c r="XAN12" s="1"/>
+      <c r="XAR12" s="1"/>
+      <c r="XAV12" s="1"/>
+      <c r="XAZ12" s="1"/>
+      <c r="XBD12" s="1"/>
+      <c r="XBH12" s="1"/>
+      <c r="XBL12" s="1"/>
+      <c r="XBP12" s="1"/>
+      <c r="XBT12" s="1"/>
+      <c r="XBX12" s="1"/>
+      <c r="XCB12" s="1"/>
+      <c r="XCF12" s="1"/>
+      <c r="XCJ12" s="1"/>
+      <c r="XCN12" s="1"/>
+      <c r="XCR12" s="1"/>
+      <c r="XCV12" s="1"/>
+      <c r="XCZ12" s="1"/>
+      <c r="XDD12" s="1"/>
+      <c r="XDH12" s="1"/>
+      <c r="XDL12" s="1"/>
+      <c r="XDP12" s="1"/>
+      <c r="XDT12" s="1"/>
+      <c r="XDX12" s="1"/>
+      <c r="XEB12" s="1"/>
+      <c r="XEF12" s="1"/>
+      <c r="XEJ12" s="1"/>
+      <c r="XEN12" s="1"/>
+      <c r="XER12" s="1"/>
+      <c r="XEV12" s="1"/>
+      <c r="XEZ12" s="1"/>
+      <c r="XFD12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -1797,13 +5946,4108 @@
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CJ13" s="1"/>
+      <c r="CN13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CV13" s="1"/>
+      <c r="CZ13" s="1"/>
+      <c r="DD13" s="1"/>
+      <c r="DH13" s="1"/>
+      <c r="DL13" s="1"/>
+      <c r="DP13" s="1"/>
+      <c r="DT13" s="1"/>
+      <c r="DX13" s="1"/>
+      <c r="EB13" s="1"/>
+      <c r="EF13" s="1"/>
+      <c r="EJ13" s="1"/>
+      <c r="EN13" s="1"/>
+      <c r="ER13" s="1"/>
+      <c r="EV13" s="1"/>
+      <c r="EZ13" s="1"/>
+      <c r="FD13" s="1"/>
+      <c r="FH13" s="1"/>
+      <c r="FL13" s="1"/>
+      <c r="FP13" s="1"/>
+      <c r="FT13" s="1"/>
+      <c r="FX13" s="1"/>
+      <c r="GB13" s="1"/>
+      <c r="GF13" s="1"/>
+      <c r="GJ13" s="1"/>
+      <c r="GN13" s="1"/>
+      <c r="GR13" s="1"/>
+      <c r="GV13" s="1"/>
+      <c r="GZ13" s="1"/>
+      <c r="HD13" s="1"/>
+      <c r="HH13" s="1"/>
+      <c r="HL13" s="1"/>
+      <c r="HP13" s="1"/>
+      <c r="HT13" s="1"/>
+      <c r="HX13" s="1"/>
+      <c r="IB13" s="1"/>
+      <c r="IF13" s="1"/>
+      <c r="IJ13" s="1"/>
+      <c r="IN13" s="1"/>
+      <c r="IR13" s="1"/>
+      <c r="IV13" s="1"/>
+      <c r="IZ13" s="1"/>
+      <c r="JD13" s="1"/>
+      <c r="JH13" s="1"/>
+      <c r="JL13" s="1"/>
+      <c r="JP13" s="1"/>
+      <c r="JT13" s="1"/>
+      <c r="JX13" s="1"/>
+      <c r="KB13" s="1"/>
+      <c r="KF13" s="1"/>
+      <c r="KJ13" s="1"/>
+      <c r="KN13" s="1"/>
+      <c r="KR13" s="1"/>
+      <c r="KV13" s="1"/>
+      <c r="KZ13" s="1"/>
+      <c r="LD13" s="1"/>
+      <c r="LH13" s="1"/>
+      <c r="LL13" s="1"/>
+      <c r="LP13" s="1"/>
+      <c r="LT13" s="1"/>
+      <c r="LX13" s="1"/>
+      <c r="MB13" s="1"/>
+      <c r="MF13" s="1"/>
+      <c r="MJ13" s="1"/>
+      <c r="MN13" s="1"/>
+      <c r="MR13" s="1"/>
+      <c r="MV13" s="1"/>
+      <c r="MZ13" s="1"/>
+      <c r="ND13" s="1"/>
+      <c r="NH13" s="1"/>
+      <c r="NL13" s="1"/>
+      <c r="NP13" s="1"/>
+      <c r="NT13" s="1"/>
+      <c r="NX13" s="1"/>
+      <c r="OB13" s="1"/>
+      <c r="OF13" s="1"/>
+      <c r="OJ13" s="1"/>
+      <c r="ON13" s="1"/>
+      <c r="OR13" s="1"/>
+      <c r="OV13" s="1"/>
+      <c r="OZ13" s="1"/>
+      <c r="PD13" s="1"/>
+      <c r="PH13" s="1"/>
+      <c r="PL13" s="1"/>
+      <c r="PP13" s="1"/>
+      <c r="PT13" s="1"/>
+      <c r="PX13" s="1"/>
+      <c r="QB13" s="1"/>
+      <c r="QF13" s="1"/>
+      <c r="QJ13" s="1"/>
+      <c r="QN13" s="1"/>
+      <c r="QR13" s="1"/>
+      <c r="QV13" s="1"/>
+      <c r="QZ13" s="1"/>
+      <c r="RD13" s="1"/>
+      <c r="RH13" s="1"/>
+      <c r="RL13" s="1"/>
+      <c r="RP13" s="1"/>
+      <c r="RT13" s="1"/>
+      <c r="RX13" s="1"/>
+      <c r="SB13" s="1"/>
+      <c r="SF13" s="1"/>
+      <c r="SJ13" s="1"/>
+      <c r="SN13" s="1"/>
+      <c r="SR13" s="1"/>
+      <c r="SV13" s="1"/>
+      <c r="SZ13" s="1"/>
+      <c r="TD13" s="1"/>
+      <c r="TH13" s="1"/>
+      <c r="TL13" s="1"/>
+      <c r="TP13" s="1"/>
+      <c r="TT13" s="1"/>
+      <c r="TX13" s="1"/>
+      <c r="UB13" s="1"/>
+      <c r="UF13" s="1"/>
+      <c r="UJ13" s="1"/>
+      <c r="UN13" s="1"/>
+      <c r="UR13" s="1"/>
+      <c r="UV13" s="1"/>
+      <c r="UZ13" s="1"/>
+      <c r="VD13" s="1"/>
+      <c r="VH13" s="1"/>
+      <c r="VL13" s="1"/>
+      <c r="VP13" s="1"/>
+      <c r="VT13" s="1"/>
+      <c r="VX13" s="1"/>
+      <c r="WB13" s="1"/>
+      <c r="WF13" s="1"/>
+      <c r="WJ13" s="1"/>
+      <c r="WN13" s="1"/>
+      <c r="WR13" s="1"/>
+      <c r="WV13" s="1"/>
+      <c r="WZ13" s="1"/>
+      <c r="XD13" s="1"/>
+      <c r="XH13" s="1"/>
+      <c r="XL13" s="1"/>
+      <c r="XP13" s="1"/>
+      <c r="XT13" s="1"/>
+      <c r="XX13" s="1"/>
+      <c r="YB13" s="1"/>
+      <c r="YF13" s="1"/>
+      <c r="YJ13" s="1"/>
+      <c r="YN13" s="1"/>
+      <c r="YR13" s="1"/>
+      <c r="YV13" s="1"/>
+      <c r="YZ13" s="1"/>
+      <c r="ZD13" s="1"/>
+      <c r="ZH13" s="1"/>
+      <c r="ZL13" s="1"/>
+      <c r="ZP13" s="1"/>
+      <c r="ZT13" s="1"/>
+      <c r="ZX13" s="1"/>
+      <c r="AAB13" s="1"/>
+      <c r="AAF13" s="1"/>
+      <c r="AAJ13" s="1"/>
+      <c r="AAN13" s="1"/>
+      <c r="AAR13" s="1"/>
+      <c r="AAV13" s="1"/>
+      <c r="AAZ13" s="1"/>
+      <c r="ABD13" s="1"/>
+      <c r="ABH13" s="1"/>
+      <c r="ABL13" s="1"/>
+      <c r="ABP13" s="1"/>
+      <c r="ABT13" s="1"/>
+      <c r="ABX13" s="1"/>
+      <c r="ACB13" s="1"/>
+      <c r="ACF13" s="1"/>
+      <c r="ACJ13" s="1"/>
+      <c r="ACN13" s="1"/>
+      <c r="ACR13" s="1"/>
+      <c r="ACV13" s="1"/>
+      <c r="ACZ13" s="1"/>
+      <c r="ADD13" s="1"/>
+      <c r="ADH13" s="1"/>
+      <c r="ADL13" s="1"/>
+      <c r="ADP13" s="1"/>
+      <c r="ADT13" s="1"/>
+      <c r="ADX13" s="1"/>
+      <c r="AEB13" s="1"/>
+      <c r="AEF13" s="1"/>
+      <c r="AEJ13" s="1"/>
+      <c r="AEN13" s="1"/>
+      <c r="AER13" s="1"/>
+      <c r="AEV13" s="1"/>
+      <c r="AEZ13" s="1"/>
+      <c r="AFD13" s="1"/>
+      <c r="AFH13" s="1"/>
+      <c r="AFL13" s="1"/>
+      <c r="AFP13" s="1"/>
+      <c r="AFT13" s="1"/>
+      <c r="AFX13" s="1"/>
+      <c r="AGB13" s="1"/>
+      <c r="AGF13" s="1"/>
+      <c r="AGJ13" s="1"/>
+      <c r="AGN13" s="1"/>
+      <c r="AGR13" s="1"/>
+      <c r="AGV13" s="1"/>
+      <c r="AGZ13" s="1"/>
+      <c r="AHD13" s="1"/>
+      <c r="AHH13" s="1"/>
+      <c r="AHL13" s="1"/>
+      <c r="AHP13" s="1"/>
+      <c r="AHT13" s="1"/>
+      <c r="AHX13" s="1"/>
+      <c r="AIB13" s="1"/>
+      <c r="AIF13" s="1"/>
+      <c r="AIJ13" s="1"/>
+      <c r="AIN13" s="1"/>
+      <c r="AIR13" s="1"/>
+      <c r="AIV13" s="1"/>
+      <c r="AIZ13" s="1"/>
+      <c r="AJD13" s="1"/>
+      <c r="AJH13" s="1"/>
+      <c r="AJL13" s="1"/>
+      <c r="AJP13" s="1"/>
+      <c r="AJT13" s="1"/>
+      <c r="AJX13" s="1"/>
+      <c r="AKB13" s="1"/>
+      <c r="AKF13" s="1"/>
+      <c r="AKJ13" s="1"/>
+      <c r="AKN13" s="1"/>
+      <c r="AKR13" s="1"/>
+      <c r="AKV13" s="1"/>
+      <c r="AKZ13" s="1"/>
+      <c r="ALD13" s="1"/>
+      <c r="ALH13" s="1"/>
+      <c r="ALL13" s="1"/>
+      <c r="ALP13" s="1"/>
+      <c r="ALT13" s="1"/>
+      <c r="ALX13" s="1"/>
+      <c r="AMB13" s="1"/>
+      <c r="AMF13" s="1"/>
+      <c r="AMJ13" s="1"/>
+      <c r="AMN13" s="1"/>
+      <c r="AMR13" s="1"/>
+      <c r="AMV13" s="1"/>
+      <c r="AMZ13" s="1"/>
+      <c r="AND13" s="1"/>
+      <c r="ANH13" s="1"/>
+      <c r="ANL13" s="1"/>
+      <c r="ANP13" s="1"/>
+      <c r="ANT13" s="1"/>
+      <c r="ANX13" s="1"/>
+      <c r="AOB13" s="1"/>
+      <c r="AOF13" s="1"/>
+      <c r="AOJ13" s="1"/>
+      <c r="AON13" s="1"/>
+      <c r="AOR13" s="1"/>
+      <c r="AOV13" s="1"/>
+      <c r="AOZ13" s="1"/>
+      <c r="APD13" s="1"/>
+      <c r="APH13" s="1"/>
+      <c r="APL13" s="1"/>
+      <c r="APP13" s="1"/>
+      <c r="APT13" s="1"/>
+      <c r="APX13" s="1"/>
+      <c r="AQB13" s="1"/>
+      <c r="AQF13" s="1"/>
+      <c r="AQJ13" s="1"/>
+      <c r="AQN13" s="1"/>
+      <c r="AQR13" s="1"/>
+      <c r="AQV13" s="1"/>
+      <c r="AQZ13" s="1"/>
+      <c r="ARD13" s="1"/>
+      <c r="ARH13" s="1"/>
+      <c r="ARL13" s="1"/>
+      <c r="ARP13" s="1"/>
+      <c r="ART13" s="1"/>
+      <c r="ARX13" s="1"/>
+      <c r="ASB13" s="1"/>
+      <c r="ASF13" s="1"/>
+      <c r="ASJ13" s="1"/>
+      <c r="ASN13" s="1"/>
+      <c r="ASR13" s="1"/>
+      <c r="ASV13" s="1"/>
+      <c r="ASZ13" s="1"/>
+      <c r="ATD13" s="1"/>
+      <c r="ATH13" s="1"/>
+      <c r="ATL13" s="1"/>
+      <c r="ATP13" s="1"/>
+      <c r="ATT13" s="1"/>
+      <c r="ATX13" s="1"/>
+      <c r="AUB13" s="1"/>
+      <c r="AUF13" s="1"/>
+      <c r="AUJ13" s="1"/>
+      <c r="AUN13" s="1"/>
+      <c r="AUR13" s="1"/>
+      <c r="AUV13" s="1"/>
+      <c r="AUZ13" s="1"/>
+      <c r="AVD13" s="1"/>
+      <c r="AVH13" s="1"/>
+      <c r="AVL13" s="1"/>
+      <c r="AVP13" s="1"/>
+      <c r="AVT13" s="1"/>
+      <c r="AVX13" s="1"/>
+      <c r="AWB13" s="1"/>
+      <c r="AWF13" s="1"/>
+      <c r="AWJ13" s="1"/>
+      <c r="AWN13" s="1"/>
+      <c r="AWR13" s="1"/>
+      <c r="AWV13" s="1"/>
+      <c r="AWZ13" s="1"/>
+      <c r="AXD13" s="1"/>
+      <c r="AXH13" s="1"/>
+      <c r="AXL13" s="1"/>
+      <c r="AXP13" s="1"/>
+      <c r="AXT13" s="1"/>
+      <c r="AXX13" s="1"/>
+      <c r="AYB13" s="1"/>
+      <c r="AYF13" s="1"/>
+      <c r="AYJ13" s="1"/>
+      <c r="AYN13" s="1"/>
+      <c r="AYR13" s="1"/>
+      <c r="AYV13" s="1"/>
+      <c r="AYZ13" s="1"/>
+      <c r="AZD13" s="1"/>
+      <c r="AZH13" s="1"/>
+      <c r="AZL13" s="1"/>
+      <c r="AZP13" s="1"/>
+      <c r="AZT13" s="1"/>
+      <c r="AZX13" s="1"/>
+      <c r="BAB13" s="1"/>
+      <c r="BAF13" s="1"/>
+      <c r="BAJ13" s="1"/>
+      <c r="BAN13" s="1"/>
+      <c r="BAR13" s="1"/>
+      <c r="BAV13" s="1"/>
+      <c r="BAZ13" s="1"/>
+      <c r="BBD13" s="1"/>
+      <c r="BBH13" s="1"/>
+      <c r="BBL13" s="1"/>
+      <c r="BBP13" s="1"/>
+      <c r="BBT13" s="1"/>
+      <c r="BBX13" s="1"/>
+      <c r="BCB13" s="1"/>
+      <c r="BCF13" s="1"/>
+      <c r="BCJ13" s="1"/>
+      <c r="BCN13" s="1"/>
+      <c r="BCR13" s="1"/>
+      <c r="BCV13" s="1"/>
+      <c r="BCZ13" s="1"/>
+      <c r="BDD13" s="1"/>
+      <c r="BDH13" s="1"/>
+      <c r="BDL13" s="1"/>
+      <c r="BDP13" s="1"/>
+      <c r="BDT13" s="1"/>
+      <c r="BDX13" s="1"/>
+      <c r="BEB13" s="1"/>
+      <c r="BEF13" s="1"/>
+      <c r="BEJ13" s="1"/>
+      <c r="BEN13" s="1"/>
+      <c r="BER13" s="1"/>
+      <c r="BEV13" s="1"/>
+      <c r="BEZ13" s="1"/>
+      <c r="BFD13" s="1"/>
+      <c r="BFH13" s="1"/>
+      <c r="BFL13" s="1"/>
+      <c r="BFP13" s="1"/>
+      <c r="BFT13" s="1"/>
+      <c r="BFX13" s="1"/>
+      <c r="BGB13" s="1"/>
+      <c r="BGF13" s="1"/>
+      <c r="BGJ13" s="1"/>
+      <c r="BGN13" s="1"/>
+      <c r="BGR13" s="1"/>
+      <c r="BGV13" s="1"/>
+      <c r="BGZ13" s="1"/>
+      <c r="BHD13" s="1"/>
+      <c r="BHH13" s="1"/>
+      <c r="BHL13" s="1"/>
+      <c r="BHP13" s="1"/>
+      <c r="BHT13" s="1"/>
+      <c r="BHX13" s="1"/>
+      <c r="BIB13" s="1"/>
+      <c r="BIF13" s="1"/>
+      <c r="BIJ13" s="1"/>
+      <c r="BIN13" s="1"/>
+      <c r="BIR13" s="1"/>
+      <c r="BIV13" s="1"/>
+      <c r="BIZ13" s="1"/>
+      <c r="BJD13" s="1"/>
+      <c r="BJH13" s="1"/>
+      <c r="BJL13" s="1"/>
+      <c r="BJP13" s="1"/>
+      <c r="BJT13" s="1"/>
+      <c r="BJX13" s="1"/>
+      <c r="BKB13" s="1"/>
+      <c r="BKF13" s="1"/>
+      <c r="BKJ13" s="1"/>
+      <c r="BKN13" s="1"/>
+      <c r="BKR13" s="1"/>
+      <c r="BKV13" s="1"/>
+      <c r="BKZ13" s="1"/>
+      <c r="BLD13" s="1"/>
+      <c r="BLH13" s="1"/>
+      <c r="BLL13" s="1"/>
+      <c r="BLP13" s="1"/>
+      <c r="BLT13" s="1"/>
+      <c r="BLX13" s="1"/>
+      <c r="BMB13" s="1"/>
+      <c r="BMF13" s="1"/>
+      <c r="BMJ13" s="1"/>
+      <c r="BMN13" s="1"/>
+      <c r="BMR13" s="1"/>
+      <c r="BMV13" s="1"/>
+      <c r="BMZ13" s="1"/>
+      <c r="BND13" s="1"/>
+      <c r="BNH13" s="1"/>
+      <c r="BNL13" s="1"/>
+      <c r="BNP13" s="1"/>
+      <c r="BNT13" s="1"/>
+      <c r="BNX13" s="1"/>
+      <c r="BOB13" s="1"/>
+      <c r="BOF13" s="1"/>
+      <c r="BOJ13" s="1"/>
+      <c r="BON13" s="1"/>
+      <c r="BOR13" s="1"/>
+      <c r="BOV13" s="1"/>
+      <c r="BOZ13" s="1"/>
+      <c r="BPD13" s="1"/>
+      <c r="BPH13" s="1"/>
+      <c r="BPL13" s="1"/>
+      <c r="BPP13" s="1"/>
+      <c r="BPT13" s="1"/>
+      <c r="BPX13" s="1"/>
+      <c r="BQB13" s="1"/>
+      <c r="BQF13" s="1"/>
+      <c r="BQJ13" s="1"/>
+      <c r="BQN13" s="1"/>
+      <c r="BQR13" s="1"/>
+      <c r="BQV13" s="1"/>
+      <c r="BQZ13" s="1"/>
+      <c r="BRD13" s="1"/>
+      <c r="BRH13" s="1"/>
+      <c r="BRL13" s="1"/>
+      <c r="BRP13" s="1"/>
+      <c r="BRT13" s="1"/>
+      <c r="BRX13" s="1"/>
+      <c r="BSB13" s="1"/>
+      <c r="BSF13" s="1"/>
+      <c r="BSJ13" s="1"/>
+      <c r="BSN13" s="1"/>
+      <c r="BSR13" s="1"/>
+      <c r="BSV13" s="1"/>
+      <c r="BSZ13" s="1"/>
+      <c r="BTD13" s="1"/>
+      <c r="BTH13" s="1"/>
+      <c r="BTL13" s="1"/>
+      <c r="BTP13" s="1"/>
+      <c r="BTT13" s="1"/>
+      <c r="BTX13" s="1"/>
+      <c r="BUB13" s="1"/>
+      <c r="BUF13" s="1"/>
+      <c r="BUJ13" s="1"/>
+      <c r="BUN13" s="1"/>
+      <c r="BUR13" s="1"/>
+      <c r="BUV13" s="1"/>
+      <c r="BUZ13" s="1"/>
+      <c r="BVD13" s="1"/>
+      <c r="BVH13" s="1"/>
+      <c r="BVL13" s="1"/>
+      <c r="BVP13" s="1"/>
+      <c r="BVT13" s="1"/>
+      <c r="BVX13" s="1"/>
+      <c r="BWB13" s="1"/>
+      <c r="BWF13" s="1"/>
+      <c r="BWJ13" s="1"/>
+      <c r="BWN13" s="1"/>
+      <c r="BWR13" s="1"/>
+      <c r="BWV13" s="1"/>
+      <c r="BWZ13" s="1"/>
+      <c r="BXD13" s="1"/>
+      <c r="BXH13" s="1"/>
+      <c r="BXL13" s="1"/>
+      <c r="BXP13" s="1"/>
+      <c r="BXT13" s="1"/>
+      <c r="BXX13" s="1"/>
+      <c r="BYB13" s="1"/>
+      <c r="BYF13" s="1"/>
+      <c r="BYJ13" s="1"/>
+      <c r="BYN13" s="1"/>
+      <c r="BYR13" s="1"/>
+      <c r="BYV13" s="1"/>
+      <c r="BYZ13" s="1"/>
+      <c r="BZD13" s="1"/>
+      <c r="BZH13" s="1"/>
+      <c r="BZL13" s="1"/>
+      <c r="BZP13" s="1"/>
+      <c r="BZT13" s="1"/>
+      <c r="BZX13" s="1"/>
+      <c r="CAB13" s="1"/>
+      <c r="CAF13" s="1"/>
+      <c r="CAJ13" s="1"/>
+      <c r="CAN13" s="1"/>
+      <c r="CAR13" s="1"/>
+      <c r="CAV13" s="1"/>
+      <c r="CAZ13" s="1"/>
+      <c r="CBD13" s="1"/>
+      <c r="CBH13" s="1"/>
+      <c r="CBL13" s="1"/>
+      <c r="CBP13" s="1"/>
+      <c r="CBT13" s="1"/>
+      <c r="CBX13" s="1"/>
+      <c r="CCB13" s="1"/>
+      <c r="CCF13" s="1"/>
+      <c r="CCJ13" s="1"/>
+      <c r="CCN13" s="1"/>
+      <c r="CCR13" s="1"/>
+      <c r="CCV13" s="1"/>
+      <c r="CCZ13" s="1"/>
+      <c r="CDD13" s="1"/>
+      <c r="CDH13" s="1"/>
+      <c r="CDL13" s="1"/>
+      <c r="CDP13" s="1"/>
+      <c r="CDT13" s="1"/>
+      <c r="CDX13" s="1"/>
+      <c r="CEB13" s="1"/>
+      <c r="CEF13" s="1"/>
+      <c r="CEJ13" s="1"/>
+      <c r="CEN13" s="1"/>
+      <c r="CER13" s="1"/>
+      <c r="CEV13" s="1"/>
+      <c r="CEZ13" s="1"/>
+      <c r="CFD13" s="1"/>
+      <c r="CFH13" s="1"/>
+      <c r="CFL13" s="1"/>
+      <c r="CFP13" s="1"/>
+      <c r="CFT13" s="1"/>
+      <c r="CFX13" s="1"/>
+      <c r="CGB13" s="1"/>
+      <c r="CGF13" s="1"/>
+      <c r="CGJ13" s="1"/>
+      <c r="CGN13" s="1"/>
+      <c r="CGR13" s="1"/>
+      <c r="CGV13" s="1"/>
+      <c r="CGZ13" s="1"/>
+      <c r="CHD13" s="1"/>
+      <c r="CHH13" s="1"/>
+      <c r="CHL13" s="1"/>
+      <c r="CHP13" s="1"/>
+      <c r="CHT13" s="1"/>
+      <c r="CHX13" s="1"/>
+      <c r="CIB13" s="1"/>
+      <c r="CIF13" s="1"/>
+      <c r="CIJ13" s="1"/>
+      <c r="CIN13" s="1"/>
+      <c r="CIR13" s="1"/>
+      <c r="CIV13" s="1"/>
+      <c r="CIZ13" s="1"/>
+      <c r="CJD13" s="1"/>
+      <c r="CJH13" s="1"/>
+      <c r="CJL13" s="1"/>
+      <c r="CJP13" s="1"/>
+      <c r="CJT13" s="1"/>
+      <c r="CJX13" s="1"/>
+      <c r="CKB13" s="1"/>
+      <c r="CKF13" s="1"/>
+      <c r="CKJ13" s="1"/>
+      <c r="CKN13" s="1"/>
+      <c r="CKR13" s="1"/>
+      <c r="CKV13" s="1"/>
+      <c r="CKZ13" s="1"/>
+      <c r="CLD13" s="1"/>
+      <c r="CLH13" s="1"/>
+      <c r="CLL13" s="1"/>
+      <c r="CLP13" s="1"/>
+      <c r="CLT13" s="1"/>
+      <c r="CLX13" s="1"/>
+      <c r="CMB13" s="1"/>
+      <c r="CMF13" s="1"/>
+      <c r="CMJ13" s="1"/>
+      <c r="CMN13" s="1"/>
+      <c r="CMR13" s="1"/>
+      <c r="CMV13" s="1"/>
+      <c r="CMZ13" s="1"/>
+      <c r="CND13" s="1"/>
+      <c r="CNH13" s="1"/>
+      <c r="CNL13" s="1"/>
+      <c r="CNP13" s="1"/>
+      <c r="CNT13" s="1"/>
+      <c r="CNX13" s="1"/>
+      <c r="COB13" s="1"/>
+      <c r="COF13" s="1"/>
+      <c r="COJ13" s="1"/>
+      <c r="CON13" s="1"/>
+      <c r="COR13" s="1"/>
+      <c r="COV13" s="1"/>
+      <c r="COZ13" s="1"/>
+      <c r="CPD13" s="1"/>
+      <c r="CPH13" s="1"/>
+      <c r="CPL13" s="1"/>
+      <c r="CPP13" s="1"/>
+      <c r="CPT13" s="1"/>
+      <c r="CPX13" s="1"/>
+      <c r="CQB13" s="1"/>
+      <c r="CQF13" s="1"/>
+      <c r="CQJ13" s="1"/>
+      <c r="CQN13" s="1"/>
+      <c r="CQR13" s="1"/>
+      <c r="CQV13" s="1"/>
+      <c r="CQZ13" s="1"/>
+      <c r="CRD13" s="1"/>
+      <c r="CRH13" s="1"/>
+      <c r="CRL13" s="1"/>
+      <c r="CRP13" s="1"/>
+      <c r="CRT13" s="1"/>
+      <c r="CRX13" s="1"/>
+      <c r="CSB13" s="1"/>
+      <c r="CSF13" s="1"/>
+      <c r="CSJ13" s="1"/>
+      <c r="CSN13" s="1"/>
+      <c r="CSR13" s="1"/>
+      <c r="CSV13" s="1"/>
+      <c r="CSZ13" s="1"/>
+      <c r="CTD13" s="1"/>
+      <c r="CTH13" s="1"/>
+      <c r="CTL13" s="1"/>
+      <c r="CTP13" s="1"/>
+      <c r="CTT13" s="1"/>
+      <c r="CTX13" s="1"/>
+      <c r="CUB13" s="1"/>
+      <c r="CUF13" s="1"/>
+      <c r="CUJ13" s="1"/>
+      <c r="CUN13" s="1"/>
+      <c r="CUR13" s="1"/>
+      <c r="CUV13" s="1"/>
+      <c r="CUZ13" s="1"/>
+      <c r="CVD13" s="1"/>
+      <c r="CVH13" s="1"/>
+      <c r="CVL13" s="1"/>
+      <c r="CVP13" s="1"/>
+      <c r="CVT13" s="1"/>
+      <c r="CVX13" s="1"/>
+      <c r="CWB13" s="1"/>
+      <c r="CWF13" s="1"/>
+      <c r="CWJ13" s="1"/>
+      <c r="CWN13" s="1"/>
+      <c r="CWR13" s="1"/>
+      <c r="CWV13" s="1"/>
+      <c r="CWZ13" s="1"/>
+      <c r="CXD13" s="1"/>
+      <c r="CXH13" s="1"/>
+      <c r="CXL13" s="1"/>
+      <c r="CXP13" s="1"/>
+      <c r="CXT13" s="1"/>
+      <c r="CXX13" s="1"/>
+      <c r="CYB13" s="1"/>
+      <c r="CYF13" s="1"/>
+      <c r="CYJ13" s="1"/>
+      <c r="CYN13" s="1"/>
+      <c r="CYR13" s="1"/>
+      <c r="CYV13" s="1"/>
+      <c r="CYZ13" s="1"/>
+      <c r="CZD13" s="1"/>
+      <c r="CZH13" s="1"/>
+      <c r="CZL13" s="1"/>
+      <c r="CZP13" s="1"/>
+      <c r="CZT13" s="1"/>
+      <c r="CZX13" s="1"/>
+      <c r="DAB13" s="1"/>
+      <c r="DAF13" s="1"/>
+      <c r="DAJ13" s="1"/>
+      <c r="DAN13" s="1"/>
+      <c r="DAR13" s="1"/>
+      <c r="DAV13" s="1"/>
+      <c r="DAZ13" s="1"/>
+      <c r="DBD13" s="1"/>
+      <c r="DBH13" s="1"/>
+      <c r="DBL13" s="1"/>
+      <c r="DBP13" s="1"/>
+      <c r="DBT13" s="1"/>
+      <c r="DBX13" s="1"/>
+      <c r="DCB13" s="1"/>
+      <c r="DCF13" s="1"/>
+      <c r="DCJ13" s="1"/>
+      <c r="DCN13" s="1"/>
+      <c r="DCR13" s="1"/>
+      <c r="DCV13" s="1"/>
+      <c r="DCZ13" s="1"/>
+      <c r="DDD13" s="1"/>
+      <c r="DDH13" s="1"/>
+      <c r="DDL13" s="1"/>
+      <c r="DDP13" s="1"/>
+      <c r="DDT13" s="1"/>
+      <c r="DDX13" s="1"/>
+      <c r="DEB13" s="1"/>
+      <c r="DEF13" s="1"/>
+      <c r="DEJ13" s="1"/>
+      <c r="DEN13" s="1"/>
+      <c r="DER13" s="1"/>
+      <c r="DEV13" s="1"/>
+      <c r="DEZ13" s="1"/>
+      <c r="DFD13" s="1"/>
+      <c r="DFH13" s="1"/>
+      <c r="DFL13" s="1"/>
+      <c r="DFP13" s="1"/>
+      <c r="DFT13" s="1"/>
+      <c r="DFX13" s="1"/>
+      <c r="DGB13" s="1"/>
+      <c r="DGF13" s="1"/>
+      <c r="DGJ13" s="1"/>
+      <c r="DGN13" s="1"/>
+      <c r="DGR13" s="1"/>
+      <c r="DGV13" s="1"/>
+      <c r="DGZ13" s="1"/>
+      <c r="DHD13" s="1"/>
+      <c r="DHH13" s="1"/>
+      <c r="DHL13" s="1"/>
+      <c r="DHP13" s="1"/>
+      <c r="DHT13" s="1"/>
+      <c r="DHX13" s="1"/>
+      <c r="DIB13" s="1"/>
+      <c r="DIF13" s="1"/>
+      <c r="DIJ13" s="1"/>
+      <c r="DIN13" s="1"/>
+      <c r="DIR13" s="1"/>
+      <c r="DIV13" s="1"/>
+      <c r="DIZ13" s="1"/>
+      <c r="DJD13" s="1"/>
+      <c r="DJH13" s="1"/>
+      <c r="DJL13" s="1"/>
+      <c r="DJP13" s="1"/>
+      <c r="DJT13" s="1"/>
+      <c r="DJX13" s="1"/>
+      <c r="DKB13" s="1"/>
+      <c r="DKF13" s="1"/>
+      <c r="DKJ13" s="1"/>
+      <c r="DKN13" s="1"/>
+      <c r="DKR13" s="1"/>
+      <c r="DKV13" s="1"/>
+      <c r="DKZ13" s="1"/>
+      <c r="DLD13" s="1"/>
+      <c r="DLH13" s="1"/>
+      <c r="DLL13" s="1"/>
+      <c r="DLP13" s="1"/>
+      <c r="DLT13" s="1"/>
+      <c r="DLX13" s="1"/>
+      <c r="DMB13" s="1"/>
+      <c r="DMF13" s="1"/>
+      <c r="DMJ13" s="1"/>
+      <c r="DMN13" s="1"/>
+      <c r="DMR13" s="1"/>
+      <c r="DMV13" s="1"/>
+      <c r="DMZ13" s="1"/>
+      <c r="DND13" s="1"/>
+      <c r="DNH13" s="1"/>
+      <c r="DNL13" s="1"/>
+      <c r="DNP13" s="1"/>
+      <c r="DNT13" s="1"/>
+      <c r="DNX13" s="1"/>
+      <c r="DOB13" s="1"/>
+      <c r="DOF13" s="1"/>
+      <c r="DOJ13" s="1"/>
+      <c r="DON13" s="1"/>
+      <c r="DOR13" s="1"/>
+      <c r="DOV13" s="1"/>
+      <c r="DOZ13" s="1"/>
+      <c r="DPD13" s="1"/>
+      <c r="DPH13" s="1"/>
+      <c r="DPL13" s="1"/>
+      <c r="DPP13" s="1"/>
+      <c r="DPT13" s="1"/>
+      <c r="DPX13" s="1"/>
+      <c r="DQB13" s="1"/>
+      <c r="DQF13" s="1"/>
+      <c r="DQJ13" s="1"/>
+      <c r="DQN13" s="1"/>
+      <c r="DQR13" s="1"/>
+      <c r="DQV13" s="1"/>
+      <c r="DQZ13" s="1"/>
+      <c r="DRD13" s="1"/>
+      <c r="DRH13" s="1"/>
+      <c r="DRL13" s="1"/>
+      <c r="DRP13" s="1"/>
+      <c r="DRT13" s="1"/>
+      <c r="DRX13" s="1"/>
+      <c r="DSB13" s="1"/>
+      <c r="DSF13" s="1"/>
+      <c r="DSJ13" s="1"/>
+      <c r="DSN13" s="1"/>
+      <c r="DSR13" s="1"/>
+      <c r="DSV13" s="1"/>
+      <c r="DSZ13" s="1"/>
+      <c r="DTD13" s="1"/>
+      <c r="DTH13" s="1"/>
+      <c r="DTL13" s="1"/>
+      <c r="DTP13" s="1"/>
+      <c r="DTT13" s="1"/>
+      <c r="DTX13" s="1"/>
+      <c r="DUB13" s="1"/>
+      <c r="DUF13" s="1"/>
+      <c r="DUJ13" s="1"/>
+      <c r="DUN13" s="1"/>
+      <c r="DUR13" s="1"/>
+      <c r="DUV13" s="1"/>
+      <c r="DUZ13" s="1"/>
+      <c r="DVD13" s="1"/>
+      <c r="DVH13" s="1"/>
+      <c r="DVL13" s="1"/>
+      <c r="DVP13" s="1"/>
+      <c r="DVT13" s="1"/>
+      <c r="DVX13" s="1"/>
+      <c r="DWB13" s="1"/>
+      <c r="DWF13" s="1"/>
+      <c r="DWJ13" s="1"/>
+      <c r="DWN13" s="1"/>
+      <c r="DWR13" s="1"/>
+      <c r="DWV13" s="1"/>
+      <c r="DWZ13" s="1"/>
+      <c r="DXD13" s="1"/>
+      <c r="DXH13" s="1"/>
+      <c r="DXL13" s="1"/>
+      <c r="DXP13" s="1"/>
+      <c r="DXT13" s="1"/>
+      <c r="DXX13" s="1"/>
+      <c r="DYB13" s="1"/>
+      <c r="DYF13" s="1"/>
+      <c r="DYJ13" s="1"/>
+      <c r="DYN13" s="1"/>
+      <c r="DYR13" s="1"/>
+      <c r="DYV13" s="1"/>
+      <c r="DYZ13" s="1"/>
+      <c r="DZD13" s="1"/>
+      <c r="DZH13" s="1"/>
+      <c r="DZL13" s="1"/>
+      <c r="DZP13" s="1"/>
+      <c r="DZT13" s="1"/>
+      <c r="DZX13" s="1"/>
+      <c r="EAB13" s="1"/>
+      <c r="EAF13" s="1"/>
+      <c r="EAJ13" s="1"/>
+      <c r="EAN13" s="1"/>
+      <c r="EAR13" s="1"/>
+      <c r="EAV13" s="1"/>
+      <c r="EAZ13" s="1"/>
+      <c r="EBD13" s="1"/>
+      <c r="EBH13" s="1"/>
+      <c r="EBL13" s="1"/>
+      <c r="EBP13" s="1"/>
+      <c r="EBT13" s="1"/>
+      <c r="EBX13" s="1"/>
+      <c r="ECB13" s="1"/>
+      <c r="ECF13" s="1"/>
+      <c r="ECJ13" s="1"/>
+      <c r="ECN13" s="1"/>
+      <c r="ECR13" s="1"/>
+      <c r="ECV13" s="1"/>
+      <c r="ECZ13" s="1"/>
+      <c r="EDD13" s="1"/>
+      <c r="EDH13" s="1"/>
+      <c r="EDL13" s="1"/>
+      <c r="EDP13" s="1"/>
+      <c r="EDT13" s="1"/>
+      <c r="EDX13" s="1"/>
+      <c r="EEB13" s="1"/>
+      <c r="EEF13" s="1"/>
+      <c r="EEJ13" s="1"/>
+      <c r="EEN13" s="1"/>
+      <c r="EER13" s="1"/>
+      <c r="EEV13" s="1"/>
+      <c r="EEZ13" s="1"/>
+      <c r="EFD13" s="1"/>
+      <c r="EFH13" s="1"/>
+      <c r="EFL13" s="1"/>
+      <c r="EFP13" s="1"/>
+      <c r="EFT13" s="1"/>
+      <c r="EFX13" s="1"/>
+      <c r="EGB13" s="1"/>
+      <c r="EGF13" s="1"/>
+      <c r="EGJ13" s="1"/>
+      <c r="EGN13" s="1"/>
+      <c r="EGR13" s="1"/>
+      <c r="EGV13" s="1"/>
+      <c r="EGZ13" s="1"/>
+      <c r="EHD13" s="1"/>
+      <c r="EHH13" s="1"/>
+      <c r="EHL13" s="1"/>
+      <c r="EHP13" s="1"/>
+      <c r="EHT13" s="1"/>
+      <c r="EHX13" s="1"/>
+      <c r="EIB13" s="1"/>
+      <c r="EIF13" s="1"/>
+      <c r="EIJ13" s="1"/>
+      <c r="EIN13" s="1"/>
+      <c r="EIR13" s="1"/>
+      <c r="EIV13" s="1"/>
+      <c r="EIZ13" s="1"/>
+      <c r="EJD13" s="1"/>
+      <c r="EJH13" s="1"/>
+      <c r="EJL13" s="1"/>
+      <c r="EJP13" s="1"/>
+      <c r="EJT13" s="1"/>
+      <c r="EJX13" s="1"/>
+      <c r="EKB13" s="1"/>
+      <c r="EKF13" s="1"/>
+      <c r="EKJ13" s="1"/>
+      <c r="EKN13" s="1"/>
+      <c r="EKR13" s="1"/>
+      <c r="EKV13" s="1"/>
+      <c r="EKZ13" s="1"/>
+      <c r="ELD13" s="1"/>
+      <c r="ELH13" s="1"/>
+      <c r="ELL13" s="1"/>
+      <c r="ELP13" s="1"/>
+      <c r="ELT13" s="1"/>
+      <c r="ELX13" s="1"/>
+      <c r="EMB13" s="1"/>
+      <c r="EMF13" s="1"/>
+      <c r="EMJ13" s="1"/>
+      <c r="EMN13" s="1"/>
+      <c r="EMR13" s="1"/>
+      <c r="EMV13" s="1"/>
+      <c r="EMZ13" s="1"/>
+      <c r="END13" s="1"/>
+      <c r="ENH13" s="1"/>
+      <c r="ENL13" s="1"/>
+      <c r="ENP13" s="1"/>
+      <c r="ENT13" s="1"/>
+      <c r="ENX13" s="1"/>
+      <c r="EOB13" s="1"/>
+      <c r="EOF13" s="1"/>
+      <c r="EOJ13" s="1"/>
+      <c r="EON13" s="1"/>
+      <c r="EOR13" s="1"/>
+      <c r="EOV13" s="1"/>
+      <c r="EOZ13" s="1"/>
+      <c r="EPD13" s="1"/>
+      <c r="EPH13" s="1"/>
+      <c r="EPL13" s="1"/>
+      <c r="EPP13" s="1"/>
+      <c r="EPT13" s="1"/>
+      <c r="EPX13" s="1"/>
+      <c r="EQB13" s="1"/>
+      <c r="EQF13" s="1"/>
+      <c r="EQJ13" s="1"/>
+      <c r="EQN13" s="1"/>
+      <c r="EQR13" s="1"/>
+      <c r="EQV13" s="1"/>
+      <c r="EQZ13" s="1"/>
+      <c r="ERD13" s="1"/>
+      <c r="ERH13" s="1"/>
+      <c r="ERL13" s="1"/>
+      <c r="ERP13" s="1"/>
+      <c r="ERT13" s="1"/>
+      <c r="ERX13" s="1"/>
+      <c r="ESB13" s="1"/>
+      <c r="ESF13" s="1"/>
+      <c r="ESJ13" s="1"/>
+      <c r="ESN13" s="1"/>
+      <c r="ESR13" s="1"/>
+      <c r="ESV13" s="1"/>
+      <c r="ESZ13" s="1"/>
+      <c r="ETD13" s="1"/>
+      <c r="ETH13" s="1"/>
+      <c r="ETL13" s="1"/>
+      <c r="ETP13" s="1"/>
+      <c r="ETT13" s="1"/>
+      <c r="ETX13" s="1"/>
+      <c r="EUB13" s="1"/>
+      <c r="EUF13" s="1"/>
+      <c r="EUJ13" s="1"/>
+      <c r="EUN13" s="1"/>
+      <c r="EUR13" s="1"/>
+      <c r="EUV13" s="1"/>
+      <c r="EUZ13" s="1"/>
+      <c r="EVD13" s="1"/>
+      <c r="EVH13" s="1"/>
+      <c r="EVL13" s="1"/>
+      <c r="EVP13" s="1"/>
+      <c r="EVT13" s="1"/>
+      <c r="EVX13" s="1"/>
+      <c r="EWB13" s="1"/>
+      <c r="EWF13" s="1"/>
+      <c r="EWJ13" s="1"/>
+      <c r="EWN13" s="1"/>
+      <c r="EWR13" s="1"/>
+      <c r="EWV13" s="1"/>
+      <c r="EWZ13" s="1"/>
+      <c r="EXD13" s="1"/>
+      <c r="EXH13" s="1"/>
+      <c r="EXL13" s="1"/>
+      <c r="EXP13" s="1"/>
+      <c r="EXT13" s="1"/>
+      <c r="EXX13" s="1"/>
+      <c r="EYB13" s="1"/>
+      <c r="EYF13" s="1"/>
+      <c r="EYJ13" s="1"/>
+      <c r="EYN13" s="1"/>
+      <c r="EYR13" s="1"/>
+      <c r="EYV13" s="1"/>
+      <c r="EYZ13" s="1"/>
+      <c r="EZD13" s="1"/>
+      <c r="EZH13" s="1"/>
+      <c r="EZL13" s="1"/>
+      <c r="EZP13" s="1"/>
+      <c r="EZT13" s="1"/>
+      <c r="EZX13" s="1"/>
+      <c r="FAB13" s="1"/>
+      <c r="FAF13" s="1"/>
+      <c r="FAJ13" s="1"/>
+      <c r="FAN13" s="1"/>
+      <c r="FAR13" s="1"/>
+      <c r="FAV13" s="1"/>
+      <c r="FAZ13" s="1"/>
+      <c r="FBD13" s="1"/>
+      <c r="FBH13" s="1"/>
+      <c r="FBL13" s="1"/>
+      <c r="FBP13" s="1"/>
+      <c r="FBT13" s="1"/>
+      <c r="FBX13" s="1"/>
+      <c r="FCB13" s="1"/>
+      <c r="FCF13" s="1"/>
+      <c r="FCJ13" s="1"/>
+      <c r="FCN13" s="1"/>
+      <c r="FCR13" s="1"/>
+      <c r="FCV13" s="1"/>
+      <c r="FCZ13" s="1"/>
+      <c r="FDD13" s="1"/>
+      <c r="FDH13" s="1"/>
+      <c r="FDL13" s="1"/>
+      <c r="FDP13" s="1"/>
+      <c r="FDT13" s="1"/>
+      <c r="FDX13" s="1"/>
+      <c r="FEB13" s="1"/>
+      <c r="FEF13" s="1"/>
+      <c r="FEJ13" s="1"/>
+      <c r="FEN13" s="1"/>
+      <c r="FER13" s="1"/>
+      <c r="FEV13" s="1"/>
+      <c r="FEZ13" s="1"/>
+      <c r="FFD13" s="1"/>
+      <c r="FFH13" s="1"/>
+      <c r="FFL13" s="1"/>
+      <c r="FFP13" s="1"/>
+      <c r="FFT13" s="1"/>
+      <c r="FFX13" s="1"/>
+      <c r="FGB13" s="1"/>
+      <c r="FGF13" s="1"/>
+      <c r="FGJ13" s="1"/>
+      <c r="FGN13" s="1"/>
+      <c r="FGR13" s="1"/>
+      <c r="FGV13" s="1"/>
+      <c r="FGZ13" s="1"/>
+      <c r="FHD13" s="1"/>
+      <c r="FHH13" s="1"/>
+      <c r="FHL13" s="1"/>
+      <c r="FHP13" s="1"/>
+      <c r="FHT13" s="1"/>
+      <c r="FHX13" s="1"/>
+      <c r="FIB13" s="1"/>
+      <c r="FIF13" s="1"/>
+      <c r="FIJ13" s="1"/>
+      <c r="FIN13" s="1"/>
+      <c r="FIR13" s="1"/>
+      <c r="FIV13" s="1"/>
+      <c r="FIZ13" s="1"/>
+      <c r="FJD13" s="1"/>
+      <c r="FJH13" s="1"/>
+      <c r="FJL13" s="1"/>
+      <c r="FJP13" s="1"/>
+      <c r="FJT13" s="1"/>
+      <c r="FJX13" s="1"/>
+      <c r="FKB13" s="1"/>
+      <c r="FKF13" s="1"/>
+      <c r="FKJ13" s="1"/>
+      <c r="FKN13" s="1"/>
+      <c r="FKR13" s="1"/>
+      <c r="FKV13" s="1"/>
+      <c r="FKZ13" s="1"/>
+      <c r="FLD13" s="1"/>
+      <c r="FLH13" s="1"/>
+      <c r="FLL13" s="1"/>
+      <c r="FLP13" s="1"/>
+      <c r="FLT13" s="1"/>
+      <c r="FLX13" s="1"/>
+      <c r="FMB13" s="1"/>
+      <c r="FMF13" s="1"/>
+      <c r="FMJ13" s="1"/>
+      <c r="FMN13" s="1"/>
+      <c r="FMR13" s="1"/>
+      <c r="FMV13" s="1"/>
+      <c r="FMZ13" s="1"/>
+      <c r="FND13" s="1"/>
+      <c r="FNH13" s="1"/>
+      <c r="FNL13" s="1"/>
+      <c r="FNP13" s="1"/>
+      <c r="FNT13" s="1"/>
+      <c r="FNX13" s="1"/>
+      <c r="FOB13" s="1"/>
+      <c r="FOF13" s="1"/>
+      <c r="FOJ13" s="1"/>
+      <c r="FON13" s="1"/>
+      <c r="FOR13" s="1"/>
+      <c r="FOV13" s="1"/>
+      <c r="FOZ13" s="1"/>
+      <c r="FPD13" s="1"/>
+      <c r="FPH13" s="1"/>
+      <c r="FPL13" s="1"/>
+      <c r="FPP13" s="1"/>
+      <c r="FPT13" s="1"/>
+      <c r="FPX13" s="1"/>
+      <c r="FQB13" s="1"/>
+      <c r="FQF13" s="1"/>
+      <c r="FQJ13" s="1"/>
+      <c r="FQN13" s="1"/>
+      <c r="FQR13" s="1"/>
+      <c r="FQV13" s="1"/>
+      <c r="FQZ13" s="1"/>
+      <c r="FRD13" s="1"/>
+      <c r="FRH13" s="1"/>
+      <c r="FRL13" s="1"/>
+      <c r="FRP13" s="1"/>
+      <c r="FRT13" s="1"/>
+      <c r="FRX13" s="1"/>
+      <c r="FSB13" s="1"/>
+      <c r="FSF13" s="1"/>
+      <c r="FSJ13" s="1"/>
+      <c r="FSN13" s="1"/>
+      <c r="FSR13" s="1"/>
+      <c r="FSV13" s="1"/>
+      <c r="FSZ13" s="1"/>
+      <c r="FTD13" s="1"/>
+      <c r="FTH13" s="1"/>
+      <c r="FTL13" s="1"/>
+      <c r="FTP13" s="1"/>
+      <c r="FTT13" s="1"/>
+      <c r="FTX13" s="1"/>
+      <c r="FUB13" s="1"/>
+      <c r="FUF13" s="1"/>
+      <c r="FUJ13" s="1"/>
+      <c r="FUN13" s="1"/>
+      <c r="FUR13" s="1"/>
+      <c r="FUV13" s="1"/>
+      <c r="FUZ13" s="1"/>
+      <c r="FVD13" s="1"/>
+      <c r="FVH13" s="1"/>
+      <c r="FVL13" s="1"/>
+      <c r="FVP13" s="1"/>
+      <c r="FVT13" s="1"/>
+      <c r="FVX13" s="1"/>
+      <c r="FWB13" s="1"/>
+      <c r="FWF13" s="1"/>
+      <c r="FWJ13" s="1"/>
+      <c r="FWN13" s="1"/>
+      <c r="FWR13" s="1"/>
+      <c r="FWV13" s="1"/>
+      <c r="FWZ13" s="1"/>
+      <c r="FXD13" s="1"/>
+      <c r="FXH13" s="1"/>
+      <c r="FXL13" s="1"/>
+      <c r="FXP13" s="1"/>
+      <c r="FXT13" s="1"/>
+      <c r="FXX13" s="1"/>
+      <c r="FYB13" s="1"/>
+      <c r="FYF13" s="1"/>
+      <c r="FYJ13" s="1"/>
+      <c r="FYN13" s="1"/>
+      <c r="FYR13" s="1"/>
+      <c r="FYV13" s="1"/>
+      <c r="FYZ13" s="1"/>
+      <c r="FZD13" s="1"/>
+      <c r="FZH13" s="1"/>
+      <c r="FZL13" s="1"/>
+      <c r="FZP13" s="1"/>
+      <c r="FZT13" s="1"/>
+      <c r="FZX13" s="1"/>
+      <c r="GAB13" s="1"/>
+      <c r="GAF13" s="1"/>
+      <c r="GAJ13" s="1"/>
+      <c r="GAN13" s="1"/>
+      <c r="GAR13" s="1"/>
+      <c r="GAV13" s="1"/>
+      <c r="GAZ13" s="1"/>
+      <c r="GBD13" s="1"/>
+      <c r="GBH13" s="1"/>
+      <c r="GBL13" s="1"/>
+      <c r="GBP13" s="1"/>
+      <c r="GBT13" s="1"/>
+      <c r="GBX13" s="1"/>
+      <c r="GCB13" s="1"/>
+      <c r="GCF13" s="1"/>
+      <c r="GCJ13" s="1"/>
+      <c r="GCN13" s="1"/>
+      <c r="GCR13" s="1"/>
+      <c r="GCV13" s="1"/>
+      <c r="GCZ13" s="1"/>
+      <c r="GDD13" s="1"/>
+      <c r="GDH13" s="1"/>
+      <c r="GDL13" s="1"/>
+      <c r="GDP13" s="1"/>
+      <c r="GDT13" s="1"/>
+      <c r="GDX13" s="1"/>
+      <c r="GEB13" s="1"/>
+      <c r="GEF13" s="1"/>
+      <c r="GEJ13" s="1"/>
+      <c r="GEN13" s="1"/>
+      <c r="GER13" s="1"/>
+      <c r="GEV13" s="1"/>
+      <c r="GEZ13" s="1"/>
+      <c r="GFD13" s="1"/>
+      <c r="GFH13" s="1"/>
+      <c r="GFL13" s="1"/>
+      <c r="GFP13" s="1"/>
+      <c r="GFT13" s="1"/>
+      <c r="GFX13" s="1"/>
+      <c r="GGB13" s="1"/>
+      <c r="GGF13" s="1"/>
+      <c r="GGJ13" s="1"/>
+      <c r="GGN13" s="1"/>
+      <c r="GGR13" s="1"/>
+      <c r="GGV13" s="1"/>
+      <c r="GGZ13" s="1"/>
+      <c r="GHD13" s="1"/>
+      <c r="GHH13" s="1"/>
+      <c r="GHL13" s="1"/>
+      <c r="GHP13" s="1"/>
+      <c r="GHT13" s="1"/>
+      <c r="GHX13" s="1"/>
+      <c r="GIB13" s="1"/>
+      <c r="GIF13" s="1"/>
+      <c r="GIJ13" s="1"/>
+      <c r="GIN13" s="1"/>
+      <c r="GIR13" s="1"/>
+      <c r="GIV13" s="1"/>
+      <c r="GIZ13" s="1"/>
+      <c r="GJD13" s="1"/>
+      <c r="GJH13" s="1"/>
+      <c r="GJL13" s="1"/>
+      <c r="GJP13" s="1"/>
+      <c r="GJT13" s="1"/>
+      <c r="GJX13" s="1"/>
+      <c r="GKB13" s="1"/>
+      <c r="GKF13" s="1"/>
+      <c r="GKJ13" s="1"/>
+      <c r="GKN13" s="1"/>
+      <c r="GKR13" s="1"/>
+      <c r="GKV13" s="1"/>
+      <c r="GKZ13" s="1"/>
+      <c r="GLD13" s="1"/>
+      <c r="GLH13" s="1"/>
+      <c r="GLL13" s="1"/>
+      <c r="GLP13" s="1"/>
+      <c r="GLT13" s="1"/>
+      <c r="GLX13" s="1"/>
+      <c r="GMB13" s="1"/>
+      <c r="GMF13" s="1"/>
+      <c r="GMJ13" s="1"/>
+      <c r="GMN13" s="1"/>
+      <c r="GMR13" s="1"/>
+      <c r="GMV13" s="1"/>
+      <c r="GMZ13" s="1"/>
+      <c r="GND13" s="1"/>
+      <c r="GNH13" s="1"/>
+      <c r="GNL13" s="1"/>
+      <c r="GNP13" s="1"/>
+      <c r="GNT13" s="1"/>
+      <c r="GNX13" s="1"/>
+      <c r="GOB13" s="1"/>
+      <c r="GOF13" s="1"/>
+      <c r="GOJ13" s="1"/>
+      <c r="GON13" s="1"/>
+      <c r="GOR13" s="1"/>
+      <c r="GOV13" s="1"/>
+      <c r="GOZ13" s="1"/>
+      <c r="GPD13" s="1"/>
+      <c r="GPH13" s="1"/>
+      <c r="GPL13" s="1"/>
+      <c r="GPP13" s="1"/>
+      <c r="GPT13" s="1"/>
+      <c r="GPX13" s="1"/>
+      <c r="GQB13" s="1"/>
+      <c r="GQF13" s="1"/>
+      <c r="GQJ13" s="1"/>
+      <c r="GQN13" s="1"/>
+      <c r="GQR13" s="1"/>
+      <c r="GQV13" s="1"/>
+      <c r="GQZ13" s="1"/>
+      <c r="GRD13" s="1"/>
+      <c r="GRH13" s="1"/>
+      <c r="GRL13" s="1"/>
+      <c r="GRP13" s="1"/>
+      <c r="GRT13" s="1"/>
+      <c r="GRX13" s="1"/>
+      <c r="GSB13" s="1"/>
+      <c r="GSF13" s="1"/>
+      <c r="GSJ13" s="1"/>
+      <c r="GSN13" s="1"/>
+      <c r="GSR13" s="1"/>
+      <c r="GSV13" s="1"/>
+      <c r="GSZ13" s="1"/>
+      <c r="GTD13" s="1"/>
+      <c r="GTH13" s="1"/>
+      <c r="GTL13" s="1"/>
+      <c r="GTP13" s="1"/>
+      <c r="GTT13" s="1"/>
+      <c r="GTX13" s="1"/>
+      <c r="GUB13" s="1"/>
+      <c r="GUF13" s="1"/>
+      <c r="GUJ13" s="1"/>
+      <c r="GUN13" s="1"/>
+      <c r="GUR13" s="1"/>
+      <c r="GUV13" s="1"/>
+      <c r="GUZ13" s="1"/>
+      <c r="GVD13" s="1"/>
+      <c r="GVH13" s="1"/>
+      <c r="GVL13" s="1"/>
+      <c r="GVP13" s="1"/>
+      <c r="GVT13" s="1"/>
+      <c r="GVX13" s="1"/>
+      <c r="GWB13" s="1"/>
+      <c r="GWF13" s="1"/>
+      <c r="GWJ13" s="1"/>
+      <c r="GWN13" s="1"/>
+      <c r="GWR13" s="1"/>
+      <c r="GWV13" s="1"/>
+      <c r="GWZ13" s="1"/>
+      <c r="GXD13" s="1"/>
+      <c r="GXH13" s="1"/>
+      <c r="GXL13" s="1"/>
+      <c r="GXP13" s="1"/>
+      <c r="GXT13" s="1"/>
+      <c r="GXX13" s="1"/>
+      <c r="GYB13" s="1"/>
+      <c r="GYF13" s="1"/>
+      <c r="GYJ13" s="1"/>
+      <c r="GYN13" s="1"/>
+      <c r="GYR13" s="1"/>
+      <c r="GYV13" s="1"/>
+      <c r="GYZ13" s="1"/>
+      <c r="GZD13" s="1"/>
+      <c r="GZH13" s="1"/>
+      <c r="GZL13" s="1"/>
+      <c r="GZP13" s="1"/>
+      <c r="GZT13" s="1"/>
+      <c r="GZX13" s="1"/>
+      <c r="HAB13" s="1"/>
+      <c r="HAF13" s="1"/>
+      <c r="HAJ13" s="1"/>
+      <c r="HAN13" s="1"/>
+      <c r="HAR13" s="1"/>
+      <c r="HAV13" s="1"/>
+      <c r="HAZ13" s="1"/>
+      <c r="HBD13" s="1"/>
+      <c r="HBH13" s="1"/>
+      <c r="HBL13" s="1"/>
+      <c r="HBP13" s="1"/>
+      <c r="HBT13" s="1"/>
+      <c r="HBX13" s="1"/>
+      <c r="HCB13" s="1"/>
+      <c r="HCF13" s="1"/>
+      <c r="HCJ13" s="1"/>
+      <c r="HCN13" s="1"/>
+      <c r="HCR13" s="1"/>
+      <c r="HCV13" s="1"/>
+      <c r="HCZ13" s="1"/>
+      <c r="HDD13" s="1"/>
+      <c r="HDH13" s="1"/>
+      <c r="HDL13" s="1"/>
+      <c r="HDP13" s="1"/>
+      <c r="HDT13" s="1"/>
+      <c r="HDX13" s="1"/>
+      <c r="HEB13" s="1"/>
+      <c r="HEF13" s="1"/>
+      <c r="HEJ13" s="1"/>
+      <c r="HEN13" s="1"/>
+      <c r="HER13" s="1"/>
+      <c r="HEV13" s="1"/>
+      <c r="HEZ13" s="1"/>
+      <c r="HFD13" s="1"/>
+      <c r="HFH13" s="1"/>
+      <c r="HFL13" s="1"/>
+      <c r="HFP13" s="1"/>
+      <c r="HFT13" s="1"/>
+      <c r="HFX13" s="1"/>
+      <c r="HGB13" s="1"/>
+      <c r="HGF13" s="1"/>
+      <c r="HGJ13" s="1"/>
+      <c r="HGN13" s="1"/>
+      <c r="HGR13" s="1"/>
+      <c r="HGV13" s="1"/>
+      <c r="HGZ13" s="1"/>
+      <c r="HHD13" s="1"/>
+      <c r="HHH13" s="1"/>
+      <c r="HHL13" s="1"/>
+      <c r="HHP13" s="1"/>
+      <c r="HHT13" s="1"/>
+      <c r="HHX13" s="1"/>
+      <c r="HIB13" s="1"/>
+      <c r="HIF13" s="1"/>
+      <c r="HIJ13" s="1"/>
+      <c r="HIN13" s="1"/>
+      <c r="HIR13" s="1"/>
+      <c r="HIV13" s="1"/>
+      <c r="HIZ13" s="1"/>
+      <c r="HJD13" s="1"/>
+      <c r="HJH13" s="1"/>
+      <c r="HJL13" s="1"/>
+      <c r="HJP13" s="1"/>
+      <c r="HJT13" s="1"/>
+      <c r="HJX13" s="1"/>
+      <c r="HKB13" s="1"/>
+      <c r="HKF13" s="1"/>
+      <c r="HKJ13" s="1"/>
+      <c r="HKN13" s="1"/>
+      <c r="HKR13" s="1"/>
+      <c r="HKV13" s="1"/>
+      <c r="HKZ13" s="1"/>
+      <c r="HLD13" s="1"/>
+      <c r="HLH13" s="1"/>
+      <c r="HLL13" s="1"/>
+      <c r="HLP13" s="1"/>
+      <c r="HLT13" s="1"/>
+      <c r="HLX13" s="1"/>
+      <c r="HMB13" s="1"/>
+      <c r="HMF13" s="1"/>
+      <c r="HMJ13" s="1"/>
+      <c r="HMN13" s="1"/>
+      <c r="HMR13" s="1"/>
+      <c r="HMV13" s="1"/>
+      <c r="HMZ13" s="1"/>
+      <c r="HND13" s="1"/>
+      <c r="HNH13" s="1"/>
+      <c r="HNL13" s="1"/>
+      <c r="HNP13" s="1"/>
+      <c r="HNT13" s="1"/>
+      <c r="HNX13" s="1"/>
+      <c r="HOB13" s="1"/>
+      <c r="HOF13" s="1"/>
+      <c r="HOJ13" s="1"/>
+      <c r="HON13" s="1"/>
+      <c r="HOR13" s="1"/>
+      <c r="HOV13" s="1"/>
+      <c r="HOZ13" s="1"/>
+      <c r="HPD13" s="1"/>
+      <c r="HPH13" s="1"/>
+      <c r="HPL13" s="1"/>
+      <c r="HPP13" s="1"/>
+      <c r="HPT13" s="1"/>
+      <c r="HPX13" s="1"/>
+      <c r="HQB13" s="1"/>
+      <c r="HQF13" s="1"/>
+      <c r="HQJ13" s="1"/>
+      <c r="HQN13" s="1"/>
+      <c r="HQR13" s="1"/>
+      <c r="HQV13" s="1"/>
+      <c r="HQZ13" s="1"/>
+      <c r="HRD13" s="1"/>
+      <c r="HRH13" s="1"/>
+      <c r="HRL13" s="1"/>
+      <c r="HRP13" s="1"/>
+      <c r="HRT13" s="1"/>
+      <c r="HRX13" s="1"/>
+      <c r="HSB13" s="1"/>
+      <c r="HSF13" s="1"/>
+      <c r="HSJ13" s="1"/>
+      <c r="HSN13" s="1"/>
+      <c r="HSR13" s="1"/>
+      <c r="HSV13" s="1"/>
+      <c r="HSZ13" s="1"/>
+      <c r="HTD13" s="1"/>
+      <c r="HTH13" s="1"/>
+      <c r="HTL13" s="1"/>
+      <c r="HTP13" s="1"/>
+      <c r="HTT13" s="1"/>
+      <c r="HTX13" s="1"/>
+      <c r="HUB13" s="1"/>
+      <c r="HUF13" s="1"/>
+      <c r="HUJ13" s="1"/>
+      <c r="HUN13" s="1"/>
+      <c r="HUR13" s="1"/>
+      <c r="HUV13" s="1"/>
+      <c r="HUZ13" s="1"/>
+      <c r="HVD13" s="1"/>
+      <c r="HVH13" s="1"/>
+      <c r="HVL13" s="1"/>
+      <c r="HVP13" s="1"/>
+      <c r="HVT13" s="1"/>
+      <c r="HVX13" s="1"/>
+      <c r="HWB13" s="1"/>
+      <c r="HWF13" s="1"/>
+      <c r="HWJ13" s="1"/>
+      <c r="HWN13" s="1"/>
+      <c r="HWR13" s="1"/>
+      <c r="HWV13" s="1"/>
+      <c r="HWZ13" s="1"/>
+      <c r="HXD13" s="1"/>
+      <c r="HXH13" s="1"/>
+      <c r="HXL13" s="1"/>
+      <c r="HXP13" s="1"/>
+      <c r="HXT13" s="1"/>
+      <c r="HXX13" s="1"/>
+      <c r="HYB13" s="1"/>
+      <c r="HYF13" s="1"/>
+      <c r="HYJ13" s="1"/>
+      <c r="HYN13" s="1"/>
+      <c r="HYR13" s="1"/>
+      <c r="HYV13" s="1"/>
+      <c r="HYZ13" s="1"/>
+      <c r="HZD13" s="1"/>
+      <c r="HZH13" s="1"/>
+      <c r="HZL13" s="1"/>
+      <c r="HZP13" s="1"/>
+      <c r="HZT13" s="1"/>
+      <c r="HZX13" s="1"/>
+      <c r="IAB13" s="1"/>
+      <c r="IAF13" s="1"/>
+      <c r="IAJ13" s="1"/>
+      <c r="IAN13" s="1"/>
+      <c r="IAR13" s="1"/>
+      <c r="IAV13" s="1"/>
+      <c r="IAZ13" s="1"/>
+      <c r="IBD13" s="1"/>
+      <c r="IBH13" s="1"/>
+      <c r="IBL13" s="1"/>
+      <c r="IBP13" s="1"/>
+      <c r="IBT13" s="1"/>
+      <c r="IBX13" s="1"/>
+      <c r="ICB13" s="1"/>
+      <c r="ICF13" s="1"/>
+      <c r="ICJ13" s="1"/>
+      <c r="ICN13" s="1"/>
+      <c r="ICR13" s="1"/>
+      <c r="ICV13" s="1"/>
+      <c r="ICZ13" s="1"/>
+      <c r="IDD13" s="1"/>
+      <c r="IDH13" s="1"/>
+      <c r="IDL13" s="1"/>
+      <c r="IDP13" s="1"/>
+      <c r="IDT13" s="1"/>
+      <c r="IDX13" s="1"/>
+      <c r="IEB13" s="1"/>
+      <c r="IEF13" s="1"/>
+      <c r="IEJ13" s="1"/>
+      <c r="IEN13" s="1"/>
+      <c r="IER13" s="1"/>
+      <c r="IEV13" s="1"/>
+      <c r="IEZ13" s="1"/>
+      <c r="IFD13" s="1"/>
+      <c r="IFH13" s="1"/>
+      <c r="IFL13" s="1"/>
+      <c r="IFP13" s="1"/>
+      <c r="IFT13" s="1"/>
+      <c r="IFX13" s="1"/>
+      <c r="IGB13" s="1"/>
+      <c r="IGF13" s="1"/>
+      <c r="IGJ13" s="1"/>
+      <c r="IGN13" s="1"/>
+      <c r="IGR13" s="1"/>
+      <c r="IGV13" s="1"/>
+      <c r="IGZ13" s="1"/>
+      <c r="IHD13" s="1"/>
+      <c r="IHH13" s="1"/>
+      <c r="IHL13" s="1"/>
+      <c r="IHP13" s="1"/>
+      <c r="IHT13" s="1"/>
+      <c r="IHX13" s="1"/>
+      <c r="IIB13" s="1"/>
+      <c r="IIF13" s="1"/>
+      <c r="IIJ13" s="1"/>
+      <c r="IIN13" s="1"/>
+      <c r="IIR13" s="1"/>
+      <c r="IIV13" s="1"/>
+      <c r="IIZ13" s="1"/>
+      <c r="IJD13" s="1"/>
+      <c r="IJH13" s="1"/>
+      <c r="IJL13" s="1"/>
+      <c r="IJP13" s="1"/>
+      <c r="IJT13" s="1"/>
+      <c r="IJX13" s="1"/>
+      <c r="IKB13" s="1"/>
+      <c r="IKF13" s="1"/>
+      <c r="IKJ13" s="1"/>
+      <c r="IKN13" s="1"/>
+      <c r="IKR13" s="1"/>
+      <c r="IKV13" s="1"/>
+      <c r="IKZ13" s="1"/>
+      <c r="ILD13" s="1"/>
+      <c r="ILH13" s="1"/>
+      <c r="ILL13" s="1"/>
+      <c r="ILP13" s="1"/>
+      <c r="ILT13" s="1"/>
+      <c r="ILX13" s="1"/>
+      <c r="IMB13" s="1"/>
+      <c r="IMF13" s="1"/>
+      <c r="IMJ13" s="1"/>
+      <c r="IMN13" s="1"/>
+      <c r="IMR13" s="1"/>
+      <c r="IMV13" s="1"/>
+      <c r="IMZ13" s="1"/>
+      <c r="IND13" s="1"/>
+      <c r="INH13" s="1"/>
+      <c r="INL13" s="1"/>
+      <c r="INP13" s="1"/>
+      <c r="INT13" s="1"/>
+      <c r="INX13" s="1"/>
+      <c r="IOB13" s="1"/>
+      <c r="IOF13" s="1"/>
+      <c r="IOJ13" s="1"/>
+      <c r="ION13" s="1"/>
+      <c r="IOR13" s="1"/>
+      <c r="IOV13" s="1"/>
+      <c r="IOZ13" s="1"/>
+      <c r="IPD13" s="1"/>
+      <c r="IPH13" s="1"/>
+      <c r="IPL13" s="1"/>
+      <c r="IPP13" s="1"/>
+      <c r="IPT13" s="1"/>
+      <c r="IPX13" s="1"/>
+      <c r="IQB13" s="1"/>
+      <c r="IQF13" s="1"/>
+      <c r="IQJ13" s="1"/>
+      <c r="IQN13" s="1"/>
+      <c r="IQR13" s="1"/>
+      <c r="IQV13" s="1"/>
+      <c r="IQZ13" s="1"/>
+      <c r="IRD13" s="1"/>
+      <c r="IRH13" s="1"/>
+      <c r="IRL13" s="1"/>
+      <c r="IRP13" s="1"/>
+      <c r="IRT13" s="1"/>
+      <c r="IRX13" s="1"/>
+      <c r="ISB13" s="1"/>
+      <c r="ISF13" s="1"/>
+      <c r="ISJ13" s="1"/>
+      <c r="ISN13" s="1"/>
+      <c r="ISR13" s="1"/>
+      <c r="ISV13" s="1"/>
+      <c r="ISZ13" s="1"/>
+      <c r="ITD13" s="1"/>
+      <c r="ITH13" s="1"/>
+      <c r="ITL13" s="1"/>
+      <c r="ITP13" s="1"/>
+      <c r="ITT13" s="1"/>
+      <c r="ITX13" s="1"/>
+      <c r="IUB13" s="1"/>
+      <c r="IUF13" s="1"/>
+      <c r="IUJ13" s="1"/>
+      <c r="IUN13" s="1"/>
+      <c r="IUR13" s="1"/>
+      <c r="IUV13" s="1"/>
+      <c r="IUZ13" s="1"/>
+      <c r="IVD13" s="1"/>
+      <c r="IVH13" s="1"/>
+      <c r="IVL13" s="1"/>
+      <c r="IVP13" s="1"/>
+      <c r="IVT13" s="1"/>
+      <c r="IVX13" s="1"/>
+      <c r="IWB13" s="1"/>
+      <c r="IWF13" s="1"/>
+      <c r="IWJ13" s="1"/>
+      <c r="IWN13" s="1"/>
+      <c r="IWR13" s="1"/>
+      <c r="IWV13" s="1"/>
+      <c r="IWZ13" s="1"/>
+      <c r="IXD13" s="1"/>
+      <c r="IXH13" s="1"/>
+      <c r="IXL13" s="1"/>
+      <c r="IXP13" s="1"/>
+      <c r="IXT13" s="1"/>
+      <c r="IXX13" s="1"/>
+      <c r="IYB13" s="1"/>
+      <c r="IYF13" s="1"/>
+      <c r="IYJ13" s="1"/>
+      <c r="IYN13" s="1"/>
+      <c r="IYR13" s="1"/>
+      <c r="IYV13" s="1"/>
+      <c r="IYZ13" s="1"/>
+      <c r="IZD13" s="1"/>
+      <c r="IZH13" s="1"/>
+      <c r="IZL13" s="1"/>
+      <c r="IZP13" s="1"/>
+      <c r="IZT13" s="1"/>
+      <c r="IZX13" s="1"/>
+      <c r="JAB13" s="1"/>
+      <c r="JAF13" s="1"/>
+      <c r="JAJ13" s="1"/>
+      <c r="JAN13" s="1"/>
+      <c r="JAR13" s="1"/>
+      <c r="JAV13" s="1"/>
+      <c r="JAZ13" s="1"/>
+      <c r="JBD13" s="1"/>
+      <c r="JBH13" s="1"/>
+      <c r="JBL13" s="1"/>
+      <c r="JBP13" s="1"/>
+      <c r="JBT13" s="1"/>
+      <c r="JBX13" s="1"/>
+      <c r="JCB13" s="1"/>
+      <c r="JCF13" s="1"/>
+      <c r="JCJ13" s="1"/>
+      <c r="JCN13" s="1"/>
+      <c r="JCR13" s="1"/>
+      <c r="JCV13" s="1"/>
+      <c r="JCZ13" s="1"/>
+      <c r="JDD13" s="1"/>
+      <c r="JDH13" s="1"/>
+      <c r="JDL13" s="1"/>
+      <c r="JDP13" s="1"/>
+      <c r="JDT13" s="1"/>
+      <c r="JDX13" s="1"/>
+      <c r="JEB13" s="1"/>
+      <c r="JEF13" s="1"/>
+      <c r="JEJ13" s="1"/>
+      <c r="JEN13" s="1"/>
+      <c r="JER13" s="1"/>
+      <c r="JEV13" s="1"/>
+      <c r="JEZ13" s="1"/>
+      <c r="JFD13" s="1"/>
+      <c r="JFH13" s="1"/>
+      <c r="JFL13" s="1"/>
+      <c r="JFP13" s="1"/>
+      <c r="JFT13" s="1"/>
+      <c r="JFX13" s="1"/>
+      <c r="JGB13" s="1"/>
+      <c r="JGF13" s="1"/>
+      <c r="JGJ13" s="1"/>
+      <c r="JGN13" s="1"/>
+      <c r="JGR13" s="1"/>
+      <c r="JGV13" s="1"/>
+      <c r="JGZ13" s="1"/>
+      <c r="JHD13" s="1"/>
+      <c r="JHH13" s="1"/>
+      <c r="JHL13" s="1"/>
+      <c r="JHP13" s="1"/>
+      <c r="JHT13" s="1"/>
+      <c r="JHX13" s="1"/>
+      <c r="JIB13" s="1"/>
+      <c r="JIF13" s="1"/>
+      <c r="JIJ13" s="1"/>
+      <c r="JIN13" s="1"/>
+      <c r="JIR13" s="1"/>
+      <c r="JIV13" s="1"/>
+      <c r="JIZ13" s="1"/>
+      <c r="JJD13" s="1"/>
+      <c r="JJH13" s="1"/>
+      <c r="JJL13" s="1"/>
+      <c r="JJP13" s="1"/>
+      <c r="JJT13" s="1"/>
+      <c r="JJX13" s="1"/>
+      <c r="JKB13" s="1"/>
+      <c r="JKF13" s="1"/>
+      <c r="JKJ13" s="1"/>
+      <c r="JKN13" s="1"/>
+      <c r="JKR13" s="1"/>
+      <c r="JKV13" s="1"/>
+      <c r="JKZ13" s="1"/>
+      <c r="JLD13" s="1"/>
+      <c r="JLH13" s="1"/>
+      <c r="JLL13" s="1"/>
+      <c r="JLP13" s="1"/>
+      <c r="JLT13" s="1"/>
+      <c r="JLX13" s="1"/>
+      <c r="JMB13" s="1"/>
+      <c r="JMF13" s="1"/>
+      <c r="JMJ13" s="1"/>
+      <c r="JMN13" s="1"/>
+      <c r="JMR13" s="1"/>
+      <c r="JMV13" s="1"/>
+      <c r="JMZ13" s="1"/>
+      <c r="JND13" s="1"/>
+      <c r="JNH13" s="1"/>
+      <c r="JNL13" s="1"/>
+      <c r="JNP13" s="1"/>
+      <c r="JNT13" s="1"/>
+      <c r="JNX13" s="1"/>
+      <c r="JOB13" s="1"/>
+      <c r="JOF13" s="1"/>
+      <c r="JOJ13" s="1"/>
+      <c r="JON13" s="1"/>
+      <c r="JOR13" s="1"/>
+      <c r="JOV13" s="1"/>
+      <c r="JOZ13" s="1"/>
+      <c r="JPD13" s="1"/>
+      <c r="JPH13" s="1"/>
+      <c r="JPL13" s="1"/>
+      <c r="JPP13" s="1"/>
+      <c r="JPT13" s="1"/>
+      <c r="JPX13" s="1"/>
+      <c r="JQB13" s="1"/>
+      <c r="JQF13" s="1"/>
+      <c r="JQJ13" s="1"/>
+      <c r="JQN13" s="1"/>
+      <c r="JQR13" s="1"/>
+      <c r="JQV13" s="1"/>
+      <c r="JQZ13" s="1"/>
+      <c r="JRD13" s="1"/>
+      <c r="JRH13" s="1"/>
+      <c r="JRL13" s="1"/>
+      <c r="JRP13" s="1"/>
+      <c r="JRT13" s="1"/>
+      <c r="JRX13" s="1"/>
+      <c r="JSB13" s="1"/>
+      <c r="JSF13" s="1"/>
+      <c r="JSJ13" s="1"/>
+      <c r="JSN13" s="1"/>
+      <c r="JSR13" s="1"/>
+      <c r="JSV13" s="1"/>
+      <c r="JSZ13" s="1"/>
+      <c r="JTD13" s="1"/>
+      <c r="JTH13" s="1"/>
+      <c r="JTL13" s="1"/>
+      <c r="JTP13" s="1"/>
+      <c r="JTT13" s="1"/>
+      <c r="JTX13" s="1"/>
+      <c r="JUB13" s="1"/>
+      <c r="JUF13" s="1"/>
+      <c r="JUJ13" s="1"/>
+      <c r="JUN13" s="1"/>
+      <c r="JUR13" s="1"/>
+      <c r="JUV13" s="1"/>
+      <c r="JUZ13" s="1"/>
+      <c r="JVD13" s="1"/>
+      <c r="JVH13" s="1"/>
+      <c r="JVL13" s="1"/>
+      <c r="JVP13" s="1"/>
+      <c r="JVT13" s="1"/>
+      <c r="JVX13" s="1"/>
+      <c r="JWB13" s="1"/>
+      <c r="JWF13" s="1"/>
+      <c r="JWJ13" s="1"/>
+      <c r="JWN13" s="1"/>
+      <c r="JWR13" s="1"/>
+      <c r="JWV13" s="1"/>
+      <c r="JWZ13" s="1"/>
+      <c r="JXD13" s="1"/>
+      <c r="JXH13" s="1"/>
+      <c r="JXL13" s="1"/>
+      <c r="JXP13" s="1"/>
+      <c r="JXT13" s="1"/>
+      <c r="JXX13" s="1"/>
+      <c r="JYB13" s="1"/>
+      <c r="JYF13" s="1"/>
+      <c r="JYJ13" s="1"/>
+      <c r="JYN13" s="1"/>
+      <c r="JYR13" s="1"/>
+      <c r="JYV13" s="1"/>
+      <c r="JYZ13" s="1"/>
+      <c r="JZD13" s="1"/>
+      <c r="JZH13" s="1"/>
+      <c r="JZL13" s="1"/>
+      <c r="JZP13" s="1"/>
+      <c r="JZT13" s="1"/>
+      <c r="JZX13" s="1"/>
+      <c r="KAB13" s="1"/>
+      <c r="KAF13" s="1"/>
+      <c r="KAJ13" s="1"/>
+      <c r="KAN13" s="1"/>
+      <c r="KAR13" s="1"/>
+      <c r="KAV13" s="1"/>
+      <c r="KAZ13" s="1"/>
+      <c r="KBD13" s="1"/>
+      <c r="KBH13" s="1"/>
+      <c r="KBL13" s="1"/>
+      <c r="KBP13" s="1"/>
+      <c r="KBT13" s="1"/>
+      <c r="KBX13" s="1"/>
+      <c r="KCB13" s="1"/>
+      <c r="KCF13" s="1"/>
+      <c r="KCJ13" s="1"/>
+      <c r="KCN13" s="1"/>
+      <c r="KCR13" s="1"/>
+      <c r="KCV13" s="1"/>
+      <c r="KCZ13" s="1"/>
+      <c r="KDD13" s="1"/>
+      <c r="KDH13" s="1"/>
+      <c r="KDL13" s="1"/>
+      <c r="KDP13" s="1"/>
+      <c r="KDT13" s="1"/>
+      <c r="KDX13" s="1"/>
+      <c r="KEB13" s="1"/>
+      <c r="KEF13" s="1"/>
+      <c r="KEJ13" s="1"/>
+      <c r="KEN13" s="1"/>
+      <c r="KER13" s="1"/>
+      <c r="KEV13" s="1"/>
+      <c r="KEZ13" s="1"/>
+      <c r="KFD13" s="1"/>
+      <c r="KFH13" s="1"/>
+      <c r="KFL13" s="1"/>
+      <c r="KFP13" s="1"/>
+      <c r="KFT13" s="1"/>
+      <c r="KFX13" s="1"/>
+      <c r="KGB13" s="1"/>
+      <c r="KGF13" s="1"/>
+      <c r="KGJ13" s="1"/>
+      <c r="KGN13" s="1"/>
+      <c r="KGR13" s="1"/>
+      <c r="KGV13" s="1"/>
+      <c r="KGZ13" s="1"/>
+      <c r="KHD13" s="1"/>
+      <c r="KHH13" s="1"/>
+      <c r="KHL13" s="1"/>
+      <c r="KHP13" s="1"/>
+      <c r="KHT13" s="1"/>
+      <c r="KHX13" s="1"/>
+      <c r="KIB13" s="1"/>
+      <c r="KIF13" s="1"/>
+      <c r="KIJ13" s="1"/>
+      <c r="KIN13" s="1"/>
+      <c r="KIR13" s="1"/>
+      <c r="KIV13" s="1"/>
+      <c r="KIZ13" s="1"/>
+      <c r="KJD13" s="1"/>
+      <c r="KJH13" s="1"/>
+      <c r="KJL13" s="1"/>
+      <c r="KJP13" s="1"/>
+      <c r="KJT13" s="1"/>
+      <c r="KJX13" s="1"/>
+      <c r="KKB13" s="1"/>
+      <c r="KKF13" s="1"/>
+      <c r="KKJ13" s="1"/>
+      <c r="KKN13" s="1"/>
+      <c r="KKR13" s="1"/>
+      <c r="KKV13" s="1"/>
+      <c r="KKZ13" s="1"/>
+      <c r="KLD13" s="1"/>
+      <c r="KLH13" s="1"/>
+      <c r="KLL13" s="1"/>
+      <c r="KLP13" s="1"/>
+      <c r="KLT13" s="1"/>
+      <c r="KLX13" s="1"/>
+      <c r="KMB13" s="1"/>
+      <c r="KMF13" s="1"/>
+      <c r="KMJ13" s="1"/>
+      <c r="KMN13" s="1"/>
+      <c r="KMR13" s="1"/>
+      <c r="KMV13" s="1"/>
+      <c r="KMZ13" s="1"/>
+      <c r="KND13" s="1"/>
+      <c r="KNH13" s="1"/>
+      <c r="KNL13" s="1"/>
+      <c r="KNP13" s="1"/>
+      <c r="KNT13" s="1"/>
+      <c r="KNX13" s="1"/>
+      <c r="KOB13" s="1"/>
+      <c r="KOF13" s="1"/>
+      <c r="KOJ13" s="1"/>
+      <c r="KON13" s="1"/>
+      <c r="KOR13" s="1"/>
+      <c r="KOV13" s="1"/>
+      <c r="KOZ13" s="1"/>
+      <c r="KPD13" s="1"/>
+      <c r="KPH13" s="1"/>
+      <c r="KPL13" s="1"/>
+      <c r="KPP13" s="1"/>
+      <c r="KPT13" s="1"/>
+      <c r="KPX13" s="1"/>
+      <c r="KQB13" s="1"/>
+      <c r="KQF13" s="1"/>
+      <c r="KQJ13" s="1"/>
+      <c r="KQN13" s="1"/>
+      <c r="KQR13" s="1"/>
+      <c r="KQV13" s="1"/>
+      <c r="KQZ13" s="1"/>
+      <c r="KRD13" s="1"/>
+      <c r="KRH13" s="1"/>
+      <c r="KRL13" s="1"/>
+      <c r="KRP13" s="1"/>
+      <c r="KRT13" s="1"/>
+      <c r="KRX13" s="1"/>
+      <c r="KSB13" s="1"/>
+      <c r="KSF13" s="1"/>
+      <c r="KSJ13" s="1"/>
+      <c r="KSN13" s="1"/>
+      <c r="KSR13" s="1"/>
+      <c r="KSV13" s="1"/>
+      <c r="KSZ13" s="1"/>
+      <c r="KTD13" s="1"/>
+      <c r="KTH13" s="1"/>
+      <c r="KTL13" s="1"/>
+      <c r="KTP13" s="1"/>
+      <c r="KTT13" s="1"/>
+      <c r="KTX13" s="1"/>
+      <c r="KUB13" s="1"/>
+      <c r="KUF13" s="1"/>
+      <c r="KUJ13" s="1"/>
+      <c r="KUN13" s="1"/>
+      <c r="KUR13" s="1"/>
+      <c r="KUV13" s="1"/>
+      <c r="KUZ13" s="1"/>
+      <c r="KVD13" s="1"/>
+      <c r="KVH13" s="1"/>
+      <c r="KVL13" s="1"/>
+      <c r="KVP13" s="1"/>
+      <c r="KVT13" s="1"/>
+      <c r="KVX13" s="1"/>
+      <c r="KWB13" s="1"/>
+      <c r="KWF13" s="1"/>
+      <c r="KWJ13" s="1"/>
+      <c r="KWN13" s="1"/>
+      <c r="KWR13" s="1"/>
+      <c r="KWV13" s="1"/>
+      <c r="KWZ13" s="1"/>
+      <c r="KXD13" s="1"/>
+      <c r="KXH13" s="1"/>
+      <c r="KXL13" s="1"/>
+      <c r="KXP13" s="1"/>
+      <c r="KXT13" s="1"/>
+      <c r="KXX13" s="1"/>
+      <c r="KYB13" s="1"/>
+      <c r="KYF13" s="1"/>
+      <c r="KYJ13" s="1"/>
+      <c r="KYN13" s="1"/>
+      <c r="KYR13" s="1"/>
+      <c r="KYV13" s="1"/>
+      <c r="KYZ13" s="1"/>
+      <c r="KZD13" s="1"/>
+      <c r="KZH13" s="1"/>
+      <c r="KZL13" s="1"/>
+      <c r="KZP13" s="1"/>
+      <c r="KZT13" s="1"/>
+      <c r="KZX13" s="1"/>
+      <c r="LAB13" s="1"/>
+      <c r="LAF13" s="1"/>
+      <c r="LAJ13" s="1"/>
+      <c r="LAN13" s="1"/>
+      <c r="LAR13" s="1"/>
+      <c r="LAV13" s="1"/>
+      <c r="LAZ13" s="1"/>
+      <c r="LBD13" s="1"/>
+      <c r="LBH13" s="1"/>
+      <c r="LBL13" s="1"/>
+      <c r="LBP13" s="1"/>
+      <c r="LBT13" s="1"/>
+      <c r="LBX13" s="1"/>
+      <c r="LCB13" s="1"/>
+      <c r="LCF13" s="1"/>
+      <c r="LCJ13" s="1"/>
+      <c r="LCN13" s="1"/>
+      <c r="LCR13" s="1"/>
+      <c r="LCV13" s="1"/>
+      <c r="LCZ13" s="1"/>
+      <c r="LDD13" s="1"/>
+      <c r="LDH13" s="1"/>
+      <c r="LDL13" s="1"/>
+      <c r="LDP13" s="1"/>
+      <c r="LDT13" s="1"/>
+      <c r="LDX13" s="1"/>
+      <c r="LEB13" s="1"/>
+      <c r="LEF13" s="1"/>
+      <c r="LEJ13" s="1"/>
+      <c r="LEN13" s="1"/>
+      <c r="LER13" s="1"/>
+      <c r="LEV13" s="1"/>
+      <c r="LEZ13" s="1"/>
+      <c r="LFD13" s="1"/>
+      <c r="LFH13" s="1"/>
+      <c r="LFL13" s="1"/>
+      <c r="LFP13" s="1"/>
+      <c r="LFT13" s="1"/>
+      <c r="LFX13" s="1"/>
+      <c r="LGB13" s="1"/>
+      <c r="LGF13" s="1"/>
+      <c r="LGJ13" s="1"/>
+      <c r="LGN13" s="1"/>
+      <c r="LGR13" s="1"/>
+      <c r="LGV13" s="1"/>
+      <c r="LGZ13" s="1"/>
+      <c r="LHD13" s="1"/>
+      <c r="LHH13" s="1"/>
+      <c r="LHL13" s="1"/>
+      <c r="LHP13" s="1"/>
+      <c r="LHT13" s="1"/>
+      <c r="LHX13" s="1"/>
+      <c r="LIB13" s="1"/>
+      <c r="LIF13" s="1"/>
+      <c r="LIJ13" s="1"/>
+      <c r="LIN13" s="1"/>
+      <c r="LIR13" s="1"/>
+      <c r="LIV13" s="1"/>
+      <c r="LIZ13" s="1"/>
+      <c r="LJD13" s="1"/>
+      <c r="LJH13" s="1"/>
+      <c r="LJL13" s="1"/>
+      <c r="LJP13" s="1"/>
+      <c r="LJT13" s="1"/>
+      <c r="LJX13" s="1"/>
+      <c r="LKB13" s="1"/>
+      <c r="LKF13" s="1"/>
+      <c r="LKJ13" s="1"/>
+      <c r="LKN13" s="1"/>
+      <c r="LKR13" s="1"/>
+      <c r="LKV13" s="1"/>
+      <c r="LKZ13" s="1"/>
+      <c r="LLD13" s="1"/>
+      <c r="LLH13" s="1"/>
+      <c r="LLL13" s="1"/>
+      <c r="LLP13" s="1"/>
+      <c r="LLT13" s="1"/>
+      <c r="LLX13" s="1"/>
+      <c r="LMB13" s="1"/>
+      <c r="LMF13" s="1"/>
+      <c r="LMJ13" s="1"/>
+      <c r="LMN13" s="1"/>
+      <c r="LMR13" s="1"/>
+      <c r="LMV13" s="1"/>
+      <c r="LMZ13" s="1"/>
+      <c r="LND13" s="1"/>
+      <c r="LNH13" s="1"/>
+      <c r="LNL13" s="1"/>
+      <c r="LNP13" s="1"/>
+      <c r="LNT13" s="1"/>
+      <c r="LNX13" s="1"/>
+      <c r="LOB13" s="1"/>
+      <c r="LOF13" s="1"/>
+      <c r="LOJ13" s="1"/>
+      <c r="LON13" s="1"/>
+      <c r="LOR13" s="1"/>
+      <c r="LOV13" s="1"/>
+      <c r="LOZ13" s="1"/>
+      <c r="LPD13" s="1"/>
+      <c r="LPH13" s="1"/>
+      <c r="LPL13" s="1"/>
+      <c r="LPP13" s="1"/>
+      <c r="LPT13" s="1"/>
+      <c r="LPX13" s="1"/>
+      <c r="LQB13" s="1"/>
+      <c r="LQF13" s="1"/>
+      <c r="LQJ13" s="1"/>
+      <c r="LQN13" s="1"/>
+      <c r="LQR13" s="1"/>
+      <c r="LQV13" s="1"/>
+      <c r="LQZ13" s="1"/>
+      <c r="LRD13" s="1"/>
+      <c r="LRH13" s="1"/>
+      <c r="LRL13" s="1"/>
+      <c r="LRP13" s="1"/>
+      <c r="LRT13" s="1"/>
+      <c r="LRX13" s="1"/>
+      <c r="LSB13" s="1"/>
+      <c r="LSF13" s="1"/>
+      <c r="LSJ13" s="1"/>
+      <c r="LSN13" s="1"/>
+      <c r="LSR13" s="1"/>
+      <c r="LSV13" s="1"/>
+      <c r="LSZ13" s="1"/>
+      <c r="LTD13" s="1"/>
+      <c r="LTH13" s="1"/>
+      <c r="LTL13" s="1"/>
+      <c r="LTP13" s="1"/>
+      <c r="LTT13" s="1"/>
+      <c r="LTX13" s="1"/>
+      <c r="LUB13" s="1"/>
+      <c r="LUF13" s="1"/>
+      <c r="LUJ13" s="1"/>
+      <c r="LUN13" s="1"/>
+      <c r="LUR13" s="1"/>
+      <c r="LUV13" s="1"/>
+      <c r="LUZ13" s="1"/>
+      <c r="LVD13" s="1"/>
+      <c r="LVH13" s="1"/>
+      <c r="LVL13" s="1"/>
+      <c r="LVP13" s="1"/>
+      <c r="LVT13" s="1"/>
+      <c r="LVX13" s="1"/>
+      <c r="LWB13" s="1"/>
+      <c r="LWF13" s="1"/>
+      <c r="LWJ13" s="1"/>
+      <c r="LWN13" s="1"/>
+      <c r="LWR13" s="1"/>
+      <c r="LWV13" s="1"/>
+      <c r="LWZ13" s="1"/>
+      <c r="LXD13" s="1"/>
+      <c r="LXH13" s="1"/>
+      <c r="LXL13" s="1"/>
+      <c r="LXP13" s="1"/>
+      <c r="LXT13" s="1"/>
+      <c r="LXX13" s="1"/>
+      <c r="LYB13" s="1"/>
+      <c r="LYF13" s="1"/>
+      <c r="LYJ13" s="1"/>
+      <c r="LYN13" s="1"/>
+      <c r="LYR13" s="1"/>
+      <c r="LYV13" s="1"/>
+      <c r="LYZ13" s="1"/>
+      <c r="LZD13" s="1"/>
+      <c r="LZH13" s="1"/>
+      <c r="LZL13" s="1"/>
+      <c r="LZP13" s="1"/>
+      <c r="LZT13" s="1"/>
+      <c r="LZX13" s="1"/>
+      <c r="MAB13" s="1"/>
+      <c r="MAF13" s="1"/>
+      <c r="MAJ13" s="1"/>
+      <c r="MAN13" s="1"/>
+      <c r="MAR13" s="1"/>
+      <c r="MAV13" s="1"/>
+      <c r="MAZ13" s="1"/>
+      <c r="MBD13" s="1"/>
+      <c r="MBH13" s="1"/>
+      <c r="MBL13" s="1"/>
+      <c r="MBP13" s="1"/>
+      <c r="MBT13" s="1"/>
+      <c r="MBX13" s="1"/>
+      <c r="MCB13" s="1"/>
+      <c r="MCF13" s="1"/>
+      <c r="MCJ13" s="1"/>
+      <c r="MCN13" s="1"/>
+      <c r="MCR13" s="1"/>
+      <c r="MCV13" s="1"/>
+      <c r="MCZ13" s="1"/>
+      <c r="MDD13" s="1"/>
+      <c r="MDH13" s="1"/>
+      <c r="MDL13" s="1"/>
+      <c r="MDP13" s="1"/>
+      <c r="MDT13" s="1"/>
+      <c r="MDX13" s="1"/>
+      <c r="MEB13" s="1"/>
+      <c r="MEF13" s="1"/>
+      <c r="MEJ13" s="1"/>
+      <c r="MEN13" s="1"/>
+      <c r="MER13" s="1"/>
+      <c r="MEV13" s="1"/>
+      <c r="MEZ13" s="1"/>
+      <c r="MFD13" s="1"/>
+      <c r="MFH13" s="1"/>
+      <c r="MFL13" s="1"/>
+      <c r="MFP13" s="1"/>
+      <c r="MFT13" s="1"/>
+      <c r="MFX13" s="1"/>
+      <c r="MGB13" s="1"/>
+      <c r="MGF13" s="1"/>
+      <c r="MGJ13" s="1"/>
+      <c r="MGN13" s="1"/>
+      <c r="MGR13" s="1"/>
+      <c r="MGV13" s="1"/>
+      <c r="MGZ13" s="1"/>
+      <c r="MHD13" s="1"/>
+      <c r="MHH13" s="1"/>
+      <c r="MHL13" s="1"/>
+      <c r="MHP13" s="1"/>
+      <c r="MHT13" s="1"/>
+      <c r="MHX13" s="1"/>
+      <c r="MIB13" s="1"/>
+      <c r="MIF13" s="1"/>
+      <c r="MIJ13" s="1"/>
+      <c r="MIN13" s="1"/>
+      <c r="MIR13" s="1"/>
+      <c r="MIV13" s="1"/>
+      <c r="MIZ13" s="1"/>
+      <c r="MJD13" s="1"/>
+      <c r="MJH13" s="1"/>
+      <c r="MJL13" s="1"/>
+      <c r="MJP13" s="1"/>
+      <c r="MJT13" s="1"/>
+      <c r="MJX13" s="1"/>
+      <c r="MKB13" s="1"/>
+      <c r="MKF13" s="1"/>
+      <c r="MKJ13" s="1"/>
+      <c r="MKN13" s="1"/>
+      <c r="MKR13" s="1"/>
+      <c r="MKV13" s="1"/>
+      <c r="MKZ13" s="1"/>
+      <c r="MLD13" s="1"/>
+      <c r="MLH13" s="1"/>
+      <c r="MLL13" s="1"/>
+      <c r="MLP13" s="1"/>
+      <c r="MLT13" s="1"/>
+      <c r="MLX13" s="1"/>
+      <c r="MMB13" s="1"/>
+      <c r="MMF13" s="1"/>
+      <c r="MMJ13" s="1"/>
+      <c r="MMN13" s="1"/>
+      <c r="MMR13" s="1"/>
+      <c r="MMV13" s="1"/>
+      <c r="MMZ13" s="1"/>
+      <c r="MND13" s="1"/>
+      <c r="MNH13" s="1"/>
+      <c r="MNL13" s="1"/>
+      <c r="MNP13" s="1"/>
+      <c r="MNT13" s="1"/>
+      <c r="MNX13" s="1"/>
+      <c r="MOB13" s="1"/>
+      <c r="MOF13" s="1"/>
+      <c r="MOJ13" s="1"/>
+      <c r="MON13" s="1"/>
+      <c r="MOR13" s="1"/>
+      <c r="MOV13" s="1"/>
+      <c r="MOZ13" s="1"/>
+      <c r="MPD13" s="1"/>
+      <c r="MPH13" s="1"/>
+      <c r="MPL13" s="1"/>
+      <c r="MPP13" s="1"/>
+      <c r="MPT13" s="1"/>
+      <c r="MPX13" s="1"/>
+      <c r="MQB13" s="1"/>
+      <c r="MQF13" s="1"/>
+      <c r="MQJ13" s="1"/>
+      <c r="MQN13" s="1"/>
+      <c r="MQR13" s="1"/>
+      <c r="MQV13" s="1"/>
+      <c r="MQZ13" s="1"/>
+      <c r="MRD13" s="1"/>
+      <c r="MRH13" s="1"/>
+      <c r="MRL13" s="1"/>
+      <c r="MRP13" s="1"/>
+      <c r="MRT13" s="1"/>
+      <c r="MRX13" s="1"/>
+      <c r="MSB13" s="1"/>
+      <c r="MSF13" s="1"/>
+      <c r="MSJ13" s="1"/>
+      <c r="MSN13" s="1"/>
+      <c r="MSR13" s="1"/>
+      <c r="MSV13" s="1"/>
+      <c r="MSZ13" s="1"/>
+      <c r="MTD13" s="1"/>
+      <c r="MTH13" s="1"/>
+      <c r="MTL13" s="1"/>
+      <c r="MTP13" s="1"/>
+      <c r="MTT13" s="1"/>
+      <c r="MTX13" s="1"/>
+      <c r="MUB13" s="1"/>
+      <c r="MUF13" s="1"/>
+      <c r="MUJ13" s="1"/>
+      <c r="MUN13" s="1"/>
+      <c r="MUR13" s="1"/>
+      <c r="MUV13" s="1"/>
+      <c r="MUZ13" s="1"/>
+      <c r="MVD13" s="1"/>
+      <c r="MVH13" s="1"/>
+      <c r="MVL13" s="1"/>
+      <c r="MVP13" s="1"/>
+      <c r="MVT13" s="1"/>
+      <c r="MVX13" s="1"/>
+      <c r="MWB13" s="1"/>
+      <c r="MWF13" s="1"/>
+      <c r="MWJ13" s="1"/>
+      <c r="MWN13" s="1"/>
+      <c r="MWR13" s="1"/>
+      <c r="MWV13" s="1"/>
+      <c r="MWZ13" s="1"/>
+      <c r="MXD13" s="1"/>
+      <c r="MXH13" s="1"/>
+      <c r="MXL13" s="1"/>
+      <c r="MXP13" s="1"/>
+      <c r="MXT13" s="1"/>
+      <c r="MXX13" s="1"/>
+      <c r="MYB13" s="1"/>
+      <c r="MYF13" s="1"/>
+      <c r="MYJ13" s="1"/>
+      <c r="MYN13" s="1"/>
+      <c r="MYR13" s="1"/>
+      <c r="MYV13" s="1"/>
+      <c r="MYZ13" s="1"/>
+      <c r="MZD13" s="1"/>
+      <c r="MZH13" s="1"/>
+      <c r="MZL13" s="1"/>
+      <c r="MZP13" s="1"/>
+      <c r="MZT13" s="1"/>
+      <c r="MZX13" s="1"/>
+      <c r="NAB13" s="1"/>
+      <c r="NAF13" s="1"/>
+      <c r="NAJ13" s="1"/>
+      <c r="NAN13" s="1"/>
+      <c r="NAR13" s="1"/>
+      <c r="NAV13" s="1"/>
+      <c r="NAZ13" s="1"/>
+      <c r="NBD13" s="1"/>
+      <c r="NBH13" s="1"/>
+      <c r="NBL13" s="1"/>
+      <c r="NBP13" s="1"/>
+      <c r="NBT13" s="1"/>
+      <c r="NBX13" s="1"/>
+      <c r="NCB13" s="1"/>
+      <c r="NCF13" s="1"/>
+      <c r="NCJ13" s="1"/>
+      <c r="NCN13" s="1"/>
+      <c r="NCR13" s="1"/>
+      <c r="NCV13" s="1"/>
+      <c r="NCZ13" s="1"/>
+      <c r="NDD13" s="1"/>
+      <c r="NDH13" s="1"/>
+      <c r="NDL13" s="1"/>
+      <c r="NDP13" s="1"/>
+      <c r="NDT13" s="1"/>
+      <c r="NDX13" s="1"/>
+      <c r="NEB13" s="1"/>
+      <c r="NEF13" s="1"/>
+      <c r="NEJ13" s="1"/>
+      <c r="NEN13" s="1"/>
+      <c r="NER13" s="1"/>
+      <c r="NEV13" s="1"/>
+      <c r="NEZ13" s="1"/>
+      <c r="NFD13" s="1"/>
+      <c r="NFH13" s="1"/>
+      <c r="NFL13" s="1"/>
+      <c r="NFP13" s="1"/>
+      <c r="NFT13" s="1"/>
+      <c r="NFX13" s="1"/>
+      <c r="NGB13" s="1"/>
+      <c r="NGF13" s="1"/>
+      <c r="NGJ13" s="1"/>
+      <c r="NGN13" s="1"/>
+      <c r="NGR13" s="1"/>
+      <c r="NGV13" s="1"/>
+      <c r="NGZ13" s="1"/>
+      <c r="NHD13" s="1"/>
+      <c r="NHH13" s="1"/>
+      <c r="NHL13" s="1"/>
+      <c r="NHP13" s="1"/>
+      <c r="NHT13" s="1"/>
+      <c r="NHX13" s="1"/>
+      <c r="NIB13" s="1"/>
+      <c r="NIF13" s="1"/>
+      <c r="NIJ13" s="1"/>
+      <c r="NIN13" s="1"/>
+      <c r="NIR13" s="1"/>
+      <c r="NIV13" s="1"/>
+      <c r="NIZ13" s="1"/>
+      <c r="NJD13" s="1"/>
+      <c r="NJH13" s="1"/>
+      <c r="NJL13" s="1"/>
+      <c r="NJP13" s="1"/>
+      <c r="NJT13" s="1"/>
+      <c r="NJX13" s="1"/>
+      <c r="NKB13" s="1"/>
+      <c r="NKF13" s="1"/>
+      <c r="NKJ13" s="1"/>
+      <c r="NKN13" s="1"/>
+      <c r="NKR13" s="1"/>
+      <c r="NKV13" s="1"/>
+      <c r="NKZ13" s="1"/>
+      <c r="NLD13" s="1"/>
+      <c r="NLH13" s="1"/>
+      <c r="NLL13" s="1"/>
+      <c r="NLP13" s="1"/>
+      <c r="NLT13" s="1"/>
+      <c r="NLX13" s="1"/>
+      <c r="NMB13" s="1"/>
+      <c r="NMF13" s="1"/>
+      <c r="NMJ13" s="1"/>
+      <c r="NMN13" s="1"/>
+      <c r="NMR13" s="1"/>
+      <c r="NMV13" s="1"/>
+      <c r="NMZ13" s="1"/>
+      <c r="NND13" s="1"/>
+      <c r="NNH13" s="1"/>
+      <c r="NNL13" s="1"/>
+      <c r="NNP13" s="1"/>
+      <c r="NNT13" s="1"/>
+      <c r="NNX13" s="1"/>
+      <c r="NOB13" s="1"/>
+      <c r="NOF13" s="1"/>
+      <c r="NOJ13" s="1"/>
+      <c r="NON13" s="1"/>
+      <c r="NOR13" s="1"/>
+      <c r="NOV13" s="1"/>
+      <c r="NOZ13" s="1"/>
+      <c r="NPD13" s="1"/>
+      <c r="NPH13" s="1"/>
+      <c r="NPL13" s="1"/>
+      <c r="NPP13" s="1"/>
+      <c r="NPT13" s="1"/>
+      <c r="NPX13" s="1"/>
+      <c r="NQB13" s="1"/>
+      <c r="NQF13" s="1"/>
+      <c r="NQJ13" s="1"/>
+      <c r="NQN13" s="1"/>
+      <c r="NQR13" s="1"/>
+      <c r="NQV13" s="1"/>
+      <c r="NQZ13" s="1"/>
+      <c r="NRD13" s="1"/>
+      <c r="NRH13" s="1"/>
+      <c r="NRL13" s="1"/>
+      <c r="NRP13" s="1"/>
+      <c r="NRT13" s="1"/>
+      <c r="NRX13" s="1"/>
+      <c r="NSB13" s="1"/>
+      <c r="NSF13" s="1"/>
+      <c r="NSJ13" s="1"/>
+      <c r="NSN13" s="1"/>
+      <c r="NSR13" s="1"/>
+      <c r="NSV13" s="1"/>
+      <c r="NSZ13" s="1"/>
+      <c r="NTD13" s="1"/>
+      <c r="NTH13" s="1"/>
+      <c r="NTL13" s="1"/>
+      <c r="NTP13" s="1"/>
+      <c r="NTT13" s="1"/>
+      <c r="NTX13" s="1"/>
+      <c r="NUB13" s="1"/>
+      <c r="NUF13" s="1"/>
+      <c r="NUJ13" s="1"/>
+      <c r="NUN13" s="1"/>
+      <c r="NUR13" s="1"/>
+      <c r="NUV13" s="1"/>
+      <c r="NUZ13" s="1"/>
+      <c r="NVD13" s="1"/>
+      <c r="NVH13" s="1"/>
+      <c r="NVL13" s="1"/>
+      <c r="NVP13" s="1"/>
+      <c r="NVT13" s="1"/>
+      <c r="NVX13" s="1"/>
+      <c r="NWB13" s="1"/>
+      <c r="NWF13" s="1"/>
+      <c r="NWJ13" s="1"/>
+      <c r="NWN13" s="1"/>
+      <c r="NWR13" s="1"/>
+      <c r="NWV13" s="1"/>
+      <c r="NWZ13" s="1"/>
+      <c r="NXD13" s="1"/>
+      <c r="NXH13" s="1"/>
+      <c r="NXL13" s="1"/>
+      <c r="NXP13" s="1"/>
+      <c r="NXT13" s="1"/>
+      <c r="NXX13" s="1"/>
+      <c r="NYB13" s="1"/>
+      <c r="NYF13" s="1"/>
+      <c r="NYJ13" s="1"/>
+      <c r="NYN13" s="1"/>
+      <c r="NYR13" s="1"/>
+      <c r="NYV13" s="1"/>
+      <c r="NYZ13" s="1"/>
+      <c r="NZD13" s="1"/>
+      <c r="NZH13" s="1"/>
+      <c r="NZL13" s="1"/>
+      <c r="NZP13" s="1"/>
+      <c r="NZT13" s="1"/>
+      <c r="NZX13" s="1"/>
+      <c r="OAB13" s="1"/>
+      <c r="OAF13" s="1"/>
+      <c r="OAJ13" s="1"/>
+      <c r="OAN13" s="1"/>
+      <c r="OAR13" s="1"/>
+      <c r="OAV13" s="1"/>
+      <c r="OAZ13" s="1"/>
+      <c r="OBD13" s="1"/>
+      <c r="OBH13" s="1"/>
+      <c r="OBL13" s="1"/>
+      <c r="OBP13" s="1"/>
+      <c r="OBT13" s="1"/>
+      <c r="OBX13" s="1"/>
+      <c r="OCB13" s="1"/>
+      <c r="OCF13" s="1"/>
+      <c r="OCJ13" s="1"/>
+      <c r="OCN13" s="1"/>
+      <c r="OCR13" s="1"/>
+      <c r="OCV13" s="1"/>
+      <c r="OCZ13" s="1"/>
+      <c r="ODD13" s="1"/>
+      <c r="ODH13" s="1"/>
+      <c r="ODL13" s="1"/>
+      <c r="ODP13" s="1"/>
+      <c r="ODT13" s="1"/>
+      <c r="ODX13" s="1"/>
+      <c r="OEB13" s="1"/>
+      <c r="OEF13" s="1"/>
+      <c r="OEJ13" s="1"/>
+      <c r="OEN13" s="1"/>
+      <c r="OER13" s="1"/>
+      <c r="OEV13" s="1"/>
+      <c r="OEZ13" s="1"/>
+      <c r="OFD13" s="1"/>
+      <c r="OFH13" s="1"/>
+      <c r="OFL13" s="1"/>
+      <c r="OFP13" s="1"/>
+      <c r="OFT13" s="1"/>
+      <c r="OFX13" s="1"/>
+      <c r="OGB13" s="1"/>
+      <c r="OGF13" s="1"/>
+      <c r="OGJ13" s="1"/>
+      <c r="OGN13" s="1"/>
+      <c r="OGR13" s="1"/>
+      <c r="OGV13" s="1"/>
+      <c r="OGZ13" s="1"/>
+      <c r="OHD13" s="1"/>
+      <c r="OHH13" s="1"/>
+      <c r="OHL13" s="1"/>
+      <c r="OHP13" s="1"/>
+      <c r="OHT13" s="1"/>
+      <c r="OHX13" s="1"/>
+      <c r="OIB13" s="1"/>
+      <c r="OIF13" s="1"/>
+      <c r="OIJ13" s="1"/>
+      <c r="OIN13" s="1"/>
+      <c r="OIR13" s="1"/>
+      <c r="OIV13" s="1"/>
+      <c r="OIZ13" s="1"/>
+      <c r="OJD13" s="1"/>
+      <c r="OJH13" s="1"/>
+      <c r="OJL13" s="1"/>
+      <c r="OJP13" s="1"/>
+      <c r="OJT13" s="1"/>
+      <c r="OJX13" s="1"/>
+      <c r="OKB13" s="1"/>
+      <c r="OKF13" s="1"/>
+      <c r="OKJ13" s="1"/>
+      <c r="OKN13" s="1"/>
+      <c r="OKR13" s="1"/>
+      <c r="OKV13" s="1"/>
+      <c r="OKZ13" s="1"/>
+      <c r="OLD13" s="1"/>
+      <c r="OLH13" s="1"/>
+      <c r="OLL13" s="1"/>
+      <c r="OLP13" s="1"/>
+      <c r="OLT13" s="1"/>
+      <c r="OLX13" s="1"/>
+      <c r="OMB13" s="1"/>
+      <c r="OMF13" s="1"/>
+      <c r="OMJ13" s="1"/>
+      <c r="OMN13" s="1"/>
+      <c r="OMR13" s="1"/>
+      <c r="OMV13" s="1"/>
+      <c r="OMZ13" s="1"/>
+      <c r="OND13" s="1"/>
+      <c r="ONH13" s="1"/>
+      <c r="ONL13" s="1"/>
+      <c r="ONP13" s="1"/>
+      <c r="ONT13" s="1"/>
+      <c r="ONX13" s="1"/>
+      <c r="OOB13" s="1"/>
+      <c r="OOF13" s="1"/>
+      <c r="OOJ13" s="1"/>
+      <c r="OON13" s="1"/>
+      <c r="OOR13" s="1"/>
+      <c r="OOV13" s="1"/>
+      <c r="OOZ13" s="1"/>
+      <c r="OPD13" s="1"/>
+      <c r="OPH13" s="1"/>
+      <c r="OPL13" s="1"/>
+      <c r="OPP13" s="1"/>
+      <c r="OPT13" s="1"/>
+      <c r="OPX13" s="1"/>
+      <c r="OQB13" s="1"/>
+      <c r="OQF13" s="1"/>
+      <c r="OQJ13" s="1"/>
+      <c r="OQN13" s="1"/>
+      <c r="OQR13" s="1"/>
+      <c r="OQV13" s="1"/>
+      <c r="OQZ13" s="1"/>
+      <c r="ORD13" s="1"/>
+      <c r="ORH13" s="1"/>
+      <c r="ORL13" s="1"/>
+      <c r="ORP13" s="1"/>
+      <c r="ORT13" s="1"/>
+      <c r="ORX13" s="1"/>
+      <c r="OSB13" s="1"/>
+      <c r="OSF13" s="1"/>
+      <c r="OSJ13" s="1"/>
+      <c r="OSN13" s="1"/>
+      <c r="OSR13" s="1"/>
+      <c r="OSV13" s="1"/>
+      <c r="OSZ13" s="1"/>
+      <c r="OTD13" s="1"/>
+      <c r="OTH13" s="1"/>
+      <c r="OTL13" s="1"/>
+      <c r="OTP13" s="1"/>
+      <c r="OTT13" s="1"/>
+      <c r="OTX13" s="1"/>
+      <c r="OUB13" s="1"/>
+      <c r="OUF13" s="1"/>
+      <c r="OUJ13" s="1"/>
+      <c r="OUN13" s="1"/>
+      <c r="OUR13" s="1"/>
+      <c r="OUV13" s="1"/>
+      <c r="OUZ13" s="1"/>
+      <c r="OVD13" s="1"/>
+      <c r="OVH13" s="1"/>
+      <c r="OVL13" s="1"/>
+      <c r="OVP13" s="1"/>
+      <c r="OVT13" s="1"/>
+      <c r="OVX13" s="1"/>
+      <c r="OWB13" s="1"/>
+      <c r="OWF13" s="1"/>
+      <c r="OWJ13" s="1"/>
+      <c r="OWN13" s="1"/>
+      <c r="OWR13" s="1"/>
+      <c r="OWV13" s="1"/>
+      <c r="OWZ13" s="1"/>
+      <c r="OXD13" s="1"/>
+      <c r="OXH13" s="1"/>
+      <c r="OXL13" s="1"/>
+      <c r="OXP13" s="1"/>
+      <c r="OXT13" s="1"/>
+      <c r="OXX13" s="1"/>
+      <c r="OYB13" s="1"/>
+      <c r="OYF13" s="1"/>
+      <c r="OYJ13" s="1"/>
+      <c r="OYN13" s="1"/>
+      <c r="OYR13" s="1"/>
+      <c r="OYV13" s="1"/>
+      <c r="OYZ13" s="1"/>
+      <c r="OZD13" s="1"/>
+      <c r="OZH13" s="1"/>
+      <c r="OZL13" s="1"/>
+      <c r="OZP13" s="1"/>
+      <c r="OZT13" s="1"/>
+      <c r="OZX13" s="1"/>
+      <c r="PAB13" s="1"/>
+      <c r="PAF13" s="1"/>
+      <c r="PAJ13" s="1"/>
+      <c r="PAN13" s="1"/>
+      <c r="PAR13" s="1"/>
+      <c r="PAV13" s="1"/>
+      <c r="PAZ13" s="1"/>
+      <c r="PBD13" s="1"/>
+      <c r="PBH13" s="1"/>
+      <c r="PBL13" s="1"/>
+      <c r="PBP13" s="1"/>
+      <c r="PBT13" s="1"/>
+      <c r="PBX13" s="1"/>
+      <c r="PCB13" s="1"/>
+      <c r="PCF13" s="1"/>
+      <c r="PCJ13" s="1"/>
+      <c r="PCN13" s="1"/>
+      <c r="PCR13" s="1"/>
+      <c r="PCV13" s="1"/>
+      <c r="PCZ13" s="1"/>
+      <c r="PDD13" s="1"/>
+      <c r="PDH13" s="1"/>
+      <c r="PDL13" s="1"/>
+      <c r="PDP13" s="1"/>
+      <c r="PDT13" s="1"/>
+      <c r="PDX13" s="1"/>
+      <c r="PEB13" s="1"/>
+      <c r="PEF13" s="1"/>
+      <c r="PEJ13" s="1"/>
+      <c r="PEN13" s="1"/>
+      <c r="PER13" s="1"/>
+      <c r="PEV13" s="1"/>
+      <c r="PEZ13" s="1"/>
+      <c r="PFD13" s="1"/>
+      <c r="PFH13" s="1"/>
+      <c r="PFL13" s="1"/>
+      <c r="PFP13" s="1"/>
+      <c r="PFT13" s="1"/>
+      <c r="PFX13" s="1"/>
+      <c r="PGB13" s="1"/>
+      <c r="PGF13" s="1"/>
+      <c r="PGJ13" s="1"/>
+      <c r="PGN13" s="1"/>
+      <c r="PGR13" s="1"/>
+      <c r="PGV13" s="1"/>
+      <c r="PGZ13" s="1"/>
+      <c r="PHD13" s="1"/>
+      <c r="PHH13" s="1"/>
+      <c r="PHL13" s="1"/>
+      <c r="PHP13" s="1"/>
+      <c r="PHT13" s="1"/>
+      <c r="PHX13" s="1"/>
+      <c r="PIB13" s="1"/>
+      <c r="PIF13" s="1"/>
+      <c r="PIJ13" s="1"/>
+      <c r="PIN13" s="1"/>
+      <c r="PIR13" s="1"/>
+      <c r="PIV13" s="1"/>
+      <c r="PIZ13" s="1"/>
+      <c r="PJD13" s="1"/>
+      <c r="PJH13" s="1"/>
+      <c r="PJL13" s="1"/>
+      <c r="PJP13" s="1"/>
+      <c r="PJT13" s="1"/>
+      <c r="PJX13" s="1"/>
+      <c r="PKB13" s="1"/>
+      <c r="PKF13" s="1"/>
+      <c r="PKJ13" s="1"/>
+      <c r="PKN13" s="1"/>
+      <c r="PKR13" s="1"/>
+      <c r="PKV13" s="1"/>
+      <c r="PKZ13" s="1"/>
+      <c r="PLD13" s="1"/>
+      <c r="PLH13" s="1"/>
+      <c r="PLL13" s="1"/>
+      <c r="PLP13" s="1"/>
+      <c r="PLT13" s="1"/>
+      <c r="PLX13" s="1"/>
+      <c r="PMB13" s="1"/>
+      <c r="PMF13" s="1"/>
+      <c r="PMJ13" s="1"/>
+      <c r="PMN13" s="1"/>
+      <c r="PMR13" s="1"/>
+      <c r="PMV13" s="1"/>
+      <c r="PMZ13" s="1"/>
+      <c r="PND13" s="1"/>
+      <c r="PNH13" s="1"/>
+      <c r="PNL13" s="1"/>
+      <c r="PNP13" s="1"/>
+      <c r="PNT13" s="1"/>
+      <c r="PNX13" s="1"/>
+      <c r="POB13" s="1"/>
+      <c r="POF13" s="1"/>
+      <c r="POJ13" s="1"/>
+      <c r="PON13" s="1"/>
+      <c r="POR13" s="1"/>
+      <c r="POV13" s="1"/>
+      <c r="POZ13" s="1"/>
+      <c r="PPD13" s="1"/>
+      <c r="PPH13" s="1"/>
+      <c r="PPL13" s="1"/>
+      <c r="PPP13" s="1"/>
+      <c r="PPT13" s="1"/>
+      <c r="PPX13" s="1"/>
+      <c r="PQB13" s="1"/>
+      <c r="PQF13" s="1"/>
+      <c r="PQJ13" s="1"/>
+      <c r="PQN13" s="1"/>
+      <c r="PQR13" s="1"/>
+      <c r="PQV13" s="1"/>
+      <c r="PQZ13" s="1"/>
+      <c r="PRD13" s="1"/>
+      <c r="PRH13" s="1"/>
+      <c r="PRL13" s="1"/>
+      <c r="PRP13" s="1"/>
+      <c r="PRT13" s="1"/>
+      <c r="PRX13" s="1"/>
+      <c r="PSB13" s="1"/>
+      <c r="PSF13" s="1"/>
+      <c r="PSJ13" s="1"/>
+      <c r="PSN13" s="1"/>
+      <c r="PSR13" s="1"/>
+      <c r="PSV13" s="1"/>
+      <c r="PSZ13" s="1"/>
+      <c r="PTD13" s="1"/>
+      <c r="PTH13" s="1"/>
+      <c r="PTL13" s="1"/>
+      <c r="PTP13" s="1"/>
+      <c r="PTT13" s="1"/>
+      <c r="PTX13" s="1"/>
+      <c r="PUB13" s="1"/>
+      <c r="PUF13" s="1"/>
+      <c r="PUJ13" s="1"/>
+      <c r="PUN13" s="1"/>
+      <c r="PUR13" s="1"/>
+      <c r="PUV13" s="1"/>
+      <c r="PUZ13" s="1"/>
+      <c r="PVD13" s="1"/>
+      <c r="PVH13" s="1"/>
+      <c r="PVL13" s="1"/>
+      <c r="PVP13" s="1"/>
+      <c r="PVT13" s="1"/>
+      <c r="PVX13" s="1"/>
+      <c r="PWB13" s="1"/>
+      <c r="PWF13" s="1"/>
+      <c r="PWJ13" s="1"/>
+      <c r="PWN13" s="1"/>
+      <c r="PWR13" s="1"/>
+      <c r="PWV13" s="1"/>
+      <c r="PWZ13" s="1"/>
+      <c r="PXD13" s="1"/>
+      <c r="PXH13" s="1"/>
+      <c r="PXL13" s="1"/>
+      <c r="PXP13" s="1"/>
+      <c r="PXT13" s="1"/>
+      <c r="PXX13" s="1"/>
+      <c r="PYB13" s="1"/>
+      <c r="PYF13" s="1"/>
+      <c r="PYJ13" s="1"/>
+      <c r="PYN13" s="1"/>
+      <c r="PYR13" s="1"/>
+      <c r="PYV13" s="1"/>
+      <c r="PYZ13" s="1"/>
+      <c r="PZD13" s="1"/>
+      <c r="PZH13" s="1"/>
+      <c r="PZL13" s="1"/>
+      <c r="PZP13" s="1"/>
+      <c r="PZT13" s="1"/>
+      <c r="PZX13" s="1"/>
+      <c r="QAB13" s="1"/>
+      <c r="QAF13" s="1"/>
+      <c r="QAJ13" s="1"/>
+      <c r="QAN13" s="1"/>
+      <c r="QAR13" s="1"/>
+      <c r="QAV13" s="1"/>
+      <c r="QAZ13" s="1"/>
+      <c r="QBD13" s="1"/>
+      <c r="QBH13" s="1"/>
+      <c r="QBL13" s="1"/>
+      <c r="QBP13" s="1"/>
+      <c r="QBT13" s="1"/>
+      <c r="QBX13" s="1"/>
+      <c r="QCB13" s="1"/>
+      <c r="QCF13" s="1"/>
+      <c r="QCJ13" s="1"/>
+      <c r="QCN13" s="1"/>
+      <c r="QCR13" s="1"/>
+      <c r="QCV13" s="1"/>
+      <c r="QCZ13" s="1"/>
+      <c r="QDD13" s="1"/>
+      <c r="QDH13" s="1"/>
+      <c r="QDL13" s="1"/>
+      <c r="QDP13" s="1"/>
+      <c r="QDT13" s="1"/>
+      <c r="QDX13" s="1"/>
+      <c r="QEB13" s="1"/>
+      <c r="QEF13" s="1"/>
+      <c r="QEJ13" s="1"/>
+      <c r="QEN13" s="1"/>
+      <c r="QER13" s="1"/>
+      <c r="QEV13" s="1"/>
+      <c r="QEZ13" s="1"/>
+      <c r="QFD13" s="1"/>
+      <c r="QFH13" s="1"/>
+      <c r="QFL13" s="1"/>
+      <c r="QFP13" s="1"/>
+      <c r="QFT13" s="1"/>
+      <c r="QFX13" s="1"/>
+      <c r="QGB13" s="1"/>
+      <c r="QGF13" s="1"/>
+      <c r="QGJ13" s="1"/>
+      <c r="QGN13" s="1"/>
+      <c r="QGR13" s="1"/>
+      <c r="QGV13" s="1"/>
+      <c r="QGZ13" s="1"/>
+      <c r="QHD13" s="1"/>
+      <c r="QHH13" s="1"/>
+      <c r="QHL13" s="1"/>
+      <c r="QHP13" s="1"/>
+      <c r="QHT13" s="1"/>
+      <c r="QHX13" s="1"/>
+      <c r="QIB13" s="1"/>
+      <c r="QIF13" s="1"/>
+      <c r="QIJ13" s="1"/>
+      <c r="QIN13" s="1"/>
+      <c r="QIR13" s="1"/>
+      <c r="QIV13" s="1"/>
+      <c r="QIZ13" s="1"/>
+      <c r="QJD13" s="1"/>
+      <c r="QJH13" s="1"/>
+      <c r="QJL13" s="1"/>
+      <c r="QJP13" s="1"/>
+      <c r="QJT13" s="1"/>
+      <c r="QJX13" s="1"/>
+      <c r="QKB13" s="1"/>
+      <c r="QKF13" s="1"/>
+      <c r="QKJ13" s="1"/>
+      <c r="QKN13" s="1"/>
+      <c r="QKR13" s="1"/>
+      <c r="QKV13" s="1"/>
+      <c r="QKZ13" s="1"/>
+      <c r="QLD13" s="1"/>
+      <c r="QLH13" s="1"/>
+      <c r="QLL13" s="1"/>
+      <c r="QLP13" s="1"/>
+      <c r="QLT13" s="1"/>
+      <c r="QLX13" s="1"/>
+      <c r="QMB13" s="1"/>
+      <c r="QMF13" s="1"/>
+      <c r="QMJ13" s="1"/>
+      <c r="QMN13" s="1"/>
+      <c r="QMR13" s="1"/>
+      <c r="QMV13" s="1"/>
+      <c r="QMZ13" s="1"/>
+      <c r="QND13" s="1"/>
+      <c r="QNH13" s="1"/>
+      <c r="QNL13" s="1"/>
+      <c r="QNP13" s="1"/>
+      <c r="QNT13" s="1"/>
+      <c r="QNX13" s="1"/>
+      <c r="QOB13" s="1"/>
+      <c r="QOF13" s="1"/>
+      <c r="QOJ13" s="1"/>
+      <c r="QON13" s="1"/>
+      <c r="QOR13" s="1"/>
+      <c r="QOV13" s="1"/>
+      <c r="QOZ13" s="1"/>
+      <c r="QPD13" s="1"/>
+      <c r="QPH13" s="1"/>
+      <c r="QPL13" s="1"/>
+      <c r="QPP13" s="1"/>
+      <c r="QPT13" s="1"/>
+      <c r="QPX13" s="1"/>
+      <c r="QQB13" s="1"/>
+      <c r="QQF13" s="1"/>
+      <c r="QQJ13" s="1"/>
+      <c r="QQN13" s="1"/>
+      <c r="QQR13" s="1"/>
+      <c r="QQV13" s="1"/>
+      <c r="QQZ13" s="1"/>
+      <c r="QRD13" s="1"/>
+      <c r="QRH13" s="1"/>
+      <c r="QRL13" s="1"/>
+      <c r="QRP13" s="1"/>
+      <c r="QRT13" s="1"/>
+      <c r="QRX13" s="1"/>
+      <c r="QSB13" s="1"/>
+      <c r="QSF13" s="1"/>
+      <c r="QSJ13" s="1"/>
+      <c r="QSN13" s="1"/>
+      <c r="QSR13" s="1"/>
+      <c r="QSV13" s="1"/>
+      <c r="QSZ13" s="1"/>
+      <c r="QTD13" s="1"/>
+      <c r="QTH13" s="1"/>
+      <c r="QTL13" s="1"/>
+      <c r="QTP13" s="1"/>
+      <c r="QTT13" s="1"/>
+      <c r="QTX13" s="1"/>
+      <c r="QUB13" s="1"/>
+      <c r="QUF13" s="1"/>
+      <c r="QUJ13" s="1"/>
+      <c r="QUN13" s="1"/>
+      <c r="QUR13" s="1"/>
+      <c r="QUV13" s="1"/>
+      <c r="QUZ13" s="1"/>
+      <c r="QVD13" s="1"/>
+      <c r="QVH13" s="1"/>
+      <c r="QVL13" s="1"/>
+      <c r="QVP13" s="1"/>
+      <c r="QVT13" s="1"/>
+      <c r="QVX13" s="1"/>
+      <c r="QWB13" s="1"/>
+      <c r="QWF13" s="1"/>
+      <c r="QWJ13" s="1"/>
+      <c r="QWN13" s="1"/>
+      <c r="QWR13" s="1"/>
+      <c r="QWV13" s="1"/>
+      <c r="QWZ13" s="1"/>
+      <c r="QXD13" s="1"/>
+      <c r="QXH13" s="1"/>
+      <c r="QXL13" s="1"/>
+      <c r="QXP13" s="1"/>
+      <c r="QXT13" s="1"/>
+      <c r="QXX13" s="1"/>
+      <c r="QYB13" s="1"/>
+      <c r="QYF13" s="1"/>
+      <c r="QYJ13" s="1"/>
+      <c r="QYN13" s="1"/>
+      <c r="QYR13" s="1"/>
+      <c r="QYV13" s="1"/>
+      <c r="QYZ13" s="1"/>
+      <c r="QZD13" s="1"/>
+      <c r="QZH13" s="1"/>
+      <c r="QZL13" s="1"/>
+      <c r="QZP13" s="1"/>
+      <c r="QZT13" s="1"/>
+      <c r="QZX13" s="1"/>
+      <c r="RAB13" s="1"/>
+      <c r="RAF13" s="1"/>
+      <c r="RAJ13" s="1"/>
+      <c r="RAN13" s="1"/>
+      <c r="RAR13" s="1"/>
+      <c r="RAV13" s="1"/>
+      <c r="RAZ13" s="1"/>
+      <c r="RBD13" s="1"/>
+      <c r="RBH13" s="1"/>
+      <c r="RBL13" s="1"/>
+      <c r="RBP13" s="1"/>
+      <c r="RBT13" s="1"/>
+      <c r="RBX13" s="1"/>
+      <c r="RCB13" s="1"/>
+      <c r="RCF13" s="1"/>
+      <c r="RCJ13" s="1"/>
+      <c r="RCN13" s="1"/>
+      <c r="RCR13" s="1"/>
+      <c r="RCV13" s="1"/>
+      <c r="RCZ13" s="1"/>
+      <c r="RDD13" s="1"/>
+      <c r="RDH13" s="1"/>
+      <c r="RDL13" s="1"/>
+      <c r="RDP13" s="1"/>
+      <c r="RDT13" s="1"/>
+      <c r="RDX13" s="1"/>
+      <c r="REB13" s="1"/>
+      <c r="REF13" s="1"/>
+      <c r="REJ13" s="1"/>
+      <c r="REN13" s="1"/>
+      <c r="RER13" s="1"/>
+      <c r="REV13" s="1"/>
+      <c r="REZ13" s="1"/>
+      <c r="RFD13" s="1"/>
+      <c r="RFH13" s="1"/>
+      <c r="RFL13" s="1"/>
+      <c r="RFP13" s="1"/>
+      <c r="RFT13" s="1"/>
+      <c r="RFX13" s="1"/>
+      <c r="RGB13" s="1"/>
+      <c r="RGF13" s="1"/>
+      <c r="RGJ13" s="1"/>
+      <c r="RGN13" s="1"/>
+      <c r="RGR13" s="1"/>
+      <c r="RGV13" s="1"/>
+      <c r="RGZ13" s="1"/>
+      <c r="RHD13" s="1"/>
+      <c r="RHH13" s="1"/>
+      <c r="RHL13" s="1"/>
+      <c r="RHP13" s="1"/>
+      <c r="RHT13" s="1"/>
+      <c r="RHX13" s="1"/>
+      <c r="RIB13" s="1"/>
+      <c r="RIF13" s="1"/>
+      <c r="RIJ13" s="1"/>
+      <c r="RIN13" s="1"/>
+      <c r="RIR13" s="1"/>
+      <c r="RIV13" s="1"/>
+      <c r="RIZ13" s="1"/>
+      <c r="RJD13" s="1"/>
+      <c r="RJH13" s="1"/>
+      <c r="RJL13" s="1"/>
+      <c r="RJP13" s="1"/>
+      <c r="RJT13" s="1"/>
+      <c r="RJX13" s="1"/>
+      <c r="RKB13" s="1"/>
+      <c r="RKF13" s="1"/>
+      <c r="RKJ13" s="1"/>
+      <c r="RKN13" s="1"/>
+      <c r="RKR13" s="1"/>
+      <c r="RKV13" s="1"/>
+      <c r="RKZ13" s="1"/>
+      <c r="RLD13" s="1"/>
+      <c r="RLH13" s="1"/>
+      <c r="RLL13" s="1"/>
+      <c r="RLP13" s="1"/>
+      <c r="RLT13" s="1"/>
+      <c r="RLX13" s="1"/>
+      <c r="RMB13" s="1"/>
+      <c r="RMF13" s="1"/>
+      <c r="RMJ13" s="1"/>
+      <c r="RMN13" s="1"/>
+      <c r="RMR13" s="1"/>
+      <c r="RMV13" s="1"/>
+      <c r="RMZ13" s="1"/>
+      <c r="RND13" s="1"/>
+      <c r="RNH13" s="1"/>
+      <c r="RNL13" s="1"/>
+      <c r="RNP13" s="1"/>
+      <c r="RNT13" s="1"/>
+      <c r="RNX13" s="1"/>
+      <c r="ROB13" s="1"/>
+      <c r="ROF13" s="1"/>
+      <c r="ROJ13" s="1"/>
+      <c r="RON13" s="1"/>
+      <c r="ROR13" s="1"/>
+      <c r="ROV13" s="1"/>
+      <c r="ROZ13" s="1"/>
+      <c r="RPD13" s="1"/>
+      <c r="RPH13" s="1"/>
+      <c r="RPL13" s="1"/>
+      <c r="RPP13" s="1"/>
+      <c r="RPT13" s="1"/>
+      <c r="RPX13" s="1"/>
+      <c r="RQB13" s="1"/>
+      <c r="RQF13" s="1"/>
+      <c r="RQJ13" s="1"/>
+      <c r="RQN13" s="1"/>
+      <c r="RQR13" s="1"/>
+      <c r="RQV13" s="1"/>
+      <c r="RQZ13" s="1"/>
+      <c r="RRD13" s="1"/>
+      <c r="RRH13" s="1"/>
+      <c r="RRL13" s="1"/>
+      <c r="RRP13" s="1"/>
+      <c r="RRT13" s="1"/>
+      <c r="RRX13" s="1"/>
+      <c r="RSB13" s="1"/>
+      <c r="RSF13" s="1"/>
+      <c r="RSJ13" s="1"/>
+      <c r="RSN13" s="1"/>
+      <c r="RSR13" s="1"/>
+      <c r="RSV13" s="1"/>
+      <c r="RSZ13" s="1"/>
+      <c r="RTD13" s="1"/>
+      <c r="RTH13" s="1"/>
+      <c r="RTL13" s="1"/>
+      <c r="RTP13" s="1"/>
+      <c r="RTT13" s="1"/>
+      <c r="RTX13" s="1"/>
+      <c r="RUB13" s="1"/>
+      <c r="RUF13" s="1"/>
+      <c r="RUJ13" s="1"/>
+      <c r="RUN13" s="1"/>
+      <c r="RUR13" s="1"/>
+      <c r="RUV13" s="1"/>
+      <c r="RUZ13" s="1"/>
+      <c r="RVD13" s="1"/>
+      <c r="RVH13" s="1"/>
+      <c r="RVL13" s="1"/>
+      <c r="RVP13" s="1"/>
+      <c r="RVT13" s="1"/>
+      <c r="RVX13" s="1"/>
+      <c r="RWB13" s="1"/>
+      <c r="RWF13" s="1"/>
+      <c r="RWJ13" s="1"/>
+      <c r="RWN13" s="1"/>
+      <c r="RWR13" s="1"/>
+      <c r="RWV13" s="1"/>
+      <c r="RWZ13" s="1"/>
+      <c r="RXD13" s="1"/>
+      <c r="RXH13" s="1"/>
+      <c r="RXL13" s="1"/>
+      <c r="RXP13" s="1"/>
+      <c r="RXT13" s="1"/>
+      <c r="RXX13" s="1"/>
+      <c r="RYB13" s="1"/>
+      <c r="RYF13" s="1"/>
+      <c r="RYJ13" s="1"/>
+      <c r="RYN13" s="1"/>
+      <c r="RYR13" s="1"/>
+      <c r="RYV13" s="1"/>
+      <c r="RYZ13" s="1"/>
+      <c r="RZD13" s="1"/>
+      <c r="RZH13" s="1"/>
+      <c r="RZL13" s="1"/>
+      <c r="RZP13" s="1"/>
+      <c r="RZT13" s="1"/>
+      <c r="RZX13" s="1"/>
+      <c r="SAB13" s="1"/>
+      <c r="SAF13" s="1"/>
+      <c r="SAJ13" s="1"/>
+      <c r="SAN13" s="1"/>
+      <c r="SAR13" s="1"/>
+      <c r="SAV13" s="1"/>
+      <c r="SAZ13" s="1"/>
+      <c r="SBD13" s="1"/>
+      <c r="SBH13" s="1"/>
+      <c r="SBL13" s="1"/>
+      <c r="SBP13" s="1"/>
+      <c r="SBT13" s="1"/>
+      <c r="SBX13" s="1"/>
+      <c r="SCB13" s="1"/>
+      <c r="SCF13" s="1"/>
+      <c r="SCJ13" s="1"/>
+      <c r="SCN13" s="1"/>
+      <c r="SCR13" s="1"/>
+      <c r="SCV13" s="1"/>
+      <c r="SCZ13" s="1"/>
+      <c r="SDD13" s="1"/>
+      <c r="SDH13" s="1"/>
+      <c r="SDL13" s="1"/>
+      <c r="SDP13" s="1"/>
+      <c r="SDT13" s="1"/>
+      <c r="SDX13" s="1"/>
+      <c r="SEB13" s="1"/>
+      <c r="SEF13" s="1"/>
+      <c r="SEJ13" s="1"/>
+      <c r="SEN13" s="1"/>
+      <c r="SER13" s="1"/>
+      <c r="SEV13" s="1"/>
+      <c r="SEZ13" s="1"/>
+      <c r="SFD13" s="1"/>
+      <c r="SFH13" s="1"/>
+      <c r="SFL13" s="1"/>
+      <c r="SFP13" s="1"/>
+      <c r="SFT13" s="1"/>
+      <c r="SFX13" s="1"/>
+      <c r="SGB13" s="1"/>
+      <c r="SGF13" s="1"/>
+      <c r="SGJ13" s="1"/>
+      <c r="SGN13" s="1"/>
+      <c r="SGR13" s="1"/>
+      <c r="SGV13" s="1"/>
+      <c r="SGZ13" s="1"/>
+      <c r="SHD13" s="1"/>
+      <c r="SHH13" s="1"/>
+      <c r="SHL13" s="1"/>
+      <c r="SHP13" s="1"/>
+      <c r="SHT13" s="1"/>
+      <c r="SHX13" s="1"/>
+      <c r="SIB13" s="1"/>
+      <c r="SIF13" s="1"/>
+      <c r="SIJ13" s="1"/>
+      <c r="SIN13" s="1"/>
+      <c r="SIR13" s="1"/>
+      <c r="SIV13" s="1"/>
+      <c r="SIZ13" s="1"/>
+      <c r="SJD13" s="1"/>
+      <c r="SJH13" s="1"/>
+      <c r="SJL13" s="1"/>
+      <c r="SJP13" s="1"/>
+      <c r="SJT13" s="1"/>
+      <c r="SJX13" s="1"/>
+      <c r="SKB13" s="1"/>
+      <c r="SKF13" s="1"/>
+      <c r="SKJ13" s="1"/>
+      <c r="SKN13" s="1"/>
+      <c r="SKR13" s="1"/>
+      <c r="SKV13" s="1"/>
+      <c r="SKZ13" s="1"/>
+      <c r="SLD13" s="1"/>
+      <c r="SLH13" s="1"/>
+      <c r="SLL13" s="1"/>
+      <c r="SLP13" s="1"/>
+      <c r="SLT13" s="1"/>
+      <c r="SLX13" s="1"/>
+      <c r="SMB13" s="1"/>
+      <c r="SMF13" s="1"/>
+      <c r="SMJ13" s="1"/>
+      <c r="SMN13" s="1"/>
+      <c r="SMR13" s="1"/>
+      <c r="SMV13" s="1"/>
+      <c r="SMZ13" s="1"/>
+      <c r="SND13" s="1"/>
+      <c r="SNH13" s="1"/>
+      <c r="SNL13" s="1"/>
+      <c r="SNP13" s="1"/>
+      <c r="SNT13" s="1"/>
+      <c r="SNX13" s="1"/>
+      <c r="SOB13" s="1"/>
+      <c r="SOF13" s="1"/>
+      <c r="SOJ13" s="1"/>
+      <c r="SON13" s="1"/>
+      <c r="SOR13" s="1"/>
+      <c r="SOV13" s="1"/>
+      <c r="SOZ13" s="1"/>
+      <c r="SPD13" s="1"/>
+      <c r="SPH13" s="1"/>
+      <c r="SPL13" s="1"/>
+      <c r="SPP13" s="1"/>
+      <c r="SPT13" s="1"/>
+      <c r="SPX13" s="1"/>
+      <c r="SQB13" s="1"/>
+      <c r="SQF13" s="1"/>
+      <c r="SQJ13" s="1"/>
+      <c r="SQN13" s="1"/>
+      <c r="SQR13" s="1"/>
+      <c r="SQV13" s="1"/>
+      <c r="SQZ13" s="1"/>
+      <c r="SRD13" s="1"/>
+      <c r="SRH13" s="1"/>
+      <c r="SRL13" s="1"/>
+      <c r="SRP13" s="1"/>
+      <c r="SRT13" s="1"/>
+      <c r="SRX13" s="1"/>
+      <c r="SSB13" s="1"/>
+      <c r="SSF13" s="1"/>
+      <c r="SSJ13" s="1"/>
+      <c r="SSN13" s="1"/>
+      <c r="SSR13" s="1"/>
+      <c r="SSV13" s="1"/>
+      <c r="SSZ13" s="1"/>
+      <c r="STD13" s="1"/>
+      <c r="STH13" s="1"/>
+      <c r="STL13" s="1"/>
+      <c r="STP13" s="1"/>
+      <c r="STT13" s="1"/>
+      <c r="STX13" s="1"/>
+      <c r="SUB13" s="1"/>
+      <c r="SUF13" s="1"/>
+      <c r="SUJ13" s="1"/>
+      <c r="SUN13" s="1"/>
+      <c r="SUR13" s="1"/>
+      <c r="SUV13" s="1"/>
+      <c r="SUZ13" s="1"/>
+      <c r="SVD13" s="1"/>
+      <c r="SVH13" s="1"/>
+      <c r="SVL13" s="1"/>
+      <c r="SVP13" s="1"/>
+      <c r="SVT13" s="1"/>
+      <c r="SVX13" s="1"/>
+      <c r="SWB13" s="1"/>
+      <c r="SWF13" s="1"/>
+      <c r="SWJ13" s="1"/>
+      <c r="SWN13" s="1"/>
+      <c r="SWR13" s="1"/>
+      <c r="SWV13" s="1"/>
+      <c r="SWZ13" s="1"/>
+      <c r="SXD13" s="1"/>
+      <c r="SXH13" s="1"/>
+      <c r="SXL13" s="1"/>
+      <c r="SXP13" s="1"/>
+      <c r="SXT13" s="1"/>
+      <c r="SXX13" s="1"/>
+      <c r="SYB13" s="1"/>
+      <c r="SYF13" s="1"/>
+      <c r="SYJ13" s="1"/>
+      <c r="SYN13" s="1"/>
+      <c r="SYR13" s="1"/>
+      <c r="SYV13" s="1"/>
+      <c r="SYZ13" s="1"/>
+      <c r="SZD13" s="1"/>
+      <c r="SZH13" s="1"/>
+      <c r="SZL13" s="1"/>
+      <c r="SZP13" s="1"/>
+      <c r="SZT13" s="1"/>
+      <c r="SZX13" s="1"/>
+      <c r="TAB13" s="1"/>
+      <c r="TAF13" s="1"/>
+      <c r="TAJ13" s="1"/>
+      <c r="TAN13" s="1"/>
+      <c r="TAR13" s="1"/>
+      <c r="TAV13" s="1"/>
+      <c r="TAZ13" s="1"/>
+      <c r="TBD13" s="1"/>
+      <c r="TBH13" s="1"/>
+      <c r="TBL13" s="1"/>
+      <c r="TBP13" s="1"/>
+      <c r="TBT13" s="1"/>
+      <c r="TBX13" s="1"/>
+      <c r="TCB13" s="1"/>
+      <c r="TCF13" s="1"/>
+      <c r="TCJ13" s="1"/>
+      <c r="TCN13" s="1"/>
+      <c r="TCR13" s="1"/>
+      <c r="TCV13" s="1"/>
+      <c r="TCZ13" s="1"/>
+      <c r="TDD13" s="1"/>
+      <c r="TDH13" s="1"/>
+      <c r="TDL13" s="1"/>
+      <c r="TDP13" s="1"/>
+      <c r="TDT13" s="1"/>
+      <c r="TDX13" s="1"/>
+      <c r="TEB13" s="1"/>
+      <c r="TEF13" s="1"/>
+      <c r="TEJ13" s="1"/>
+      <c r="TEN13" s="1"/>
+      <c r="TER13" s="1"/>
+      <c r="TEV13" s="1"/>
+      <c r="TEZ13" s="1"/>
+      <c r="TFD13" s="1"/>
+      <c r="TFH13" s="1"/>
+      <c r="TFL13" s="1"/>
+      <c r="TFP13" s="1"/>
+      <c r="TFT13" s="1"/>
+      <c r="TFX13" s="1"/>
+      <c r="TGB13" s="1"/>
+      <c r="TGF13" s="1"/>
+      <c r="TGJ13" s="1"/>
+      <c r="TGN13" s="1"/>
+      <c r="TGR13" s="1"/>
+      <c r="TGV13" s="1"/>
+      <c r="TGZ13" s="1"/>
+      <c r="THD13" s="1"/>
+      <c r="THH13" s="1"/>
+      <c r="THL13" s="1"/>
+      <c r="THP13" s="1"/>
+      <c r="THT13" s="1"/>
+      <c r="THX13" s="1"/>
+      <c r="TIB13" s="1"/>
+      <c r="TIF13" s="1"/>
+      <c r="TIJ13" s="1"/>
+      <c r="TIN13" s="1"/>
+      <c r="TIR13" s="1"/>
+      <c r="TIV13" s="1"/>
+      <c r="TIZ13" s="1"/>
+      <c r="TJD13" s="1"/>
+      <c r="TJH13" s="1"/>
+      <c r="TJL13" s="1"/>
+      <c r="TJP13" s="1"/>
+      <c r="TJT13" s="1"/>
+      <c r="TJX13" s="1"/>
+      <c r="TKB13" s="1"/>
+      <c r="TKF13" s="1"/>
+      <c r="TKJ13" s="1"/>
+      <c r="TKN13" s="1"/>
+      <c r="TKR13" s="1"/>
+      <c r="TKV13" s="1"/>
+      <c r="TKZ13" s="1"/>
+      <c r="TLD13" s="1"/>
+      <c r="TLH13" s="1"/>
+      <c r="TLL13" s="1"/>
+      <c r="TLP13" s="1"/>
+      <c r="TLT13" s="1"/>
+      <c r="TLX13" s="1"/>
+      <c r="TMB13" s="1"/>
+      <c r="TMF13" s="1"/>
+      <c r="TMJ13" s="1"/>
+      <c r="TMN13" s="1"/>
+      <c r="TMR13" s="1"/>
+      <c r="TMV13" s="1"/>
+      <c r="TMZ13" s="1"/>
+      <c r="TND13" s="1"/>
+      <c r="TNH13" s="1"/>
+      <c r="TNL13" s="1"/>
+      <c r="TNP13" s="1"/>
+      <c r="TNT13" s="1"/>
+      <c r="TNX13" s="1"/>
+      <c r="TOB13" s="1"/>
+      <c r="TOF13" s="1"/>
+      <c r="TOJ13" s="1"/>
+      <c r="TON13" s="1"/>
+      <c r="TOR13" s="1"/>
+      <c r="TOV13" s="1"/>
+      <c r="TOZ13" s="1"/>
+      <c r="TPD13" s="1"/>
+      <c r="TPH13" s="1"/>
+      <c r="TPL13" s="1"/>
+      <c r="TPP13" s="1"/>
+      <c r="TPT13" s="1"/>
+      <c r="TPX13" s="1"/>
+      <c r="TQB13" s="1"/>
+      <c r="TQF13" s="1"/>
+      <c r="TQJ13" s="1"/>
+      <c r="TQN13" s="1"/>
+      <c r="TQR13" s="1"/>
+      <c r="TQV13" s="1"/>
+      <c r="TQZ13" s="1"/>
+      <c r="TRD13" s="1"/>
+      <c r="TRH13" s="1"/>
+      <c r="TRL13" s="1"/>
+      <c r="TRP13" s="1"/>
+      <c r="TRT13" s="1"/>
+      <c r="TRX13" s="1"/>
+      <c r="TSB13" s="1"/>
+      <c r="TSF13" s="1"/>
+      <c r="TSJ13" s="1"/>
+      <c r="TSN13" s="1"/>
+      <c r="TSR13" s="1"/>
+      <c r="TSV13" s="1"/>
+      <c r="TSZ13" s="1"/>
+      <c r="TTD13" s="1"/>
+      <c r="TTH13" s="1"/>
+      <c r="TTL13" s="1"/>
+      <c r="TTP13" s="1"/>
+      <c r="TTT13" s="1"/>
+      <c r="TTX13" s="1"/>
+      <c r="TUB13" s="1"/>
+      <c r="TUF13" s="1"/>
+      <c r="TUJ13" s="1"/>
+      <c r="TUN13" s="1"/>
+      <c r="TUR13" s="1"/>
+      <c r="TUV13" s="1"/>
+      <c r="TUZ13" s="1"/>
+      <c r="TVD13" s="1"/>
+      <c r="TVH13" s="1"/>
+      <c r="TVL13" s="1"/>
+      <c r="TVP13" s="1"/>
+      <c r="TVT13" s="1"/>
+      <c r="TVX13" s="1"/>
+      <c r="TWB13" s="1"/>
+      <c r="TWF13" s="1"/>
+      <c r="TWJ13" s="1"/>
+      <c r="TWN13" s="1"/>
+      <c r="TWR13" s="1"/>
+      <c r="TWV13" s="1"/>
+      <c r="TWZ13" s="1"/>
+      <c r="TXD13" s="1"/>
+      <c r="TXH13" s="1"/>
+      <c r="TXL13" s="1"/>
+      <c r="TXP13" s="1"/>
+      <c r="TXT13" s="1"/>
+      <c r="TXX13" s="1"/>
+      <c r="TYB13" s="1"/>
+      <c r="TYF13" s="1"/>
+      <c r="TYJ13" s="1"/>
+      <c r="TYN13" s="1"/>
+      <c r="TYR13" s="1"/>
+      <c r="TYV13" s="1"/>
+      <c r="TYZ13" s="1"/>
+      <c r="TZD13" s="1"/>
+      <c r="TZH13" s="1"/>
+      <c r="TZL13" s="1"/>
+      <c r="TZP13" s="1"/>
+      <c r="TZT13" s="1"/>
+      <c r="TZX13" s="1"/>
+      <c r="UAB13" s="1"/>
+      <c r="UAF13" s="1"/>
+      <c r="UAJ13" s="1"/>
+      <c r="UAN13" s="1"/>
+      <c r="UAR13" s="1"/>
+      <c r="UAV13" s="1"/>
+      <c r="UAZ13" s="1"/>
+      <c r="UBD13" s="1"/>
+      <c r="UBH13" s="1"/>
+      <c r="UBL13" s="1"/>
+      <c r="UBP13" s="1"/>
+      <c r="UBT13" s="1"/>
+      <c r="UBX13" s="1"/>
+      <c r="UCB13" s="1"/>
+      <c r="UCF13" s="1"/>
+      <c r="UCJ13" s="1"/>
+      <c r="UCN13" s="1"/>
+      <c r="UCR13" s="1"/>
+      <c r="UCV13" s="1"/>
+      <c r="UCZ13" s="1"/>
+      <c r="UDD13" s="1"/>
+      <c r="UDH13" s="1"/>
+      <c r="UDL13" s="1"/>
+      <c r="UDP13" s="1"/>
+      <c r="UDT13" s="1"/>
+      <c r="UDX13" s="1"/>
+      <c r="UEB13" s="1"/>
+      <c r="UEF13" s="1"/>
+      <c r="UEJ13" s="1"/>
+      <c r="UEN13" s="1"/>
+      <c r="UER13" s="1"/>
+      <c r="UEV13" s="1"/>
+      <c r="UEZ13" s="1"/>
+      <c r="UFD13" s="1"/>
+      <c r="UFH13" s="1"/>
+      <c r="UFL13" s="1"/>
+      <c r="UFP13" s="1"/>
+      <c r="UFT13" s="1"/>
+      <c r="UFX13" s="1"/>
+      <c r="UGB13" s="1"/>
+      <c r="UGF13" s="1"/>
+      <c r="UGJ13" s="1"/>
+      <c r="UGN13" s="1"/>
+      <c r="UGR13" s="1"/>
+      <c r="UGV13" s="1"/>
+      <c r="UGZ13" s="1"/>
+      <c r="UHD13" s="1"/>
+      <c r="UHH13" s="1"/>
+      <c r="UHL13" s="1"/>
+      <c r="UHP13" s="1"/>
+      <c r="UHT13" s="1"/>
+      <c r="UHX13" s="1"/>
+      <c r="UIB13" s="1"/>
+      <c r="UIF13" s="1"/>
+      <c r="UIJ13" s="1"/>
+      <c r="UIN13" s="1"/>
+      <c r="UIR13" s="1"/>
+      <c r="UIV13" s="1"/>
+      <c r="UIZ13" s="1"/>
+      <c r="UJD13" s="1"/>
+      <c r="UJH13" s="1"/>
+      <c r="UJL13" s="1"/>
+      <c r="UJP13" s="1"/>
+      <c r="UJT13" s="1"/>
+      <c r="UJX13" s="1"/>
+      <c r="UKB13" s="1"/>
+      <c r="UKF13" s="1"/>
+      <c r="UKJ13" s="1"/>
+      <c r="UKN13" s="1"/>
+      <c r="UKR13" s="1"/>
+      <c r="UKV13" s="1"/>
+      <c r="UKZ13" s="1"/>
+      <c r="ULD13" s="1"/>
+      <c r="ULH13" s="1"/>
+      <c r="ULL13" s="1"/>
+      <c r="ULP13" s="1"/>
+      <c r="ULT13" s="1"/>
+      <c r="ULX13" s="1"/>
+      <c r="UMB13" s="1"/>
+      <c r="UMF13" s="1"/>
+      <c r="UMJ13" s="1"/>
+      <c r="UMN13" s="1"/>
+      <c r="UMR13" s="1"/>
+      <c r="UMV13" s="1"/>
+      <c r="UMZ13" s="1"/>
+      <c r="UND13" s="1"/>
+      <c r="UNH13" s="1"/>
+      <c r="UNL13" s="1"/>
+      <c r="UNP13" s="1"/>
+      <c r="UNT13" s="1"/>
+      <c r="UNX13" s="1"/>
+      <c r="UOB13" s="1"/>
+      <c r="UOF13" s="1"/>
+      <c r="UOJ13" s="1"/>
+      <c r="UON13" s="1"/>
+      <c r="UOR13" s="1"/>
+      <c r="UOV13" s="1"/>
+      <c r="UOZ13" s="1"/>
+      <c r="UPD13" s="1"/>
+      <c r="UPH13" s="1"/>
+      <c r="UPL13" s="1"/>
+      <c r="UPP13" s="1"/>
+      <c r="UPT13" s="1"/>
+      <c r="UPX13" s="1"/>
+      <c r="UQB13" s="1"/>
+      <c r="UQF13" s="1"/>
+      <c r="UQJ13" s="1"/>
+      <c r="UQN13" s="1"/>
+      <c r="UQR13" s="1"/>
+      <c r="UQV13" s="1"/>
+      <c r="UQZ13" s="1"/>
+      <c r="URD13" s="1"/>
+      <c r="URH13" s="1"/>
+      <c r="URL13" s="1"/>
+      <c r="URP13" s="1"/>
+      <c r="URT13" s="1"/>
+      <c r="URX13" s="1"/>
+      <c r="USB13" s="1"/>
+      <c r="USF13" s="1"/>
+      <c r="USJ13" s="1"/>
+      <c r="USN13" s="1"/>
+      <c r="USR13" s="1"/>
+      <c r="USV13" s="1"/>
+      <c r="USZ13" s="1"/>
+      <c r="UTD13" s="1"/>
+      <c r="UTH13" s="1"/>
+      <c r="UTL13" s="1"/>
+      <c r="UTP13" s="1"/>
+      <c r="UTT13" s="1"/>
+      <c r="UTX13" s="1"/>
+      <c r="UUB13" s="1"/>
+      <c r="UUF13" s="1"/>
+      <c r="UUJ13" s="1"/>
+      <c r="UUN13" s="1"/>
+      <c r="UUR13" s="1"/>
+      <c r="UUV13" s="1"/>
+      <c r="UUZ13" s="1"/>
+      <c r="UVD13" s="1"/>
+      <c r="UVH13" s="1"/>
+      <c r="UVL13" s="1"/>
+      <c r="UVP13" s="1"/>
+      <c r="UVT13" s="1"/>
+      <c r="UVX13" s="1"/>
+      <c r="UWB13" s="1"/>
+      <c r="UWF13" s="1"/>
+      <c r="UWJ13" s="1"/>
+      <c r="UWN13" s="1"/>
+      <c r="UWR13" s="1"/>
+      <c r="UWV13" s="1"/>
+      <c r="UWZ13" s="1"/>
+      <c r="UXD13" s="1"/>
+      <c r="UXH13" s="1"/>
+      <c r="UXL13" s="1"/>
+      <c r="UXP13" s="1"/>
+      <c r="UXT13" s="1"/>
+      <c r="UXX13" s="1"/>
+      <c r="UYB13" s="1"/>
+      <c r="UYF13" s="1"/>
+      <c r="UYJ13" s="1"/>
+      <c r="UYN13" s="1"/>
+      <c r="UYR13" s="1"/>
+      <c r="UYV13" s="1"/>
+      <c r="UYZ13" s="1"/>
+      <c r="UZD13" s="1"/>
+      <c r="UZH13" s="1"/>
+      <c r="UZL13" s="1"/>
+      <c r="UZP13" s="1"/>
+      <c r="UZT13" s="1"/>
+      <c r="UZX13" s="1"/>
+      <c r="VAB13" s="1"/>
+      <c r="VAF13" s="1"/>
+      <c r="VAJ13" s="1"/>
+      <c r="VAN13" s="1"/>
+      <c r="VAR13" s="1"/>
+      <c r="VAV13" s="1"/>
+      <c r="VAZ13" s="1"/>
+      <c r="VBD13" s="1"/>
+      <c r="VBH13" s="1"/>
+      <c r="VBL13" s="1"/>
+      <c r="VBP13" s="1"/>
+      <c r="VBT13" s="1"/>
+      <c r="VBX13" s="1"/>
+      <c r="VCB13" s="1"/>
+      <c r="VCF13" s="1"/>
+      <c r="VCJ13" s="1"/>
+      <c r="VCN13" s="1"/>
+      <c r="VCR13" s="1"/>
+      <c r="VCV13" s="1"/>
+      <c r="VCZ13" s="1"/>
+      <c r="VDD13" s="1"/>
+      <c r="VDH13" s="1"/>
+      <c r="VDL13" s="1"/>
+      <c r="VDP13" s="1"/>
+      <c r="VDT13" s="1"/>
+      <c r="VDX13" s="1"/>
+      <c r="VEB13" s="1"/>
+      <c r="VEF13" s="1"/>
+      <c r="VEJ13" s="1"/>
+      <c r="VEN13" s="1"/>
+      <c r="VER13" s="1"/>
+      <c r="VEV13" s="1"/>
+      <c r="VEZ13" s="1"/>
+      <c r="VFD13" s="1"/>
+      <c r="VFH13" s="1"/>
+      <c r="VFL13" s="1"/>
+      <c r="VFP13" s="1"/>
+      <c r="VFT13" s="1"/>
+      <c r="VFX13" s="1"/>
+      <c r="VGB13" s="1"/>
+      <c r="VGF13" s="1"/>
+      <c r="VGJ13" s="1"/>
+      <c r="VGN13" s="1"/>
+      <c r="VGR13" s="1"/>
+      <c r="VGV13" s="1"/>
+      <c r="VGZ13" s="1"/>
+      <c r="VHD13" s="1"/>
+      <c r="VHH13" s="1"/>
+      <c r="VHL13" s="1"/>
+      <c r="VHP13" s="1"/>
+      <c r="VHT13" s="1"/>
+      <c r="VHX13" s="1"/>
+      <c r="VIB13" s="1"/>
+      <c r="VIF13" s="1"/>
+      <c r="VIJ13" s="1"/>
+      <c r="VIN13" s="1"/>
+      <c r="VIR13" s="1"/>
+      <c r="VIV13" s="1"/>
+      <c r="VIZ13" s="1"/>
+      <c r="VJD13" s="1"/>
+      <c r="VJH13" s="1"/>
+      <c r="VJL13" s="1"/>
+      <c r="VJP13" s="1"/>
+      <c r="VJT13" s="1"/>
+      <c r="VJX13" s="1"/>
+      <c r="VKB13" s="1"/>
+      <c r="VKF13" s="1"/>
+      <c r="VKJ13" s="1"/>
+      <c r="VKN13" s="1"/>
+      <c r="VKR13" s="1"/>
+      <c r="VKV13" s="1"/>
+      <c r="VKZ13" s="1"/>
+      <c r="VLD13" s="1"/>
+      <c r="VLH13" s="1"/>
+      <c r="VLL13" s="1"/>
+      <c r="VLP13" s="1"/>
+      <c r="VLT13" s="1"/>
+      <c r="VLX13" s="1"/>
+      <c r="VMB13" s="1"/>
+      <c r="VMF13" s="1"/>
+      <c r="VMJ13" s="1"/>
+      <c r="VMN13" s="1"/>
+      <c r="VMR13" s="1"/>
+      <c r="VMV13" s="1"/>
+      <c r="VMZ13" s="1"/>
+      <c r="VND13" s="1"/>
+      <c r="VNH13" s="1"/>
+      <c r="VNL13" s="1"/>
+      <c r="VNP13" s="1"/>
+      <c r="VNT13" s="1"/>
+      <c r="VNX13" s="1"/>
+      <c r="VOB13" s="1"/>
+      <c r="VOF13" s="1"/>
+      <c r="VOJ13" s="1"/>
+      <c r="VON13" s="1"/>
+      <c r="VOR13" s="1"/>
+      <c r="VOV13" s="1"/>
+      <c r="VOZ13" s="1"/>
+      <c r="VPD13" s="1"/>
+      <c r="VPH13" s="1"/>
+      <c r="VPL13" s="1"/>
+      <c r="VPP13" s="1"/>
+      <c r="VPT13" s="1"/>
+      <c r="VPX13" s="1"/>
+      <c r="VQB13" s="1"/>
+      <c r="VQF13" s="1"/>
+      <c r="VQJ13" s="1"/>
+      <c r="VQN13" s="1"/>
+      <c r="VQR13" s="1"/>
+      <c r="VQV13" s="1"/>
+      <c r="VQZ13" s="1"/>
+      <c r="VRD13" s="1"/>
+      <c r="VRH13" s="1"/>
+      <c r="VRL13" s="1"/>
+      <c r="VRP13" s="1"/>
+      <c r="VRT13" s="1"/>
+      <c r="VRX13" s="1"/>
+      <c r="VSB13" s="1"/>
+      <c r="VSF13" s="1"/>
+      <c r="VSJ13" s="1"/>
+      <c r="VSN13" s="1"/>
+      <c r="VSR13" s="1"/>
+      <c r="VSV13" s="1"/>
+      <c r="VSZ13" s="1"/>
+      <c r="VTD13" s="1"/>
+      <c r="VTH13" s="1"/>
+      <c r="VTL13" s="1"/>
+      <c r="VTP13" s="1"/>
+      <c r="VTT13" s="1"/>
+      <c r="VTX13" s="1"/>
+      <c r="VUB13" s="1"/>
+      <c r="VUF13" s="1"/>
+      <c r="VUJ13" s="1"/>
+      <c r="VUN13" s="1"/>
+      <c r="VUR13" s="1"/>
+      <c r="VUV13" s="1"/>
+      <c r="VUZ13" s="1"/>
+      <c r="VVD13" s="1"/>
+      <c r="VVH13" s="1"/>
+      <c r="VVL13" s="1"/>
+      <c r="VVP13" s="1"/>
+      <c r="VVT13" s="1"/>
+      <c r="VVX13" s="1"/>
+      <c r="VWB13" s="1"/>
+      <c r="VWF13" s="1"/>
+      <c r="VWJ13" s="1"/>
+      <c r="VWN13" s="1"/>
+      <c r="VWR13" s="1"/>
+      <c r="VWV13" s="1"/>
+      <c r="VWZ13" s="1"/>
+      <c r="VXD13" s="1"/>
+      <c r="VXH13" s="1"/>
+      <c r="VXL13" s="1"/>
+      <c r="VXP13" s="1"/>
+      <c r="VXT13" s="1"/>
+      <c r="VXX13" s="1"/>
+      <c r="VYB13" s="1"/>
+      <c r="VYF13" s="1"/>
+      <c r="VYJ13" s="1"/>
+      <c r="VYN13" s="1"/>
+      <c r="VYR13" s="1"/>
+      <c r="VYV13" s="1"/>
+      <c r="VYZ13" s="1"/>
+      <c r="VZD13" s="1"/>
+      <c r="VZH13" s="1"/>
+      <c r="VZL13" s="1"/>
+      <c r="VZP13" s="1"/>
+      <c r="VZT13" s="1"/>
+      <c r="VZX13" s="1"/>
+      <c r="WAB13" s="1"/>
+      <c r="WAF13" s="1"/>
+      <c r="WAJ13" s="1"/>
+      <c r="WAN13" s="1"/>
+      <c r="WAR13" s="1"/>
+      <c r="WAV13" s="1"/>
+      <c r="WAZ13" s="1"/>
+      <c r="WBD13" s="1"/>
+      <c r="WBH13" s="1"/>
+      <c r="WBL13" s="1"/>
+      <c r="WBP13" s="1"/>
+      <c r="WBT13" s="1"/>
+      <c r="WBX13" s="1"/>
+      <c r="WCB13" s="1"/>
+      <c r="WCF13" s="1"/>
+      <c r="WCJ13" s="1"/>
+      <c r="WCN13" s="1"/>
+      <c r="WCR13" s="1"/>
+      <c r="WCV13" s="1"/>
+      <c r="WCZ13" s="1"/>
+      <c r="WDD13" s="1"/>
+      <c r="WDH13" s="1"/>
+      <c r="WDL13" s="1"/>
+      <c r="WDP13" s="1"/>
+      <c r="WDT13" s="1"/>
+      <c r="WDX13" s="1"/>
+      <c r="WEB13" s="1"/>
+      <c r="WEF13" s="1"/>
+      <c r="WEJ13" s="1"/>
+      <c r="WEN13" s="1"/>
+      <c r="WER13" s="1"/>
+      <c r="WEV13" s="1"/>
+      <c r="WEZ13" s="1"/>
+      <c r="WFD13" s="1"/>
+      <c r="WFH13" s="1"/>
+      <c r="WFL13" s="1"/>
+      <c r="WFP13" s="1"/>
+      <c r="WFT13" s="1"/>
+      <c r="WFX13" s="1"/>
+      <c r="WGB13" s="1"/>
+      <c r="WGF13" s="1"/>
+      <c r="WGJ13" s="1"/>
+      <c r="WGN13" s="1"/>
+      <c r="WGR13" s="1"/>
+      <c r="WGV13" s="1"/>
+      <c r="WGZ13" s="1"/>
+      <c r="WHD13" s="1"/>
+      <c r="WHH13" s="1"/>
+      <c r="WHL13" s="1"/>
+      <c r="WHP13" s="1"/>
+      <c r="WHT13" s="1"/>
+      <c r="WHX13" s="1"/>
+      <c r="WIB13" s="1"/>
+      <c r="WIF13" s="1"/>
+      <c r="WIJ13" s="1"/>
+      <c r="WIN13" s="1"/>
+      <c r="WIR13" s="1"/>
+      <c r="WIV13" s="1"/>
+      <c r="WIZ13" s="1"/>
+      <c r="WJD13" s="1"/>
+      <c r="WJH13" s="1"/>
+      <c r="WJL13" s="1"/>
+      <c r="WJP13" s="1"/>
+      <c r="WJT13" s="1"/>
+      <c r="WJX13" s="1"/>
+      <c r="WKB13" s="1"/>
+      <c r="WKF13" s="1"/>
+      <c r="WKJ13" s="1"/>
+      <c r="WKN13" s="1"/>
+      <c r="WKR13" s="1"/>
+      <c r="WKV13" s="1"/>
+      <c r="WKZ13" s="1"/>
+      <c r="WLD13" s="1"/>
+      <c r="WLH13" s="1"/>
+      <c r="WLL13" s="1"/>
+      <c r="WLP13" s="1"/>
+      <c r="WLT13" s="1"/>
+      <c r="WLX13" s="1"/>
+      <c r="WMB13" s="1"/>
+      <c r="WMF13" s="1"/>
+      <c r="WMJ13" s="1"/>
+      <c r="WMN13" s="1"/>
+      <c r="WMR13" s="1"/>
+      <c r="WMV13" s="1"/>
+      <c r="WMZ13" s="1"/>
+      <c r="WND13" s="1"/>
+      <c r="WNH13" s="1"/>
+      <c r="WNL13" s="1"/>
+      <c r="WNP13" s="1"/>
+      <c r="WNT13" s="1"/>
+      <c r="WNX13" s="1"/>
+      <c r="WOB13" s="1"/>
+      <c r="WOF13" s="1"/>
+      <c r="WOJ13" s="1"/>
+      <c r="WON13" s="1"/>
+      <c r="WOR13" s="1"/>
+      <c r="WOV13" s="1"/>
+      <c r="WOZ13" s="1"/>
+      <c r="WPD13" s="1"/>
+      <c r="WPH13" s="1"/>
+      <c r="WPL13" s="1"/>
+      <c r="WPP13" s="1"/>
+      <c r="WPT13" s="1"/>
+      <c r="WPX13" s="1"/>
+      <c r="WQB13" s="1"/>
+      <c r="WQF13" s="1"/>
+      <c r="WQJ13" s="1"/>
+      <c r="WQN13" s="1"/>
+      <c r="WQR13" s="1"/>
+      <c r="WQV13" s="1"/>
+      <c r="WQZ13" s="1"/>
+      <c r="WRD13" s="1"/>
+      <c r="WRH13" s="1"/>
+      <c r="WRL13" s="1"/>
+      <c r="WRP13" s="1"/>
+      <c r="WRT13" s="1"/>
+      <c r="WRX13" s="1"/>
+      <c r="WSB13" s="1"/>
+      <c r="WSF13" s="1"/>
+      <c r="WSJ13" s="1"/>
+      <c r="WSN13" s="1"/>
+      <c r="WSR13" s="1"/>
+      <c r="WSV13" s="1"/>
+      <c r="WSZ13" s="1"/>
+      <c r="WTD13" s="1"/>
+      <c r="WTH13" s="1"/>
+      <c r="WTL13" s="1"/>
+      <c r="WTP13" s="1"/>
+      <c r="WTT13" s="1"/>
+      <c r="WTX13" s="1"/>
+      <c r="WUB13" s="1"/>
+      <c r="WUF13" s="1"/>
+      <c r="WUJ13" s="1"/>
+      <c r="WUN13" s="1"/>
+      <c r="WUR13" s="1"/>
+      <c r="WUV13" s="1"/>
+      <c r="WUZ13" s="1"/>
+      <c r="WVD13" s="1"/>
+      <c r="WVH13" s="1"/>
+      <c r="WVL13" s="1"/>
+      <c r="WVP13" s="1"/>
+      <c r="WVT13" s="1"/>
+      <c r="WVX13" s="1"/>
+      <c r="WWB13" s="1"/>
+      <c r="WWF13" s="1"/>
+      <c r="WWJ13" s="1"/>
+      <c r="WWN13" s="1"/>
+      <c r="WWR13" s="1"/>
+      <c r="WWV13" s="1"/>
+      <c r="WWZ13" s="1"/>
+      <c r="WXD13" s="1"/>
+      <c r="WXH13" s="1"/>
+      <c r="WXL13" s="1"/>
+      <c r="WXP13" s="1"/>
+      <c r="WXT13" s="1"/>
+      <c r="WXX13" s="1"/>
+      <c r="WYB13" s="1"/>
+      <c r="WYF13" s="1"/>
+      <c r="WYJ13" s="1"/>
+      <c r="WYN13" s="1"/>
+      <c r="WYR13" s="1"/>
+      <c r="WYV13" s="1"/>
+      <c r="WYZ13" s="1"/>
+      <c r="WZD13" s="1"/>
+      <c r="WZH13" s="1"/>
+      <c r="WZL13" s="1"/>
+      <c r="WZP13" s="1"/>
+      <c r="WZT13" s="1"/>
+      <c r="WZX13" s="1"/>
+      <c r="XAB13" s="1"/>
+      <c r="XAF13" s="1"/>
+      <c r="XAJ13" s="1"/>
+      <c r="XAN13" s="1"/>
+      <c r="XAR13" s="1"/>
+      <c r="XAV13" s="1"/>
+      <c r="XAZ13" s="1"/>
+      <c r="XBD13" s="1"/>
+      <c r="XBH13" s="1"/>
+      <c r="XBL13" s="1"/>
+      <c r="XBP13" s="1"/>
+      <c r="XBT13" s="1"/>
+      <c r="XBX13" s="1"/>
+      <c r="XCB13" s="1"/>
+      <c r="XCF13" s="1"/>
+      <c r="XCJ13" s="1"/>
+      <c r="XCN13" s="1"/>
+      <c r="XCR13" s="1"/>
+      <c r="XCV13" s="1"/>
+      <c r="XCZ13" s="1"/>
+      <c r="XDD13" s="1"/>
+      <c r="XDH13" s="1"/>
+      <c r="XDL13" s="1"/>
+      <c r="XDP13" s="1"/>
+      <c r="XDT13" s="1"/>
+      <c r="XDX13" s="1"/>
+      <c r="XEB13" s="1"/>
+      <c r="XEF13" s="1"/>
+      <c r="XEJ13" s="1"/>
+      <c r="XEN13" s="1"/>
+      <c r="XER13" s="1"/>
+      <c r="XEV13" s="1"/>
+      <c r="XEZ13" s="1"/>
+      <c r="XFD13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -1812,12 +10056,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1826,15 +10070,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>21</v>
@@ -1842,13 +10086,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>21</v>
@@ -1859,10 +10103,10 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>21</v>
@@ -1870,13 +10114,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>21</v>
@@ -1884,10 +10128,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1898,10 +10142,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -1912,10 +10156,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -1926,10 +10170,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -1940,13 +10184,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>21</v>
@@ -1954,13 +10198,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>21</v>
@@ -1968,15 +10212,85 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
         <v>81</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1987,21 +10301,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008352E896BEBC3B4BBE556B9821A22447" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f913282166a0f4e6fae5234b1a10d1bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a77fb7f8-12c9-4609-ac08-7d2a28f77de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1fdcbb55615e8c28d62e918f83ed0de" ns2:_="">
     <xsd:import namespace="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
@@ -2179,31 +10478,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3839E01-B9A0-42A9-8974-3B924CEB6D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2219,4 +10509,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prado\OneDrive\Documentos\GitHub\proyecto-grado\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE9F58B-24F7-4F9A-8A9E-3AA267FB31CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DC8B59-D87E-4DB2-A032-098FF8E610BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="93">
   <si>
     <t>Class</t>
   </si>
@@ -290,6 +290,27 @@
   </si>
   <si>
     <t>pet2.org.springframework.samples.petclinic.owner.OwnerRepository</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SubType</t>
+  </si>
+  <si>
+    <t>Microservice</t>
   </si>
 </sst>
 </file>
@@ -642,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,36 +683,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -708,13 +729,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -731,13 +752,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -749,18 +770,18 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -777,13 +798,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -800,13 +821,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -818,18 +839,18 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -846,13 +867,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -861,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -869,13 +890,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -884,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -892,13 +913,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -907,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -915,13 +936,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -938,13 +959,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -956,18 +977,18 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -976,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -984,13 +1005,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -999,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1007,13 +1028,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1022,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1030,13 +1051,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1053,13 +1074,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1076,36 +1097,36 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1122,13 +1143,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1140,27 +1161,27 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
@@ -1168,13 +1189,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -1189,15 +1210,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1212,15 +1233,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1237,13 +1258,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1260,13 +1281,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -1275,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -1283,13 +1304,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -1298,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
         <v>34</v>
@@ -1306,13 +1327,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -1321,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1329,13 +1350,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -1352,36 +1373,36 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -1398,13 +1419,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -1421,13 +1442,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -1444,13 +1465,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -1459,7 +1480,7 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
@@ -1467,30 +1488,30 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
@@ -1508,12 +1529,12 @@
         <v>75</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
@@ -1531,41 +1552,41 @@
         <v>75</v>
       </c>
       <c r="G38" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -1582,7 +1603,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -1600,18 +1621,18 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -1628,24 +1649,47 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
       </c>
       <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
         <v>0</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>24</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1657,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XFD31"/>
+  <dimension ref="A1:XFD32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1670,40 +1714,27 @@
     <col min="3" max="3" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -1712,12 +1743,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -1726,12 +1757,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1740,12 +1771,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -1754,12 +1785,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -1768,12 +1799,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -1782,12 +1813,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1796,12 +1827,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -1810,12 +1841,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1824,12 +1855,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -1837,4108 +1868,13 @@
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BP12" s="1"/>
-      <c r="BT12" s="1"/>
-      <c r="BX12" s="1"/>
-      <c r="CB12" s="1"/>
-      <c r="CF12" s="1"/>
-      <c r="CJ12" s="1"/>
-      <c r="CN12" s="1"/>
-      <c r="CR12" s="1"/>
-      <c r="CV12" s="1"/>
-      <c r="CZ12" s="1"/>
-      <c r="DD12" s="1"/>
-      <c r="DH12" s="1"/>
-      <c r="DL12" s="1"/>
-      <c r="DP12" s="1"/>
-      <c r="DT12" s="1"/>
-      <c r="DX12" s="1"/>
-      <c r="EB12" s="1"/>
-      <c r="EF12" s="1"/>
-      <c r="EJ12" s="1"/>
-      <c r="EN12" s="1"/>
-      <c r="ER12" s="1"/>
-      <c r="EV12" s="1"/>
-      <c r="EZ12" s="1"/>
-      <c r="FD12" s="1"/>
-      <c r="FH12" s="1"/>
-      <c r="FL12" s="1"/>
-      <c r="FP12" s="1"/>
-      <c r="FT12" s="1"/>
-      <c r="FX12" s="1"/>
-      <c r="GB12" s="1"/>
-      <c r="GF12" s="1"/>
-      <c r="GJ12" s="1"/>
-      <c r="GN12" s="1"/>
-      <c r="GR12" s="1"/>
-      <c r="GV12" s="1"/>
-      <c r="GZ12" s="1"/>
-      <c r="HD12" s="1"/>
-      <c r="HH12" s="1"/>
-      <c r="HL12" s="1"/>
-      <c r="HP12" s="1"/>
-      <c r="HT12" s="1"/>
-      <c r="HX12" s="1"/>
-      <c r="IB12" s="1"/>
-      <c r="IF12" s="1"/>
-      <c r="IJ12" s="1"/>
-      <c r="IN12" s="1"/>
-      <c r="IR12" s="1"/>
-      <c r="IV12" s="1"/>
-      <c r="IZ12" s="1"/>
-      <c r="JD12" s="1"/>
-      <c r="JH12" s="1"/>
-      <c r="JL12" s="1"/>
-      <c r="JP12" s="1"/>
-      <c r="JT12" s="1"/>
-      <c r="JX12" s="1"/>
-      <c r="KB12" s="1"/>
-      <c r="KF12" s="1"/>
-      <c r="KJ12" s="1"/>
-      <c r="KN12" s="1"/>
-      <c r="KR12" s="1"/>
-      <c r="KV12" s="1"/>
-      <c r="KZ12" s="1"/>
-      <c r="LD12" s="1"/>
-      <c r="LH12" s="1"/>
-      <c r="LL12" s="1"/>
-      <c r="LP12" s="1"/>
-      <c r="LT12" s="1"/>
-      <c r="LX12" s="1"/>
-      <c r="MB12" s="1"/>
-      <c r="MF12" s="1"/>
-      <c r="MJ12" s="1"/>
-      <c r="MN12" s="1"/>
-      <c r="MR12" s="1"/>
-      <c r="MV12" s="1"/>
-      <c r="MZ12" s="1"/>
-      <c r="ND12" s="1"/>
-      <c r="NH12" s="1"/>
-      <c r="NL12" s="1"/>
-      <c r="NP12" s="1"/>
-      <c r="NT12" s="1"/>
-      <c r="NX12" s="1"/>
-      <c r="OB12" s="1"/>
-      <c r="OF12" s="1"/>
-      <c r="OJ12" s="1"/>
-      <c r="ON12" s="1"/>
-      <c r="OR12" s="1"/>
-      <c r="OV12" s="1"/>
-      <c r="OZ12" s="1"/>
-      <c r="PD12" s="1"/>
-      <c r="PH12" s="1"/>
-      <c r="PL12" s="1"/>
-      <c r="PP12" s="1"/>
-      <c r="PT12" s="1"/>
-      <c r="PX12" s="1"/>
-      <c r="QB12" s="1"/>
-      <c r="QF12" s="1"/>
-      <c r="QJ12" s="1"/>
-      <c r="QN12" s="1"/>
-      <c r="QR12" s="1"/>
-      <c r="QV12" s="1"/>
-      <c r="QZ12" s="1"/>
-      <c r="RD12" s="1"/>
-      <c r="RH12" s="1"/>
-      <c r="RL12" s="1"/>
-      <c r="RP12" s="1"/>
-      <c r="RT12" s="1"/>
-      <c r="RX12" s="1"/>
-      <c r="SB12" s="1"/>
-      <c r="SF12" s="1"/>
-      <c r="SJ12" s="1"/>
-      <c r="SN12" s="1"/>
-      <c r="SR12" s="1"/>
-      <c r="SV12" s="1"/>
-      <c r="SZ12" s="1"/>
-      <c r="TD12" s="1"/>
-      <c r="TH12" s="1"/>
-      <c r="TL12" s="1"/>
-      <c r="TP12" s="1"/>
-      <c r="TT12" s="1"/>
-      <c r="TX12" s="1"/>
-      <c r="UB12" s="1"/>
-      <c r="UF12" s="1"/>
-      <c r="UJ12" s="1"/>
-      <c r="UN12" s="1"/>
-      <c r="UR12" s="1"/>
-      <c r="UV12" s="1"/>
-      <c r="UZ12" s="1"/>
-      <c r="VD12" s="1"/>
-      <c r="VH12" s="1"/>
-      <c r="VL12" s="1"/>
-      <c r="VP12" s="1"/>
-      <c r="VT12" s="1"/>
-      <c r="VX12" s="1"/>
-      <c r="WB12" s="1"/>
-      <c r="WF12" s="1"/>
-      <c r="WJ12" s="1"/>
-      <c r="WN12" s="1"/>
-      <c r="WR12" s="1"/>
-      <c r="WV12" s="1"/>
-      <c r="WZ12" s="1"/>
-      <c r="XD12" s="1"/>
-      <c r="XH12" s="1"/>
-      <c r="XL12" s="1"/>
-      <c r="XP12" s="1"/>
-      <c r="XT12" s="1"/>
-      <c r="XX12" s="1"/>
-      <c r="YB12" s="1"/>
-      <c r="YF12" s="1"/>
-      <c r="YJ12" s="1"/>
-      <c r="YN12" s="1"/>
-      <c r="YR12" s="1"/>
-      <c r="YV12" s="1"/>
-      <c r="YZ12" s="1"/>
-      <c r="ZD12" s="1"/>
-      <c r="ZH12" s="1"/>
-      <c r="ZL12" s="1"/>
-      <c r="ZP12" s="1"/>
-      <c r="ZT12" s="1"/>
-      <c r="ZX12" s="1"/>
-      <c r="AAB12" s="1"/>
-      <c r="AAF12" s="1"/>
-      <c r="AAJ12" s="1"/>
-      <c r="AAN12" s="1"/>
-      <c r="AAR12" s="1"/>
-      <c r="AAV12" s="1"/>
-      <c r="AAZ12" s="1"/>
-      <c r="ABD12" s="1"/>
-      <c r="ABH12" s="1"/>
-      <c r="ABL12" s="1"/>
-      <c r="ABP12" s="1"/>
-      <c r="ABT12" s="1"/>
-      <c r="ABX12" s="1"/>
-      <c r="ACB12" s="1"/>
-      <c r="ACF12" s="1"/>
-      <c r="ACJ12" s="1"/>
-      <c r="ACN12" s="1"/>
-      <c r="ACR12" s="1"/>
-      <c r="ACV12" s="1"/>
-      <c r="ACZ12" s="1"/>
-      <c r="ADD12" s="1"/>
-      <c r="ADH12" s="1"/>
-      <c r="ADL12" s="1"/>
-      <c r="ADP12" s="1"/>
-      <c r="ADT12" s="1"/>
-      <c r="ADX12" s="1"/>
-      <c r="AEB12" s="1"/>
-      <c r="AEF12" s="1"/>
-      <c r="AEJ12" s="1"/>
-      <c r="AEN12" s="1"/>
-      <c r="AER12" s="1"/>
-      <c r="AEV12" s="1"/>
-      <c r="AEZ12" s="1"/>
-      <c r="AFD12" s="1"/>
-      <c r="AFH12" s="1"/>
-      <c r="AFL12" s="1"/>
-      <c r="AFP12" s="1"/>
-      <c r="AFT12" s="1"/>
-      <c r="AFX12" s="1"/>
-      <c r="AGB12" s="1"/>
-      <c r="AGF12" s="1"/>
-      <c r="AGJ12" s="1"/>
-      <c r="AGN12" s="1"/>
-      <c r="AGR12" s="1"/>
-      <c r="AGV12" s="1"/>
-      <c r="AGZ12" s="1"/>
-      <c r="AHD12" s="1"/>
-      <c r="AHH12" s="1"/>
-      <c r="AHL12" s="1"/>
-      <c r="AHP12" s="1"/>
-      <c r="AHT12" s="1"/>
-      <c r="AHX12" s="1"/>
-      <c r="AIB12" s="1"/>
-      <c r="AIF12" s="1"/>
-      <c r="AIJ12" s="1"/>
-      <c r="AIN12" s="1"/>
-      <c r="AIR12" s="1"/>
-      <c r="AIV12" s="1"/>
-      <c r="AIZ12" s="1"/>
-      <c r="AJD12" s="1"/>
-      <c r="AJH12" s="1"/>
-      <c r="AJL12" s="1"/>
-      <c r="AJP12" s="1"/>
-      <c r="AJT12" s="1"/>
-      <c r="AJX12" s="1"/>
-      <c r="AKB12" s="1"/>
-      <c r="AKF12" s="1"/>
-      <c r="AKJ12" s="1"/>
-      <c r="AKN12" s="1"/>
-      <c r="AKR12" s="1"/>
-      <c r="AKV12" s="1"/>
-      <c r="AKZ12" s="1"/>
-      <c r="ALD12" s="1"/>
-      <c r="ALH12" s="1"/>
-      <c r="ALL12" s="1"/>
-      <c r="ALP12" s="1"/>
-      <c r="ALT12" s="1"/>
-      <c r="ALX12" s="1"/>
-      <c r="AMB12" s="1"/>
-      <c r="AMF12" s="1"/>
-      <c r="AMJ12" s="1"/>
-      <c r="AMN12" s="1"/>
-      <c r="AMR12" s="1"/>
-      <c r="AMV12" s="1"/>
-      <c r="AMZ12" s="1"/>
-      <c r="AND12" s="1"/>
-      <c r="ANH12" s="1"/>
-      <c r="ANL12" s="1"/>
-      <c r="ANP12" s="1"/>
-      <c r="ANT12" s="1"/>
-      <c r="ANX12" s="1"/>
-      <c r="AOB12" s="1"/>
-      <c r="AOF12" s="1"/>
-      <c r="AOJ12" s="1"/>
-      <c r="AON12" s="1"/>
-      <c r="AOR12" s="1"/>
-      <c r="AOV12" s="1"/>
-      <c r="AOZ12" s="1"/>
-      <c r="APD12" s="1"/>
-      <c r="APH12" s="1"/>
-      <c r="APL12" s="1"/>
-      <c r="APP12" s="1"/>
-      <c r="APT12" s="1"/>
-      <c r="APX12" s="1"/>
-      <c r="AQB12" s="1"/>
-      <c r="AQF12" s="1"/>
-      <c r="AQJ12" s="1"/>
-      <c r="AQN12" s="1"/>
-      <c r="AQR12" s="1"/>
-      <c r="AQV12" s="1"/>
-      <c r="AQZ12" s="1"/>
-      <c r="ARD12" s="1"/>
-      <c r="ARH12" s="1"/>
-      <c r="ARL12" s="1"/>
-      <c r="ARP12" s="1"/>
-      <c r="ART12" s="1"/>
-      <c r="ARX12" s="1"/>
-      <c r="ASB12" s="1"/>
-      <c r="ASF12" s="1"/>
-      <c r="ASJ12" s="1"/>
-      <c r="ASN12" s="1"/>
-      <c r="ASR12" s="1"/>
-      <c r="ASV12" s="1"/>
-      <c r="ASZ12" s="1"/>
-      <c r="ATD12" s="1"/>
-      <c r="ATH12" s="1"/>
-      <c r="ATL12" s="1"/>
-      <c r="ATP12" s="1"/>
-      <c r="ATT12" s="1"/>
-      <c r="ATX12" s="1"/>
-      <c r="AUB12" s="1"/>
-      <c r="AUF12" s="1"/>
-      <c r="AUJ12" s="1"/>
-      <c r="AUN12" s="1"/>
-      <c r="AUR12" s="1"/>
-      <c r="AUV12" s="1"/>
-      <c r="AUZ12" s="1"/>
-      <c r="AVD12" s="1"/>
-      <c r="AVH12" s="1"/>
-      <c r="AVL12" s="1"/>
-      <c r="AVP12" s="1"/>
-      <c r="AVT12" s="1"/>
-      <c r="AVX12" s="1"/>
-      <c r="AWB12" s="1"/>
-      <c r="AWF12" s="1"/>
-      <c r="AWJ12" s="1"/>
-      <c r="AWN12" s="1"/>
-      <c r="AWR12" s="1"/>
-      <c r="AWV12" s="1"/>
-      <c r="AWZ12" s="1"/>
-      <c r="AXD12" s="1"/>
-      <c r="AXH12" s="1"/>
-      <c r="AXL12" s="1"/>
-      <c r="AXP12" s="1"/>
-      <c r="AXT12" s="1"/>
-      <c r="AXX12" s="1"/>
-      <c r="AYB12" s="1"/>
-      <c r="AYF12" s="1"/>
-      <c r="AYJ12" s="1"/>
-      <c r="AYN12" s="1"/>
-      <c r="AYR12" s="1"/>
-      <c r="AYV12" s="1"/>
-      <c r="AYZ12" s="1"/>
-      <c r="AZD12" s="1"/>
-      <c r="AZH12" s="1"/>
-      <c r="AZL12" s="1"/>
-      <c r="AZP12" s="1"/>
-      <c r="AZT12" s="1"/>
-      <c r="AZX12" s="1"/>
-      <c r="BAB12" s="1"/>
-      <c r="BAF12" s="1"/>
-      <c r="BAJ12" s="1"/>
-      <c r="BAN12" s="1"/>
-      <c r="BAR12" s="1"/>
-      <c r="BAV12" s="1"/>
-      <c r="BAZ12" s="1"/>
-      <c r="BBD12" s="1"/>
-      <c r="BBH12" s="1"/>
-      <c r="BBL12" s="1"/>
-      <c r="BBP12" s="1"/>
-      <c r="BBT12" s="1"/>
-      <c r="BBX12" s="1"/>
-      <c r="BCB12" s="1"/>
-      <c r="BCF12" s="1"/>
-      <c r="BCJ12" s="1"/>
-      <c r="BCN12" s="1"/>
-      <c r="BCR12" s="1"/>
-      <c r="BCV12" s="1"/>
-      <c r="BCZ12" s="1"/>
-      <c r="BDD12" s="1"/>
-      <c r="BDH12" s="1"/>
-      <c r="BDL12" s="1"/>
-      <c r="BDP12" s="1"/>
-      <c r="BDT12" s="1"/>
-      <c r="BDX12" s="1"/>
-      <c r="BEB12" s="1"/>
-      <c r="BEF12" s="1"/>
-      <c r="BEJ12" s="1"/>
-      <c r="BEN12" s="1"/>
-      <c r="BER12" s="1"/>
-      <c r="BEV12" s="1"/>
-      <c r="BEZ12" s="1"/>
-      <c r="BFD12" s="1"/>
-      <c r="BFH12" s="1"/>
-      <c r="BFL12" s="1"/>
-      <c r="BFP12" s="1"/>
-      <c r="BFT12" s="1"/>
-      <c r="BFX12" s="1"/>
-      <c r="BGB12" s="1"/>
-      <c r="BGF12" s="1"/>
-      <c r="BGJ12" s="1"/>
-      <c r="BGN12" s="1"/>
-      <c r="BGR12" s="1"/>
-      <c r="BGV12" s="1"/>
-      <c r="BGZ12" s="1"/>
-      <c r="BHD12" s="1"/>
-      <c r="BHH12" s="1"/>
-      <c r="BHL12" s="1"/>
-      <c r="BHP12" s="1"/>
-      <c r="BHT12" s="1"/>
-      <c r="BHX12" s="1"/>
-      <c r="BIB12" s="1"/>
-      <c r="BIF12" s="1"/>
-      <c r="BIJ12" s="1"/>
-      <c r="BIN12" s="1"/>
-      <c r="BIR12" s="1"/>
-      <c r="BIV12" s="1"/>
-      <c r="BIZ12" s="1"/>
-      <c r="BJD12" s="1"/>
-      <c r="BJH12" s="1"/>
-      <c r="BJL12" s="1"/>
-      <c r="BJP12" s="1"/>
-      <c r="BJT12" s="1"/>
-      <c r="BJX12" s="1"/>
-      <c r="BKB12" s="1"/>
-      <c r="BKF12" s="1"/>
-      <c r="BKJ12" s="1"/>
-      <c r="BKN12" s="1"/>
-      <c r="BKR12" s="1"/>
-      <c r="BKV12" s="1"/>
-      <c r="BKZ12" s="1"/>
-      <c r="BLD12" s="1"/>
-      <c r="BLH12" s="1"/>
-      <c r="BLL12" s="1"/>
-      <c r="BLP12" s="1"/>
-      <c r="BLT12" s="1"/>
-      <c r="BLX12" s="1"/>
-      <c r="BMB12" s="1"/>
-      <c r="BMF12" s="1"/>
-      <c r="BMJ12" s="1"/>
-      <c r="BMN12" s="1"/>
-      <c r="BMR12" s="1"/>
-      <c r="BMV12" s="1"/>
-      <c r="BMZ12" s="1"/>
-      <c r="BND12" s="1"/>
-      <c r="BNH12" s="1"/>
-      <c r="BNL12" s="1"/>
-      <c r="BNP12" s="1"/>
-      <c r="BNT12" s="1"/>
-      <c r="BNX12" s="1"/>
-      <c r="BOB12" s="1"/>
-      <c r="BOF12" s="1"/>
-      <c r="BOJ12" s="1"/>
-      <c r="BON12" s="1"/>
-      <c r="BOR12" s="1"/>
-      <c r="BOV12" s="1"/>
-      <c r="BOZ12" s="1"/>
-      <c r="BPD12" s="1"/>
-      <c r="BPH12" s="1"/>
-      <c r="BPL12" s="1"/>
-      <c r="BPP12" s="1"/>
-      <c r="BPT12" s="1"/>
-      <c r="BPX12" s="1"/>
-      <c r="BQB12" s="1"/>
-      <c r="BQF12" s="1"/>
-      <c r="BQJ12" s="1"/>
-      <c r="BQN12" s="1"/>
-      <c r="BQR12" s="1"/>
-      <c r="BQV12" s="1"/>
-      <c r="BQZ12" s="1"/>
-      <c r="BRD12" s="1"/>
-      <c r="BRH12" s="1"/>
-      <c r="BRL12" s="1"/>
-      <c r="BRP12" s="1"/>
-      <c r="BRT12" s="1"/>
-      <c r="BRX12" s="1"/>
-      <c r="BSB12" s="1"/>
-      <c r="BSF12" s="1"/>
-      <c r="BSJ12" s="1"/>
-      <c r="BSN12" s="1"/>
-      <c r="BSR12" s="1"/>
-      <c r="BSV12" s="1"/>
-      <c r="BSZ12" s="1"/>
-      <c r="BTD12" s="1"/>
-      <c r="BTH12" s="1"/>
-      <c r="BTL12" s="1"/>
-      <c r="BTP12" s="1"/>
-      <c r="BTT12" s="1"/>
-      <c r="BTX12" s="1"/>
-      <c r="BUB12" s="1"/>
-      <c r="BUF12" s="1"/>
-      <c r="BUJ12" s="1"/>
-      <c r="BUN12" s="1"/>
-      <c r="BUR12" s="1"/>
-      <c r="BUV12" s="1"/>
-      <c r="BUZ12" s="1"/>
-      <c r="BVD12" s="1"/>
-      <c r="BVH12" s="1"/>
-      <c r="BVL12" s="1"/>
-      <c r="BVP12" s="1"/>
-      <c r="BVT12" s="1"/>
-      <c r="BVX12" s="1"/>
-      <c r="BWB12" s="1"/>
-      <c r="BWF12" s="1"/>
-      <c r="BWJ12" s="1"/>
-      <c r="BWN12" s="1"/>
-      <c r="BWR12" s="1"/>
-      <c r="BWV12" s="1"/>
-      <c r="BWZ12" s="1"/>
-      <c r="BXD12" s="1"/>
-      <c r="BXH12" s="1"/>
-      <c r="BXL12" s="1"/>
-      <c r="BXP12" s="1"/>
-      <c r="BXT12" s="1"/>
-      <c r="BXX12" s="1"/>
-      <c r="BYB12" s="1"/>
-      <c r="BYF12" s="1"/>
-      <c r="BYJ12" s="1"/>
-      <c r="BYN12" s="1"/>
-      <c r="BYR12" s="1"/>
-      <c r="BYV12" s="1"/>
-      <c r="BYZ12" s="1"/>
-      <c r="BZD12" s="1"/>
-      <c r="BZH12" s="1"/>
-      <c r="BZL12" s="1"/>
-      <c r="BZP12" s="1"/>
-      <c r="BZT12" s="1"/>
-      <c r="BZX12" s="1"/>
-      <c r="CAB12" s="1"/>
-      <c r="CAF12" s="1"/>
-      <c r="CAJ12" s="1"/>
-      <c r="CAN12" s="1"/>
-      <c r="CAR12" s="1"/>
-      <c r="CAV12" s="1"/>
-      <c r="CAZ12" s="1"/>
-      <c r="CBD12" s="1"/>
-      <c r="CBH12" s="1"/>
-      <c r="CBL12" s="1"/>
-      <c r="CBP12" s="1"/>
-      <c r="CBT12" s="1"/>
-      <c r="CBX12" s="1"/>
-      <c r="CCB12" s="1"/>
-      <c r="CCF12" s="1"/>
-      <c r="CCJ12" s="1"/>
-      <c r="CCN12" s="1"/>
-      <c r="CCR12" s="1"/>
-      <c r="CCV12" s="1"/>
-      <c r="CCZ12" s="1"/>
-      <c r="CDD12" s="1"/>
-      <c r="CDH12" s="1"/>
-      <c r="CDL12" s="1"/>
-      <c r="CDP12" s="1"/>
-      <c r="CDT12" s="1"/>
-      <c r="CDX12" s="1"/>
-      <c r="CEB12" s="1"/>
-      <c r="CEF12" s="1"/>
-      <c r="CEJ12" s="1"/>
-      <c r="CEN12" s="1"/>
-      <c r="CER12" s="1"/>
-      <c r="CEV12" s="1"/>
-      <c r="CEZ12" s="1"/>
-      <c r="CFD12" s="1"/>
-      <c r="CFH12" s="1"/>
-      <c r="CFL12" s="1"/>
-      <c r="CFP12" s="1"/>
-      <c r="CFT12" s="1"/>
-      <c r="CFX12" s="1"/>
-      <c r="CGB12" s="1"/>
-      <c r="CGF12" s="1"/>
-      <c r="CGJ12" s="1"/>
-      <c r="CGN12" s="1"/>
-      <c r="CGR12" s="1"/>
-      <c r="CGV12" s="1"/>
-      <c r="CGZ12" s="1"/>
-      <c r="CHD12" s="1"/>
-      <c r="CHH12" s="1"/>
-      <c r="CHL12" s="1"/>
-      <c r="CHP12" s="1"/>
-      <c r="CHT12" s="1"/>
-      <c r="CHX12" s="1"/>
-      <c r="CIB12" s="1"/>
-      <c r="CIF12" s="1"/>
-      <c r="CIJ12" s="1"/>
-      <c r="CIN12" s="1"/>
-      <c r="CIR12" s="1"/>
-      <c r="CIV12" s="1"/>
-      <c r="CIZ12" s="1"/>
-      <c r="CJD12" s="1"/>
-      <c r="CJH12" s="1"/>
-      <c r="CJL12" s="1"/>
-      <c r="CJP12" s="1"/>
-      <c r="CJT12" s="1"/>
-      <c r="CJX12" s="1"/>
-      <c r="CKB12" s="1"/>
-      <c r="CKF12" s="1"/>
-      <c r="CKJ12" s="1"/>
-      <c r="CKN12" s="1"/>
-      <c r="CKR12" s="1"/>
-      <c r="CKV12" s="1"/>
-      <c r="CKZ12" s="1"/>
-      <c r="CLD12" s="1"/>
-      <c r="CLH12" s="1"/>
-      <c r="CLL12" s="1"/>
-      <c r="CLP12" s="1"/>
-      <c r="CLT12" s="1"/>
-      <c r="CLX12" s="1"/>
-      <c r="CMB12" s="1"/>
-      <c r="CMF12" s="1"/>
-      <c r="CMJ12" s="1"/>
-      <c r="CMN12" s="1"/>
-      <c r="CMR12" s="1"/>
-      <c r="CMV12" s="1"/>
-      <c r="CMZ12" s="1"/>
-      <c r="CND12" s="1"/>
-      <c r="CNH12" s="1"/>
-      <c r="CNL12" s="1"/>
-      <c r="CNP12" s="1"/>
-      <c r="CNT12" s="1"/>
-      <c r="CNX12" s="1"/>
-      <c r="COB12" s="1"/>
-      <c r="COF12" s="1"/>
-      <c r="COJ12" s="1"/>
-      <c r="CON12" s="1"/>
-      <c r="COR12" s="1"/>
-      <c r="COV12" s="1"/>
-      <c r="COZ12" s="1"/>
-      <c r="CPD12" s="1"/>
-      <c r="CPH12" s="1"/>
-      <c r="CPL12" s="1"/>
-      <c r="CPP12" s="1"/>
-      <c r="CPT12" s="1"/>
-      <c r="CPX12" s="1"/>
-      <c r="CQB12" s="1"/>
-      <c r="CQF12" s="1"/>
-      <c r="CQJ12" s="1"/>
-      <c r="CQN12" s="1"/>
-      <c r="CQR12" s="1"/>
-      <c r="CQV12" s="1"/>
-      <c r="CQZ12" s="1"/>
-      <c r="CRD12" s="1"/>
-      <c r="CRH12" s="1"/>
-      <c r="CRL12" s="1"/>
-      <c r="CRP12" s="1"/>
-      <c r="CRT12" s="1"/>
-      <c r="CRX12" s="1"/>
-      <c r="CSB12" s="1"/>
-      <c r="CSF12" s="1"/>
-      <c r="CSJ12" s="1"/>
-      <c r="CSN12" s="1"/>
-      <c r="CSR12" s="1"/>
-      <c r="CSV12" s="1"/>
-      <c r="CSZ12" s="1"/>
-      <c r="CTD12" s="1"/>
-      <c r="CTH12" s="1"/>
-      <c r="CTL12" s="1"/>
-      <c r="CTP12" s="1"/>
-      <c r="CTT12" s="1"/>
-      <c r="CTX12" s="1"/>
-      <c r="CUB12" s="1"/>
-      <c r="CUF12" s="1"/>
-      <c r="CUJ12" s="1"/>
-      <c r="CUN12" s="1"/>
-      <c r="CUR12" s="1"/>
-      <c r="CUV12" s="1"/>
-      <c r="CUZ12" s="1"/>
-      <c r="CVD12" s="1"/>
-      <c r="CVH12" s="1"/>
-      <c r="CVL12" s="1"/>
-      <c r="CVP12" s="1"/>
-      <c r="CVT12" s="1"/>
-      <c r="CVX12" s="1"/>
-      <c r="CWB12" s="1"/>
-      <c r="CWF12" s="1"/>
-      <c r="CWJ12" s="1"/>
-      <c r="CWN12" s="1"/>
-      <c r="CWR12" s="1"/>
-      <c r="CWV12" s="1"/>
-      <c r="CWZ12" s="1"/>
-      <c r="CXD12" s="1"/>
-      <c r="CXH12" s="1"/>
-      <c r="CXL12" s="1"/>
-      <c r="CXP12" s="1"/>
-      <c r="CXT12" s="1"/>
-      <c r="CXX12" s="1"/>
-      <c r="CYB12" s="1"/>
-      <c r="CYF12" s="1"/>
-      <c r="CYJ12" s="1"/>
-      <c r="CYN12" s="1"/>
-      <c r="CYR12" s="1"/>
-      <c r="CYV12" s="1"/>
-      <c r="CYZ12" s="1"/>
-      <c r="CZD12" s="1"/>
-      <c r="CZH12" s="1"/>
-      <c r="CZL12" s="1"/>
-      <c r="CZP12" s="1"/>
-      <c r="CZT12" s="1"/>
-      <c r="CZX12" s="1"/>
-      <c r="DAB12" s="1"/>
-      <c r="DAF12" s="1"/>
-      <c r="DAJ12" s="1"/>
-      <c r="DAN12" s="1"/>
-      <c r="DAR12" s="1"/>
-      <c r="DAV12" s="1"/>
-      <c r="DAZ12" s="1"/>
-      <c r="DBD12" s="1"/>
-      <c r="DBH12" s="1"/>
-      <c r="DBL12" s="1"/>
-      <c r="DBP12" s="1"/>
-      <c r="DBT12" s="1"/>
-      <c r="DBX12" s="1"/>
-      <c r="DCB12" s="1"/>
-      <c r="DCF12" s="1"/>
-      <c r="DCJ12" s="1"/>
-      <c r="DCN12" s="1"/>
-      <c r="DCR12" s="1"/>
-      <c r="DCV12" s="1"/>
-      <c r="DCZ12" s="1"/>
-      <c r="DDD12" s="1"/>
-      <c r="DDH12" s="1"/>
-      <c r="DDL12" s="1"/>
-      <c r="DDP12" s="1"/>
-      <c r="DDT12" s="1"/>
-      <c r="DDX12" s="1"/>
-      <c r="DEB12" s="1"/>
-      <c r="DEF12" s="1"/>
-      <c r="DEJ12" s="1"/>
-      <c r="DEN12" s="1"/>
-      <c r="DER12" s="1"/>
-      <c r="DEV12" s="1"/>
-      <c r="DEZ12" s="1"/>
-      <c r="DFD12" s="1"/>
-      <c r="DFH12" s="1"/>
-      <c r="DFL12" s="1"/>
-      <c r="DFP12" s="1"/>
-      <c r="DFT12" s="1"/>
-      <c r="DFX12" s="1"/>
-      <c r="DGB12" s="1"/>
-      <c r="DGF12" s="1"/>
-      <c r="DGJ12" s="1"/>
-      <c r="DGN12" s="1"/>
-      <c r="DGR12" s="1"/>
-      <c r="DGV12" s="1"/>
-      <c r="DGZ12" s="1"/>
-      <c r="DHD12" s="1"/>
-      <c r="DHH12" s="1"/>
-      <c r="DHL12" s="1"/>
-      <c r="DHP12" s="1"/>
-      <c r="DHT12" s="1"/>
-      <c r="DHX12" s="1"/>
-      <c r="DIB12" s="1"/>
-      <c r="DIF12" s="1"/>
-      <c r="DIJ12" s="1"/>
-      <c r="DIN12" s="1"/>
-      <c r="DIR12" s="1"/>
-      <c r="DIV12" s="1"/>
-      <c r="DIZ12" s="1"/>
-      <c r="DJD12" s="1"/>
-      <c r="DJH12" s="1"/>
-      <c r="DJL12" s="1"/>
-      <c r="DJP12" s="1"/>
-      <c r="DJT12" s="1"/>
-      <c r="DJX12" s="1"/>
-      <c r="DKB12" s="1"/>
-      <c r="DKF12" s="1"/>
-      <c r="DKJ12" s="1"/>
-      <c r="DKN12" s="1"/>
-      <c r="DKR12" s="1"/>
-      <c r="DKV12" s="1"/>
-      <c r="DKZ12" s="1"/>
-      <c r="DLD12" s="1"/>
-      <c r="DLH12" s="1"/>
-      <c r="DLL12" s="1"/>
-      <c r="DLP12" s="1"/>
-      <c r="DLT12" s="1"/>
-      <c r="DLX12" s="1"/>
-      <c r="DMB12" s="1"/>
-      <c r="DMF12" s="1"/>
-      <c r="DMJ12" s="1"/>
-      <c r="DMN12" s="1"/>
-      <c r="DMR12" s="1"/>
-      <c r="DMV12" s="1"/>
-      <c r="DMZ12" s="1"/>
-      <c r="DND12" s="1"/>
-      <c r="DNH12" s="1"/>
-      <c r="DNL12" s="1"/>
-      <c r="DNP12" s="1"/>
-      <c r="DNT12" s="1"/>
-      <c r="DNX12" s="1"/>
-      <c r="DOB12" s="1"/>
-      <c r="DOF12" s="1"/>
-      <c r="DOJ12" s="1"/>
-      <c r="DON12" s="1"/>
-      <c r="DOR12" s="1"/>
-      <c r="DOV12" s="1"/>
-      <c r="DOZ12" s="1"/>
-      <c r="DPD12" s="1"/>
-      <c r="DPH12" s="1"/>
-      <c r="DPL12" s="1"/>
-      <c r="DPP12" s="1"/>
-      <c r="DPT12" s="1"/>
-      <c r="DPX12" s="1"/>
-      <c r="DQB12" s="1"/>
-      <c r="DQF12" s="1"/>
-      <c r="DQJ12" s="1"/>
-      <c r="DQN12" s="1"/>
-      <c r="DQR12" s="1"/>
-      <c r="DQV12" s="1"/>
-      <c r="DQZ12" s="1"/>
-      <c r="DRD12" s="1"/>
-      <c r="DRH12" s="1"/>
-      <c r="DRL12" s="1"/>
-      <c r="DRP12" s="1"/>
-      <c r="DRT12" s="1"/>
-      <c r="DRX12" s="1"/>
-      <c r="DSB12" s="1"/>
-      <c r="DSF12" s="1"/>
-      <c r="DSJ12" s="1"/>
-      <c r="DSN12" s="1"/>
-      <c r="DSR12" s="1"/>
-      <c r="DSV12" s="1"/>
-      <c r="DSZ12" s="1"/>
-      <c r="DTD12" s="1"/>
-      <c r="DTH12" s="1"/>
-      <c r="DTL12" s="1"/>
-      <c r="DTP12" s="1"/>
-      <c r="DTT12" s="1"/>
-      <c r="DTX12" s="1"/>
-      <c r="DUB12" s="1"/>
-      <c r="DUF12" s="1"/>
-      <c r="DUJ12" s="1"/>
-      <c r="DUN12" s="1"/>
-      <c r="DUR12" s="1"/>
-      <c r="DUV12" s="1"/>
-      <c r="DUZ12" s="1"/>
-      <c r="DVD12" s="1"/>
-      <c r="DVH12" s="1"/>
-      <c r="DVL12" s="1"/>
-      <c r="DVP12" s="1"/>
-      <c r="DVT12" s="1"/>
-      <c r="DVX12" s="1"/>
-      <c r="DWB12" s="1"/>
-      <c r="DWF12" s="1"/>
-      <c r="DWJ12" s="1"/>
-      <c r="DWN12" s="1"/>
-      <c r="DWR12" s="1"/>
-      <c r="DWV12" s="1"/>
-      <c r="DWZ12" s="1"/>
-      <c r="DXD12" s="1"/>
-      <c r="DXH12" s="1"/>
-      <c r="DXL12" s="1"/>
-      <c r="DXP12" s="1"/>
-      <c r="DXT12" s="1"/>
-      <c r="DXX12" s="1"/>
-      <c r="DYB12" s="1"/>
-      <c r="DYF12" s="1"/>
-      <c r="DYJ12" s="1"/>
-      <c r="DYN12" s="1"/>
-      <c r="DYR12" s="1"/>
-      <c r="DYV12" s="1"/>
-      <c r="DYZ12" s="1"/>
-      <c r="DZD12" s="1"/>
-      <c r="DZH12" s="1"/>
-      <c r="DZL12" s="1"/>
-      <c r="DZP12" s="1"/>
-      <c r="DZT12" s="1"/>
-      <c r="DZX12" s="1"/>
-      <c r="EAB12" s="1"/>
-      <c r="EAF12" s="1"/>
-      <c r="EAJ12" s="1"/>
-      <c r="EAN12" s="1"/>
-      <c r="EAR12" s="1"/>
-      <c r="EAV12" s="1"/>
-      <c r="EAZ12" s="1"/>
-      <c r="EBD12" s="1"/>
-      <c r="EBH12" s="1"/>
-      <c r="EBL12" s="1"/>
-      <c r="EBP12" s="1"/>
-      <c r="EBT12" s="1"/>
-      <c r="EBX12" s="1"/>
-      <c r="ECB12" s="1"/>
-      <c r="ECF12" s="1"/>
-      <c r="ECJ12" s="1"/>
-      <c r="ECN12" s="1"/>
-      <c r="ECR12" s="1"/>
-      <c r="ECV12" s="1"/>
-      <c r="ECZ12" s="1"/>
-      <c r="EDD12" s="1"/>
-      <c r="EDH12" s="1"/>
-      <c r="EDL12" s="1"/>
-      <c r="EDP12" s="1"/>
-      <c r="EDT12" s="1"/>
-      <c r="EDX12" s="1"/>
-      <c r="EEB12" s="1"/>
-      <c r="EEF12" s="1"/>
-      <c r="EEJ12" s="1"/>
-      <c r="EEN12" s="1"/>
-      <c r="EER12" s="1"/>
-      <c r="EEV12" s="1"/>
-      <c r="EEZ12" s="1"/>
-      <c r="EFD12" s="1"/>
-      <c r="EFH12" s="1"/>
-      <c r="EFL12" s="1"/>
-      <c r="EFP12" s="1"/>
-      <c r="EFT12" s="1"/>
-      <c r="EFX12" s="1"/>
-      <c r="EGB12" s="1"/>
-      <c r="EGF12" s="1"/>
-      <c r="EGJ12" s="1"/>
-      <c r="EGN12" s="1"/>
-      <c r="EGR12" s="1"/>
-      <c r="EGV12" s="1"/>
-      <c r="EGZ12" s="1"/>
-      <c r="EHD12" s="1"/>
-      <c r="EHH12" s="1"/>
-      <c r="EHL12" s="1"/>
-      <c r="EHP12" s="1"/>
-      <c r="EHT12" s="1"/>
-      <c r="EHX12" s="1"/>
-      <c r="EIB12" s="1"/>
-      <c r="EIF12" s="1"/>
-      <c r="EIJ12" s="1"/>
-      <c r="EIN12" s="1"/>
-      <c r="EIR12" s="1"/>
-      <c r="EIV12" s="1"/>
-      <c r="EIZ12" s="1"/>
-      <c r="EJD12" s="1"/>
-      <c r="EJH12" s="1"/>
-      <c r="EJL12" s="1"/>
-      <c r="EJP12" s="1"/>
-      <c r="EJT12" s="1"/>
-      <c r="EJX12" s="1"/>
-      <c r="EKB12" s="1"/>
-      <c r="EKF12" s="1"/>
-      <c r="EKJ12" s="1"/>
-      <c r="EKN12" s="1"/>
-      <c r="EKR12" s="1"/>
-      <c r="EKV12" s="1"/>
-      <c r="EKZ12" s="1"/>
-      <c r="ELD12" s="1"/>
-      <c r="ELH12" s="1"/>
-      <c r="ELL12" s="1"/>
-      <c r="ELP12" s="1"/>
-      <c r="ELT12" s="1"/>
-      <c r="ELX12" s="1"/>
-      <c r="EMB12" s="1"/>
-      <c r="EMF12" s="1"/>
-      <c r="EMJ12" s="1"/>
-      <c r="EMN12" s="1"/>
-      <c r="EMR12" s="1"/>
-      <c r="EMV12" s="1"/>
-      <c r="EMZ12" s="1"/>
-      <c r="END12" s="1"/>
-      <c r="ENH12" s="1"/>
-      <c r="ENL12" s="1"/>
-      <c r="ENP12" s="1"/>
-      <c r="ENT12" s="1"/>
-      <c r="ENX12" s="1"/>
-      <c r="EOB12" s="1"/>
-      <c r="EOF12" s="1"/>
-      <c r="EOJ12" s="1"/>
-      <c r="EON12" s="1"/>
-      <c r="EOR12" s="1"/>
-      <c r="EOV12" s="1"/>
-      <c r="EOZ12" s="1"/>
-      <c r="EPD12" s="1"/>
-      <c r="EPH12" s="1"/>
-      <c r="EPL12" s="1"/>
-      <c r="EPP12" s="1"/>
-      <c r="EPT12" s="1"/>
-      <c r="EPX12" s="1"/>
-      <c r="EQB12" s="1"/>
-      <c r="EQF12" s="1"/>
-      <c r="EQJ12" s="1"/>
-      <c r="EQN12" s="1"/>
-      <c r="EQR12" s="1"/>
-      <c r="EQV12" s="1"/>
-      <c r="EQZ12" s="1"/>
-      <c r="ERD12" s="1"/>
-      <c r="ERH12" s="1"/>
-      <c r="ERL12" s="1"/>
-      <c r="ERP12" s="1"/>
-      <c r="ERT12" s="1"/>
-      <c r="ERX12" s="1"/>
-      <c r="ESB12" s="1"/>
-      <c r="ESF12" s="1"/>
-      <c r="ESJ12" s="1"/>
-      <c r="ESN12" s="1"/>
-      <c r="ESR12" s="1"/>
-      <c r="ESV12" s="1"/>
-      <c r="ESZ12" s="1"/>
-      <c r="ETD12" s="1"/>
-      <c r="ETH12" s="1"/>
-      <c r="ETL12" s="1"/>
-      <c r="ETP12" s="1"/>
-      <c r="ETT12" s="1"/>
-      <c r="ETX12" s="1"/>
-      <c r="EUB12" s="1"/>
-      <c r="EUF12" s="1"/>
-      <c r="EUJ12" s="1"/>
-      <c r="EUN12" s="1"/>
-      <c r="EUR12" s="1"/>
-      <c r="EUV12" s="1"/>
-      <c r="EUZ12" s="1"/>
-      <c r="EVD12" s="1"/>
-      <c r="EVH12" s="1"/>
-      <c r="EVL12" s="1"/>
-      <c r="EVP12" s="1"/>
-      <c r="EVT12" s="1"/>
-      <c r="EVX12" s="1"/>
-      <c r="EWB12" s="1"/>
-      <c r="EWF12" s="1"/>
-      <c r="EWJ12" s="1"/>
-      <c r="EWN12" s="1"/>
-      <c r="EWR12" s="1"/>
-      <c r="EWV12" s="1"/>
-      <c r="EWZ12" s="1"/>
-      <c r="EXD12" s="1"/>
-      <c r="EXH12" s="1"/>
-      <c r="EXL12" s="1"/>
-      <c r="EXP12" s="1"/>
-      <c r="EXT12" s="1"/>
-      <c r="EXX12" s="1"/>
-      <c r="EYB12" s="1"/>
-      <c r="EYF12" s="1"/>
-      <c r="EYJ12" s="1"/>
-      <c r="EYN12" s="1"/>
-      <c r="EYR12" s="1"/>
-      <c r="EYV12" s="1"/>
-      <c r="EYZ12" s="1"/>
-      <c r="EZD12" s="1"/>
-      <c r="EZH12" s="1"/>
-      <c r="EZL12" s="1"/>
-      <c r="EZP12" s="1"/>
-      <c r="EZT12" s="1"/>
-      <c r="EZX12" s="1"/>
-      <c r="FAB12" s="1"/>
-      <c r="FAF12" s="1"/>
-      <c r="FAJ12" s="1"/>
-      <c r="FAN12" s="1"/>
-      <c r="FAR12" s="1"/>
-      <c r="FAV12" s="1"/>
-      <c r="FAZ12" s="1"/>
-      <c r="FBD12" s="1"/>
-      <c r="FBH12" s="1"/>
-      <c r="FBL12" s="1"/>
-      <c r="FBP12" s="1"/>
-      <c r="FBT12" s="1"/>
-      <c r="FBX12" s="1"/>
-      <c r="FCB12" s="1"/>
-      <c r="FCF12" s="1"/>
-      <c r="FCJ12" s="1"/>
-      <c r="FCN12" s="1"/>
-      <c r="FCR12" s="1"/>
-      <c r="FCV12" s="1"/>
-      <c r="FCZ12" s="1"/>
-      <c r="FDD12" s="1"/>
-      <c r="FDH12" s="1"/>
-      <c r="FDL12" s="1"/>
-      <c r="FDP12" s="1"/>
-      <c r="FDT12" s="1"/>
-      <c r="FDX12" s="1"/>
-      <c r="FEB12" s="1"/>
-      <c r="FEF12" s="1"/>
-      <c r="FEJ12" s="1"/>
-      <c r="FEN12" s="1"/>
-      <c r="FER12" s="1"/>
-      <c r="FEV12" s="1"/>
-      <c r="FEZ12" s="1"/>
-      <c r="FFD12" s="1"/>
-      <c r="FFH12" s="1"/>
-      <c r="FFL12" s="1"/>
-      <c r="FFP12" s="1"/>
-      <c r="FFT12" s="1"/>
-      <c r="FFX12" s="1"/>
-      <c r="FGB12" s="1"/>
-      <c r="FGF12" s="1"/>
-      <c r="FGJ12" s="1"/>
-      <c r="FGN12" s="1"/>
-      <c r="FGR12" s="1"/>
-      <c r="FGV12" s="1"/>
-      <c r="FGZ12" s="1"/>
-      <c r="FHD12" s="1"/>
-      <c r="FHH12" s="1"/>
-      <c r="FHL12" s="1"/>
-      <c r="FHP12" s="1"/>
-      <c r="FHT12" s="1"/>
-      <c r="FHX12" s="1"/>
-      <c r="FIB12" s="1"/>
-      <c r="FIF12" s="1"/>
-      <c r="FIJ12" s="1"/>
-      <c r="FIN12" s="1"/>
-      <c r="FIR12" s="1"/>
-      <c r="FIV12" s="1"/>
-      <c r="FIZ12" s="1"/>
-      <c r="FJD12" s="1"/>
-      <c r="FJH12" s="1"/>
-      <c r="FJL12" s="1"/>
-      <c r="FJP12" s="1"/>
-      <c r="FJT12" s="1"/>
-      <c r="FJX12" s="1"/>
-      <c r="FKB12" s="1"/>
-      <c r="FKF12" s="1"/>
-      <c r="FKJ12" s="1"/>
-      <c r="FKN12" s="1"/>
-      <c r="FKR12" s="1"/>
-      <c r="FKV12" s="1"/>
-      <c r="FKZ12" s="1"/>
-      <c r="FLD12" s="1"/>
-      <c r="FLH12" s="1"/>
-      <c r="FLL12" s="1"/>
-      <c r="FLP12" s="1"/>
-      <c r="FLT12" s="1"/>
-      <c r="FLX12" s="1"/>
-      <c r="FMB12" s="1"/>
-      <c r="FMF12" s="1"/>
-      <c r="FMJ12" s="1"/>
-      <c r="FMN12" s="1"/>
-      <c r="FMR12" s="1"/>
-      <c r="FMV12" s="1"/>
-      <c r="FMZ12" s="1"/>
-      <c r="FND12" s="1"/>
-      <c r="FNH12" s="1"/>
-      <c r="FNL12" s="1"/>
-      <c r="FNP12" s="1"/>
-      <c r="FNT12" s="1"/>
-      <c r="FNX12" s="1"/>
-      <c r="FOB12" s="1"/>
-      <c r="FOF12" s="1"/>
-      <c r="FOJ12" s="1"/>
-      <c r="FON12" s="1"/>
-      <c r="FOR12" s="1"/>
-      <c r="FOV12" s="1"/>
-      <c r="FOZ12" s="1"/>
-      <c r="FPD12" s="1"/>
-      <c r="FPH12" s="1"/>
-      <c r="FPL12" s="1"/>
-      <c r="FPP12" s="1"/>
-      <c r="FPT12" s="1"/>
-      <c r="FPX12" s="1"/>
-      <c r="FQB12" s="1"/>
-      <c r="FQF12" s="1"/>
-      <c r="FQJ12" s="1"/>
-      <c r="FQN12" s="1"/>
-      <c r="FQR12" s="1"/>
-      <c r="FQV12" s="1"/>
-      <c r="FQZ12" s="1"/>
-      <c r="FRD12" s="1"/>
-      <c r="FRH12" s="1"/>
-      <c r="FRL12" s="1"/>
-      <c r="FRP12" s="1"/>
-      <c r="FRT12" s="1"/>
-      <c r="FRX12" s="1"/>
-      <c r="FSB12" s="1"/>
-      <c r="FSF12" s="1"/>
-      <c r="FSJ12" s="1"/>
-      <c r="FSN12" s="1"/>
-      <c r="FSR12" s="1"/>
-      <c r="FSV12" s="1"/>
-      <c r="FSZ12" s="1"/>
-      <c r="FTD12" s="1"/>
-      <c r="FTH12" s="1"/>
-      <c r="FTL12" s="1"/>
-      <c r="FTP12" s="1"/>
-      <c r="FTT12" s="1"/>
-      <c r="FTX12" s="1"/>
-      <c r="FUB12" s="1"/>
-      <c r="FUF12" s="1"/>
-      <c r="FUJ12" s="1"/>
-      <c r="FUN12" s="1"/>
-      <c r="FUR12" s="1"/>
-      <c r="FUV12" s="1"/>
-      <c r="FUZ12" s="1"/>
-      <c r="FVD12" s="1"/>
-      <c r="FVH12" s="1"/>
-      <c r="FVL12" s="1"/>
-      <c r="FVP12" s="1"/>
-      <c r="FVT12" s="1"/>
-      <c r="FVX12" s="1"/>
-      <c r="FWB12" s="1"/>
-      <c r="FWF12" s="1"/>
-      <c r="FWJ12" s="1"/>
-      <c r="FWN12" s="1"/>
-      <c r="FWR12" s="1"/>
-      <c r="FWV12" s="1"/>
-      <c r="FWZ12" s="1"/>
-      <c r="FXD12" s="1"/>
-      <c r="FXH12" s="1"/>
-      <c r="FXL12" s="1"/>
-      <c r="FXP12" s="1"/>
-      <c r="FXT12" s="1"/>
-      <c r="FXX12" s="1"/>
-      <c r="FYB12" s="1"/>
-      <c r="FYF12" s="1"/>
-      <c r="FYJ12" s="1"/>
-      <c r="FYN12" s="1"/>
-      <c r="FYR12" s="1"/>
-      <c r="FYV12" s="1"/>
-      <c r="FYZ12" s="1"/>
-      <c r="FZD12" s="1"/>
-      <c r="FZH12" s="1"/>
-      <c r="FZL12" s="1"/>
-      <c r="FZP12" s="1"/>
-      <c r="FZT12" s="1"/>
-      <c r="FZX12" s="1"/>
-      <c r="GAB12" s="1"/>
-      <c r="GAF12" s="1"/>
-      <c r="GAJ12" s="1"/>
-      <c r="GAN12" s="1"/>
-      <c r="GAR12" s="1"/>
-      <c r="GAV12" s="1"/>
-      <c r="GAZ12" s="1"/>
-      <c r="GBD12" s="1"/>
-      <c r="GBH12" s="1"/>
-      <c r="GBL12" s="1"/>
-      <c r="GBP12" s="1"/>
-      <c r="GBT12" s="1"/>
-      <c r="GBX12" s="1"/>
-      <c r="GCB12" s="1"/>
-      <c r="GCF12" s="1"/>
-      <c r="GCJ12" s="1"/>
-      <c r="GCN12" s="1"/>
-      <c r="GCR12" s="1"/>
-      <c r="GCV12" s="1"/>
-      <c r="GCZ12" s="1"/>
-      <c r="GDD12" s="1"/>
-      <c r="GDH12" s="1"/>
-      <c r="GDL12" s="1"/>
-      <c r="GDP12" s="1"/>
-      <c r="GDT12" s="1"/>
-      <c r="GDX12" s="1"/>
-      <c r="GEB12" s="1"/>
-      <c r="GEF12" s="1"/>
-      <c r="GEJ12" s="1"/>
-      <c r="GEN12" s="1"/>
-      <c r="GER12" s="1"/>
-      <c r="GEV12" s="1"/>
-      <c r="GEZ12" s="1"/>
-      <c r="GFD12" s="1"/>
-      <c r="GFH12" s="1"/>
-      <c r="GFL12" s="1"/>
-      <c r="GFP12" s="1"/>
-      <c r="GFT12" s="1"/>
-      <c r="GFX12" s="1"/>
-      <c r="GGB12" s="1"/>
-      <c r="GGF12" s="1"/>
-      <c r="GGJ12" s="1"/>
-      <c r="GGN12" s="1"/>
-      <c r="GGR12" s="1"/>
-      <c r="GGV12" s="1"/>
-      <c r="GGZ12" s="1"/>
-      <c r="GHD12" s="1"/>
-      <c r="GHH12" s="1"/>
-      <c r="GHL12" s="1"/>
-      <c r="GHP12" s="1"/>
-      <c r="GHT12" s="1"/>
-      <c r="GHX12" s="1"/>
-      <c r="GIB12" s="1"/>
-      <c r="GIF12" s="1"/>
-      <c r="GIJ12" s="1"/>
-      <c r="GIN12" s="1"/>
-      <c r="GIR12" s="1"/>
-      <c r="GIV12" s="1"/>
-      <c r="GIZ12" s="1"/>
-      <c r="GJD12" s="1"/>
-      <c r="GJH12" s="1"/>
-      <c r="GJL12" s="1"/>
-      <c r="GJP12" s="1"/>
-      <c r="GJT12" s="1"/>
-      <c r="GJX12" s="1"/>
-      <c r="GKB12" s="1"/>
-      <c r="GKF12" s="1"/>
-      <c r="GKJ12" s="1"/>
-      <c r="GKN12" s="1"/>
-      <c r="GKR12" s="1"/>
-      <c r="GKV12" s="1"/>
-      <c r="GKZ12" s="1"/>
-      <c r="GLD12" s="1"/>
-      <c r="GLH12" s="1"/>
-      <c r="GLL12" s="1"/>
-      <c r="GLP12" s="1"/>
-      <c r="GLT12" s="1"/>
-      <c r="GLX12" s="1"/>
-      <c r="GMB12" s="1"/>
-      <c r="GMF12" s="1"/>
-      <c r="GMJ12" s="1"/>
-      <c r="GMN12" s="1"/>
-      <c r="GMR12" s="1"/>
-      <c r="GMV12" s="1"/>
-      <c r="GMZ12" s="1"/>
-      <c r="GND12" s="1"/>
-      <c r="GNH12" s="1"/>
-      <c r="GNL12" s="1"/>
-      <c r="GNP12" s="1"/>
-      <c r="GNT12" s="1"/>
-      <c r="GNX12" s="1"/>
-      <c r="GOB12" s="1"/>
-      <c r="GOF12" s="1"/>
-      <c r="GOJ12" s="1"/>
-      <c r="GON12" s="1"/>
-      <c r="GOR12" s="1"/>
-      <c r="GOV12" s="1"/>
-      <c r="GOZ12" s="1"/>
-      <c r="GPD12" s="1"/>
-      <c r="GPH12" s="1"/>
-      <c r="GPL12" s="1"/>
-      <c r="GPP12" s="1"/>
-      <c r="GPT12" s="1"/>
-      <c r="GPX12" s="1"/>
-      <c r="GQB12" s="1"/>
-      <c r="GQF12" s="1"/>
-      <c r="GQJ12" s="1"/>
-      <c r="GQN12" s="1"/>
-      <c r="GQR12" s="1"/>
-      <c r="GQV12" s="1"/>
-      <c r="GQZ12" s="1"/>
-      <c r="GRD12" s="1"/>
-      <c r="GRH12" s="1"/>
-      <c r="GRL12" s="1"/>
-      <c r="GRP12" s="1"/>
-      <c r="GRT12" s="1"/>
-      <c r="GRX12" s="1"/>
-      <c r="GSB12" s="1"/>
-      <c r="GSF12" s="1"/>
-      <c r="GSJ12" s="1"/>
-      <c r="GSN12" s="1"/>
-      <c r="GSR12" s="1"/>
-      <c r="GSV12" s="1"/>
-      <c r="GSZ12" s="1"/>
-      <c r="GTD12" s="1"/>
-      <c r="GTH12" s="1"/>
-      <c r="GTL12" s="1"/>
-      <c r="GTP12" s="1"/>
-      <c r="GTT12" s="1"/>
-      <c r="GTX12" s="1"/>
-      <c r="GUB12" s="1"/>
-      <c r="GUF12" s="1"/>
-      <c r="GUJ12" s="1"/>
-      <c r="GUN12" s="1"/>
-      <c r="GUR12" s="1"/>
-      <c r="GUV12" s="1"/>
-      <c r="GUZ12" s="1"/>
-      <c r="GVD12" s="1"/>
-      <c r="GVH12" s="1"/>
-      <c r="GVL12" s="1"/>
-      <c r="GVP12" s="1"/>
-      <c r="GVT12" s="1"/>
-      <c r="GVX12" s="1"/>
-      <c r="GWB12" s="1"/>
-      <c r="GWF12" s="1"/>
-      <c r="GWJ12" s="1"/>
-      <c r="GWN12" s="1"/>
-      <c r="GWR12" s="1"/>
-      <c r="GWV12" s="1"/>
-      <c r="GWZ12" s="1"/>
-      <c r="GXD12" s="1"/>
-      <c r="GXH12" s="1"/>
-      <c r="GXL12" s="1"/>
-      <c r="GXP12" s="1"/>
-      <c r="GXT12" s="1"/>
-      <c r="GXX12" s="1"/>
-      <c r="GYB12" s="1"/>
-      <c r="GYF12" s="1"/>
-      <c r="GYJ12" s="1"/>
-      <c r="GYN12" s="1"/>
-      <c r="GYR12" s="1"/>
-      <c r="GYV12" s="1"/>
-      <c r="GYZ12" s="1"/>
-      <c r="GZD12" s="1"/>
-      <c r="GZH12" s="1"/>
-      <c r="GZL12" s="1"/>
-      <c r="GZP12" s="1"/>
-      <c r="GZT12" s="1"/>
-      <c r="GZX12" s="1"/>
-      <c r="HAB12" s="1"/>
-      <c r="HAF12" s="1"/>
-      <c r="HAJ12" s="1"/>
-      <c r="HAN12" s="1"/>
-      <c r="HAR12" s="1"/>
-      <c r="HAV12" s="1"/>
-      <c r="HAZ12" s="1"/>
-      <c r="HBD12" s="1"/>
-      <c r="HBH12" s="1"/>
-      <c r="HBL12" s="1"/>
-      <c r="HBP12" s="1"/>
-      <c r="HBT12" s="1"/>
-      <c r="HBX12" s="1"/>
-      <c r="HCB12" s="1"/>
-      <c r="HCF12" s="1"/>
-      <c r="HCJ12" s="1"/>
-      <c r="HCN12" s="1"/>
-      <c r="HCR12" s="1"/>
-      <c r="HCV12" s="1"/>
-      <c r="HCZ12" s="1"/>
-      <c r="HDD12" s="1"/>
-      <c r="HDH12" s="1"/>
-      <c r="HDL12" s="1"/>
-      <c r="HDP12" s="1"/>
-      <c r="HDT12" s="1"/>
-      <c r="HDX12" s="1"/>
-      <c r="HEB12" s="1"/>
-      <c r="HEF12" s="1"/>
-      <c r="HEJ12" s="1"/>
-      <c r="HEN12" s="1"/>
-      <c r="HER12" s="1"/>
-      <c r="HEV12" s="1"/>
-      <c r="HEZ12" s="1"/>
-      <c r="HFD12" s="1"/>
-      <c r="HFH12" s="1"/>
-      <c r="HFL12" s="1"/>
-      <c r="HFP12" s="1"/>
-      <c r="HFT12" s="1"/>
-      <c r="HFX12" s="1"/>
-      <c r="HGB12" s="1"/>
-      <c r="HGF12" s="1"/>
-      <c r="HGJ12" s="1"/>
-      <c r="HGN12" s="1"/>
-      <c r="HGR12" s="1"/>
-      <c r="HGV12" s="1"/>
-      <c r="HGZ12" s="1"/>
-      <c r="HHD12" s="1"/>
-      <c r="HHH12" s="1"/>
-      <c r="HHL12" s="1"/>
-      <c r="HHP12" s="1"/>
-      <c r="HHT12" s="1"/>
-      <c r="HHX12" s="1"/>
-      <c r="HIB12" s="1"/>
-      <c r="HIF12" s="1"/>
-      <c r="HIJ12" s="1"/>
-      <c r="HIN12" s="1"/>
-      <c r="HIR12" s="1"/>
-      <c r="HIV12" s="1"/>
-      <c r="HIZ12" s="1"/>
-      <c r="HJD12" s="1"/>
-      <c r="HJH12" s="1"/>
-      <c r="HJL12" s="1"/>
-      <c r="HJP12" s="1"/>
-      <c r="HJT12" s="1"/>
-      <c r="HJX12" s="1"/>
-      <c r="HKB12" s="1"/>
-      <c r="HKF12" s="1"/>
-      <c r="HKJ12" s="1"/>
-      <c r="HKN12" s="1"/>
-      <c r="HKR12" s="1"/>
-      <c r="HKV12" s="1"/>
-      <c r="HKZ12" s="1"/>
-      <c r="HLD12" s="1"/>
-      <c r="HLH12" s="1"/>
-      <c r="HLL12" s="1"/>
-      <c r="HLP12" s="1"/>
-      <c r="HLT12" s="1"/>
-      <c r="HLX12" s="1"/>
-      <c r="HMB12" s="1"/>
-      <c r="HMF12" s="1"/>
-      <c r="HMJ12" s="1"/>
-      <c r="HMN12" s="1"/>
-      <c r="HMR12" s="1"/>
-      <c r="HMV12" s="1"/>
-      <c r="HMZ12" s="1"/>
-      <c r="HND12" s="1"/>
-      <c r="HNH12" s="1"/>
-      <c r="HNL12" s="1"/>
-      <c r="HNP12" s="1"/>
-      <c r="HNT12" s="1"/>
-      <c r="HNX12" s="1"/>
-      <c r="HOB12" s="1"/>
-      <c r="HOF12" s="1"/>
-      <c r="HOJ12" s="1"/>
-      <c r="HON12" s="1"/>
-      <c r="HOR12" s="1"/>
-      <c r="HOV12" s="1"/>
-      <c r="HOZ12" s="1"/>
-      <c r="HPD12" s="1"/>
-      <c r="HPH12" s="1"/>
-      <c r="HPL12" s="1"/>
-      <c r="HPP12" s="1"/>
-      <c r="HPT12" s="1"/>
-      <c r="HPX12" s="1"/>
-      <c r="HQB12" s="1"/>
-      <c r="HQF12" s="1"/>
-      <c r="HQJ12" s="1"/>
-      <c r="HQN12" s="1"/>
-      <c r="HQR12" s="1"/>
-      <c r="HQV12" s="1"/>
-      <c r="HQZ12" s="1"/>
-      <c r="HRD12" s="1"/>
-      <c r="HRH12" s="1"/>
-      <c r="HRL12" s="1"/>
-      <c r="HRP12" s="1"/>
-      <c r="HRT12" s="1"/>
-      <c r="HRX12" s="1"/>
-      <c r="HSB12" s="1"/>
-      <c r="HSF12" s="1"/>
-      <c r="HSJ12" s="1"/>
-      <c r="HSN12" s="1"/>
-      <c r="HSR12" s="1"/>
-      <c r="HSV12" s="1"/>
-      <c r="HSZ12" s="1"/>
-      <c r="HTD12" s="1"/>
-      <c r="HTH12" s="1"/>
-      <c r="HTL12" s="1"/>
-      <c r="HTP12" s="1"/>
-      <c r="HTT12" s="1"/>
-      <c r="HTX12" s="1"/>
-      <c r="HUB12" s="1"/>
-      <c r="HUF12" s="1"/>
-      <c r="HUJ12" s="1"/>
-      <c r="HUN12" s="1"/>
-      <c r="HUR12" s="1"/>
-      <c r="HUV12" s="1"/>
-      <c r="HUZ12" s="1"/>
-      <c r="HVD12" s="1"/>
-      <c r="HVH12" s="1"/>
-      <c r="HVL12" s="1"/>
-      <c r="HVP12" s="1"/>
-      <c r="HVT12" s="1"/>
-      <c r="HVX12" s="1"/>
-      <c r="HWB12" s="1"/>
-      <c r="HWF12" s="1"/>
-      <c r="HWJ12" s="1"/>
-      <c r="HWN12" s="1"/>
-      <c r="HWR12" s="1"/>
-      <c r="HWV12" s="1"/>
-      <c r="HWZ12" s="1"/>
-      <c r="HXD12" s="1"/>
-      <c r="HXH12" s="1"/>
-      <c r="HXL12" s="1"/>
-      <c r="HXP12" s="1"/>
-      <c r="HXT12" s="1"/>
-      <c r="HXX12" s="1"/>
-      <c r="HYB12" s="1"/>
-      <c r="HYF12" s="1"/>
-      <c r="HYJ12" s="1"/>
-      <c r="HYN12" s="1"/>
-      <c r="HYR12" s="1"/>
-      <c r="HYV12" s="1"/>
-      <c r="HYZ12" s="1"/>
-      <c r="HZD12" s="1"/>
-      <c r="HZH12" s="1"/>
-      <c r="HZL12" s="1"/>
-      <c r="HZP12" s="1"/>
-      <c r="HZT12" s="1"/>
-      <c r="HZX12" s="1"/>
-      <c r="IAB12" s="1"/>
-      <c r="IAF12" s="1"/>
-      <c r="IAJ12" s="1"/>
-      <c r="IAN12" s="1"/>
-      <c r="IAR12" s="1"/>
-      <c r="IAV12" s="1"/>
-      <c r="IAZ12" s="1"/>
-      <c r="IBD12" s="1"/>
-      <c r="IBH12" s="1"/>
-      <c r="IBL12" s="1"/>
-      <c r="IBP12" s="1"/>
-      <c r="IBT12" s="1"/>
-      <c r="IBX12" s="1"/>
-      <c r="ICB12" s="1"/>
-      <c r="ICF12" s="1"/>
-      <c r="ICJ12" s="1"/>
-      <c r="ICN12" s="1"/>
-      <c r="ICR12" s="1"/>
-      <c r="ICV12" s="1"/>
-      <c r="ICZ12" s="1"/>
-      <c r="IDD12" s="1"/>
-      <c r="IDH12" s="1"/>
-      <c r="IDL12" s="1"/>
-      <c r="IDP12" s="1"/>
-      <c r="IDT12" s="1"/>
-      <c r="IDX12" s="1"/>
-      <c r="IEB12" s="1"/>
-      <c r="IEF12" s="1"/>
-      <c r="IEJ12" s="1"/>
-      <c r="IEN12" s="1"/>
-      <c r="IER12" s="1"/>
-      <c r="IEV12" s="1"/>
-      <c r="IEZ12" s="1"/>
-      <c r="IFD12" s="1"/>
-      <c r="IFH12" s="1"/>
-      <c r="IFL12" s="1"/>
-      <c r="IFP12" s="1"/>
-      <c r="IFT12" s="1"/>
-      <c r="IFX12" s="1"/>
-      <c r="IGB12" s="1"/>
-      <c r="IGF12" s="1"/>
-      <c r="IGJ12" s="1"/>
-      <c r="IGN12" s="1"/>
-      <c r="IGR12" s="1"/>
-      <c r="IGV12" s="1"/>
-      <c r="IGZ12" s="1"/>
-      <c r="IHD12" s="1"/>
-      <c r="IHH12" s="1"/>
-      <c r="IHL12" s="1"/>
-      <c r="IHP12" s="1"/>
-      <c r="IHT12" s="1"/>
-      <c r="IHX12" s="1"/>
-      <c r="IIB12" s="1"/>
-      <c r="IIF12" s="1"/>
-      <c r="IIJ12" s="1"/>
-      <c r="IIN12" s="1"/>
-      <c r="IIR12" s="1"/>
-      <c r="IIV12" s="1"/>
-      <c r="IIZ12" s="1"/>
-      <c r="IJD12" s="1"/>
-      <c r="IJH12" s="1"/>
-      <c r="IJL12" s="1"/>
-      <c r="IJP12" s="1"/>
-      <c r="IJT12" s="1"/>
-      <c r="IJX12" s="1"/>
-      <c r="IKB12" s="1"/>
-      <c r="IKF12" s="1"/>
-      <c r="IKJ12" s="1"/>
-      <c r="IKN12" s="1"/>
-      <c r="IKR12" s="1"/>
-      <c r="IKV12" s="1"/>
-      <c r="IKZ12" s="1"/>
-      <c r="ILD12" s="1"/>
-      <c r="ILH12" s="1"/>
-      <c r="ILL12" s="1"/>
-      <c r="ILP12" s="1"/>
-      <c r="ILT12" s="1"/>
-      <c r="ILX12" s="1"/>
-      <c r="IMB12" s="1"/>
-      <c r="IMF12" s="1"/>
-      <c r="IMJ12" s="1"/>
-      <c r="IMN12" s="1"/>
-      <c r="IMR12" s="1"/>
-      <c r="IMV12" s="1"/>
-      <c r="IMZ12" s="1"/>
-      <c r="IND12" s="1"/>
-      <c r="INH12" s="1"/>
-      <c r="INL12" s="1"/>
-      <c r="INP12" s="1"/>
-      <c r="INT12" s="1"/>
-      <c r="INX12" s="1"/>
-      <c r="IOB12" s="1"/>
-      <c r="IOF12" s="1"/>
-      <c r="IOJ12" s="1"/>
-      <c r="ION12" s="1"/>
-      <c r="IOR12" s="1"/>
-      <c r="IOV12" s="1"/>
-      <c r="IOZ12" s="1"/>
-      <c r="IPD12" s="1"/>
-      <c r="IPH12" s="1"/>
-      <c r="IPL12" s="1"/>
-      <c r="IPP12" s="1"/>
-      <c r="IPT12" s="1"/>
-      <c r="IPX12" s="1"/>
-      <c r="IQB12" s="1"/>
-      <c r="IQF12" s="1"/>
-      <c r="IQJ12" s="1"/>
-      <c r="IQN12" s="1"/>
-      <c r="IQR12" s="1"/>
-      <c r="IQV12" s="1"/>
-      <c r="IQZ12" s="1"/>
-      <c r="IRD12" s="1"/>
-      <c r="IRH12" s="1"/>
-      <c r="IRL12" s="1"/>
-      <c r="IRP12" s="1"/>
-      <c r="IRT12" s="1"/>
-      <c r="IRX12" s="1"/>
-      <c r="ISB12" s="1"/>
-      <c r="ISF12" s="1"/>
-      <c r="ISJ12" s="1"/>
-      <c r="ISN12" s="1"/>
-      <c r="ISR12" s="1"/>
-      <c r="ISV12" s="1"/>
-      <c r="ISZ12" s="1"/>
-      <c r="ITD12" s="1"/>
-      <c r="ITH12" s="1"/>
-      <c r="ITL12" s="1"/>
-      <c r="ITP12" s="1"/>
-      <c r="ITT12" s="1"/>
-      <c r="ITX12" s="1"/>
-      <c r="IUB12" s="1"/>
-      <c r="IUF12" s="1"/>
-      <c r="IUJ12" s="1"/>
-      <c r="IUN12" s="1"/>
-      <c r="IUR12" s="1"/>
-      <c r="IUV12" s="1"/>
-      <c r="IUZ12" s="1"/>
-      <c r="IVD12" s="1"/>
-      <c r="IVH12" s="1"/>
-      <c r="IVL12" s="1"/>
-      <c r="IVP12" s="1"/>
-      <c r="IVT12" s="1"/>
-      <c r="IVX12" s="1"/>
-      <c r="IWB12" s="1"/>
-      <c r="IWF12" s="1"/>
-      <c r="IWJ12" s="1"/>
-      <c r="IWN12" s="1"/>
-      <c r="IWR12" s="1"/>
-      <c r="IWV12" s="1"/>
-      <c r="IWZ12" s="1"/>
-      <c r="IXD12" s="1"/>
-      <c r="IXH12" s="1"/>
-      <c r="IXL12" s="1"/>
-      <c r="IXP12" s="1"/>
-      <c r="IXT12" s="1"/>
-      <c r="IXX12" s="1"/>
-      <c r="IYB12" s="1"/>
-      <c r="IYF12" s="1"/>
-      <c r="IYJ12" s="1"/>
-      <c r="IYN12" s="1"/>
-      <c r="IYR12" s="1"/>
-      <c r="IYV12" s="1"/>
-      <c r="IYZ12" s="1"/>
-      <c r="IZD12" s="1"/>
-      <c r="IZH12" s="1"/>
-      <c r="IZL12" s="1"/>
-      <c r="IZP12" s="1"/>
-      <c r="IZT12" s="1"/>
-      <c r="IZX12" s="1"/>
-      <c r="JAB12" s="1"/>
-      <c r="JAF12" s="1"/>
-      <c r="JAJ12" s="1"/>
-      <c r="JAN12" s="1"/>
-      <c r="JAR12" s="1"/>
-      <c r="JAV12" s="1"/>
-      <c r="JAZ12" s="1"/>
-      <c r="JBD12" s="1"/>
-      <c r="JBH12" s="1"/>
-      <c r="JBL12" s="1"/>
-      <c r="JBP12" s="1"/>
-      <c r="JBT12" s="1"/>
-      <c r="JBX12" s="1"/>
-      <c r="JCB12" s="1"/>
-      <c r="JCF12" s="1"/>
-      <c r="JCJ12" s="1"/>
-      <c r="JCN12" s="1"/>
-      <c r="JCR12" s="1"/>
-      <c r="JCV12" s="1"/>
-      <c r="JCZ12" s="1"/>
-      <c r="JDD12" s="1"/>
-      <c r="JDH12" s="1"/>
-      <c r="JDL12" s="1"/>
-      <c r="JDP12" s="1"/>
-      <c r="JDT12" s="1"/>
-      <c r="JDX12" s="1"/>
-      <c r="JEB12" s="1"/>
-      <c r="JEF12" s="1"/>
-      <c r="JEJ12" s="1"/>
-      <c r="JEN12" s="1"/>
-      <c r="JER12" s="1"/>
-      <c r="JEV12" s="1"/>
-      <c r="JEZ12" s="1"/>
-      <c r="JFD12" s="1"/>
-      <c r="JFH12" s="1"/>
-      <c r="JFL12" s="1"/>
-      <c r="JFP12" s="1"/>
-      <c r="JFT12" s="1"/>
-      <c r="JFX12" s="1"/>
-      <c r="JGB12" s="1"/>
-      <c r="JGF12" s="1"/>
-      <c r="JGJ12" s="1"/>
-      <c r="JGN12" s="1"/>
-      <c r="JGR12" s="1"/>
-      <c r="JGV12" s="1"/>
-      <c r="JGZ12" s="1"/>
-      <c r="JHD12" s="1"/>
-      <c r="JHH12" s="1"/>
-      <c r="JHL12" s="1"/>
-      <c r="JHP12" s="1"/>
-      <c r="JHT12" s="1"/>
-      <c r="JHX12" s="1"/>
-      <c r="JIB12" s="1"/>
-      <c r="JIF12" s="1"/>
-      <c r="JIJ12" s="1"/>
-      <c r="JIN12" s="1"/>
-      <c r="JIR12" s="1"/>
-      <c r="JIV12" s="1"/>
-      <c r="JIZ12" s="1"/>
-      <c r="JJD12" s="1"/>
-      <c r="JJH12" s="1"/>
-      <c r="JJL12" s="1"/>
-      <c r="JJP12" s="1"/>
-      <c r="JJT12" s="1"/>
-      <c r="JJX12" s="1"/>
-      <c r="JKB12" s="1"/>
-      <c r="JKF12" s="1"/>
-      <c r="JKJ12" s="1"/>
-      <c r="JKN12" s="1"/>
-      <c r="JKR12" s="1"/>
-      <c r="JKV12" s="1"/>
-      <c r="JKZ12" s="1"/>
-      <c r="JLD12" s="1"/>
-      <c r="JLH12" s="1"/>
-      <c r="JLL12" s="1"/>
-      <c r="JLP12" s="1"/>
-      <c r="JLT12" s="1"/>
-      <c r="JLX12" s="1"/>
-      <c r="JMB12" s="1"/>
-      <c r="JMF12" s="1"/>
-      <c r="JMJ12" s="1"/>
-      <c r="JMN12" s="1"/>
-      <c r="JMR12" s="1"/>
-      <c r="JMV12" s="1"/>
-      <c r="JMZ12" s="1"/>
-      <c r="JND12" s="1"/>
-      <c r="JNH12" s="1"/>
-      <c r="JNL12" s="1"/>
-      <c r="JNP12" s="1"/>
-      <c r="JNT12" s="1"/>
-      <c r="JNX12" s="1"/>
-      <c r="JOB12" s="1"/>
-      <c r="JOF12" s="1"/>
-      <c r="JOJ12" s="1"/>
-      <c r="JON12" s="1"/>
-      <c r="JOR12" s="1"/>
-      <c r="JOV12" s="1"/>
-      <c r="JOZ12" s="1"/>
-      <c r="JPD12" s="1"/>
-      <c r="JPH12" s="1"/>
-      <c r="JPL12" s="1"/>
-      <c r="JPP12" s="1"/>
-      <c r="JPT12" s="1"/>
-      <c r="JPX12" s="1"/>
-      <c r="JQB12" s="1"/>
-      <c r="JQF12" s="1"/>
-      <c r="JQJ12" s="1"/>
-      <c r="JQN12" s="1"/>
-      <c r="JQR12" s="1"/>
-      <c r="JQV12" s="1"/>
-      <c r="JQZ12" s="1"/>
-      <c r="JRD12" s="1"/>
-      <c r="JRH12" s="1"/>
-      <c r="JRL12" s="1"/>
-      <c r="JRP12" s="1"/>
-      <c r="JRT12" s="1"/>
-      <c r="JRX12" s="1"/>
-      <c r="JSB12" s="1"/>
-      <c r="JSF12" s="1"/>
-      <c r="JSJ12" s="1"/>
-      <c r="JSN12" s="1"/>
-      <c r="JSR12" s="1"/>
-      <c r="JSV12" s="1"/>
-      <c r="JSZ12" s="1"/>
-      <c r="JTD12" s="1"/>
-      <c r="JTH12" s="1"/>
-      <c r="JTL12" s="1"/>
-      <c r="JTP12" s="1"/>
-      <c r="JTT12" s="1"/>
-      <c r="JTX12" s="1"/>
-      <c r="JUB12" s="1"/>
-      <c r="JUF12" s="1"/>
-      <c r="JUJ12" s="1"/>
-      <c r="JUN12" s="1"/>
-      <c r="JUR12" s="1"/>
-      <c r="JUV12" s="1"/>
-      <c r="JUZ12" s="1"/>
-      <c r="JVD12" s="1"/>
-      <c r="JVH12" s="1"/>
-      <c r="JVL12" s="1"/>
-      <c r="JVP12" s="1"/>
-      <c r="JVT12" s="1"/>
-      <c r="JVX12" s="1"/>
-      <c r="JWB12" s="1"/>
-      <c r="JWF12" s="1"/>
-      <c r="JWJ12" s="1"/>
-      <c r="JWN12" s="1"/>
-      <c r="JWR12" s="1"/>
-      <c r="JWV12" s="1"/>
-      <c r="JWZ12" s="1"/>
-      <c r="JXD12" s="1"/>
-      <c r="JXH12" s="1"/>
-      <c r="JXL12" s="1"/>
-      <c r="JXP12" s="1"/>
-      <c r="JXT12" s="1"/>
-      <c r="JXX12" s="1"/>
-      <c r="JYB12" s="1"/>
-      <c r="JYF12" s="1"/>
-      <c r="JYJ12" s="1"/>
-      <c r="JYN12" s="1"/>
-      <c r="JYR12" s="1"/>
-      <c r="JYV12" s="1"/>
-      <c r="JYZ12" s="1"/>
-      <c r="JZD12" s="1"/>
-      <c r="JZH12" s="1"/>
-      <c r="JZL12" s="1"/>
-      <c r="JZP12" s="1"/>
-      <c r="JZT12" s="1"/>
-      <c r="JZX12" s="1"/>
-      <c r="KAB12" s="1"/>
-      <c r="KAF12" s="1"/>
-      <c r="KAJ12" s="1"/>
-      <c r="KAN12" s="1"/>
-      <c r="KAR12" s="1"/>
-      <c r="KAV12" s="1"/>
-      <c r="KAZ12" s="1"/>
-      <c r="KBD12" s="1"/>
-      <c r="KBH12" s="1"/>
-      <c r="KBL12" s="1"/>
-      <c r="KBP12" s="1"/>
-      <c r="KBT12" s="1"/>
-      <c r="KBX12" s="1"/>
-      <c r="KCB12" s="1"/>
-      <c r="KCF12" s="1"/>
-      <c r="KCJ12" s="1"/>
-      <c r="KCN12" s="1"/>
-      <c r="KCR12" s="1"/>
-      <c r="KCV12" s="1"/>
-      <c r="KCZ12" s="1"/>
-      <c r="KDD12" s="1"/>
-      <c r="KDH12" s="1"/>
-      <c r="KDL12" s="1"/>
-      <c r="KDP12" s="1"/>
-      <c r="KDT12" s="1"/>
-      <c r="KDX12" s="1"/>
-      <c r="KEB12" s="1"/>
-      <c r="KEF12" s="1"/>
-      <c r="KEJ12" s="1"/>
-      <c r="KEN12" s="1"/>
-      <c r="KER12" s="1"/>
-      <c r="KEV12" s="1"/>
-      <c r="KEZ12" s="1"/>
-      <c r="KFD12" s="1"/>
-      <c r="KFH12" s="1"/>
-      <c r="KFL12" s="1"/>
-      <c r="KFP12" s="1"/>
-      <c r="KFT12" s="1"/>
-      <c r="KFX12" s="1"/>
-      <c r="KGB12" s="1"/>
-      <c r="KGF12" s="1"/>
-      <c r="KGJ12" s="1"/>
-      <c r="KGN12" s="1"/>
-      <c r="KGR12" s="1"/>
-      <c r="KGV12" s="1"/>
-      <c r="KGZ12" s="1"/>
-      <c r="KHD12" s="1"/>
-      <c r="KHH12" s="1"/>
-      <c r="KHL12" s="1"/>
-      <c r="KHP12" s="1"/>
-      <c r="KHT12" s="1"/>
-      <c r="KHX12" s="1"/>
-      <c r="KIB12" s="1"/>
-      <c r="KIF12" s="1"/>
-      <c r="KIJ12" s="1"/>
-      <c r="KIN12" s="1"/>
-      <c r="KIR12" s="1"/>
-      <c r="KIV12" s="1"/>
-      <c r="KIZ12" s="1"/>
-      <c r="KJD12" s="1"/>
-      <c r="KJH12" s="1"/>
-      <c r="KJL12" s="1"/>
-      <c r="KJP12" s="1"/>
-      <c r="KJT12" s="1"/>
-      <c r="KJX12" s="1"/>
-      <c r="KKB12" s="1"/>
-      <c r="KKF12" s="1"/>
-      <c r="KKJ12" s="1"/>
-      <c r="KKN12" s="1"/>
-      <c r="KKR12" s="1"/>
-      <c r="KKV12" s="1"/>
-      <c r="KKZ12" s="1"/>
-      <c r="KLD12" s="1"/>
-      <c r="KLH12" s="1"/>
-      <c r="KLL12" s="1"/>
-      <c r="KLP12" s="1"/>
-      <c r="KLT12" s="1"/>
-      <c r="KLX12" s="1"/>
-      <c r="KMB12" s="1"/>
-      <c r="KMF12" s="1"/>
-      <c r="KMJ12" s="1"/>
-      <c r="KMN12" s="1"/>
-      <c r="KMR12" s="1"/>
-      <c r="KMV12" s="1"/>
-      <c r="KMZ12" s="1"/>
-      <c r="KND12" s="1"/>
-      <c r="KNH12" s="1"/>
-      <c r="KNL12" s="1"/>
-      <c r="KNP12" s="1"/>
-      <c r="KNT12" s="1"/>
-      <c r="KNX12" s="1"/>
-      <c r="KOB12" s="1"/>
-      <c r="KOF12" s="1"/>
-      <c r="KOJ12" s="1"/>
-      <c r="KON12" s="1"/>
-      <c r="KOR12" s="1"/>
-      <c r="KOV12" s="1"/>
-      <c r="KOZ12" s="1"/>
-      <c r="KPD12" s="1"/>
-      <c r="KPH12" s="1"/>
-      <c r="KPL12" s="1"/>
-      <c r="KPP12" s="1"/>
-      <c r="KPT12" s="1"/>
-      <c r="KPX12" s="1"/>
-      <c r="KQB12" s="1"/>
-      <c r="KQF12" s="1"/>
-      <c r="KQJ12" s="1"/>
-      <c r="KQN12" s="1"/>
-      <c r="KQR12" s="1"/>
-      <c r="KQV12" s="1"/>
-      <c r="KQZ12" s="1"/>
-      <c r="KRD12" s="1"/>
-      <c r="KRH12" s="1"/>
-      <c r="KRL12" s="1"/>
-      <c r="KRP12" s="1"/>
-      <c r="KRT12" s="1"/>
-      <c r="KRX12" s="1"/>
-      <c r="KSB12" s="1"/>
-      <c r="KSF12" s="1"/>
-      <c r="KSJ12" s="1"/>
-      <c r="KSN12" s="1"/>
-      <c r="KSR12" s="1"/>
-      <c r="KSV12" s="1"/>
-      <c r="KSZ12" s="1"/>
-      <c r="KTD12" s="1"/>
-      <c r="KTH12" s="1"/>
-      <c r="KTL12" s="1"/>
-      <c r="KTP12" s="1"/>
-      <c r="KTT12" s="1"/>
-      <c r="KTX12" s="1"/>
-      <c r="KUB12" s="1"/>
-      <c r="KUF12" s="1"/>
-      <c r="KUJ12" s="1"/>
-      <c r="KUN12" s="1"/>
-      <c r="KUR12" s="1"/>
-      <c r="KUV12" s="1"/>
-      <c r="KUZ12" s="1"/>
-      <c r="KVD12" s="1"/>
-      <c r="KVH12" s="1"/>
-      <c r="KVL12" s="1"/>
-      <c r="KVP12" s="1"/>
-      <c r="KVT12" s="1"/>
-      <c r="KVX12" s="1"/>
-      <c r="KWB12" s="1"/>
-      <c r="KWF12" s="1"/>
-      <c r="KWJ12" s="1"/>
-      <c r="KWN12" s="1"/>
-      <c r="KWR12" s="1"/>
-      <c r="KWV12" s="1"/>
-      <c r="KWZ12" s="1"/>
-      <c r="KXD12" s="1"/>
-      <c r="KXH12" s="1"/>
-      <c r="KXL12" s="1"/>
-      <c r="KXP12" s="1"/>
-      <c r="KXT12" s="1"/>
-      <c r="KXX12" s="1"/>
-      <c r="KYB12" s="1"/>
-      <c r="KYF12" s="1"/>
-      <c r="KYJ12" s="1"/>
-      <c r="KYN12" s="1"/>
-      <c r="KYR12" s="1"/>
-      <c r="KYV12" s="1"/>
-      <c r="KYZ12" s="1"/>
-      <c r="KZD12" s="1"/>
-      <c r="KZH12" s="1"/>
-      <c r="KZL12" s="1"/>
-      <c r="KZP12" s="1"/>
-      <c r="KZT12" s="1"/>
-      <c r="KZX12" s="1"/>
-      <c r="LAB12" s="1"/>
-      <c r="LAF12" s="1"/>
-      <c r="LAJ12" s="1"/>
-      <c r="LAN12" s="1"/>
-      <c r="LAR12" s="1"/>
-      <c r="LAV12" s="1"/>
-      <c r="LAZ12" s="1"/>
-      <c r="LBD12" s="1"/>
-      <c r="LBH12" s="1"/>
-      <c r="LBL12" s="1"/>
-      <c r="LBP12" s="1"/>
-      <c r="LBT12" s="1"/>
-      <c r="LBX12" s="1"/>
-      <c r="LCB12" s="1"/>
-      <c r="LCF12" s="1"/>
-      <c r="LCJ12" s="1"/>
-      <c r="LCN12" s="1"/>
-      <c r="LCR12" s="1"/>
-      <c r="LCV12" s="1"/>
-      <c r="LCZ12" s="1"/>
-      <c r="LDD12" s="1"/>
-      <c r="LDH12" s="1"/>
-      <c r="LDL12" s="1"/>
-      <c r="LDP12" s="1"/>
-      <c r="LDT12" s="1"/>
-      <c r="LDX12" s="1"/>
-      <c r="LEB12" s="1"/>
-      <c r="LEF12" s="1"/>
-      <c r="LEJ12" s="1"/>
-      <c r="LEN12" s="1"/>
-      <c r="LER12" s="1"/>
-      <c r="LEV12" s="1"/>
-      <c r="LEZ12" s="1"/>
-      <c r="LFD12" s="1"/>
-      <c r="LFH12" s="1"/>
-      <c r="LFL12" s="1"/>
-      <c r="LFP12" s="1"/>
-      <c r="LFT12" s="1"/>
-      <c r="LFX12" s="1"/>
-      <c r="LGB12" s="1"/>
-      <c r="LGF12" s="1"/>
-      <c r="LGJ12" s="1"/>
-      <c r="LGN12" s="1"/>
-      <c r="LGR12" s="1"/>
-      <c r="LGV12" s="1"/>
-      <c r="LGZ12" s="1"/>
-      <c r="LHD12" s="1"/>
-      <c r="LHH12" s="1"/>
-      <c r="LHL12" s="1"/>
-      <c r="LHP12" s="1"/>
-      <c r="LHT12" s="1"/>
-      <c r="LHX12" s="1"/>
-      <c r="LIB12" s="1"/>
-      <c r="LIF12" s="1"/>
-      <c r="LIJ12" s="1"/>
-      <c r="LIN12" s="1"/>
-      <c r="LIR12" s="1"/>
-      <c r="LIV12" s="1"/>
-      <c r="LIZ12" s="1"/>
-      <c r="LJD12" s="1"/>
-      <c r="LJH12" s="1"/>
-      <c r="LJL12" s="1"/>
-      <c r="LJP12" s="1"/>
-      <c r="LJT12" s="1"/>
-      <c r="LJX12" s="1"/>
-      <c r="LKB12" s="1"/>
-      <c r="LKF12" s="1"/>
-      <c r="LKJ12" s="1"/>
-      <c r="LKN12" s="1"/>
-      <c r="LKR12" s="1"/>
-      <c r="LKV12" s="1"/>
-      <c r="LKZ12" s="1"/>
-      <c r="LLD12" s="1"/>
-      <c r="LLH12" s="1"/>
-      <c r="LLL12" s="1"/>
-      <c r="LLP12" s="1"/>
-      <c r="LLT12" s="1"/>
-      <c r="LLX12" s="1"/>
-      <c r="LMB12" s="1"/>
-      <c r="LMF12" s="1"/>
-      <c r="LMJ12" s="1"/>
-      <c r="LMN12" s="1"/>
-      <c r="LMR12" s="1"/>
-      <c r="LMV12" s="1"/>
-      <c r="LMZ12" s="1"/>
-      <c r="LND12" s="1"/>
-      <c r="LNH12" s="1"/>
-      <c r="LNL12" s="1"/>
-      <c r="LNP12" s="1"/>
-      <c r="LNT12" s="1"/>
-      <c r="LNX12" s="1"/>
-      <c r="LOB12" s="1"/>
-      <c r="LOF12" s="1"/>
-      <c r="LOJ12" s="1"/>
-      <c r="LON12" s="1"/>
-      <c r="LOR12" s="1"/>
-      <c r="LOV12" s="1"/>
-      <c r="LOZ12" s="1"/>
-      <c r="LPD12" s="1"/>
-      <c r="LPH12" s="1"/>
-      <c r="LPL12" s="1"/>
-      <c r="LPP12" s="1"/>
-      <c r="LPT12" s="1"/>
-      <c r="LPX12" s="1"/>
-      <c r="LQB12" s="1"/>
-      <c r="LQF12" s="1"/>
-      <c r="LQJ12" s="1"/>
-      <c r="LQN12" s="1"/>
-      <c r="LQR12" s="1"/>
-      <c r="LQV12" s="1"/>
-      <c r="LQZ12" s="1"/>
-      <c r="LRD12" s="1"/>
-      <c r="LRH12" s="1"/>
-      <c r="LRL12" s="1"/>
-      <c r="LRP12" s="1"/>
-      <c r="LRT12" s="1"/>
-      <c r="LRX12" s="1"/>
-      <c r="LSB12" s="1"/>
-      <c r="LSF12" s="1"/>
-      <c r="LSJ12" s="1"/>
-      <c r="LSN12" s="1"/>
-      <c r="LSR12" s="1"/>
-      <c r="LSV12" s="1"/>
-      <c r="LSZ12" s="1"/>
-      <c r="LTD12" s="1"/>
-      <c r="LTH12" s="1"/>
-      <c r="LTL12" s="1"/>
-      <c r="LTP12" s="1"/>
-      <c r="LTT12" s="1"/>
-      <c r="LTX12" s="1"/>
-      <c r="LUB12" s="1"/>
-      <c r="LUF12" s="1"/>
-      <c r="LUJ12" s="1"/>
-      <c r="LUN12" s="1"/>
-      <c r="LUR12" s="1"/>
-      <c r="LUV12" s="1"/>
-      <c r="LUZ12" s="1"/>
-      <c r="LVD12" s="1"/>
-      <c r="LVH12" s="1"/>
-      <c r="LVL12" s="1"/>
-      <c r="LVP12" s="1"/>
-      <c r="LVT12" s="1"/>
-      <c r="LVX12" s="1"/>
-      <c r="LWB12" s="1"/>
-      <c r="LWF12" s="1"/>
-      <c r="LWJ12" s="1"/>
-      <c r="LWN12" s="1"/>
-      <c r="LWR12" s="1"/>
-      <c r="LWV12" s="1"/>
-      <c r="LWZ12" s="1"/>
-      <c r="LXD12" s="1"/>
-      <c r="LXH12" s="1"/>
-      <c r="LXL12" s="1"/>
-      <c r="LXP12" s="1"/>
-      <c r="LXT12" s="1"/>
-      <c r="LXX12" s="1"/>
-      <c r="LYB12" s="1"/>
-      <c r="LYF12" s="1"/>
-      <c r="LYJ12" s="1"/>
-      <c r="LYN12" s="1"/>
-      <c r="LYR12" s="1"/>
-      <c r="LYV12" s="1"/>
-      <c r="LYZ12" s="1"/>
-      <c r="LZD12" s="1"/>
-      <c r="LZH12" s="1"/>
-      <c r="LZL12" s="1"/>
-      <c r="LZP12" s="1"/>
-      <c r="LZT12" s="1"/>
-      <c r="LZX12" s="1"/>
-      <c r="MAB12" s="1"/>
-      <c r="MAF12" s="1"/>
-      <c r="MAJ12" s="1"/>
-      <c r="MAN12" s="1"/>
-      <c r="MAR12" s="1"/>
-      <c r="MAV12" s="1"/>
-      <c r="MAZ12" s="1"/>
-      <c r="MBD12" s="1"/>
-      <c r="MBH12" s="1"/>
-      <c r="MBL12" s="1"/>
-      <c r="MBP12" s="1"/>
-      <c r="MBT12" s="1"/>
-      <c r="MBX12" s="1"/>
-      <c r="MCB12" s="1"/>
-      <c r="MCF12" s="1"/>
-      <c r="MCJ12" s="1"/>
-      <c r="MCN12" s="1"/>
-      <c r="MCR12" s="1"/>
-      <c r="MCV12" s="1"/>
-      <c r="MCZ12" s="1"/>
-      <c r="MDD12" s="1"/>
-      <c r="MDH12" s="1"/>
-      <c r="MDL12" s="1"/>
-      <c r="MDP12" s="1"/>
-      <c r="MDT12" s="1"/>
-      <c r="MDX12" s="1"/>
-      <c r="MEB12" s="1"/>
-      <c r="MEF12" s="1"/>
-      <c r="MEJ12" s="1"/>
-      <c r="MEN12" s="1"/>
-      <c r="MER12" s="1"/>
-      <c r="MEV12" s="1"/>
-      <c r="MEZ12" s="1"/>
-      <c r="MFD12" s="1"/>
-      <c r="MFH12" s="1"/>
-      <c r="MFL12" s="1"/>
-      <c r="MFP12" s="1"/>
-      <c r="MFT12" s="1"/>
-      <c r="MFX12" s="1"/>
-      <c r="MGB12" s="1"/>
-      <c r="MGF12" s="1"/>
-      <c r="MGJ12" s="1"/>
-      <c r="MGN12" s="1"/>
-      <c r="MGR12" s="1"/>
-      <c r="MGV12" s="1"/>
-      <c r="MGZ12" s="1"/>
-      <c r="MHD12" s="1"/>
-      <c r="MHH12" s="1"/>
-      <c r="MHL12" s="1"/>
-      <c r="MHP12" s="1"/>
-      <c r="MHT12" s="1"/>
-      <c r="MHX12" s="1"/>
-      <c r="MIB12" s="1"/>
-      <c r="MIF12" s="1"/>
-      <c r="MIJ12" s="1"/>
-      <c r="MIN12" s="1"/>
-      <c r="MIR12" s="1"/>
-      <c r="MIV12" s="1"/>
-      <c r="MIZ12" s="1"/>
-      <c r="MJD12" s="1"/>
-      <c r="MJH12" s="1"/>
-      <c r="MJL12" s="1"/>
-      <c r="MJP12" s="1"/>
-      <c r="MJT12" s="1"/>
-      <c r="MJX12" s="1"/>
-      <c r="MKB12" s="1"/>
-      <c r="MKF12" s="1"/>
-      <c r="MKJ12" s="1"/>
-      <c r="MKN12" s="1"/>
-      <c r="MKR12" s="1"/>
-      <c r="MKV12" s="1"/>
-      <c r="MKZ12" s="1"/>
-      <c r="MLD12" s="1"/>
-      <c r="MLH12" s="1"/>
-      <c r="MLL12" s="1"/>
-      <c r="MLP12" s="1"/>
-      <c r="MLT12" s="1"/>
-      <c r="MLX12" s="1"/>
-      <c r="MMB12" s="1"/>
-      <c r="MMF12" s="1"/>
-      <c r="MMJ12" s="1"/>
-      <c r="MMN12" s="1"/>
-      <c r="MMR12" s="1"/>
-      <c r="MMV12" s="1"/>
-      <c r="MMZ12" s="1"/>
-      <c r="MND12" s="1"/>
-      <c r="MNH12" s="1"/>
-      <c r="MNL12" s="1"/>
-      <c r="MNP12" s="1"/>
-      <c r="MNT12" s="1"/>
-      <c r="MNX12" s="1"/>
-      <c r="MOB12" s="1"/>
-      <c r="MOF12" s="1"/>
-      <c r="MOJ12" s="1"/>
-      <c r="MON12" s="1"/>
-      <c r="MOR12" s="1"/>
-      <c r="MOV12" s="1"/>
-      <c r="MOZ12" s="1"/>
-      <c r="MPD12" s="1"/>
-      <c r="MPH12" s="1"/>
-      <c r="MPL12" s="1"/>
-      <c r="MPP12" s="1"/>
-      <c r="MPT12" s="1"/>
-      <c r="MPX12" s="1"/>
-      <c r="MQB12" s="1"/>
-      <c r="MQF12" s="1"/>
-      <c r="MQJ12" s="1"/>
-      <c r="MQN12" s="1"/>
-      <c r="MQR12" s="1"/>
-      <c r="MQV12" s="1"/>
-      <c r="MQZ12" s="1"/>
-      <c r="MRD12" s="1"/>
-      <c r="MRH12" s="1"/>
-      <c r="MRL12" s="1"/>
-      <c r="MRP12" s="1"/>
-      <c r="MRT12" s="1"/>
-      <c r="MRX12" s="1"/>
-      <c r="MSB12" s="1"/>
-      <c r="MSF12" s="1"/>
-      <c r="MSJ12" s="1"/>
-      <c r="MSN12" s="1"/>
-      <c r="MSR12" s="1"/>
-      <c r="MSV12" s="1"/>
-      <c r="MSZ12" s="1"/>
-      <c r="MTD12" s="1"/>
-      <c r="MTH12" s="1"/>
-      <c r="MTL12" s="1"/>
-      <c r="MTP12" s="1"/>
-      <c r="MTT12" s="1"/>
-      <c r="MTX12" s="1"/>
-      <c r="MUB12" s="1"/>
-      <c r="MUF12" s="1"/>
-      <c r="MUJ12" s="1"/>
-      <c r="MUN12" s="1"/>
-      <c r="MUR12" s="1"/>
-      <c r="MUV12" s="1"/>
-      <c r="MUZ12" s="1"/>
-      <c r="MVD12" s="1"/>
-      <c r="MVH12" s="1"/>
-      <c r="MVL12" s="1"/>
-      <c r="MVP12" s="1"/>
-      <c r="MVT12" s="1"/>
-      <c r="MVX12" s="1"/>
-      <c r="MWB12" s="1"/>
-      <c r="MWF12" s="1"/>
-      <c r="MWJ12" s="1"/>
-      <c r="MWN12" s="1"/>
-      <c r="MWR12" s="1"/>
-      <c r="MWV12" s="1"/>
-      <c r="MWZ12" s="1"/>
-      <c r="MXD12" s="1"/>
-      <c r="MXH12" s="1"/>
-      <c r="MXL12" s="1"/>
-      <c r="MXP12" s="1"/>
-      <c r="MXT12" s="1"/>
-      <c r="MXX12" s="1"/>
-      <c r="MYB12" s="1"/>
-      <c r="MYF12" s="1"/>
-      <c r="MYJ12" s="1"/>
-      <c r="MYN12" s="1"/>
-      <c r="MYR12" s="1"/>
-      <c r="MYV12" s="1"/>
-      <c r="MYZ12" s="1"/>
-      <c r="MZD12" s="1"/>
-      <c r="MZH12" s="1"/>
-      <c r="MZL12" s="1"/>
-      <c r="MZP12" s="1"/>
-      <c r="MZT12" s="1"/>
-      <c r="MZX12" s="1"/>
-      <c r="NAB12" s="1"/>
-      <c r="NAF12" s="1"/>
-      <c r="NAJ12" s="1"/>
-      <c r="NAN12" s="1"/>
-      <c r="NAR12" s="1"/>
-      <c r="NAV12" s="1"/>
-      <c r="NAZ12" s="1"/>
-      <c r="NBD12" s="1"/>
-      <c r="NBH12" s="1"/>
-      <c r="NBL12" s="1"/>
-      <c r="NBP12" s="1"/>
-      <c r="NBT12" s="1"/>
-      <c r="NBX12" s="1"/>
-      <c r="NCB12" s="1"/>
-      <c r="NCF12" s="1"/>
-      <c r="NCJ12" s="1"/>
-      <c r="NCN12" s="1"/>
-      <c r="NCR12" s="1"/>
-      <c r="NCV12" s="1"/>
-      <c r="NCZ12" s="1"/>
-      <c r="NDD12" s="1"/>
-      <c r="NDH12" s="1"/>
-      <c r="NDL12" s="1"/>
-      <c r="NDP12" s="1"/>
-      <c r="NDT12" s="1"/>
-      <c r="NDX12" s="1"/>
-      <c r="NEB12" s="1"/>
-      <c r="NEF12" s="1"/>
-      <c r="NEJ12" s="1"/>
-      <c r="NEN12" s="1"/>
-      <c r="NER12" s="1"/>
-      <c r="NEV12" s="1"/>
-      <c r="NEZ12" s="1"/>
-      <c r="NFD12" s="1"/>
-      <c r="NFH12" s="1"/>
-      <c r="NFL12" s="1"/>
-      <c r="NFP12" s="1"/>
-      <c r="NFT12" s="1"/>
-      <c r="NFX12" s="1"/>
-      <c r="NGB12" s="1"/>
-      <c r="NGF12" s="1"/>
-      <c r="NGJ12" s="1"/>
-      <c r="NGN12" s="1"/>
-      <c r="NGR12" s="1"/>
-      <c r="NGV12" s="1"/>
-      <c r="NGZ12" s="1"/>
-      <c r="NHD12" s="1"/>
-      <c r="NHH12" s="1"/>
-      <c r="NHL12" s="1"/>
-      <c r="NHP12" s="1"/>
-      <c r="NHT12" s="1"/>
-      <c r="NHX12" s="1"/>
-      <c r="NIB12" s="1"/>
-      <c r="NIF12" s="1"/>
-      <c r="NIJ12" s="1"/>
-      <c r="NIN12" s="1"/>
-      <c r="NIR12" s="1"/>
-      <c r="NIV12" s="1"/>
-      <c r="NIZ12" s="1"/>
-      <c r="NJD12" s="1"/>
-      <c r="NJH12" s="1"/>
-      <c r="NJL12" s="1"/>
-      <c r="NJP12" s="1"/>
-      <c r="NJT12" s="1"/>
-      <c r="NJX12" s="1"/>
-      <c r="NKB12" s="1"/>
-      <c r="NKF12" s="1"/>
-      <c r="NKJ12" s="1"/>
-      <c r="NKN12" s="1"/>
-      <c r="NKR12" s="1"/>
-      <c r="NKV12" s="1"/>
-      <c r="NKZ12" s="1"/>
-      <c r="NLD12" s="1"/>
-      <c r="NLH12" s="1"/>
-      <c r="NLL12" s="1"/>
-      <c r="NLP12" s="1"/>
-      <c r="NLT12" s="1"/>
-      <c r="NLX12" s="1"/>
-      <c r="NMB12" s="1"/>
-      <c r="NMF12" s="1"/>
-      <c r="NMJ12" s="1"/>
-      <c r="NMN12" s="1"/>
-      <c r="NMR12" s="1"/>
-      <c r="NMV12" s="1"/>
-      <c r="NMZ12" s="1"/>
-      <c r="NND12" s="1"/>
-      <c r="NNH12" s="1"/>
-      <c r="NNL12" s="1"/>
-      <c r="NNP12" s="1"/>
-      <c r="NNT12" s="1"/>
-      <c r="NNX12" s="1"/>
-      <c r="NOB12" s="1"/>
-      <c r="NOF12" s="1"/>
-      <c r="NOJ12" s="1"/>
-      <c r="NON12" s="1"/>
-      <c r="NOR12" s="1"/>
-      <c r="NOV12" s="1"/>
-      <c r="NOZ12" s="1"/>
-      <c r="NPD12" s="1"/>
-      <c r="NPH12" s="1"/>
-      <c r="NPL12" s="1"/>
-      <c r="NPP12" s="1"/>
-      <c r="NPT12" s="1"/>
-      <c r="NPX12" s="1"/>
-      <c r="NQB12" s="1"/>
-      <c r="NQF12" s="1"/>
-      <c r="NQJ12" s="1"/>
-      <c r="NQN12" s="1"/>
-      <c r="NQR12" s="1"/>
-      <c r="NQV12" s="1"/>
-      <c r="NQZ12" s="1"/>
-      <c r="NRD12" s="1"/>
-      <c r="NRH12" s="1"/>
-      <c r="NRL12" s="1"/>
-      <c r="NRP12" s="1"/>
-      <c r="NRT12" s="1"/>
-      <c r="NRX12" s="1"/>
-      <c r="NSB12" s="1"/>
-      <c r="NSF12" s="1"/>
-      <c r="NSJ12" s="1"/>
-      <c r="NSN12" s="1"/>
-      <c r="NSR12" s="1"/>
-      <c r="NSV12" s="1"/>
-      <c r="NSZ12" s="1"/>
-      <c r="NTD12" s="1"/>
-      <c r="NTH12" s="1"/>
-      <c r="NTL12" s="1"/>
-      <c r="NTP12" s="1"/>
-      <c r="NTT12" s="1"/>
-      <c r="NTX12" s="1"/>
-      <c r="NUB12" s="1"/>
-      <c r="NUF12" s="1"/>
-      <c r="NUJ12" s="1"/>
-      <c r="NUN12" s="1"/>
-      <c r="NUR12" s="1"/>
-      <c r="NUV12" s="1"/>
-      <c r="NUZ12" s="1"/>
-      <c r="NVD12" s="1"/>
-      <c r="NVH12" s="1"/>
-      <c r="NVL12" s="1"/>
-      <c r="NVP12" s="1"/>
-      <c r="NVT12" s="1"/>
-      <c r="NVX12" s="1"/>
-      <c r="NWB12" s="1"/>
-      <c r="NWF12" s="1"/>
-      <c r="NWJ12" s="1"/>
-      <c r="NWN12" s="1"/>
-      <c r="NWR12" s="1"/>
-      <c r="NWV12" s="1"/>
-      <c r="NWZ12" s="1"/>
-      <c r="NXD12" s="1"/>
-      <c r="NXH12" s="1"/>
-      <c r="NXL12" s="1"/>
-      <c r="NXP12" s="1"/>
-      <c r="NXT12" s="1"/>
-      <c r="NXX12" s="1"/>
-      <c r="NYB12" s="1"/>
-      <c r="NYF12" s="1"/>
-      <c r="NYJ12" s="1"/>
-      <c r="NYN12" s="1"/>
-      <c r="NYR12" s="1"/>
-      <c r="NYV12" s="1"/>
-      <c r="NYZ12" s="1"/>
-      <c r="NZD12" s="1"/>
-      <c r="NZH12" s="1"/>
-      <c r="NZL12" s="1"/>
-      <c r="NZP12" s="1"/>
-      <c r="NZT12" s="1"/>
-      <c r="NZX12" s="1"/>
-      <c r="OAB12" s="1"/>
-      <c r="OAF12" s="1"/>
-      <c r="OAJ12" s="1"/>
-      <c r="OAN12" s="1"/>
-      <c r="OAR12" s="1"/>
-      <c r="OAV12" s="1"/>
-      <c r="OAZ12" s="1"/>
-      <c r="OBD12" s="1"/>
-      <c r="OBH12" s="1"/>
-      <c r="OBL12" s="1"/>
-      <c r="OBP12" s="1"/>
-      <c r="OBT12" s="1"/>
-      <c r="OBX12" s="1"/>
-      <c r="OCB12" s="1"/>
-      <c r="OCF12" s="1"/>
-      <c r="OCJ12" s="1"/>
-      <c r="OCN12" s="1"/>
-      <c r="OCR12" s="1"/>
-      <c r="OCV12" s="1"/>
-      <c r="OCZ12" s="1"/>
-      <c r="ODD12" s="1"/>
-      <c r="ODH12" s="1"/>
-      <c r="ODL12" s="1"/>
-      <c r="ODP12" s="1"/>
-      <c r="ODT12" s="1"/>
-      <c r="ODX12" s="1"/>
-      <c r="OEB12" s="1"/>
-      <c r="OEF12" s="1"/>
-      <c r="OEJ12" s="1"/>
-      <c r="OEN12" s="1"/>
-      <c r="OER12" s="1"/>
-      <c r="OEV12" s="1"/>
-      <c r="OEZ12" s="1"/>
-      <c r="OFD12" s="1"/>
-      <c r="OFH12" s="1"/>
-      <c r="OFL12" s="1"/>
-      <c r="OFP12" s="1"/>
-      <c r="OFT12" s="1"/>
-      <c r="OFX12" s="1"/>
-      <c r="OGB12" s="1"/>
-      <c r="OGF12" s="1"/>
-      <c r="OGJ12" s="1"/>
-      <c r="OGN12" s="1"/>
-      <c r="OGR12" s="1"/>
-      <c r="OGV12" s="1"/>
-      <c r="OGZ12" s="1"/>
-      <c r="OHD12" s="1"/>
-      <c r="OHH12" s="1"/>
-      <c r="OHL12" s="1"/>
-      <c r="OHP12" s="1"/>
-      <c r="OHT12" s="1"/>
-      <c r="OHX12" s="1"/>
-      <c r="OIB12" s="1"/>
-      <c r="OIF12" s="1"/>
-      <c r="OIJ12" s="1"/>
-      <c r="OIN12" s="1"/>
-      <c r="OIR12" s="1"/>
-      <c r="OIV12" s="1"/>
-      <c r="OIZ12" s="1"/>
-      <c r="OJD12" s="1"/>
-      <c r="OJH12" s="1"/>
-      <c r="OJL12" s="1"/>
-      <c r="OJP12" s="1"/>
-      <c r="OJT12" s="1"/>
-      <c r="OJX12" s="1"/>
-      <c r="OKB12" s="1"/>
-      <c r="OKF12" s="1"/>
-      <c r="OKJ12" s="1"/>
-      <c r="OKN12" s="1"/>
-      <c r="OKR12" s="1"/>
-      <c r="OKV12" s="1"/>
-      <c r="OKZ12" s="1"/>
-      <c r="OLD12" s="1"/>
-      <c r="OLH12" s="1"/>
-      <c r="OLL12" s="1"/>
-      <c r="OLP12" s="1"/>
-      <c r="OLT12" s="1"/>
-      <c r="OLX12" s="1"/>
-      <c r="OMB12" s="1"/>
-      <c r="OMF12" s="1"/>
-      <c r="OMJ12" s="1"/>
-      <c r="OMN12" s="1"/>
-      <c r="OMR12" s="1"/>
-      <c r="OMV12" s="1"/>
-      <c r="OMZ12" s="1"/>
-      <c r="OND12" s="1"/>
-      <c r="ONH12" s="1"/>
-      <c r="ONL12" s="1"/>
-      <c r="ONP12" s="1"/>
-      <c r="ONT12" s="1"/>
-      <c r="ONX12" s="1"/>
-      <c r="OOB12" s="1"/>
-      <c r="OOF12" s="1"/>
-      <c r="OOJ12" s="1"/>
-      <c r="OON12" s="1"/>
-      <c r="OOR12" s="1"/>
-      <c r="OOV12" s="1"/>
-      <c r="OOZ12" s="1"/>
-      <c r="OPD12" s="1"/>
-      <c r="OPH12" s="1"/>
-      <c r="OPL12" s="1"/>
-      <c r="OPP12" s="1"/>
-      <c r="OPT12" s="1"/>
-      <c r="OPX12" s="1"/>
-      <c r="OQB12" s="1"/>
-      <c r="OQF12" s="1"/>
-      <c r="OQJ12" s="1"/>
-      <c r="OQN12" s="1"/>
-      <c r="OQR12" s="1"/>
-      <c r="OQV12" s="1"/>
-      <c r="OQZ12" s="1"/>
-      <c r="ORD12" s="1"/>
-      <c r="ORH12" s="1"/>
-      <c r="ORL12" s="1"/>
-      <c r="ORP12" s="1"/>
-      <c r="ORT12" s="1"/>
-      <c r="ORX12" s="1"/>
-      <c r="OSB12" s="1"/>
-      <c r="OSF12" s="1"/>
-      <c r="OSJ12" s="1"/>
-      <c r="OSN12" s="1"/>
-      <c r="OSR12" s="1"/>
-      <c r="OSV12" s="1"/>
-      <c r="OSZ12" s="1"/>
-      <c r="OTD12" s="1"/>
-      <c r="OTH12" s="1"/>
-      <c r="OTL12" s="1"/>
-      <c r="OTP12" s="1"/>
-      <c r="OTT12" s="1"/>
-      <c r="OTX12" s="1"/>
-      <c r="OUB12" s="1"/>
-      <c r="OUF12" s="1"/>
-      <c r="OUJ12" s="1"/>
-      <c r="OUN12" s="1"/>
-      <c r="OUR12" s="1"/>
-      <c r="OUV12" s="1"/>
-      <c r="OUZ12" s="1"/>
-      <c r="OVD12" s="1"/>
-      <c r="OVH12" s="1"/>
-      <c r="OVL12" s="1"/>
-      <c r="OVP12" s="1"/>
-      <c r="OVT12" s="1"/>
-      <c r="OVX12" s="1"/>
-      <c r="OWB12" s="1"/>
-      <c r="OWF12" s="1"/>
-      <c r="OWJ12" s="1"/>
-      <c r="OWN12" s="1"/>
-      <c r="OWR12" s="1"/>
-      <c r="OWV12" s="1"/>
-      <c r="OWZ12" s="1"/>
-      <c r="OXD12" s="1"/>
-      <c r="OXH12" s="1"/>
-      <c r="OXL12" s="1"/>
-      <c r="OXP12" s="1"/>
-      <c r="OXT12" s="1"/>
-      <c r="OXX12" s="1"/>
-      <c r="OYB12" s="1"/>
-      <c r="OYF12" s="1"/>
-      <c r="OYJ12" s="1"/>
-      <c r="OYN12" s="1"/>
-      <c r="OYR12" s="1"/>
-      <c r="OYV12" s="1"/>
-      <c r="OYZ12" s="1"/>
-      <c r="OZD12" s="1"/>
-      <c r="OZH12" s="1"/>
-      <c r="OZL12" s="1"/>
-      <c r="OZP12" s="1"/>
-      <c r="OZT12" s="1"/>
-      <c r="OZX12" s="1"/>
-      <c r="PAB12" s="1"/>
-      <c r="PAF12" s="1"/>
-      <c r="PAJ12" s="1"/>
-      <c r="PAN12" s="1"/>
-      <c r="PAR12" s="1"/>
-      <c r="PAV12" s="1"/>
-      <c r="PAZ12" s="1"/>
-      <c r="PBD12" s="1"/>
-      <c r="PBH12" s="1"/>
-      <c r="PBL12" s="1"/>
-      <c r="PBP12" s="1"/>
-      <c r="PBT12" s="1"/>
-      <c r="PBX12" s="1"/>
-      <c r="PCB12" s="1"/>
-      <c r="PCF12" s="1"/>
-      <c r="PCJ12" s="1"/>
-      <c r="PCN12" s="1"/>
-      <c r="PCR12" s="1"/>
-      <c r="PCV12" s="1"/>
-      <c r="PCZ12" s="1"/>
-      <c r="PDD12" s="1"/>
-      <c r="PDH12" s="1"/>
-      <c r="PDL12" s="1"/>
-      <c r="PDP12" s="1"/>
-      <c r="PDT12" s="1"/>
-      <c r="PDX12" s="1"/>
-      <c r="PEB12" s="1"/>
-      <c r="PEF12" s="1"/>
-      <c r="PEJ12" s="1"/>
-      <c r="PEN12" s="1"/>
-      <c r="PER12" s="1"/>
-      <c r="PEV12" s="1"/>
-      <c r="PEZ12" s="1"/>
-      <c r="PFD12" s="1"/>
-      <c r="PFH12" s="1"/>
-      <c r="PFL12" s="1"/>
-      <c r="PFP12" s="1"/>
-      <c r="PFT12" s="1"/>
-      <c r="PFX12" s="1"/>
-      <c r="PGB12" s="1"/>
-      <c r="PGF12" s="1"/>
-      <c r="PGJ12" s="1"/>
-      <c r="PGN12" s="1"/>
-      <c r="PGR12" s="1"/>
-      <c r="PGV12" s="1"/>
-      <c r="PGZ12" s="1"/>
-      <c r="PHD12" s="1"/>
-      <c r="PHH12" s="1"/>
-      <c r="PHL12" s="1"/>
-      <c r="PHP12" s="1"/>
-      <c r="PHT12" s="1"/>
-      <c r="PHX12" s="1"/>
-      <c r="PIB12" s="1"/>
-      <c r="PIF12" s="1"/>
-      <c r="PIJ12" s="1"/>
-      <c r="PIN12" s="1"/>
-      <c r="PIR12" s="1"/>
-      <c r="PIV12" s="1"/>
-      <c r="PIZ12" s="1"/>
-      <c r="PJD12" s="1"/>
-      <c r="PJH12" s="1"/>
-      <c r="PJL12" s="1"/>
-      <c r="PJP12" s="1"/>
-      <c r="PJT12" s="1"/>
-      <c r="PJX12" s="1"/>
-      <c r="PKB12" s="1"/>
-      <c r="PKF12" s="1"/>
-      <c r="PKJ12" s="1"/>
-      <c r="PKN12" s="1"/>
-      <c r="PKR12" s="1"/>
-      <c r="PKV12" s="1"/>
-      <c r="PKZ12" s="1"/>
-      <c r="PLD12" s="1"/>
-      <c r="PLH12" s="1"/>
-      <c r="PLL12" s="1"/>
-      <c r="PLP12" s="1"/>
-      <c r="PLT12" s="1"/>
-      <c r="PLX12" s="1"/>
-      <c r="PMB12" s="1"/>
-      <c r="PMF12" s="1"/>
-      <c r="PMJ12" s="1"/>
-      <c r="PMN12" s="1"/>
-      <c r="PMR12" s="1"/>
-      <c r="PMV12" s="1"/>
-      <c r="PMZ12" s="1"/>
-      <c r="PND12" s="1"/>
-      <c r="PNH12" s="1"/>
-      <c r="PNL12" s="1"/>
-      <c r="PNP12" s="1"/>
-      <c r="PNT12" s="1"/>
-      <c r="PNX12" s="1"/>
-      <c r="POB12" s="1"/>
-      <c r="POF12" s="1"/>
-      <c r="POJ12" s="1"/>
-      <c r="PON12" s="1"/>
-      <c r="POR12" s="1"/>
-      <c r="POV12" s="1"/>
-      <c r="POZ12" s="1"/>
-      <c r="PPD12" s="1"/>
-      <c r="PPH12" s="1"/>
-      <c r="PPL12" s="1"/>
-      <c r="PPP12" s="1"/>
-      <c r="PPT12" s="1"/>
-      <c r="PPX12" s="1"/>
-      <c r="PQB12" s="1"/>
-      <c r="PQF12" s="1"/>
-      <c r="PQJ12" s="1"/>
-      <c r="PQN12" s="1"/>
-      <c r="PQR12" s="1"/>
-      <c r="PQV12" s="1"/>
-      <c r="PQZ12" s="1"/>
-      <c r="PRD12" s="1"/>
-      <c r="PRH12" s="1"/>
-      <c r="PRL12" s="1"/>
-      <c r="PRP12" s="1"/>
-      <c r="PRT12" s="1"/>
-      <c r="PRX12" s="1"/>
-      <c r="PSB12" s="1"/>
-      <c r="PSF12" s="1"/>
-      <c r="PSJ12" s="1"/>
-      <c r="PSN12" s="1"/>
-      <c r="PSR12" s="1"/>
-      <c r="PSV12" s="1"/>
-      <c r="PSZ12" s="1"/>
-      <c r="PTD12" s="1"/>
-      <c r="PTH12" s="1"/>
-      <c r="PTL12" s="1"/>
-      <c r="PTP12" s="1"/>
-      <c r="PTT12" s="1"/>
-      <c r="PTX12" s="1"/>
-      <c r="PUB12" s="1"/>
-      <c r="PUF12" s="1"/>
-      <c r="PUJ12" s="1"/>
-      <c r="PUN12" s="1"/>
-      <c r="PUR12" s="1"/>
-      <c r="PUV12" s="1"/>
-      <c r="PUZ12" s="1"/>
-      <c r="PVD12" s="1"/>
-      <c r="PVH12" s="1"/>
-      <c r="PVL12" s="1"/>
-      <c r="PVP12" s="1"/>
-      <c r="PVT12" s="1"/>
-      <c r="PVX12" s="1"/>
-      <c r="PWB12" s="1"/>
-      <c r="PWF12" s="1"/>
-      <c r="PWJ12" s="1"/>
-      <c r="PWN12" s="1"/>
-      <c r="PWR12" s="1"/>
-      <c r="PWV12" s="1"/>
-      <c r="PWZ12" s="1"/>
-      <c r="PXD12" s="1"/>
-      <c r="PXH12" s="1"/>
-      <c r="PXL12" s="1"/>
-      <c r="PXP12" s="1"/>
-      <c r="PXT12" s="1"/>
-      <c r="PXX12" s="1"/>
-      <c r="PYB12" s="1"/>
-      <c r="PYF12" s="1"/>
-      <c r="PYJ12" s="1"/>
-      <c r="PYN12" s="1"/>
-      <c r="PYR12" s="1"/>
-      <c r="PYV12" s="1"/>
-      <c r="PYZ12" s="1"/>
-      <c r="PZD12" s="1"/>
-      <c r="PZH12" s="1"/>
-      <c r="PZL12" s="1"/>
-      <c r="PZP12" s="1"/>
-      <c r="PZT12" s="1"/>
-      <c r="PZX12" s="1"/>
-      <c r="QAB12" s="1"/>
-      <c r="QAF12" s="1"/>
-      <c r="QAJ12" s="1"/>
-      <c r="QAN12" s="1"/>
-      <c r="QAR12" s="1"/>
-      <c r="QAV12" s="1"/>
-      <c r="QAZ12" s="1"/>
-      <c r="QBD12" s="1"/>
-      <c r="QBH12" s="1"/>
-      <c r="QBL12" s="1"/>
-      <c r="QBP12" s="1"/>
-      <c r="QBT12" s="1"/>
-      <c r="QBX12" s="1"/>
-      <c r="QCB12" s="1"/>
-      <c r="QCF12" s="1"/>
-      <c r="QCJ12" s="1"/>
-      <c r="QCN12" s="1"/>
-      <c r="QCR12" s="1"/>
-      <c r="QCV12" s="1"/>
-      <c r="QCZ12" s="1"/>
-      <c r="QDD12" s="1"/>
-      <c r="QDH12" s="1"/>
-      <c r="QDL12" s="1"/>
-      <c r="QDP12" s="1"/>
-      <c r="QDT12" s="1"/>
-      <c r="QDX12" s="1"/>
-      <c r="QEB12" s="1"/>
-      <c r="QEF12" s="1"/>
-      <c r="QEJ12" s="1"/>
-      <c r="QEN12" s="1"/>
-      <c r="QER12" s="1"/>
-      <c r="QEV12" s="1"/>
-      <c r="QEZ12" s="1"/>
-      <c r="QFD12" s="1"/>
-      <c r="QFH12" s="1"/>
-      <c r="QFL12" s="1"/>
-      <c r="QFP12" s="1"/>
-      <c r="QFT12" s="1"/>
-      <c r="QFX12" s="1"/>
-      <c r="QGB12" s="1"/>
-      <c r="QGF12" s="1"/>
-      <c r="QGJ12" s="1"/>
-      <c r="QGN12" s="1"/>
-      <c r="QGR12" s="1"/>
-      <c r="QGV12" s="1"/>
-      <c r="QGZ12" s="1"/>
-      <c r="QHD12" s="1"/>
-      <c r="QHH12" s="1"/>
-      <c r="QHL12" s="1"/>
-      <c r="QHP12" s="1"/>
-      <c r="QHT12" s="1"/>
-      <c r="QHX12" s="1"/>
-      <c r="QIB12" s="1"/>
-      <c r="QIF12" s="1"/>
-      <c r="QIJ12" s="1"/>
-      <c r="QIN12" s="1"/>
-      <c r="QIR12" s="1"/>
-      <c r="QIV12" s="1"/>
-      <c r="QIZ12" s="1"/>
-      <c r="QJD12" s="1"/>
-      <c r="QJH12" s="1"/>
-      <c r="QJL12" s="1"/>
-      <c r="QJP12" s="1"/>
-      <c r="QJT12" s="1"/>
-      <c r="QJX12" s="1"/>
-      <c r="QKB12" s="1"/>
-      <c r="QKF12" s="1"/>
-      <c r="QKJ12" s="1"/>
-      <c r="QKN12" s="1"/>
-      <c r="QKR12" s="1"/>
-      <c r="QKV12" s="1"/>
-      <c r="QKZ12" s="1"/>
-      <c r="QLD12" s="1"/>
-      <c r="QLH12" s="1"/>
-      <c r="QLL12" s="1"/>
-      <c r="QLP12" s="1"/>
-      <c r="QLT12" s="1"/>
-      <c r="QLX12" s="1"/>
-      <c r="QMB12" s="1"/>
-      <c r="QMF12" s="1"/>
-      <c r="QMJ12" s="1"/>
-      <c r="QMN12" s="1"/>
-      <c r="QMR12" s="1"/>
-      <c r="QMV12" s="1"/>
-      <c r="QMZ12" s="1"/>
-      <c r="QND12" s="1"/>
-      <c r="QNH12" s="1"/>
-      <c r="QNL12" s="1"/>
-      <c r="QNP12" s="1"/>
-      <c r="QNT12" s="1"/>
-      <c r="QNX12" s="1"/>
-      <c r="QOB12" s="1"/>
-      <c r="QOF12" s="1"/>
-      <c r="QOJ12" s="1"/>
-      <c r="QON12" s="1"/>
-      <c r="QOR12" s="1"/>
-      <c r="QOV12" s="1"/>
-      <c r="QOZ12" s="1"/>
-      <c r="QPD12" s="1"/>
-      <c r="QPH12" s="1"/>
-      <c r="QPL12" s="1"/>
-      <c r="QPP12" s="1"/>
-      <c r="QPT12" s="1"/>
-      <c r="QPX12" s="1"/>
-      <c r="QQB12" s="1"/>
-      <c r="QQF12" s="1"/>
-      <c r="QQJ12" s="1"/>
-      <c r="QQN12" s="1"/>
-      <c r="QQR12" s="1"/>
-      <c r="QQV12" s="1"/>
-      <c r="QQZ12" s="1"/>
-      <c r="QRD12" s="1"/>
-      <c r="QRH12" s="1"/>
-      <c r="QRL12" s="1"/>
-      <c r="QRP12" s="1"/>
-      <c r="QRT12" s="1"/>
-      <c r="QRX12" s="1"/>
-      <c r="QSB12" s="1"/>
-      <c r="QSF12" s="1"/>
-      <c r="QSJ12" s="1"/>
-      <c r="QSN12" s="1"/>
-      <c r="QSR12" s="1"/>
-      <c r="QSV12" s="1"/>
-      <c r="QSZ12" s="1"/>
-      <c r="QTD12" s="1"/>
-      <c r="QTH12" s="1"/>
-      <c r="QTL12" s="1"/>
-      <c r="QTP12" s="1"/>
-      <c r="QTT12" s="1"/>
-      <c r="QTX12" s="1"/>
-      <c r="QUB12" s="1"/>
-      <c r="QUF12" s="1"/>
-      <c r="QUJ12" s="1"/>
-      <c r="QUN12" s="1"/>
-      <c r="QUR12" s="1"/>
-      <c r="QUV12" s="1"/>
-      <c r="QUZ12" s="1"/>
-      <c r="QVD12" s="1"/>
-      <c r="QVH12" s="1"/>
-      <c r="QVL12" s="1"/>
-      <c r="QVP12" s="1"/>
-      <c r="QVT12" s="1"/>
-      <c r="QVX12" s="1"/>
-      <c r="QWB12" s="1"/>
-      <c r="QWF12" s="1"/>
-      <c r="QWJ12" s="1"/>
-      <c r="QWN12" s="1"/>
-      <c r="QWR12" s="1"/>
-      <c r="QWV12" s="1"/>
-      <c r="QWZ12" s="1"/>
-      <c r="QXD12" s="1"/>
-      <c r="QXH12" s="1"/>
-      <c r="QXL12" s="1"/>
-      <c r="QXP12" s="1"/>
-      <c r="QXT12" s="1"/>
-      <c r="QXX12" s="1"/>
-      <c r="QYB12" s="1"/>
-      <c r="QYF12" s="1"/>
-      <c r="QYJ12" s="1"/>
-      <c r="QYN12" s="1"/>
-      <c r="QYR12" s="1"/>
-      <c r="QYV12" s="1"/>
-      <c r="QYZ12" s="1"/>
-      <c r="QZD12" s="1"/>
-      <c r="QZH12" s="1"/>
-      <c r="QZL12" s="1"/>
-      <c r="QZP12" s="1"/>
-      <c r="QZT12" s="1"/>
-      <c r="QZX12" s="1"/>
-      <c r="RAB12" s="1"/>
-      <c r="RAF12" s="1"/>
-      <c r="RAJ12" s="1"/>
-      <c r="RAN12" s="1"/>
-      <c r="RAR12" s="1"/>
-      <c r="RAV12" s="1"/>
-      <c r="RAZ12" s="1"/>
-      <c r="RBD12" s="1"/>
-      <c r="RBH12" s="1"/>
-      <c r="RBL12" s="1"/>
-      <c r="RBP12" s="1"/>
-      <c r="RBT12" s="1"/>
-      <c r="RBX12" s="1"/>
-      <c r="RCB12" s="1"/>
-      <c r="RCF12" s="1"/>
-      <c r="RCJ12" s="1"/>
-      <c r="RCN12" s="1"/>
-      <c r="RCR12" s="1"/>
-      <c r="RCV12" s="1"/>
-      <c r="RCZ12" s="1"/>
-      <c r="RDD12" s="1"/>
-      <c r="RDH12" s="1"/>
-      <c r="RDL12" s="1"/>
-      <c r="RDP12" s="1"/>
-      <c r="RDT12" s="1"/>
-      <c r="RDX12" s="1"/>
-      <c r="REB12" s="1"/>
-      <c r="REF12" s="1"/>
-      <c r="REJ12" s="1"/>
-      <c r="REN12" s="1"/>
-      <c r="RER12" s="1"/>
-      <c r="REV12" s="1"/>
-      <c r="REZ12" s="1"/>
-      <c r="RFD12" s="1"/>
-      <c r="RFH12" s="1"/>
-      <c r="RFL12" s="1"/>
-      <c r="RFP12" s="1"/>
-      <c r="RFT12" s="1"/>
-      <c r="RFX12" s="1"/>
-      <c r="RGB12" s="1"/>
-      <c r="RGF12" s="1"/>
-      <c r="RGJ12" s="1"/>
-      <c r="RGN12" s="1"/>
-      <c r="RGR12" s="1"/>
-      <c r="RGV12" s="1"/>
-      <c r="RGZ12" s="1"/>
-      <c r="RHD12" s="1"/>
-      <c r="RHH12" s="1"/>
-      <c r="RHL12" s="1"/>
-      <c r="RHP12" s="1"/>
-      <c r="RHT12" s="1"/>
-      <c r="RHX12" s="1"/>
-      <c r="RIB12" s="1"/>
-      <c r="RIF12" s="1"/>
-      <c r="RIJ12" s="1"/>
-      <c r="RIN12" s="1"/>
-      <c r="RIR12" s="1"/>
-      <c r="RIV12" s="1"/>
-      <c r="RIZ12" s="1"/>
-      <c r="RJD12" s="1"/>
-      <c r="RJH12" s="1"/>
-      <c r="RJL12" s="1"/>
-      <c r="RJP12" s="1"/>
-      <c r="RJT12" s="1"/>
-      <c r="RJX12" s="1"/>
-      <c r="RKB12" s="1"/>
-      <c r="RKF12" s="1"/>
-      <c r="RKJ12" s="1"/>
-      <c r="RKN12" s="1"/>
-      <c r="RKR12" s="1"/>
-      <c r="RKV12" s="1"/>
-      <c r="RKZ12" s="1"/>
-      <c r="RLD12" s="1"/>
-      <c r="RLH12" s="1"/>
-      <c r="RLL12" s="1"/>
-      <c r="RLP12" s="1"/>
-      <c r="RLT12" s="1"/>
-      <c r="RLX12" s="1"/>
-      <c r="RMB12" s="1"/>
-      <c r="RMF12" s="1"/>
-      <c r="RMJ12" s="1"/>
-      <c r="RMN12" s="1"/>
-      <c r="RMR12" s="1"/>
-      <c r="RMV12" s="1"/>
-      <c r="RMZ12" s="1"/>
-      <c r="RND12" s="1"/>
-      <c r="RNH12" s="1"/>
-      <c r="RNL12" s="1"/>
-      <c r="RNP12" s="1"/>
-      <c r="RNT12" s="1"/>
-      <c r="RNX12" s="1"/>
-      <c r="ROB12" s="1"/>
-      <c r="ROF12" s="1"/>
-      <c r="ROJ12" s="1"/>
-      <c r="RON12" s="1"/>
-      <c r="ROR12" s="1"/>
-      <c r="ROV12" s="1"/>
-      <c r="ROZ12" s="1"/>
-      <c r="RPD12" s="1"/>
-      <c r="RPH12" s="1"/>
-      <c r="RPL12" s="1"/>
-      <c r="RPP12" s="1"/>
-      <c r="RPT12" s="1"/>
-      <c r="RPX12" s="1"/>
-      <c r="RQB12" s="1"/>
-      <c r="RQF12" s="1"/>
-      <c r="RQJ12" s="1"/>
-      <c r="RQN12" s="1"/>
-      <c r="RQR12" s="1"/>
-      <c r="RQV12" s="1"/>
-      <c r="RQZ12" s="1"/>
-      <c r="RRD12" s="1"/>
-      <c r="RRH12" s="1"/>
-      <c r="RRL12" s="1"/>
-      <c r="RRP12" s="1"/>
-      <c r="RRT12" s="1"/>
-      <c r="RRX12" s="1"/>
-      <c r="RSB12" s="1"/>
-      <c r="RSF12" s="1"/>
-      <c r="RSJ12" s="1"/>
-      <c r="RSN12" s="1"/>
-      <c r="RSR12" s="1"/>
-      <c r="RSV12" s="1"/>
-      <c r="RSZ12" s="1"/>
-      <c r="RTD12" s="1"/>
-      <c r="RTH12" s="1"/>
-      <c r="RTL12" s="1"/>
-      <c r="RTP12" s="1"/>
-      <c r="RTT12" s="1"/>
-      <c r="RTX12" s="1"/>
-      <c r="RUB12" s="1"/>
-      <c r="RUF12" s="1"/>
-      <c r="RUJ12" s="1"/>
-      <c r="RUN12" s="1"/>
-      <c r="RUR12" s="1"/>
-      <c r="RUV12" s="1"/>
-      <c r="RUZ12" s="1"/>
-      <c r="RVD12" s="1"/>
-      <c r="RVH12" s="1"/>
-      <c r="RVL12" s="1"/>
-      <c r="RVP12" s="1"/>
-      <c r="RVT12" s="1"/>
-      <c r="RVX12" s="1"/>
-      <c r="RWB12" s="1"/>
-      <c r="RWF12" s="1"/>
-      <c r="RWJ12" s="1"/>
-      <c r="RWN12" s="1"/>
-      <c r="RWR12" s="1"/>
-      <c r="RWV12" s="1"/>
-      <c r="RWZ12" s="1"/>
-      <c r="RXD12" s="1"/>
-      <c r="RXH12" s="1"/>
-      <c r="RXL12" s="1"/>
-      <c r="RXP12" s="1"/>
-      <c r="RXT12" s="1"/>
-      <c r="RXX12" s="1"/>
-      <c r="RYB12" s="1"/>
-      <c r="RYF12" s="1"/>
-      <c r="RYJ12" s="1"/>
-      <c r="RYN12" s="1"/>
-      <c r="RYR12" s="1"/>
-      <c r="RYV12" s="1"/>
-      <c r="RYZ12" s="1"/>
-      <c r="RZD12" s="1"/>
-      <c r="RZH12" s="1"/>
-      <c r="RZL12" s="1"/>
-      <c r="RZP12" s="1"/>
-      <c r="RZT12" s="1"/>
-      <c r="RZX12" s="1"/>
-      <c r="SAB12" s="1"/>
-      <c r="SAF12" s="1"/>
-      <c r="SAJ12" s="1"/>
-      <c r="SAN12" s="1"/>
-      <c r="SAR12" s="1"/>
-      <c r="SAV12" s="1"/>
-      <c r="SAZ12" s="1"/>
-      <c r="SBD12" s="1"/>
-      <c r="SBH12" s="1"/>
-      <c r="SBL12" s="1"/>
-      <c r="SBP12" s="1"/>
-      <c r="SBT12" s="1"/>
-      <c r="SBX12" s="1"/>
-      <c r="SCB12" s="1"/>
-      <c r="SCF12" s="1"/>
-      <c r="SCJ12" s="1"/>
-      <c r="SCN12" s="1"/>
-      <c r="SCR12" s="1"/>
-      <c r="SCV12" s="1"/>
-      <c r="SCZ12" s="1"/>
-      <c r="SDD12" s="1"/>
-      <c r="SDH12" s="1"/>
-      <c r="SDL12" s="1"/>
-      <c r="SDP12" s="1"/>
-      <c r="SDT12" s="1"/>
-      <c r="SDX12" s="1"/>
-      <c r="SEB12" s="1"/>
-      <c r="SEF12" s="1"/>
-      <c r="SEJ12" s="1"/>
-      <c r="SEN12" s="1"/>
-      <c r="SER12" s="1"/>
-      <c r="SEV12" s="1"/>
-      <c r="SEZ12" s="1"/>
-      <c r="SFD12" s="1"/>
-      <c r="SFH12" s="1"/>
-      <c r="SFL12" s="1"/>
-      <c r="SFP12" s="1"/>
-      <c r="SFT12" s="1"/>
-      <c r="SFX12" s="1"/>
-      <c r="SGB12" s="1"/>
-      <c r="SGF12" s="1"/>
-      <c r="SGJ12" s="1"/>
-      <c r="SGN12" s="1"/>
-      <c r="SGR12" s="1"/>
-      <c r="SGV12" s="1"/>
-      <c r="SGZ12" s="1"/>
-      <c r="SHD12" s="1"/>
-      <c r="SHH12" s="1"/>
-      <c r="SHL12" s="1"/>
-      <c r="SHP12" s="1"/>
-      <c r="SHT12" s="1"/>
-      <c r="SHX12" s="1"/>
-      <c r="SIB12" s="1"/>
-      <c r="SIF12" s="1"/>
-      <c r="SIJ12" s="1"/>
-      <c r="SIN12" s="1"/>
-      <c r="SIR12" s="1"/>
-      <c r="SIV12" s="1"/>
-      <c r="SIZ12" s="1"/>
-      <c r="SJD12" s="1"/>
-      <c r="SJH12" s="1"/>
-      <c r="SJL12" s="1"/>
-      <c r="SJP12" s="1"/>
-      <c r="SJT12" s="1"/>
-      <c r="SJX12" s="1"/>
-      <c r="SKB12" s="1"/>
-      <c r="SKF12" s="1"/>
-      <c r="SKJ12" s="1"/>
-      <c r="SKN12" s="1"/>
-      <c r="SKR12" s="1"/>
-      <c r="SKV12" s="1"/>
-      <c r="SKZ12" s="1"/>
-      <c r="SLD12" s="1"/>
-      <c r="SLH12" s="1"/>
-      <c r="SLL12" s="1"/>
-      <c r="SLP12" s="1"/>
-      <c r="SLT12" s="1"/>
-      <c r="SLX12" s="1"/>
-      <c r="SMB12" s="1"/>
-      <c r="SMF12" s="1"/>
-      <c r="SMJ12" s="1"/>
-      <c r="SMN12" s="1"/>
-      <c r="SMR12" s="1"/>
-      <c r="SMV12" s="1"/>
-      <c r="SMZ12" s="1"/>
-      <c r="SND12" s="1"/>
-      <c r="SNH12" s="1"/>
-      <c r="SNL12" s="1"/>
-      <c r="SNP12" s="1"/>
-      <c r="SNT12" s="1"/>
-      <c r="SNX12" s="1"/>
-      <c r="SOB12" s="1"/>
-      <c r="SOF12" s="1"/>
-      <c r="SOJ12" s="1"/>
-      <c r="SON12" s="1"/>
-      <c r="SOR12" s="1"/>
-      <c r="SOV12" s="1"/>
-      <c r="SOZ12" s="1"/>
-      <c r="SPD12" s="1"/>
-      <c r="SPH12" s="1"/>
-      <c r="SPL12" s="1"/>
-      <c r="SPP12" s="1"/>
-      <c r="SPT12" s="1"/>
-      <c r="SPX12" s="1"/>
-      <c r="SQB12" s="1"/>
-      <c r="SQF12" s="1"/>
-      <c r="SQJ12" s="1"/>
-      <c r="SQN12" s="1"/>
-      <c r="SQR12" s="1"/>
-      <c r="SQV12" s="1"/>
-      <c r="SQZ12" s="1"/>
-      <c r="SRD12" s="1"/>
-      <c r="SRH12" s="1"/>
-      <c r="SRL12" s="1"/>
-      <c r="SRP12" s="1"/>
-      <c r="SRT12" s="1"/>
-      <c r="SRX12" s="1"/>
-      <c r="SSB12" s="1"/>
-      <c r="SSF12" s="1"/>
-      <c r="SSJ12" s="1"/>
-      <c r="SSN12" s="1"/>
-      <c r="SSR12" s="1"/>
-      <c r="SSV12" s="1"/>
-      <c r="SSZ12" s="1"/>
-      <c r="STD12" s="1"/>
-      <c r="STH12" s="1"/>
-      <c r="STL12" s="1"/>
-      <c r="STP12" s="1"/>
-      <c r="STT12" s="1"/>
-      <c r="STX12" s="1"/>
-      <c r="SUB12" s="1"/>
-      <c r="SUF12" s="1"/>
-      <c r="SUJ12" s="1"/>
-      <c r="SUN12" s="1"/>
-      <c r="SUR12" s="1"/>
-      <c r="SUV12" s="1"/>
-      <c r="SUZ12" s="1"/>
-      <c r="SVD12" s="1"/>
-      <c r="SVH12" s="1"/>
-      <c r="SVL12" s="1"/>
-      <c r="SVP12" s="1"/>
-      <c r="SVT12" s="1"/>
-      <c r="SVX12" s="1"/>
-      <c r="SWB12" s="1"/>
-      <c r="SWF12" s="1"/>
-      <c r="SWJ12" s="1"/>
-      <c r="SWN12" s="1"/>
-      <c r="SWR12" s="1"/>
-      <c r="SWV12" s="1"/>
-      <c r="SWZ12" s="1"/>
-      <c r="SXD12" s="1"/>
-      <c r="SXH12" s="1"/>
-      <c r="SXL12" s="1"/>
-      <c r="SXP12" s="1"/>
-      <c r="SXT12" s="1"/>
-      <c r="SXX12" s="1"/>
-      <c r="SYB12" s="1"/>
-      <c r="SYF12" s="1"/>
-      <c r="SYJ12" s="1"/>
-      <c r="SYN12" s="1"/>
-      <c r="SYR12" s="1"/>
-      <c r="SYV12" s="1"/>
-      <c r="SYZ12" s="1"/>
-      <c r="SZD12" s="1"/>
-      <c r="SZH12" s="1"/>
-      <c r="SZL12" s="1"/>
-      <c r="SZP12" s="1"/>
-      <c r="SZT12" s="1"/>
-      <c r="SZX12" s="1"/>
-      <c r="TAB12" s="1"/>
-      <c r="TAF12" s="1"/>
-      <c r="TAJ12" s="1"/>
-      <c r="TAN12" s="1"/>
-      <c r="TAR12" s="1"/>
-      <c r="TAV12" s="1"/>
-      <c r="TAZ12" s="1"/>
-      <c r="TBD12" s="1"/>
-      <c r="TBH12" s="1"/>
-      <c r="TBL12" s="1"/>
-      <c r="TBP12" s="1"/>
-      <c r="TBT12" s="1"/>
-      <c r="TBX12" s="1"/>
-      <c r="TCB12" s="1"/>
-      <c r="TCF12" s="1"/>
-      <c r="TCJ12" s="1"/>
-      <c r="TCN12" s="1"/>
-      <c r="TCR12" s="1"/>
-      <c r="TCV12" s="1"/>
-      <c r="TCZ12" s="1"/>
-      <c r="TDD12" s="1"/>
-      <c r="TDH12" s="1"/>
-      <c r="TDL12" s="1"/>
-      <c r="TDP12" s="1"/>
-      <c r="TDT12" s="1"/>
-      <c r="TDX12" s="1"/>
-      <c r="TEB12" s="1"/>
-      <c r="TEF12" s="1"/>
-      <c r="TEJ12" s="1"/>
-      <c r="TEN12" s="1"/>
-      <c r="TER12" s="1"/>
-      <c r="TEV12" s="1"/>
-      <c r="TEZ12" s="1"/>
-      <c r="TFD12" s="1"/>
-      <c r="TFH12" s="1"/>
-      <c r="TFL12" s="1"/>
-      <c r="TFP12" s="1"/>
-      <c r="TFT12" s="1"/>
-      <c r="TFX12" s="1"/>
-      <c r="TGB12" s="1"/>
-      <c r="TGF12" s="1"/>
-      <c r="TGJ12" s="1"/>
-      <c r="TGN12" s="1"/>
-      <c r="TGR12" s="1"/>
-      <c r="TGV12" s="1"/>
-      <c r="TGZ12" s="1"/>
-      <c r="THD12" s="1"/>
-      <c r="THH12" s="1"/>
-      <c r="THL12" s="1"/>
-      <c r="THP12" s="1"/>
-      <c r="THT12" s="1"/>
-      <c r="THX12" s="1"/>
-      <c r="TIB12" s="1"/>
-      <c r="TIF12" s="1"/>
-      <c r="TIJ12" s="1"/>
-      <c r="TIN12" s="1"/>
-      <c r="TIR12" s="1"/>
-      <c r="TIV12" s="1"/>
-      <c r="TIZ12" s="1"/>
-      <c r="TJD12" s="1"/>
-      <c r="TJH12" s="1"/>
-      <c r="TJL12" s="1"/>
-      <c r="TJP12" s="1"/>
-      <c r="TJT12" s="1"/>
-      <c r="TJX12" s="1"/>
-      <c r="TKB12" s="1"/>
-      <c r="TKF12" s="1"/>
-      <c r="TKJ12" s="1"/>
-      <c r="TKN12" s="1"/>
-      <c r="TKR12" s="1"/>
-      <c r="TKV12" s="1"/>
-      <c r="TKZ12" s="1"/>
-      <c r="TLD12" s="1"/>
-      <c r="TLH12" s="1"/>
-      <c r="TLL12" s="1"/>
-      <c r="TLP12" s="1"/>
-      <c r="TLT12" s="1"/>
-      <c r="TLX12" s="1"/>
-      <c r="TMB12" s="1"/>
-      <c r="TMF12" s="1"/>
-      <c r="TMJ12" s="1"/>
-      <c r="TMN12" s="1"/>
-      <c r="TMR12" s="1"/>
-      <c r="TMV12" s="1"/>
-      <c r="TMZ12" s="1"/>
-      <c r="TND12" s="1"/>
-      <c r="TNH12" s="1"/>
-      <c r="TNL12" s="1"/>
-      <c r="TNP12" s="1"/>
-      <c r="TNT12" s="1"/>
-      <c r="TNX12" s="1"/>
-      <c r="TOB12" s="1"/>
-      <c r="TOF12" s="1"/>
-      <c r="TOJ12" s="1"/>
-      <c r="TON12" s="1"/>
-      <c r="TOR12" s="1"/>
-      <c r="TOV12" s="1"/>
-      <c r="TOZ12" s="1"/>
-      <c r="TPD12" s="1"/>
-      <c r="TPH12" s="1"/>
-      <c r="TPL12" s="1"/>
-      <c r="TPP12" s="1"/>
-      <c r="TPT12" s="1"/>
-      <c r="TPX12" s="1"/>
-      <c r="TQB12" s="1"/>
-      <c r="TQF12" s="1"/>
-      <c r="TQJ12" s="1"/>
-      <c r="TQN12" s="1"/>
-      <c r="TQR12" s="1"/>
-      <c r="TQV12" s="1"/>
-      <c r="TQZ12" s="1"/>
-      <c r="TRD12" s="1"/>
-      <c r="TRH12" s="1"/>
-      <c r="TRL12" s="1"/>
-      <c r="TRP12" s="1"/>
-      <c r="TRT12" s="1"/>
-      <c r="TRX12" s="1"/>
-      <c r="TSB12" s="1"/>
-      <c r="TSF12" s="1"/>
-      <c r="TSJ12" s="1"/>
-      <c r="TSN12" s="1"/>
-      <c r="TSR12" s="1"/>
-      <c r="TSV12" s="1"/>
-      <c r="TSZ12" s="1"/>
-      <c r="TTD12" s="1"/>
-      <c r="TTH12" s="1"/>
-      <c r="TTL12" s="1"/>
-      <c r="TTP12" s="1"/>
-      <c r="TTT12" s="1"/>
-      <c r="TTX12" s="1"/>
-      <c r="TUB12" s="1"/>
-      <c r="TUF12" s="1"/>
-      <c r="TUJ12" s="1"/>
-      <c r="TUN12" s="1"/>
-      <c r="TUR12" s="1"/>
-      <c r="TUV12" s="1"/>
-      <c r="TUZ12" s="1"/>
-      <c r="TVD12" s="1"/>
-      <c r="TVH12" s="1"/>
-      <c r="TVL12" s="1"/>
-      <c r="TVP12" s="1"/>
-      <c r="TVT12" s="1"/>
-      <c r="TVX12" s="1"/>
-      <c r="TWB12" s="1"/>
-      <c r="TWF12" s="1"/>
-      <c r="TWJ12" s="1"/>
-      <c r="TWN12" s="1"/>
-      <c r="TWR12" s="1"/>
-      <c r="TWV12" s="1"/>
-      <c r="TWZ12" s="1"/>
-      <c r="TXD12" s="1"/>
-      <c r="TXH12" s="1"/>
-      <c r="TXL12" s="1"/>
-      <c r="TXP12" s="1"/>
-      <c r="TXT12" s="1"/>
-      <c r="TXX12" s="1"/>
-      <c r="TYB12" s="1"/>
-      <c r="TYF12" s="1"/>
-      <c r="TYJ12" s="1"/>
-      <c r="TYN12" s="1"/>
-      <c r="TYR12" s="1"/>
-      <c r="TYV12" s="1"/>
-      <c r="TYZ12" s="1"/>
-      <c r="TZD12" s="1"/>
-      <c r="TZH12" s="1"/>
-      <c r="TZL12" s="1"/>
-      <c r="TZP12" s="1"/>
-      <c r="TZT12" s="1"/>
-      <c r="TZX12" s="1"/>
-      <c r="UAB12" s="1"/>
-      <c r="UAF12" s="1"/>
-      <c r="UAJ12" s="1"/>
-      <c r="UAN12" s="1"/>
-      <c r="UAR12" s="1"/>
-      <c r="UAV12" s="1"/>
-      <c r="UAZ12" s="1"/>
-      <c r="UBD12" s="1"/>
-      <c r="UBH12" s="1"/>
-      <c r="UBL12" s="1"/>
-      <c r="UBP12" s="1"/>
-      <c r="UBT12" s="1"/>
-      <c r="UBX12" s="1"/>
-      <c r="UCB12" s="1"/>
-      <c r="UCF12" s="1"/>
-      <c r="UCJ12" s="1"/>
-      <c r="UCN12" s="1"/>
-      <c r="UCR12" s="1"/>
-      <c r="UCV12" s="1"/>
-      <c r="UCZ12" s="1"/>
-      <c r="UDD12" s="1"/>
-      <c r="UDH12" s="1"/>
-      <c r="UDL12" s="1"/>
-      <c r="UDP12" s="1"/>
-      <c r="UDT12" s="1"/>
-      <c r="UDX12" s="1"/>
-      <c r="UEB12" s="1"/>
-      <c r="UEF12" s="1"/>
-      <c r="UEJ12" s="1"/>
-      <c r="UEN12" s="1"/>
-      <c r="UER12" s="1"/>
-      <c r="UEV12" s="1"/>
-      <c r="UEZ12" s="1"/>
-      <c r="UFD12" s="1"/>
-      <c r="UFH12" s="1"/>
-      <c r="UFL12" s="1"/>
-      <c r="UFP12" s="1"/>
-      <c r="UFT12" s="1"/>
-      <c r="UFX12" s="1"/>
-      <c r="UGB12" s="1"/>
-      <c r="UGF12" s="1"/>
-      <c r="UGJ12" s="1"/>
-      <c r="UGN12" s="1"/>
-      <c r="UGR12" s="1"/>
-      <c r="UGV12" s="1"/>
-      <c r="UGZ12" s="1"/>
-      <c r="UHD12" s="1"/>
-      <c r="UHH12" s="1"/>
-      <c r="UHL12" s="1"/>
-      <c r="UHP12" s="1"/>
-      <c r="UHT12" s="1"/>
-      <c r="UHX12" s="1"/>
-      <c r="UIB12" s="1"/>
-      <c r="UIF12" s="1"/>
-      <c r="UIJ12" s="1"/>
-      <c r="UIN12" s="1"/>
-      <c r="UIR12" s="1"/>
-      <c r="UIV12" s="1"/>
-      <c r="UIZ12" s="1"/>
-      <c r="UJD12" s="1"/>
-      <c r="UJH12" s="1"/>
-      <c r="UJL12" s="1"/>
-      <c r="UJP12" s="1"/>
-      <c r="UJT12" s="1"/>
-      <c r="UJX12" s="1"/>
-      <c r="UKB12" s="1"/>
-      <c r="UKF12" s="1"/>
-      <c r="UKJ12" s="1"/>
-      <c r="UKN12" s="1"/>
-      <c r="UKR12" s="1"/>
-      <c r="UKV12" s="1"/>
-      <c r="UKZ12" s="1"/>
-      <c r="ULD12" s="1"/>
-      <c r="ULH12" s="1"/>
-      <c r="ULL12" s="1"/>
-      <c r="ULP12" s="1"/>
-      <c r="ULT12" s="1"/>
-      <c r="ULX12" s="1"/>
-      <c r="UMB12" s="1"/>
-      <c r="UMF12" s="1"/>
-      <c r="UMJ12" s="1"/>
-      <c r="UMN12" s="1"/>
-      <c r="UMR12" s="1"/>
-      <c r="UMV12" s="1"/>
-      <c r="UMZ12" s="1"/>
-      <c r="UND12" s="1"/>
-      <c r="UNH12" s="1"/>
-      <c r="UNL12" s="1"/>
-      <c r="UNP12" s="1"/>
-      <c r="UNT12" s="1"/>
-      <c r="UNX12" s="1"/>
-      <c r="UOB12" s="1"/>
-      <c r="UOF12" s="1"/>
-      <c r="UOJ12" s="1"/>
-      <c r="UON12" s="1"/>
-      <c r="UOR12" s="1"/>
-      <c r="UOV12" s="1"/>
-      <c r="UOZ12" s="1"/>
-      <c r="UPD12" s="1"/>
-      <c r="UPH12" s="1"/>
-      <c r="UPL12" s="1"/>
-      <c r="UPP12" s="1"/>
-      <c r="UPT12" s="1"/>
-      <c r="UPX12" s="1"/>
-      <c r="UQB12" s="1"/>
-      <c r="UQF12" s="1"/>
-      <c r="UQJ12" s="1"/>
-      <c r="UQN12" s="1"/>
-      <c r="UQR12" s="1"/>
-      <c r="UQV12" s="1"/>
-      <c r="UQZ12" s="1"/>
-      <c r="URD12" s="1"/>
-      <c r="URH12" s="1"/>
-      <c r="URL12" s="1"/>
-      <c r="URP12" s="1"/>
-      <c r="URT12" s="1"/>
-      <c r="URX12" s="1"/>
-      <c r="USB12" s="1"/>
-      <c r="USF12" s="1"/>
-      <c r="USJ12" s="1"/>
-      <c r="USN12" s="1"/>
-      <c r="USR12" s="1"/>
-      <c r="USV12" s="1"/>
-      <c r="USZ12" s="1"/>
-      <c r="UTD12" s="1"/>
-      <c r="UTH12" s="1"/>
-      <c r="UTL12" s="1"/>
-      <c r="UTP12" s="1"/>
-      <c r="UTT12" s="1"/>
-      <c r="UTX12" s="1"/>
-      <c r="UUB12" s="1"/>
-      <c r="UUF12" s="1"/>
-      <c r="UUJ12" s="1"/>
-      <c r="UUN12" s="1"/>
-      <c r="UUR12" s="1"/>
-      <c r="UUV12" s="1"/>
-      <c r="UUZ12" s="1"/>
-      <c r="UVD12" s="1"/>
-      <c r="UVH12" s="1"/>
-      <c r="UVL12" s="1"/>
-      <c r="UVP12" s="1"/>
-      <c r="UVT12" s="1"/>
-      <c r="UVX12" s="1"/>
-      <c r="UWB12" s="1"/>
-      <c r="UWF12" s="1"/>
-      <c r="UWJ12" s="1"/>
-      <c r="UWN12" s="1"/>
-      <c r="UWR12" s="1"/>
-      <c r="UWV12" s="1"/>
-      <c r="UWZ12" s="1"/>
-      <c r="UXD12" s="1"/>
-      <c r="UXH12" s="1"/>
-      <c r="UXL12" s="1"/>
-      <c r="UXP12" s="1"/>
-      <c r="UXT12" s="1"/>
-      <c r="UXX12" s="1"/>
-      <c r="UYB12" s="1"/>
-      <c r="UYF12" s="1"/>
-      <c r="UYJ12" s="1"/>
-      <c r="UYN12" s="1"/>
-      <c r="UYR12" s="1"/>
-      <c r="UYV12" s="1"/>
-      <c r="UYZ12" s="1"/>
-      <c r="UZD12" s="1"/>
-      <c r="UZH12" s="1"/>
-      <c r="UZL12" s="1"/>
-      <c r="UZP12" s="1"/>
-      <c r="UZT12" s="1"/>
-      <c r="UZX12" s="1"/>
-      <c r="VAB12" s="1"/>
-      <c r="VAF12" s="1"/>
-      <c r="VAJ12" s="1"/>
-      <c r="VAN12" s="1"/>
-      <c r="VAR12" s="1"/>
-      <c r="VAV12" s="1"/>
-      <c r="VAZ12" s="1"/>
-      <c r="VBD12" s="1"/>
-      <c r="VBH12" s="1"/>
-      <c r="VBL12" s="1"/>
-      <c r="VBP12" s="1"/>
-      <c r="VBT12" s="1"/>
-      <c r="VBX12" s="1"/>
-      <c r="VCB12" s="1"/>
-      <c r="VCF12" s="1"/>
-      <c r="VCJ12" s="1"/>
-      <c r="VCN12" s="1"/>
-      <c r="VCR12" s="1"/>
-      <c r="VCV12" s="1"/>
-      <c r="VCZ12" s="1"/>
-      <c r="VDD12" s="1"/>
-      <c r="VDH12" s="1"/>
-      <c r="VDL12" s="1"/>
-      <c r="VDP12" s="1"/>
-      <c r="VDT12" s="1"/>
-      <c r="VDX12" s="1"/>
-      <c r="VEB12" s="1"/>
-      <c r="VEF12" s="1"/>
-      <c r="VEJ12" s="1"/>
-      <c r="VEN12" s="1"/>
-      <c r="VER12" s="1"/>
-      <c r="VEV12" s="1"/>
-      <c r="VEZ12" s="1"/>
-      <c r="VFD12" s="1"/>
-      <c r="VFH12" s="1"/>
-      <c r="VFL12" s="1"/>
-      <c r="VFP12" s="1"/>
-      <c r="VFT12" s="1"/>
-      <c r="VFX12" s="1"/>
-      <c r="VGB12" s="1"/>
-      <c r="VGF12" s="1"/>
-      <c r="VGJ12" s="1"/>
-      <c r="VGN12" s="1"/>
-      <c r="VGR12" s="1"/>
-      <c r="VGV12" s="1"/>
-      <c r="VGZ12" s="1"/>
-      <c r="VHD12" s="1"/>
-      <c r="VHH12" s="1"/>
-      <c r="VHL12" s="1"/>
-      <c r="VHP12" s="1"/>
-      <c r="VHT12" s="1"/>
-      <c r="VHX12" s="1"/>
-      <c r="VIB12" s="1"/>
-      <c r="VIF12" s="1"/>
-      <c r="VIJ12" s="1"/>
-      <c r="VIN12" s="1"/>
-      <c r="VIR12" s="1"/>
-      <c r="VIV12" s="1"/>
-      <c r="VIZ12" s="1"/>
-      <c r="VJD12" s="1"/>
-      <c r="VJH12" s="1"/>
-      <c r="VJL12" s="1"/>
-      <c r="VJP12" s="1"/>
-      <c r="VJT12" s="1"/>
-      <c r="VJX12" s="1"/>
-      <c r="VKB12" s="1"/>
-      <c r="VKF12" s="1"/>
-      <c r="VKJ12" s="1"/>
-      <c r="VKN12" s="1"/>
-      <c r="VKR12" s="1"/>
-      <c r="VKV12" s="1"/>
-      <c r="VKZ12" s="1"/>
-      <c r="VLD12" s="1"/>
-      <c r="VLH12" s="1"/>
-      <c r="VLL12" s="1"/>
-      <c r="VLP12" s="1"/>
-      <c r="VLT12" s="1"/>
-      <c r="VLX12" s="1"/>
-      <c r="VMB12" s="1"/>
-      <c r="VMF12" s="1"/>
-      <c r="VMJ12" s="1"/>
-      <c r="VMN12" s="1"/>
-      <c r="VMR12" s="1"/>
-      <c r="VMV12" s="1"/>
-      <c r="VMZ12" s="1"/>
-      <c r="VND12" s="1"/>
-      <c r="VNH12" s="1"/>
-      <c r="VNL12" s="1"/>
-      <c r="VNP12" s="1"/>
-      <c r="VNT12" s="1"/>
-      <c r="VNX12" s="1"/>
-      <c r="VOB12" s="1"/>
-      <c r="VOF12" s="1"/>
-      <c r="VOJ12" s="1"/>
-      <c r="VON12" s="1"/>
-      <c r="VOR12" s="1"/>
-      <c r="VOV12" s="1"/>
-      <c r="VOZ12" s="1"/>
-      <c r="VPD12" s="1"/>
-      <c r="VPH12" s="1"/>
-      <c r="VPL12" s="1"/>
-      <c r="VPP12" s="1"/>
-      <c r="VPT12" s="1"/>
-      <c r="VPX12" s="1"/>
-      <c r="VQB12" s="1"/>
-      <c r="VQF12" s="1"/>
-      <c r="VQJ12" s="1"/>
-      <c r="VQN12" s="1"/>
-      <c r="VQR12" s="1"/>
-      <c r="VQV12" s="1"/>
-      <c r="VQZ12" s="1"/>
-      <c r="VRD12" s="1"/>
-      <c r="VRH12" s="1"/>
-      <c r="VRL12" s="1"/>
-      <c r="VRP12" s="1"/>
-      <c r="VRT12" s="1"/>
-      <c r="VRX12" s="1"/>
-      <c r="VSB12" s="1"/>
-      <c r="VSF12" s="1"/>
-      <c r="VSJ12" s="1"/>
-      <c r="VSN12" s="1"/>
-      <c r="VSR12" s="1"/>
-      <c r="VSV12" s="1"/>
-      <c r="VSZ12" s="1"/>
-      <c r="VTD12" s="1"/>
-      <c r="VTH12" s="1"/>
-      <c r="VTL12" s="1"/>
-      <c r="VTP12" s="1"/>
-      <c r="VTT12" s="1"/>
-      <c r="VTX12" s="1"/>
-      <c r="VUB12" s="1"/>
-      <c r="VUF12" s="1"/>
-      <c r="VUJ12" s="1"/>
-      <c r="VUN12" s="1"/>
-      <c r="VUR12" s="1"/>
-      <c r="VUV12" s="1"/>
-      <c r="VUZ12" s="1"/>
-      <c r="VVD12" s="1"/>
-      <c r="VVH12" s="1"/>
-      <c r="VVL12" s="1"/>
-      <c r="VVP12" s="1"/>
-      <c r="VVT12" s="1"/>
-      <c r="VVX12" s="1"/>
-      <c r="VWB12" s="1"/>
-      <c r="VWF12" s="1"/>
-      <c r="VWJ12" s="1"/>
-      <c r="VWN12" s="1"/>
-      <c r="VWR12" s="1"/>
-      <c r="VWV12" s="1"/>
-      <c r="VWZ12" s="1"/>
-      <c r="VXD12" s="1"/>
-      <c r="VXH12" s="1"/>
-      <c r="VXL12" s="1"/>
-      <c r="VXP12" s="1"/>
-      <c r="VXT12" s="1"/>
-      <c r="VXX12" s="1"/>
-      <c r="VYB12" s="1"/>
-      <c r="VYF12" s="1"/>
-      <c r="VYJ12" s="1"/>
-      <c r="VYN12" s="1"/>
-      <c r="VYR12" s="1"/>
-      <c r="VYV12" s="1"/>
-      <c r="VYZ12" s="1"/>
-      <c r="VZD12" s="1"/>
-      <c r="VZH12" s="1"/>
-      <c r="VZL12" s="1"/>
-      <c r="VZP12" s="1"/>
-      <c r="VZT12" s="1"/>
-      <c r="VZX12" s="1"/>
-      <c r="WAB12" s="1"/>
-      <c r="WAF12" s="1"/>
-      <c r="WAJ12" s="1"/>
-      <c r="WAN12" s="1"/>
-      <c r="WAR12" s="1"/>
-      <c r="WAV12" s="1"/>
-      <c r="WAZ12" s="1"/>
-      <c r="WBD12" s="1"/>
-      <c r="WBH12" s="1"/>
-      <c r="WBL12" s="1"/>
-      <c r="WBP12" s="1"/>
-      <c r="WBT12" s="1"/>
-      <c r="WBX12" s="1"/>
-      <c r="WCB12" s="1"/>
-      <c r="WCF12" s="1"/>
-      <c r="WCJ12" s="1"/>
-      <c r="WCN12" s="1"/>
-      <c r="WCR12" s="1"/>
-      <c r="WCV12" s="1"/>
-      <c r="WCZ12" s="1"/>
-      <c r="WDD12" s="1"/>
-      <c r="WDH12" s="1"/>
-      <c r="WDL12" s="1"/>
-      <c r="WDP12" s="1"/>
-      <c r="WDT12" s="1"/>
-      <c r="WDX12" s="1"/>
-      <c r="WEB12" s="1"/>
-      <c r="WEF12" s="1"/>
-      <c r="WEJ12" s="1"/>
-      <c r="WEN12" s="1"/>
-      <c r="WER12" s="1"/>
-      <c r="WEV12" s="1"/>
-      <c r="WEZ12" s="1"/>
-      <c r="WFD12" s="1"/>
-      <c r="WFH12" s="1"/>
-      <c r="WFL12" s="1"/>
-      <c r="WFP12" s="1"/>
-      <c r="WFT12" s="1"/>
-      <c r="WFX12" s="1"/>
-      <c r="WGB12" s="1"/>
-      <c r="WGF12" s="1"/>
-      <c r="WGJ12" s="1"/>
-      <c r="WGN12" s="1"/>
-      <c r="WGR12" s="1"/>
-      <c r="WGV12" s="1"/>
-      <c r="WGZ12" s="1"/>
-      <c r="WHD12" s="1"/>
-      <c r="WHH12" s="1"/>
-      <c r="WHL12" s="1"/>
-      <c r="WHP12" s="1"/>
-      <c r="WHT12" s="1"/>
-      <c r="WHX12" s="1"/>
-      <c r="WIB12" s="1"/>
-      <c r="WIF12" s="1"/>
-      <c r="WIJ12" s="1"/>
-      <c r="WIN12" s="1"/>
-      <c r="WIR12" s="1"/>
-      <c r="WIV12" s="1"/>
-      <c r="WIZ12" s="1"/>
-      <c r="WJD12" s="1"/>
-      <c r="WJH12" s="1"/>
-      <c r="WJL12" s="1"/>
-      <c r="WJP12" s="1"/>
-      <c r="WJT12" s="1"/>
-      <c r="WJX12" s="1"/>
-      <c r="WKB12" s="1"/>
-      <c r="WKF12" s="1"/>
-      <c r="WKJ12" s="1"/>
-      <c r="WKN12" s="1"/>
-      <c r="WKR12" s="1"/>
-      <c r="WKV12" s="1"/>
-      <c r="WKZ12" s="1"/>
-      <c r="WLD12" s="1"/>
-      <c r="WLH12" s="1"/>
-      <c r="WLL12" s="1"/>
-      <c r="WLP12" s="1"/>
-      <c r="WLT12" s="1"/>
-      <c r="WLX12" s="1"/>
-      <c r="WMB12" s="1"/>
-      <c r="WMF12" s="1"/>
-      <c r="WMJ12" s="1"/>
-      <c r="WMN12" s="1"/>
-      <c r="WMR12" s="1"/>
-      <c r="WMV12" s="1"/>
-      <c r="WMZ12" s="1"/>
-      <c r="WND12" s="1"/>
-      <c r="WNH12" s="1"/>
-      <c r="WNL12" s="1"/>
-      <c r="WNP12" s="1"/>
-      <c r="WNT12" s="1"/>
-      <c r="WNX12" s="1"/>
-      <c r="WOB12" s="1"/>
-      <c r="WOF12" s="1"/>
-      <c r="WOJ12" s="1"/>
-      <c r="WON12" s="1"/>
-      <c r="WOR12" s="1"/>
-      <c r="WOV12" s="1"/>
-      <c r="WOZ12" s="1"/>
-      <c r="WPD12" s="1"/>
-      <c r="WPH12" s="1"/>
-      <c r="WPL12" s="1"/>
-      <c r="WPP12" s="1"/>
-      <c r="WPT12" s="1"/>
-      <c r="WPX12" s="1"/>
-      <c r="WQB12" s="1"/>
-      <c r="WQF12" s="1"/>
-      <c r="WQJ12" s="1"/>
-      <c r="WQN12" s="1"/>
-      <c r="WQR12" s="1"/>
-      <c r="WQV12" s="1"/>
-      <c r="WQZ12" s="1"/>
-      <c r="WRD12" s="1"/>
-      <c r="WRH12" s="1"/>
-      <c r="WRL12" s="1"/>
-      <c r="WRP12" s="1"/>
-      <c r="WRT12" s="1"/>
-      <c r="WRX12" s="1"/>
-      <c r="WSB12" s="1"/>
-      <c r="WSF12" s="1"/>
-      <c r="WSJ12" s="1"/>
-      <c r="WSN12" s="1"/>
-      <c r="WSR12" s="1"/>
-      <c r="WSV12" s="1"/>
-      <c r="WSZ12" s="1"/>
-      <c r="WTD12" s="1"/>
-      <c r="WTH12" s="1"/>
-      <c r="WTL12" s="1"/>
-      <c r="WTP12" s="1"/>
-      <c r="WTT12" s="1"/>
-      <c r="WTX12" s="1"/>
-      <c r="WUB12" s="1"/>
-      <c r="WUF12" s="1"/>
-      <c r="WUJ12" s="1"/>
-      <c r="WUN12" s="1"/>
-      <c r="WUR12" s="1"/>
-      <c r="WUV12" s="1"/>
-      <c r="WUZ12" s="1"/>
-      <c r="WVD12" s="1"/>
-      <c r="WVH12" s="1"/>
-      <c r="WVL12" s="1"/>
-      <c r="WVP12" s="1"/>
-      <c r="WVT12" s="1"/>
-      <c r="WVX12" s="1"/>
-      <c r="WWB12" s="1"/>
-      <c r="WWF12" s="1"/>
-      <c r="WWJ12" s="1"/>
-      <c r="WWN12" s="1"/>
-      <c r="WWR12" s="1"/>
-      <c r="WWV12" s="1"/>
-      <c r="WWZ12" s="1"/>
-      <c r="WXD12" s="1"/>
-      <c r="WXH12" s="1"/>
-      <c r="WXL12" s="1"/>
-      <c r="WXP12" s="1"/>
-      <c r="WXT12" s="1"/>
-      <c r="WXX12" s="1"/>
-      <c r="WYB12" s="1"/>
-      <c r="WYF12" s="1"/>
-      <c r="WYJ12" s="1"/>
-      <c r="WYN12" s="1"/>
-      <c r="WYR12" s="1"/>
-      <c r="WYV12" s="1"/>
-      <c r="WYZ12" s="1"/>
-      <c r="WZD12" s="1"/>
-      <c r="WZH12" s="1"/>
-      <c r="WZL12" s="1"/>
-      <c r="WZP12" s="1"/>
-      <c r="WZT12" s="1"/>
-      <c r="WZX12" s="1"/>
-      <c r="XAB12" s="1"/>
-      <c r="XAF12" s="1"/>
-      <c r="XAJ12" s="1"/>
-      <c r="XAN12" s="1"/>
-      <c r="XAR12" s="1"/>
-      <c r="XAV12" s="1"/>
-      <c r="XAZ12" s="1"/>
-      <c r="XBD12" s="1"/>
-      <c r="XBH12" s="1"/>
-      <c r="XBL12" s="1"/>
-      <c r="XBP12" s="1"/>
-      <c r="XBT12" s="1"/>
-      <c r="XBX12" s="1"/>
-      <c r="XCB12" s="1"/>
-      <c r="XCF12" s="1"/>
-      <c r="XCJ12" s="1"/>
-      <c r="XCN12" s="1"/>
-      <c r="XCR12" s="1"/>
-      <c r="XCV12" s="1"/>
-      <c r="XCZ12" s="1"/>
-      <c r="XDD12" s="1"/>
-      <c r="XDH12" s="1"/>
-      <c r="XDL12" s="1"/>
-      <c r="XDP12" s="1"/>
-      <c r="XDT12" s="1"/>
-      <c r="XDX12" s="1"/>
-      <c r="XEB12" s="1"/>
-      <c r="XEF12" s="1"/>
-      <c r="XEJ12" s="1"/>
-      <c r="XEN12" s="1"/>
-      <c r="XER12" s="1"/>
-      <c r="XEV12" s="1"/>
-      <c r="XEZ12" s="1"/>
-      <c r="XFD12" s="1"/>
     </row>
-    <row r="13" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -10042,12 +5978,12 @@
       <c r="XEZ13" s="1"/>
       <c r="XFD13" s="1"/>
     </row>
-    <row r="14" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -10055,13 +5991,4108 @@
       <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CJ14" s="1"/>
+      <c r="CN14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CV14" s="1"/>
+      <c r="CZ14" s="1"/>
+      <c r="DD14" s="1"/>
+      <c r="DH14" s="1"/>
+      <c r="DL14" s="1"/>
+      <c r="DP14" s="1"/>
+      <c r="DT14" s="1"/>
+      <c r="DX14" s="1"/>
+      <c r="EB14" s="1"/>
+      <c r="EF14" s="1"/>
+      <c r="EJ14" s="1"/>
+      <c r="EN14" s="1"/>
+      <c r="ER14" s="1"/>
+      <c r="EV14" s="1"/>
+      <c r="EZ14" s="1"/>
+      <c r="FD14" s="1"/>
+      <c r="FH14" s="1"/>
+      <c r="FL14" s="1"/>
+      <c r="FP14" s="1"/>
+      <c r="FT14" s="1"/>
+      <c r="FX14" s="1"/>
+      <c r="GB14" s="1"/>
+      <c r="GF14" s="1"/>
+      <c r="GJ14" s="1"/>
+      <c r="GN14" s="1"/>
+      <c r="GR14" s="1"/>
+      <c r="GV14" s="1"/>
+      <c r="GZ14" s="1"/>
+      <c r="HD14" s="1"/>
+      <c r="HH14" s="1"/>
+      <c r="HL14" s="1"/>
+      <c r="HP14" s="1"/>
+      <c r="HT14" s="1"/>
+      <c r="HX14" s="1"/>
+      <c r="IB14" s="1"/>
+      <c r="IF14" s="1"/>
+      <c r="IJ14" s="1"/>
+      <c r="IN14" s="1"/>
+      <c r="IR14" s="1"/>
+      <c r="IV14" s="1"/>
+      <c r="IZ14" s="1"/>
+      <c r="JD14" s="1"/>
+      <c r="JH14" s="1"/>
+      <c r="JL14" s="1"/>
+      <c r="JP14" s="1"/>
+      <c r="JT14" s="1"/>
+      <c r="JX14" s="1"/>
+      <c r="KB14" s="1"/>
+      <c r="KF14" s="1"/>
+      <c r="KJ14" s="1"/>
+      <c r="KN14" s="1"/>
+      <c r="KR14" s="1"/>
+      <c r="KV14" s="1"/>
+      <c r="KZ14" s="1"/>
+      <c r="LD14" s="1"/>
+      <c r="LH14" s="1"/>
+      <c r="LL14" s="1"/>
+      <c r="LP14" s="1"/>
+      <c r="LT14" s="1"/>
+      <c r="LX14" s="1"/>
+      <c r="MB14" s="1"/>
+      <c r="MF14" s="1"/>
+      <c r="MJ14" s="1"/>
+      <c r="MN14" s="1"/>
+      <c r="MR14" s="1"/>
+      <c r="MV14" s="1"/>
+      <c r="MZ14" s="1"/>
+      <c r="ND14" s="1"/>
+      <c r="NH14" s="1"/>
+      <c r="NL14" s="1"/>
+      <c r="NP14" s="1"/>
+      <c r="NT14" s="1"/>
+      <c r="NX14" s="1"/>
+      <c r="OB14" s="1"/>
+      <c r="OF14" s="1"/>
+      <c r="OJ14" s="1"/>
+      <c r="ON14" s="1"/>
+      <c r="OR14" s="1"/>
+      <c r="OV14" s="1"/>
+      <c r="OZ14" s="1"/>
+      <c r="PD14" s="1"/>
+      <c r="PH14" s="1"/>
+      <c r="PL14" s="1"/>
+      <c r="PP14" s="1"/>
+      <c r="PT14" s="1"/>
+      <c r="PX14" s="1"/>
+      <c r="QB14" s="1"/>
+      <c r="QF14" s="1"/>
+      <c r="QJ14" s="1"/>
+      <c r="QN14" s="1"/>
+      <c r="QR14" s="1"/>
+      <c r="QV14" s="1"/>
+      <c r="QZ14" s="1"/>
+      <c r="RD14" s="1"/>
+      <c r="RH14" s="1"/>
+      <c r="RL14" s="1"/>
+      <c r="RP14" s="1"/>
+      <c r="RT14" s="1"/>
+      <c r="RX14" s="1"/>
+      <c r="SB14" s="1"/>
+      <c r="SF14" s="1"/>
+      <c r="SJ14" s="1"/>
+      <c r="SN14" s="1"/>
+      <c r="SR14" s="1"/>
+      <c r="SV14" s="1"/>
+      <c r="SZ14" s="1"/>
+      <c r="TD14" s="1"/>
+      <c r="TH14" s="1"/>
+      <c r="TL14" s="1"/>
+      <c r="TP14" s="1"/>
+      <c r="TT14" s="1"/>
+      <c r="TX14" s="1"/>
+      <c r="UB14" s="1"/>
+      <c r="UF14" s="1"/>
+      <c r="UJ14" s="1"/>
+      <c r="UN14" s="1"/>
+      <c r="UR14" s="1"/>
+      <c r="UV14" s="1"/>
+      <c r="UZ14" s="1"/>
+      <c r="VD14" s="1"/>
+      <c r="VH14" s="1"/>
+      <c r="VL14" s="1"/>
+      <c r="VP14" s="1"/>
+      <c r="VT14" s="1"/>
+      <c r="VX14" s="1"/>
+      <c r="WB14" s="1"/>
+      <c r="WF14" s="1"/>
+      <c r="WJ14" s="1"/>
+      <c r="WN14" s="1"/>
+      <c r="WR14" s="1"/>
+      <c r="WV14" s="1"/>
+      <c r="WZ14" s="1"/>
+      <c r="XD14" s="1"/>
+      <c r="XH14" s="1"/>
+      <c r="XL14" s="1"/>
+      <c r="XP14" s="1"/>
+      <c r="XT14" s="1"/>
+      <c r="XX14" s="1"/>
+      <c r="YB14" s="1"/>
+      <c r="YF14" s="1"/>
+      <c r="YJ14" s="1"/>
+      <c r="YN14" s="1"/>
+      <c r="YR14" s="1"/>
+      <c r="YV14" s="1"/>
+      <c r="YZ14" s="1"/>
+      <c r="ZD14" s="1"/>
+      <c r="ZH14" s="1"/>
+      <c r="ZL14" s="1"/>
+      <c r="ZP14" s="1"/>
+      <c r="ZT14" s="1"/>
+      <c r="ZX14" s="1"/>
+      <c r="AAB14" s="1"/>
+      <c r="AAF14" s="1"/>
+      <c r="AAJ14" s="1"/>
+      <c r="AAN14" s="1"/>
+      <c r="AAR14" s="1"/>
+      <c r="AAV14" s="1"/>
+      <c r="AAZ14" s="1"/>
+      <c r="ABD14" s="1"/>
+      <c r="ABH14" s="1"/>
+      <c r="ABL14" s="1"/>
+      <c r="ABP14" s="1"/>
+      <c r="ABT14" s="1"/>
+      <c r="ABX14" s="1"/>
+      <c r="ACB14" s="1"/>
+      <c r="ACF14" s="1"/>
+      <c r="ACJ14" s="1"/>
+      <c r="ACN14" s="1"/>
+      <c r="ACR14" s="1"/>
+      <c r="ACV14" s="1"/>
+      <c r="ACZ14" s="1"/>
+      <c r="ADD14" s="1"/>
+      <c r="ADH14" s="1"/>
+      <c r="ADL14" s="1"/>
+      <c r="ADP14" s="1"/>
+      <c r="ADT14" s="1"/>
+      <c r="ADX14" s="1"/>
+      <c r="AEB14" s="1"/>
+      <c r="AEF14" s="1"/>
+      <c r="AEJ14" s="1"/>
+      <c r="AEN14" s="1"/>
+      <c r="AER14" s="1"/>
+      <c r="AEV14" s="1"/>
+      <c r="AEZ14" s="1"/>
+      <c r="AFD14" s="1"/>
+      <c r="AFH14" s="1"/>
+      <c r="AFL14" s="1"/>
+      <c r="AFP14" s="1"/>
+      <c r="AFT14" s="1"/>
+      <c r="AFX14" s="1"/>
+      <c r="AGB14" s="1"/>
+      <c r="AGF14" s="1"/>
+      <c r="AGJ14" s="1"/>
+      <c r="AGN14" s="1"/>
+      <c r="AGR14" s="1"/>
+      <c r="AGV14" s="1"/>
+      <c r="AGZ14" s="1"/>
+      <c r="AHD14" s="1"/>
+      <c r="AHH14" s="1"/>
+      <c r="AHL14" s="1"/>
+      <c r="AHP14" s="1"/>
+      <c r="AHT14" s="1"/>
+      <c r="AHX14" s="1"/>
+      <c r="AIB14" s="1"/>
+      <c r="AIF14" s="1"/>
+      <c r="AIJ14" s="1"/>
+      <c r="AIN14" s="1"/>
+      <c r="AIR14" s="1"/>
+      <c r="AIV14" s="1"/>
+      <c r="AIZ14" s="1"/>
+      <c r="AJD14" s="1"/>
+      <c r="AJH14" s="1"/>
+      <c r="AJL14" s="1"/>
+      <c r="AJP14" s="1"/>
+      <c r="AJT14" s="1"/>
+      <c r="AJX14" s="1"/>
+      <c r="AKB14" s="1"/>
+      <c r="AKF14" s="1"/>
+      <c r="AKJ14" s="1"/>
+      <c r="AKN14" s="1"/>
+      <c r="AKR14" s="1"/>
+      <c r="AKV14" s="1"/>
+      <c r="AKZ14" s="1"/>
+      <c r="ALD14" s="1"/>
+      <c r="ALH14" s="1"/>
+      <c r="ALL14" s="1"/>
+      <c r="ALP14" s="1"/>
+      <c r="ALT14" s="1"/>
+      <c r="ALX14" s="1"/>
+      <c r="AMB14" s="1"/>
+      <c r="AMF14" s="1"/>
+      <c r="AMJ14" s="1"/>
+      <c r="AMN14" s="1"/>
+      <c r="AMR14" s="1"/>
+      <c r="AMV14" s="1"/>
+      <c r="AMZ14" s="1"/>
+      <c r="AND14" s="1"/>
+      <c r="ANH14" s="1"/>
+      <c r="ANL14" s="1"/>
+      <c r="ANP14" s="1"/>
+      <c r="ANT14" s="1"/>
+      <c r="ANX14" s="1"/>
+      <c r="AOB14" s="1"/>
+      <c r="AOF14" s="1"/>
+      <c r="AOJ14" s="1"/>
+      <c r="AON14" s="1"/>
+      <c r="AOR14" s="1"/>
+      <c r="AOV14" s="1"/>
+      <c r="AOZ14" s="1"/>
+      <c r="APD14" s="1"/>
+      <c r="APH14" s="1"/>
+      <c r="APL14" s="1"/>
+      <c r="APP14" s="1"/>
+      <c r="APT14" s="1"/>
+      <c r="APX14" s="1"/>
+      <c r="AQB14" s="1"/>
+      <c r="AQF14" s="1"/>
+      <c r="AQJ14" s="1"/>
+      <c r="AQN14" s="1"/>
+      <c r="AQR14" s="1"/>
+      <c r="AQV14" s="1"/>
+      <c r="AQZ14" s="1"/>
+      <c r="ARD14" s="1"/>
+      <c r="ARH14" s="1"/>
+      <c r="ARL14" s="1"/>
+      <c r="ARP14" s="1"/>
+      <c r="ART14" s="1"/>
+      <c r="ARX14" s="1"/>
+      <c r="ASB14" s="1"/>
+      <c r="ASF14" s="1"/>
+      <c r="ASJ14" s="1"/>
+      <c r="ASN14" s="1"/>
+      <c r="ASR14" s="1"/>
+      <c r="ASV14" s="1"/>
+      <c r="ASZ14" s="1"/>
+      <c r="ATD14" s="1"/>
+      <c r="ATH14" s="1"/>
+      <c r="ATL14" s="1"/>
+      <c r="ATP14" s="1"/>
+      <c r="ATT14" s="1"/>
+      <c r="ATX14" s="1"/>
+      <c r="AUB14" s="1"/>
+      <c r="AUF14" s="1"/>
+      <c r="AUJ14" s="1"/>
+      <c r="AUN14" s="1"/>
+      <c r="AUR14" s="1"/>
+      <c r="AUV14" s="1"/>
+      <c r="AUZ14" s="1"/>
+      <c r="AVD14" s="1"/>
+      <c r="AVH14" s="1"/>
+      <c r="AVL14" s="1"/>
+      <c r="AVP14" s="1"/>
+      <c r="AVT14" s="1"/>
+      <c r="AVX14" s="1"/>
+      <c r="AWB14" s="1"/>
+      <c r="AWF14" s="1"/>
+      <c r="AWJ14" s="1"/>
+      <c r="AWN14" s="1"/>
+      <c r="AWR14" s="1"/>
+      <c r="AWV14" s="1"/>
+      <c r="AWZ14" s="1"/>
+      <c r="AXD14" s="1"/>
+      <c r="AXH14" s="1"/>
+      <c r="AXL14" s="1"/>
+      <c r="AXP14" s="1"/>
+      <c r="AXT14" s="1"/>
+      <c r="AXX14" s="1"/>
+      <c r="AYB14" s="1"/>
+      <c r="AYF14" s="1"/>
+      <c r="AYJ14" s="1"/>
+      <c r="AYN14" s="1"/>
+      <c r="AYR14" s="1"/>
+      <c r="AYV14" s="1"/>
+      <c r="AYZ14" s="1"/>
+      <c r="AZD14" s="1"/>
+      <c r="AZH14" s="1"/>
+      <c r="AZL14" s="1"/>
+      <c r="AZP14" s="1"/>
+      <c r="AZT14" s="1"/>
+      <c r="AZX14" s="1"/>
+      <c r="BAB14" s="1"/>
+      <c r="BAF14" s="1"/>
+      <c r="BAJ14" s="1"/>
+      <c r="BAN14" s="1"/>
+      <c r="BAR14" s="1"/>
+      <c r="BAV14" s="1"/>
+      <c r="BAZ14" s="1"/>
+      <c r="BBD14" s="1"/>
+      <c r="BBH14" s="1"/>
+      <c r="BBL14" s="1"/>
+      <c r="BBP14" s="1"/>
+      <c r="BBT14" s="1"/>
+      <c r="BBX14" s="1"/>
+      <c r="BCB14" s="1"/>
+      <c r="BCF14" s="1"/>
+      <c r="BCJ14" s="1"/>
+      <c r="BCN14" s="1"/>
+      <c r="BCR14" s="1"/>
+      <c r="BCV14" s="1"/>
+      <c r="BCZ14" s="1"/>
+      <c r="BDD14" s="1"/>
+      <c r="BDH14" s="1"/>
+      <c r="BDL14" s="1"/>
+      <c r="BDP14" s="1"/>
+      <c r="BDT14" s="1"/>
+      <c r="BDX14" s="1"/>
+      <c r="BEB14" s="1"/>
+      <c r="BEF14" s="1"/>
+      <c r="BEJ14" s="1"/>
+      <c r="BEN14" s="1"/>
+      <c r="BER14" s="1"/>
+      <c r="BEV14" s="1"/>
+      <c r="BEZ14" s="1"/>
+      <c r="BFD14" s="1"/>
+      <c r="BFH14" s="1"/>
+      <c r="BFL14" s="1"/>
+      <c r="BFP14" s="1"/>
+      <c r="BFT14" s="1"/>
+      <c r="BFX14" s="1"/>
+      <c r="BGB14" s="1"/>
+      <c r="BGF14" s="1"/>
+      <c r="BGJ14" s="1"/>
+      <c r="BGN14" s="1"/>
+      <c r="BGR14" s="1"/>
+      <c r="BGV14" s="1"/>
+      <c r="BGZ14" s="1"/>
+      <c r="BHD14" s="1"/>
+      <c r="BHH14" s="1"/>
+      <c r="BHL14" s="1"/>
+      <c r="BHP14" s="1"/>
+      <c r="BHT14" s="1"/>
+      <c r="BHX14" s="1"/>
+      <c r="BIB14" s="1"/>
+      <c r="BIF14" s="1"/>
+      <c r="BIJ14" s="1"/>
+      <c r="BIN14" s="1"/>
+      <c r="BIR14" s="1"/>
+      <c r="BIV14" s="1"/>
+      <c r="BIZ14" s="1"/>
+      <c r="BJD14" s="1"/>
+      <c r="BJH14" s="1"/>
+      <c r="BJL14" s="1"/>
+      <c r="BJP14" s="1"/>
+      <c r="BJT14" s="1"/>
+      <c r="BJX14" s="1"/>
+      <c r="BKB14" s="1"/>
+      <c r="BKF14" s="1"/>
+      <c r="BKJ14" s="1"/>
+      <c r="BKN14" s="1"/>
+      <c r="BKR14" s="1"/>
+      <c r="BKV14" s="1"/>
+      <c r="BKZ14" s="1"/>
+      <c r="BLD14" s="1"/>
+      <c r="BLH14" s="1"/>
+      <c r="BLL14" s="1"/>
+      <c r="BLP14" s="1"/>
+      <c r="BLT14" s="1"/>
+      <c r="BLX14" s="1"/>
+      <c r="BMB14" s="1"/>
+      <c r="BMF14" s="1"/>
+      <c r="BMJ14" s="1"/>
+      <c r="BMN14" s="1"/>
+      <c r="BMR14" s="1"/>
+      <c r="BMV14" s="1"/>
+      <c r="BMZ14" s="1"/>
+      <c r="BND14" s="1"/>
+      <c r="BNH14" s="1"/>
+      <c r="BNL14" s="1"/>
+      <c r="BNP14" s="1"/>
+      <c r="BNT14" s="1"/>
+      <c r="BNX14" s="1"/>
+      <c r="BOB14" s="1"/>
+      <c r="BOF14" s="1"/>
+      <c r="BOJ14" s="1"/>
+      <c r="BON14" s="1"/>
+      <c r="BOR14" s="1"/>
+      <c r="BOV14" s="1"/>
+      <c r="BOZ14" s="1"/>
+      <c r="BPD14" s="1"/>
+      <c r="BPH14" s="1"/>
+      <c r="BPL14" s="1"/>
+      <c r="BPP14" s="1"/>
+      <c r="BPT14" s="1"/>
+      <c r="BPX14" s="1"/>
+      <c r="BQB14" s="1"/>
+      <c r="BQF14" s="1"/>
+      <c r="BQJ14" s="1"/>
+      <c r="BQN14" s="1"/>
+      <c r="BQR14" s="1"/>
+      <c r="BQV14" s="1"/>
+      <c r="BQZ14" s="1"/>
+      <c r="BRD14" s="1"/>
+      <c r="BRH14" s="1"/>
+      <c r="BRL14" s="1"/>
+      <c r="BRP14" s="1"/>
+      <c r="BRT14" s="1"/>
+      <c r="BRX14" s="1"/>
+      <c r="BSB14" s="1"/>
+      <c r="BSF14" s="1"/>
+      <c r="BSJ14" s="1"/>
+      <c r="BSN14" s="1"/>
+      <c r="BSR14" s="1"/>
+      <c r="BSV14" s="1"/>
+      <c r="BSZ14" s="1"/>
+      <c r="BTD14" s="1"/>
+      <c r="BTH14" s="1"/>
+      <c r="BTL14" s="1"/>
+      <c r="BTP14" s="1"/>
+      <c r="BTT14" s="1"/>
+      <c r="BTX14" s="1"/>
+      <c r="BUB14" s="1"/>
+      <c r="BUF14" s="1"/>
+      <c r="BUJ14" s="1"/>
+      <c r="BUN14" s="1"/>
+      <c r="BUR14" s="1"/>
+      <c r="BUV14" s="1"/>
+      <c r="BUZ14" s="1"/>
+      <c r="BVD14" s="1"/>
+      <c r="BVH14" s="1"/>
+      <c r="BVL14" s="1"/>
+      <c r="BVP14" s="1"/>
+      <c r="BVT14" s="1"/>
+      <c r="BVX14" s="1"/>
+      <c r="BWB14" s="1"/>
+      <c r="BWF14" s="1"/>
+      <c r="BWJ14" s="1"/>
+      <c r="BWN14" s="1"/>
+      <c r="BWR14" s="1"/>
+      <c r="BWV14" s="1"/>
+      <c r="BWZ14" s="1"/>
+      <c r="BXD14" s="1"/>
+      <c r="BXH14" s="1"/>
+      <c r="BXL14" s="1"/>
+      <c r="BXP14" s="1"/>
+      <c r="BXT14" s="1"/>
+      <c r="BXX14" s="1"/>
+      <c r="BYB14" s="1"/>
+      <c r="BYF14" s="1"/>
+      <c r="BYJ14" s="1"/>
+      <c r="BYN14" s="1"/>
+      <c r="BYR14" s="1"/>
+      <c r="BYV14" s="1"/>
+      <c r="BYZ14" s="1"/>
+      <c r="BZD14" s="1"/>
+      <c r="BZH14" s="1"/>
+      <c r="BZL14" s="1"/>
+      <c r="BZP14" s="1"/>
+      <c r="BZT14" s="1"/>
+      <c r="BZX14" s="1"/>
+      <c r="CAB14" s="1"/>
+      <c r="CAF14" s="1"/>
+      <c r="CAJ14" s="1"/>
+      <c r="CAN14" s="1"/>
+      <c r="CAR14" s="1"/>
+      <c r="CAV14" s="1"/>
+      <c r="CAZ14" s="1"/>
+      <c r="CBD14" s="1"/>
+      <c r="CBH14" s="1"/>
+      <c r="CBL14" s="1"/>
+      <c r="CBP14" s="1"/>
+      <c r="CBT14" s="1"/>
+      <c r="CBX14" s="1"/>
+      <c r="CCB14" s="1"/>
+      <c r="CCF14" s="1"/>
+      <c r="CCJ14" s="1"/>
+      <c r="CCN14" s="1"/>
+      <c r="CCR14" s="1"/>
+      <c r="CCV14" s="1"/>
+      <c r="CCZ14" s="1"/>
+      <c r="CDD14" s="1"/>
+      <c r="CDH14" s="1"/>
+      <c r="CDL14" s="1"/>
+      <c r="CDP14" s="1"/>
+      <c r="CDT14" s="1"/>
+      <c r="CDX14" s="1"/>
+      <c r="CEB14" s="1"/>
+      <c r="CEF14" s="1"/>
+      <c r="CEJ14" s="1"/>
+      <c r="CEN14" s="1"/>
+      <c r="CER14" s="1"/>
+      <c r="CEV14" s="1"/>
+      <c r="CEZ14" s="1"/>
+      <c r="CFD14" s="1"/>
+      <c r="CFH14" s="1"/>
+      <c r="CFL14" s="1"/>
+      <c r="CFP14" s="1"/>
+      <c r="CFT14" s="1"/>
+      <c r="CFX14" s="1"/>
+      <c r="CGB14" s="1"/>
+      <c r="CGF14" s="1"/>
+      <c r="CGJ14" s="1"/>
+      <c r="CGN14" s="1"/>
+      <c r="CGR14" s="1"/>
+      <c r="CGV14" s="1"/>
+      <c r="CGZ14" s="1"/>
+      <c r="CHD14" s="1"/>
+      <c r="CHH14" s="1"/>
+      <c r="CHL14" s="1"/>
+      <c r="CHP14" s="1"/>
+      <c r="CHT14" s="1"/>
+      <c r="CHX14" s="1"/>
+      <c r="CIB14" s="1"/>
+      <c r="CIF14" s="1"/>
+      <c r="CIJ14" s="1"/>
+      <c r="CIN14" s="1"/>
+      <c r="CIR14" s="1"/>
+      <c r="CIV14" s="1"/>
+      <c r="CIZ14" s="1"/>
+      <c r="CJD14" s="1"/>
+      <c r="CJH14" s="1"/>
+      <c r="CJL14" s="1"/>
+      <c r="CJP14" s="1"/>
+      <c r="CJT14" s="1"/>
+      <c r="CJX14" s="1"/>
+      <c r="CKB14" s="1"/>
+      <c r="CKF14" s="1"/>
+      <c r="CKJ14" s="1"/>
+      <c r="CKN14" s="1"/>
+      <c r="CKR14" s="1"/>
+      <c r="CKV14" s="1"/>
+      <c r="CKZ14" s="1"/>
+      <c r="CLD14" s="1"/>
+      <c r="CLH14" s="1"/>
+      <c r="CLL14" s="1"/>
+      <c r="CLP14" s="1"/>
+      <c r="CLT14" s="1"/>
+      <c r="CLX14" s="1"/>
+      <c r="CMB14" s="1"/>
+      <c r="CMF14" s="1"/>
+      <c r="CMJ14" s="1"/>
+      <c r="CMN14" s="1"/>
+      <c r="CMR14" s="1"/>
+      <c r="CMV14" s="1"/>
+      <c r="CMZ14" s="1"/>
+      <c r="CND14" s="1"/>
+      <c r="CNH14" s="1"/>
+      <c r="CNL14" s="1"/>
+      <c r="CNP14" s="1"/>
+      <c r="CNT14" s="1"/>
+      <c r="CNX14" s="1"/>
+      <c r="COB14" s="1"/>
+      <c r="COF14" s="1"/>
+      <c r="COJ14" s="1"/>
+      <c r="CON14" s="1"/>
+      <c r="COR14" s="1"/>
+      <c r="COV14" s="1"/>
+      <c r="COZ14" s="1"/>
+      <c r="CPD14" s="1"/>
+      <c r="CPH14" s="1"/>
+      <c r="CPL14" s="1"/>
+      <c r="CPP14" s="1"/>
+      <c r="CPT14" s="1"/>
+      <c r="CPX14" s="1"/>
+      <c r="CQB14" s="1"/>
+      <c r="CQF14" s="1"/>
+      <c r="CQJ14" s="1"/>
+      <c r="CQN14" s="1"/>
+      <c r="CQR14" s="1"/>
+      <c r="CQV14" s="1"/>
+      <c r="CQZ14" s="1"/>
+      <c r="CRD14" s="1"/>
+      <c r="CRH14" s="1"/>
+      <c r="CRL14" s="1"/>
+      <c r="CRP14" s="1"/>
+      <c r="CRT14" s="1"/>
+      <c r="CRX14" s="1"/>
+      <c r="CSB14" s="1"/>
+      <c r="CSF14" s="1"/>
+      <c r="CSJ14" s="1"/>
+      <c r="CSN14" s="1"/>
+      <c r="CSR14" s="1"/>
+      <c r="CSV14" s="1"/>
+      <c r="CSZ14" s="1"/>
+      <c r="CTD14" s="1"/>
+      <c r="CTH14" s="1"/>
+      <c r="CTL14" s="1"/>
+      <c r="CTP14" s="1"/>
+      <c r="CTT14" s="1"/>
+      <c r="CTX14" s="1"/>
+      <c r="CUB14" s="1"/>
+      <c r="CUF14" s="1"/>
+      <c r="CUJ14" s="1"/>
+      <c r="CUN14" s="1"/>
+      <c r="CUR14" s="1"/>
+      <c r="CUV14" s="1"/>
+      <c r="CUZ14" s="1"/>
+      <c r="CVD14" s="1"/>
+      <c r="CVH14" s="1"/>
+      <c r="CVL14" s="1"/>
+      <c r="CVP14" s="1"/>
+      <c r="CVT14" s="1"/>
+      <c r="CVX14" s="1"/>
+      <c r="CWB14" s="1"/>
+      <c r="CWF14" s="1"/>
+      <c r="CWJ14" s="1"/>
+      <c r="CWN14" s="1"/>
+      <c r="CWR14" s="1"/>
+      <c r="CWV14" s="1"/>
+      <c r="CWZ14" s="1"/>
+      <c r="CXD14" s="1"/>
+      <c r="CXH14" s="1"/>
+      <c r="CXL14" s="1"/>
+      <c r="CXP14" s="1"/>
+      <c r="CXT14" s="1"/>
+      <c r="CXX14" s="1"/>
+      <c r="CYB14" s="1"/>
+      <c r="CYF14" s="1"/>
+      <c r="CYJ14" s="1"/>
+      <c r="CYN14" s="1"/>
+      <c r="CYR14" s="1"/>
+      <c r="CYV14" s="1"/>
+      <c r="CYZ14" s="1"/>
+      <c r="CZD14" s="1"/>
+      <c r="CZH14" s="1"/>
+      <c r="CZL14" s="1"/>
+      <c r="CZP14" s="1"/>
+      <c r="CZT14" s="1"/>
+      <c r="CZX14" s="1"/>
+      <c r="DAB14" s="1"/>
+      <c r="DAF14" s="1"/>
+      <c r="DAJ14" s="1"/>
+      <c r="DAN14" s="1"/>
+      <c r="DAR14" s="1"/>
+      <c r="DAV14" s="1"/>
+      <c r="DAZ14" s="1"/>
+      <c r="DBD14" s="1"/>
+      <c r="DBH14" s="1"/>
+      <c r="DBL14" s="1"/>
+      <c r="DBP14" s="1"/>
+      <c r="DBT14" s="1"/>
+      <c r="DBX14" s="1"/>
+      <c r="DCB14" s="1"/>
+      <c r="DCF14" s="1"/>
+      <c r="DCJ14" s="1"/>
+      <c r="DCN14" s="1"/>
+      <c r="DCR14" s="1"/>
+      <c r="DCV14" s="1"/>
+      <c r="DCZ14" s="1"/>
+      <c r="DDD14" s="1"/>
+      <c r="DDH14" s="1"/>
+      <c r="DDL14" s="1"/>
+      <c r="DDP14" s="1"/>
+      <c r="DDT14" s="1"/>
+      <c r="DDX14" s="1"/>
+      <c r="DEB14" s="1"/>
+      <c r="DEF14" s="1"/>
+      <c r="DEJ14" s="1"/>
+      <c r="DEN14" s="1"/>
+      <c r="DER14" s="1"/>
+      <c r="DEV14" s="1"/>
+      <c r="DEZ14" s="1"/>
+      <c r="DFD14" s="1"/>
+      <c r="DFH14" s="1"/>
+      <c r="DFL14" s="1"/>
+      <c r="DFP14" s="1"/>
+      <c r="DFT14" s="1"/>
+      <c r="DFX14" s="1"/>
+      <c r="DGB14" s="1"/>
+      <c r="DGF14" s="1"/>
+      <c r="DGJ14" s="1"/>
+      <c r="DGN14" s="1"/>
+      <c r="DGR14" s="1"/>
+      <c r="DGV14" s="1"/>
+      <c r="DGZ14" s="1"/>
+      <c r="DHD14" s="1"/>
+      <c r="DHH14" s="1"/>
+      <c r="DHL14" s="1"/>
+      <c r="DHP14" s="1"/>
+      <c r="DHT14" s="1"/>
+      <c r="DHX14" s="1"/>
+      <c r="DIB14" s="1"/>
+      <c r="DIF14" s="1"/>
+      <c r="DIJ14" s="1"/>
+      <c r="DIN14" s="1"/>
+      <c r="DIR14" s="1"/>
+      <c r="DIV14" s="1"/>
+      <c r="DIZ14" s="1"/>
+      <c r="DJD14" s="1"/>
+      <c r="DJH14" s="1"/>
+      <c r="DJL14" s="1"/>
+      <c r="DJP14" s="1"/>
+      <c r="DJT14" s="1"/>
+      <c r="DJX14" s="1"/>
+      <c r="DKB14" s="1"/>
+      <c r="DKF14" s="1"/>
+      <c r="DKJ14" s="1"/>
+      <c r="DKN14" s="1"/>
+      <c r="DKR14" s="1"/>
+      <c r="DKV14" s="1"/>
+      <c r="DKZ14" s="1"/>
+      <c r="DLD14" s="1"/>
+      <c r="DLH14" s="1"/>
+      <c r="DLL14" s="1"/>
+      <c r="DLP14" s="1"/>
+      <c r="DLT14" s="1"/>
+      <c r="DLX14" s="1"/>
+      <c r="DMB14" s="1"/>
+      <c r="DMF14" s="1"/>
+      <c r="DMJ14" s="1"/>
+      <c r="DMN14" s="1"/>
+      <c r="DMR14" s="1"/>
+      <c r="DMV14" s="1"/>
+      <c r="DMZ14" s="1"/>
+      <c r="DND14" s="1"/>
+      <c r="DNH14" s="1"/>
+      <c r="DNL14" s="1"/>
+      <c r="DNP14" s="1"/>
+      <c r="DNT14" s="1"/>
+      <c r="DNX14" s="1"/>
+      <c r="DOB14" s="1"/>
+      <c r="DOF14" s="1"/>
+      <c r="DOJ14" s="1"/>
+      <c r="DON14" s="1"/>
+      <c r="DOR14" s="1"/>
+      <c r="DOV14" s="1"/>
+      <c r="DOZ14" s="1"/>
+      <c r="DPD14" s="1"/>
+      <c r="DPH14" s="1"/>
+      <c r="DPL14" s="1"/>
+      <c r="DPP14" s="1"/>
+      <c r="DPT14" s="1"/>
+      <c r="DPX14" s="1"/>
+      <c r="DQB14" s="1"/>
+      <c r="DQF14" s="1"/>
+      <c r="DQJ14" s="1"/>
+      <c r="DQN14" s="1"/>
+      <c r="DQR14" s="1"/>
+      <c r="DQV14" s="1"/>
+      <c r="DQZ14" s="1"/>
+      <c r="DRD14" s="1"/>
+      <c r="DRH14" s="1"/>
+      <c r="DRL14" s="1"/>
+      <c r="DRP14" s="1"/>
+      <c r="DRT14" s="1"/>
+      <c r="DRX14" s="1"/>
+      <c r="DSB14" s="1"/>
+      <c r="DSF14" s="1"/>
+      <c r="DSJ14" s="1"/>
+      <c r="DSN14" s="1"/>
+      <c r="DSR14" s="1"/>
+      <c r="DSV14" s="1"/>
+      <c r="DSZ14" s="1"/>
+      <c r="DTD14" s="1"/>
+      <c r="DTH14" s="1"/>
+      <c r="DTL14" s="1"/>
+      <c r="DTP14" s="1"/>
+      <c r="DTT14" s="1"/>
+      <c r="DTX14" s="1"/>
+      <c r="DUB14" s="1"/>
+      <c r="DUF14" s="1"/>
+      <c r="DUJ14" s="1"/>
+      <c r="DUN14" s="1"/>
+      <c r="DUR14" s="1"/>
+      <c r="DUV14" s="1"/>
+      <c r="DUZ14" s="1"/>
+      <c r="DVD14" s="1"/>
+      <c r="DVH14" s="1"/>
+      <c r="DVL14" s="1"/>
+      <c r="DVP14" s="1"/>
+      <c r="DVT14" s="1"/>
+      <c r="DVX14" s="1"/>
+      <c r="DWB14" s="1"/>
+      <c r="DWF14" s="1"/>
+      <c r="DWJ14" s="1"/>
+      <c r="DWN14" s="1"/>
+      <c r="DWR14" s="1"/>
+      <c r="DWV14" s="1"/>
+      <c r="DWZ14" s="1"/>
+      <c r="DXD14" s="1"/>
+      <c r="DXH14" s="1"/>
+      <c r="DXL14" s="1"/>
+      <c r="DXP14" s="1"/>
+      <c r="DXT14" s="1"/>
+      <c r="DXX14" s="1"/>
+      <c r="DYB14" s="1"/>
+      <c r="DYF14" s="1"/>
+      <c r="DYJ14" s="1"/>
+      <c r="DYN14" s="1"/>
+      <c r="DYR14" s="1"/>
+      <c r="DYV14" s="1"/>
+      <c r="DYZ14" s="1"/>
+      <c r="DZD14" s="1"/>
+      <c r="DZH14" s="1"/>
+      <c r="DZL14" s="1"/>
+      <c r="DZP14" s="1"/>
+      <c r="DZT14" s="1"/>
+      <c r="DZX14" s="1"/>
+      <c r="EAB14" s="1"/>
+      <c r="EAF14" s="1"/>
+      <c r="EAJ14" s="1"/>
+      <c r="EAN14" s="1"/>
+      <c r="EAR14" s="1"/>
+      <c r="EAV14" s="1"/>
+      <c r="EAZ14" s="1"/>
+      <c r="EBD14" s="1"/>
+      <c r="EBH14" s="1"/>
+      <c r="EBL14" s="1"/>
+      <c r="EBP14" s="1"/>
+      <c r="EBT14" s="1"/>
+      <c r="EBX14" s="1"/>
+      <c r="ECB14" s="1"/>
+      <c r="ECF14" s="1"/>
+      <c r="ECJ14" s="1"/>
+      <c r="ECN14" s="1"/>
+      <c r="ECR14" s="1"/>
+      <c r="ECV14" s="1"/>
+      <c r="ECZ14" s="1"/>
+      <c r="EDD14" s="1"/>
+      <c r="EDH14" s="1"/>
+      <c r="EDL14" s="1"/>
+      <c r="EDP14" s="1"/>
+      <c r="EDT14" s="1"/>
+      <c r="EDX14" s="1"/>
+      <c r="EEB14" s="1"/>
+      <c r="EEF14" s="1"/>
+      <c r="EEJ14" s="1"/>
+      <c r="EEN14" s="1"/>
+      <c r="EER14" s="1"/>
+      <c r="EEV14" s="1"/>
+      <c r="EEZ14" s="1"/>
+      <c r="EFD14" s="1"/>
+      <c r="EFH14" s="1"/>
+      <c r="EFL14" s="1"/>
+      <c r="EFP14" s="1"/>
+      <c r="EFT14" s="1"/>
+      <c r="EFX14" s="1"/>
+      <c r="EGB14" s="1"/>
+      <c r="EGF14" s="1"/>
+      <c r="EGJ14" s="1"/>
+      <c r="EGN14" s="1"/>
+      <c r="EGR14" s="1"/>
+      <c r="EGV14" s="1"/>
+      <c r="EGZ14" s="1"/>
+      <c r="EHD14" s="1"/>
+      <c r="EHH14" s="1"/>
+      <c r="EHL14" s="1"/>
+      <c r="EHP14" s="1"/>
+      <c r="EHT14" s="1"/>
+      <c r="EHX14" s="1"/>
+      <c r="EIB14" s="1"/>
+      <c r="EIF14" s="1"/>
+      <c r="EIJ14" s="1"/>
+      <c r="EIN14" s="1"/>
+      <c r="EIR14" s="1"/>
+      <c r="EIV14" s="1"/>
+      <c r="EIZ14" s="1"/>
+      <c r="EJD14" s="1"/>
+      <c r="EJH14" s="1"/>
+      <c r="EJL14" s="1"/>
+      <c r="EJP14" s="1"/>
+      <c r="EJT14" s="1"/>
+      <c r="EJX14" s="1"/>
+      <c r="EKB14" s="1"/>
+      <c r="EKF14" s="1"/>
+      <c r="EKJ14" s="1"/>
+      <c r="EKN14" s="1"/>
+      <c r="EKR14" s="1"/>
+      <c r="EKV14" s="1"/>
+      <c r="EKZ14" s="1"/>
+      <c r="ELD14" s="1"/>
+      <c r="ELH14" s="1"/>
+      <c r="ELL14" s="1"/>
+      <c r="ELP14" s="1"/>
+      <c r="ELT14" s="1"/>
+      <c r="ELX14" s="1"/>
+      <c r="EMB14" s="1"/>
+      <c r="EMF14" s="1"/>
+      <c r="EMJ14" s="1"/>
+      <c r="EMN14" s="1"/>
+      <c r="EMR14" s="1"/>
+      <c r="EMV14" s="1"/>
+      <c r="EMZ14" s="1"/>
+      <c r="END14" s="1"/>
+      <c r="ENH14" s="1"/>
+      <c r="ENL14" s="1"/>
+      <c r="ENP14" s="1"/>
+      <c r="ENT14" s="1"/>
+      <c r="ENX14" s="1"/>
+      <c r="EOB14" s="1"/>
+      <c r="EOF14" s="1"/>
+      <c r="EOJ14" s="1"/>
+      <c r="EON14" s="1"/>
+      <c r="EOR14" s="1"/>
+      <c r="EOV14" s="1"/>
+      <c r="EOZ14" s="1"/>
+      <c r="EPD14" s="1"/>
+      <c r="EPH14" s="1"/>
+      <c r="EPL14" s="1"/>
+      <c r="EPP14" s="1"/>
+      <c r="EPT14" s="1"/>
+      <c r="EPX14" s="1"/>
+      <c r="EQB14" s="1"/>
+      <c r="EQF14" s="1"/>
+      <c r="EQJ14" s="1"/>
+      <c r="EQN14" s="1"/>
+      <c r="EQR14" s="1"/>
+      <c r="EQV14" s="1"/>
+      <c r="EQZ14" s="1"/>
+      <c r="ERD14" s="1"/>
+      <c r="ERH14" s="1"/>
+      <c r="ERL14" s="1"/>
+      <c r="ERP14" s="1"/>
+      <c r="ERT14" s="1"/>
+      <c r="ERX14" s="1"/>
+      <c r="ESB14" s="1"/>
+      <c r="ESF14" s="1"/>
+      <c r="ESJ14" s="1"/>
+      <c r="ESN14" s="1"/>
+      <c r="ESR14" s="1"/>
+      <c r="ESV14" s="1"/>
+      <c r="ESZ14" s="1"/>
+      <c r="ETD14" s="1"/>
+      <c r="ETH14" s="1"/>
+      <c r="ETL14" s="1"/>
+      <c r="ETP14" s="1"/>
+      <c r="ETT14" s="1"/>
+      <c r="ETX14" s="1"/>
+      <c r="EUB14" s="1"/>
+      <c r="EUF14" s="1"/>
+      <c r="EUJ14" s="1"/>
+      <c r="EUN14" s="1"/>
+      <c r="EUR14" s="1"/>
+      <c r="EUV14" s="1"/>
+      <c r="EUZ14" s="1"/>
+      <c r="EVD14" s="1"/>
+      <c r="EVH14" s="1"/>
+      <c r="EVL14" s="1"/>
+      <c r="EVP14" s="1"/>
+      <c r="EVT14" s="1"/>
+      <c r="EVX14" s="1"/>
+      <c r="EWB14" s="1"/>
+      <c r="EWF14" s="1"/>
+      <c r="EWJ14" s="1"/>
+      <c r="EWN14" s="1"/>
+      <c r="EWR14" s="1"/>
+      <c r="EWV14" s="1"/>
+      <c r="EWZ14" s="1"/>
+      <c r="EXD14" s="1"/>
+      <c r="EXH14" s="1"/>
+      <c r="EXL14" s="1"/>
+      <c r="EXP14" s="1"/>
+      <c r="EXT14" s="1"/>
+      <c r="EXX14" s="1"/>
+      <c r="EYB14" s="1"/>
+      <c r="EYF14" s="1"/>
+      <c r="EYJ14" s="1"/>
+      <c r="EYN14" s="1"/>
+      <c r="EYR14" s="1"/>
+      <c r="EYV14" s="1"/>
+      <c r="EYZ14" s="1"/>
+      <c r="EZD14" s="1"/>
+      <c r="EZH14" s="1"/>
+      <c r="EZL14" s="1"/>
+      <c r="EZP14" s="1"/>
+      <c r="EZT14" s="1"/>
+      <c r="EZX14" s="1"/>
+      <c r="FAB14" s="1"/>
+      <c r="FAF14" s="1"/>
+      <c r="FAJ14" s="1"/>
+      <c r="FAN14" s="1"/>
+      <c r="FAR14" s="1"/>
+      <c r="FAV14" s="1"/>
+      <c r="FAZ14" s="1"/>
+      <c r="FBD14" s="1"/>
+      <c r="FBH14" s="1"/>
+      <c r="FBL14" s="1"/>
+      <c r="FBP14" s="1"/>
+      <c r="FBT14" s="1"/>
+      <c r="FBX14" s="1"/>
+      <c r="FCB14" s="1"/>
+      <c r="FCF14" s="1"/>
+      <c r="FCJ14" s="1"/>
+      <c r="FCN14" s="1"/>
+      <c r="FCR14" s="1"/>
+      <c r="FCV14" s="1"/>
+      <c r="FCZ14" s="1"/>
+      <c r="FDD14" s="1"/>
+      <c r="FDH14" s="1"/>
+      <c r="FDL14" s="1"/>
+      <c r="FDP14" s="1"/>
+      <c r="FDT14" s="1"/>
+      <c r="FDX14" s="1"/>
+      <c r="FEB14" s="1"/>
+      <c r="FEF14" s="1"/>
+      <c r="FEJ14" s="1"/>
+      <c r="FEN14" s="1"/>
+      <c r="FER14" s="1"/>
+      <c r="FEV14" s="1"/>
+      <c r="FEZ14" s="1"/>
+      <c r="FFD14" s="1"/>
+      <c r="FFH14" s="1"/>
+      <c r="FFL14" s="1"/>
+      <c r="FFP14" s="1"/>
+      <c r="FFT14" s="1"/>
+      <c r="FFX14" s="1"/>
+      <c r="FGB14" s="1"/>
+      <c r="FGF14" s="1"/>
+      <c r="FGJ14" s="1"/>
+      <c r="FGN14" s="1"/>
+      <c r="FGR14" s="1"/>
+      <c r="FGV14" s="1"/>
+      <c r="FGZ14" s="1"/>
+      <c r="FHD14" s="1"/>
+      <c r="FHH14" s="1"/>
+      <c r="FHL14" s="1"/>
+      <c r="FHP14" s="1"/>
+      <c r="FHT14" s="1"/>
+      <c r="FHX14" s="1"/>
+      <c r="FIB14" s="1"/>
+      <c r="FIF14" s="1"/>
+      <c r="FIJ14" s="1"/>
+      <c r="FIN14" s="1"/>
+      <c r="FIR14" s="1"/>
+      <c r="FIV14" s="1"/>
+      <c r="FIZ14" s="1"/>
+      <c r="FJD14" s="1"/>
+      <c r="FJH14" s="1"/>
+      <c r="FJL14" s="1"/>
+      <c r="FJP14" s="1"/>
+      <c r="FJT14" s="1"/>
+      <c r="FJX14" s="1"/>
+      <c r="FKB14" s="1"/>
+      <c r="FKF14" s="1"/>
+      <c r="FKJ14" s="1"/>
+      <c r="FKN14" s="1"/>
+      <c r="FKR14" s="1"/>
+      <c r="FKV14" s="1"/>
+      <c r="FKZ14" s="1"/>
+      <c r="FLD14" s="1"/>
+      <c r="FLH14" s="1"/>
+      <c r="FLL14" s="1"/>
+      <c r="FLP14" s="1"/>
+      <c r="FLT14" s="1"/>
+      <c r="FLX14" s="1"/>
+      <c r="FMB14" s="1"/>
+      <c r="FMF14" s="1"/>
+      <c r="FMJ14" s="1"/>
+      <c r="FMN14" s="1"/>
+      <c r="FMR14" s="1"/>
+      <c r="FMV14" s="1"/>
+      <c r="FMZ14" s="1"/>
+      <c r="FND14" s="1"/>
+      <c r="FNH14" s="1"/>
+      <c r="FNL14" s="1"/>
+      <c r="FNP14" s="1"/>
+      <c r="FNT14" s="1"/>
+      <c r="FNX14" s="1"/>
+      <c r="FOB14" s="1"/>
+      <c r="FOF14" s="1"/>
+      <c r="FOJ14" s="1"/>
+      <c r="FON14" s="1"/>
+      <c r="FOR14" s="1"/>
+      <c r="FOV14" s="1"/>
+      <c r="FOZ14" s="1"/>
+      <c r="FPD14" s="1"/>
+      <c r="FPH14" s="1"/>
+      <c r="FPL14" s="1"/>
+      <c r="FPP14" s="1"/>
+      <c r="FPT14" s="1"/>
+      <c r="FPX14" s="1"/>
+      <c r="FQB14" s="1"/>
+      <c r="FQF14" s="1"/>
+      <c r="FQJ14" s="1"/>
+      <c r="FQN14" s="1"/>
+      <c r="FQR14" s="1"/>
+      <c r="FQV14" s="1"/>
+      <c r="FQZ14" s="1"/>
+      <c r="FRD14" s="1"/>
+      <c r="FRH14" s="1"/>
+      <c r="FRL14" s="1"/>
+      <c r="FRP14" s="1"/>
+      <c r="FRT14" s="1"/>
+      <c r="FRX14" s="1"/>
+      <c r="FSB14" s="1"/>
+      <c r="FSF14" s="1"/>
+      <c r="FSJ14" s="1"/>
+      <c r="FSN14" s="1"/>
+      <c r="FSR14" s="1"/>
+      <c r="FSV14" s="1"/>
+      <c r="FSZ14" s="1"/>
+      <c r="FTD14" s="1"/>
+      <c r="FTH14" s="1"/>
+      <c r="FTL14" s="1"/>
+      <c r="FTP14" s="1"/>
+      <c r="FTT14" s="1"/>
+      <c r="FTX14" s="1"/>
+      <c r="FUB14" s="1"/>
+      <c r="FUF14" s="1"/>
+      <c r="FUJ14" s="1"/>
+      <c r="FUN14" s="1"/>
+      <c r="FUR14" s="1"/>
+      <c r="FUV14" s="1"/>
+      <c r="FUZ14" s="1"/>
+      <c r="FVD14" s="1"/>
+      <c r="FVH14" s="1"/>
+      <c r="FVL14" s="1"/>
+      <c r="FVP14" s="1"/>
+      <c r="FVT14" s="1"/>
+      <c r="FVX14" s="1"/>
+      <c r="FWB14" s="1"/>
+      <c r="FWF14" s="1"/>
+      <c r="FWJ14" s="1"/>
+      <c r="FWN14" s="1"/>
+      <c r="FWR14" s="1"/>
+      <c r="FWV14" s="1"/>
+      <c r="FWZ14" s="1"/>
+      <c r="FXD14" s="1"/>
+      <c r="FXH14" s="1"/>
+      <c r="FXL14" s="1"/>
+      <c r="FXP14" s="1"/>
+      <c r="FXT14" s="1"/>
+      <c r="FXX14" s="1"/>
+      <c r="FYB14" s="1"/>
+      <c r="FYF14" s="1"/>
+      <c r="FYJ14" s="1"/>
+      <c r="FYN14" s="1"/>
+      <c r="FYR14" s="1"/>
+      <c r="FYV14" s="1"/>
+      <c r="FYZ14" s="1"/>
+      <c r="FZD14" s="1"/>
+      <c r="FZH14" s="1"/>
+      <c r="FZL14" s="1"/>
+      <c r="FZP14" s="1"/>
+      <c r="FZT14" s="1"/>
+      <c r="FZX14" s="1"/>
+      <c r="GAB14" s="1"/>
+      <c r="GAF14" s="1"/>
+      <c r="GAJ14" s="1"/>
+      <c r="GAN14" s="1"/>
+      <c r="GAR14" s="1"/>
+      <c r="GAV14" s="1"/>
+      <c r="GAZ14" s="1"/>
+      <c r="GBD14" s="1"/>
+      <c r="GBH14" s="1"/>
+      <c r="GBL14" s="1"/>
+      <c r="GBP14" s="1"/>
+      <c r="GBT14" s="1"/>
+      <c r="GBX14" s="1"/>
+      <c r="GCB14" s="1"/>
+      <c r="GCF14" s="1"/>
+      <c r="GCJ14" s="1"/>
+      <c r="GCN14" s="1"/>
+      <c r="GCR14" s="1"/>
+      <c r="GCV14" s="1"/>
+      <c r="GCZ14" s="1"/>
+      <c r="GDD14" s="1"/>
+      <c r="GDH14" s="1"/>
+      <c r="GDL14" s="1"/>
+      <c r="GDP14" s="1"/>
+      <c r="GDT14" s="1"/>
+      <c r="GDX14" s="1"/>
+      <c r="GEB14" s="1"/>
+      <c r="GEF14" s="1"/>
+      <c r="GEJ14" s="1"/>
+      <c r="GEN14" s="1"/>
+      <c r="GER14" s="1"/>
+      <c r="GEV14" s="1"/>
+      <c r="GEZ14" s="1"/>
+      <c r="GFD14" s="1"/>
+      <c r="GFH14" s="1"/>
+      <c r="GFL14" s="1"/>
+      <c r="GFP14" s="1"/>
+      <c r="GFT14" s="1"/>
+      <c r="GFX14" s="1"/>
+      <c r="GGB14" s="1"/>
+      <c r="GGF14" s="1"/>
+      <c r="GGJ14" s="1"/>
+      <c r="GGN14" s="1"/>
+      <c r="GGR14" s="1"/>
+      <c r="GGV14" s="1"/>
+      <c r="GGZ14" s="1"/>
+      <c r="GHD14" s="1"/>
+      <c r="GHH14" s="1"/>
+      <c r="GHL14" s="1"/>
+      <c r="GHP14" s="1"/>
+      <c r="GHT14" s="1"/>
+      <c r="GHX14" s="1"/>
+      <c r="GIB14" s="1"/>
+      <c r="GIF14" s="1"/>
+      <c r="GIJ14" s="1"/>
+      <c r="GIN14" s="1"/>
+      <c r="GIR14" s="1"/>
+      <c r="GIV14" s="1"/>
+      <c r="GIZ14" s="1"/>
+      <c r="GJD14" s="1"/>
+      <c r="GJH14" s="1"/>
+      <c r="GJL14" s="1"/>
+      <c r="GJP14" s="1"/>
+      <c r="GJT14" s="1"/>
+      <c r="GJX14" s="1"/>
+      <c r="GKB14" s="1"/>
+      <c r="GKF14" s="1"/>
+      <c r="GKJ14" s="1"/>
+      <c r="GKN14" s="1"/>
+      <c r="GKR14" s="1"/>
+      <c r="GKV14" s="1"/>
+      <c r="GKZ14" s="1"/>
+      <c r="GLD14" s="1"/>
+      <c r="GLH14" s="1"/>
+      <c r="GLL14" s="1"/>
+      <c r="GLP14" s="1"/>
+      <c r="GLT14" s="1"/>
+      <c r="GLX14" s="1"/>
+      <c r="GMB14" s="1"/>
+      <c r="GMF14" s="1"/>
+      <c r="GMJ14" s="1"/>
+      <c r="GMN14" s="1"/>
+      <c r="GMR14" s="1"/>
+      <c r="GMV14" s="1"/>
+      <c r="GMZ14" s="1"/>
+      <c r="GND14" s="1"/>
+      <c r="GNH14" s="1"/>
+      <c r="GNL14" s="1"/>
+      <c r="GNP14" s="1"/>
+      <c r="GNT14" s="1"/>
+      <c r="GNX14" s="1"/>
+      <c r="GOB14" s="1"/>
+      <c r="GOF14" s="1"/>
+      <c r="GOJ14" s="1"/>
+      <c r="GON14" s="1"/>
+      <c r="GOR14" s="1"/>
+      <c r="GOV14" s="1"/>
+      <c r="GOZ14" s="1"/>
+      <c r="GPD14" s="1"/>
+      <c r="GPH14" s="1"/>
+      <c r="GPL14" s="1"/>
+      <c r="GPP14" s="1"/>
+      <c r="GPT14" s="1"/>
+      <c r="GPX14" s="1"/>
+      <c r="GQB14" s="1"/>
+      <c r="GQF14" s="1"/>
+      <c r="GQJ14" s="1"/>
+      <c r="GQN14" s="1"/>
+      <c r="GQR14" s="1"/>
+      <c r="GQV14" s="1"/>
+      <c r="GQZ14" s="1"/>
+      <c r="GRD14" s="1"/>
+      <c r="GRH14" s="1"/>
+      <c r="GRL14" s="1"/>
+      <c r="GRP14" s="1"/>
+      <c r="GRT14" s="1"/>
+      <c r="GRX14" s="1"/>
+      <c r="GSB14" s="1"/>
+      <c r="GSF14" s="1"/>
+      <c r="GSJ14" s="1"/>
+      <c r="GSN14" s="1"/>
+      <c r="GSR14" s="1"/>
+      <c r="GSV14" s="1"/>
+      <c r="GSZ14" s="1"/>
+      <c r="GTD14" s="1"/>
+      <c r="GTH14" s="1"/>
+      <c r="GTL14" s="1"/>
+      <c r="GTP14" s="1"/>
+      <c r="GTT14" s="1"/>
+      <c r="GTX14" s="1"/>
+      <c r="GUB14" s="1"/>
+      <c r="GUF14" s="1"/>
+      <c r="GUJ14" s="1"/>
+      <c r="GUN14" s="1"/>
+      <c r="GUR14" s="1"/>
+      <c r="GUV14" s="1"/>
+      <c r="GUZ14" s="1"/>
+      <c r="GVD14" s="1"/>
+      <c r="GVH14" s="1"/>
+      <c r="GVL14" s="1"/>
+      <c r="GVP14" s="1"/>
+      <c r="GVT14" s="1"/>
+      <c r="GVX14" s="1"/>
+      <c r="GWB14" s="1"/>
+      <c r="GWF14" s="1"/>
+      <c r="GWJ14" s="1"/>
+      <c r="GWN14" s="1"/>
+      <c r="GWR14" s="1"/>
+      <c r="GWV14" s="1"/>
+      <c r="GWZ14" s="1"/>
+      <c r="GXD14" s="1"/>
+      <c r="GXH14" s="1"/>
+      <c r="GXL14" s="1"/>
+      <c r="GXP14" s="1"/>
+      <c r="GXT14" s="1"/>
+      <c r="GXX14" s="1"/>
+      <c r="GYB14" s="1"/>
+      <c r="GYF14" s="1"/>
+      <c r="GYJ14" s="1"/>
+      <c r="GYN14" s="1"/>
+      <c r="GYR14" s="1"/>
+      <c r="GYV14" s="1"/>
+      <c r="GYZ14" s="1"/>
+      <c r="GZD14" s="1"/>
+      <c r="GZH14" s="1"/>
+      <c r="GZL14" s="1"/>
+      <c r="GZP14" s="1"/>
+      <c r="GZT14" s="1"/>
+      <c r="GZX14" s="1"/>
+      <c r="HAB14" s="1"/>
+      <c r="HAF14" s="1"/>
+      <c r="HAJ14" s="1"/>
+      <c r="HAN14" s="1"/>
+      <c r="HAR14" s="1"/>
+      <c r="HAV14" s="1"/>
+      <c r="HAZ14" s="1"/>
+      <c r="HBD14" s="1"/>
+      <c r="HBH14" s="1"/>
+      <c r="HBL14" s="1"/>
+      <c r="HBP14" s="1"/>
+      <c r="HBT14" s="1"/>
+      <c r="HBX14" s="1"/>
+      <c r="HCB14" s="1"/>
+      <c r="HCF14" s="1"/>
+      <c r="HCJ14" s="1"/>
+      <c r="HCN14" s="1"/>
+      <c r="HCR14" s="1"/>
+      <c r="HCV14" s="1"/>
+      <c r="HCZ14" s="1"/>
+      <c r="HDD14" s="1"/>
+      <c r="HDH14" s="1"/>
+      <c r="HDL14" s="1"/>
+      <c r="HDP14" s="1"/>
+      <c r="HDT14" s="1"/>
+      <c r="HDX14" s="1"/>
+      <c r="HEB14" s="1"/>
+      <c r="HEF14" s="1"/>
+      <c r="HEJ14" s="1"/>
+      <c r="HEN14" s="1"/>
+      <c r="HER14" s="1"/>
+      <c r="HEV14" s="1"/>
+      <c r="HEZ14" s="1"/>
+      <c r="HFD14" s="1"/>
+      <c r="HFH14" s="1"/>
+      <c r="HFL14" s="1"/>
+      <c r="HFP14" s="1"/>
+      <c r="HFT14" s="1"/>
+      <c r="HFX14" s="1"/>
+      <c r="HGB14" s="1"/>
+      <c r="HGF14" s="1"/>
+      <c r="HGJ14" s="1"/>
+      <c r="HGN14" s="1"/>
+      <c r="HGR14" s="1"/>
+      <c r="HGV14" s="1"/>
+      <c r="HGZ14" s="1"/>
+      <c r="HHD14" s="1"/>
+      <c r="HHH14" s="1"/>
+      <c r="HHL14" s="1"/>
+      <c r="HHP14" s="1"/>
+      <c r="HHT14" s="1"/>
+      <c r="HHX14" s="1"/>
+      <c r="HIB14" s="1"/>
+      <c r="HIF14" s="1"/>
+      <c r="HIJ14" s="1"/>
+      <c r="HIN14" s="1"/>
+      <c r="HIR14" s="1"/>
+      <c r="HIV14" s="1"/>
+      <c r="HIZ14" s="1"/>
+      <c r="HJD14" s="1"/>
+      <c r="HJH14" s="1"/>
+      <c r="HJL14" s="1"/>
+      <c r="HJP14" s="1"/>
+      <c r="HJT14" s="1"/>
+      <c r="HJX14" s="1"/>
+      <c r="HKB14" s="1"/>
+      <c r="HKF14" s="1"/>
+      <c r="HKJ14" s="1"/>
+      <c r="HKN14" s="1"/>
+      <c r="HKR14" s="1"/>
+      <c r="HKV14" s="1"/>
+      <c r="HKZ14" s="1"/>
+      <c r="HLD14" s="1"/>
+      <c r="HLH14" s="1"/>
+      <c r="HLL14" s="1"/>
+      <c r="HLP14" s="1"/>
+      <c r="HLT14" s="1"/>
+      <c r="HLX14" s="1"/>
+      <c r="HMB14" s="1"/>
+      <c r="HMF14" s="1"/>
+      <c r="HMJ14" s="1"/>
+      <c r="HMN14" s="1"/>
+      <c r="HMR14" s="1"/>
+      <c r="HMV14" s="1"/>
+      <c r="HMZ14" s="1"/>
+      <c r="HND14" s="1"/>
+      <c r="HNH14" s="1"/>
+      <c r="HNL14" s="1"/>
+      <c r="HNP14" s="1"/>
+      <c r="HNT14" s="1"/>
+      <c r="HNX14" s="1"/>
+      <c r="HOB14" s="1"/>
+      <c r="HOF14" s="1"/>
+      <c r="HOJ14" s="1"/>
+      <c r="HON14" s="1"/>
+      <c r="HOR14" s="1"/>
+      <c r="HOV14" s="1"/>
+      <c r="HOZ14" s="1"/>
+      <c r="HPD14" s="1"/>
+      <c r="HPH14" s="1"/>
+      <c r="HPL14" s="1"/>
+      <c r="HPP14" s="1"/>
+      <c r="HPT14" s="1"/>
+      <c r="HPX14" s="1"/>
+      <c r="HQB14" s="1"/>
+      <c r="HQF14" s="1"/>
+      <c r="HQJ14" s="1"/>
+      <c r="HQN14" s="1"/>
+      <c r="HQR14" s="1"/>
+      <c r="HQV14" s="1"/>
+      <c r="HQZ14" s="1"/>
+      <c r="HRD14" s="1"/>
+      <c r="HRH14" s="1"/>
+      <c r="HRL14" s="1"/>
+      <c r="HRP14" s="1"/>
+      <c r="HRT14" s="1"/>
+      <c r="HRX14" s="1"/>
+      <c r="HSB14" s="1"/>
+      <c r="HSF14" s="1"/>
+      <c r="HSJ14" s="1"/>
+      <c r="HSN14" s="1"/>
+      <c r="HSR14" s="1"/>
+      <c r="HSV14" s="1"/>
+      <c r="HSZ14" s="1"/>
+      <c r="HTD14" s="1"/>
+      <c r="HTH14" s="1"/>
+      <c r="HTL14" s="1"/>
+      <c r="HTP14" s="1"/>
+      <c r="HTT14" s="1"/>
+      <c r="HTX14" s="1"/>
+      <c r="HUB14" s="1"/>
+      <c r="HUF14" s="1"/>
+      <c r="HUJ14" s="1"/>
+      <c r="HUN14" s="1"/>
+      <c r="HUR14" s="1"/>
+      <c r="HUV14" s="1"/>
+      <c r="HUZ14" s="1"/>
+      <c r="HVD14" s="1"/>
+      <c r="HVH14" s="1"/>
+      <c r="HVL14" s="1"/>
+      <c r="HVP14" s="1"/>
+      <c r="HVT14" s="1"/>
+      <c r="HVX14" s="1"/>
+      <c r="HWB14" s="1"/>
+      <c r="HWF14" s="1"/>
+      <c r="HWJ14" s="1"/>
+      <c r="HWN14" s="1"/>
+      <c r="HWR14" s="1"/>
+      <c r="HWV14" s="1"/>
+      <c r="HWZ14" s="1"/>
+      <c r="HXD14" s="1"/>
+      <c r="HXH14" s="1"/>
+      <c r="HXL14" s="1"/>
+      <c r="HXP14" s="1"/>
+      <c r="HXT14" s="1"/>
+      <c r="HXX14" s="1"/>
+      <c r="HYB14" s="1"/>
+      <c r="HYF14" s="1"/>
+      <c r="HYJ14" s="1"/>
+      <c r="HYN14" s="1"/>
+      <c r="HYR14" s="1"/>
+      <c r="HYV14" s="1"/>
+      <c r="HYZ14" s="1"/>
+      <c r="HZD14" s="1"/>
+      <c r="HZH14" s="1"/>
+      <c r="HZL14" s="1"/>
+      <c r="HZP14" s="1"/>
+      <c r="HZT14" s="1"/>
+      <c r="HZX14" s="1"/>
+      <c r="IAB14" s="1"/>
+      <c r="IAF14" s="1"/>
+      <c r="IAJ14" s="1"/>
+      <c r="IAN14" s="1"/>
+      <c r="IAR14" s="1"/>
+      <c r="IAV14" s="1"/>
+      <c r="IAZ14" s="1"/>
+      <c r="IBD14" s="1"/>
+      <c r="IBH14" s="1"/>
+      <c r="IBL14" s="1"/>
+      <c r="IBP14" s="1"/>
+      <c r="IBT14" s="1"/>
+      <c r="IBX14" s="1"/>
+      <c r="ICB14" s="1"/>
+      <c r="ICF14" s="1"/>
+      <c r="ICJ14" s="1"/>
+      <c r="ICN14" s="1"/>
+      <c r="ICR14" s="1"/>
+      <c r="ICV14" s="1"/>
+      <c r="ICZ14" s="1"/>
+      <c r="IDD14" s="1"/>
+      <c r="IDH14" s="1"/>
+      <c r="IDL14" s="1"/>
+      <c r="IDP14" s="1"/>
+      <c r="IDT14" s="1"/>
+      <c r="IDX14" s="1"/>
+      <c r="IEB14" s="1"/>
+      <c r="IEF14" s="1"/>
+      <c r="IEJ14" s="1"/>
+      <c r="IEN14" s="1"/>
+      <c r="IER14" s="1"/>
+      <c r="IEV14" s="1"/>
+      <c r="IEZ14" s="1"/>
+      <c r="IFD14" s="1"/>
+      <c r="IFH14" s="1"/>
+      <c r="IFL14" s="1"/>
+      <c r="IFP14" s="1"/>
+      <c r="IFT14" s="1"/>
+      <c r="IFX14" s="1"/>
+      <c r="IGB14" s="1"/>
+      <c r="IGF14" s="1"/>
+      <c r="IGJ14" s="1"/>
+      <c r="IGN14" s="1"/>
+      <c r="IGR14" s="1"/>
+      <c r="IGV14" s="1"/>
+      <c r="IGZ14" s="1"/>
+      <c r="IHD14" s="1"/>
+      <c r="IHH14" s="1"/>
+      <c r="IHL14" s="1"/>
+      <c r="IHP14" s="1"/>
+      <c r="IHT14" s="1"/>
+      <c r="IHX14" s="1"/>
+      <c r="IIB14" s="1"/>
+      <c r="IIF14" s="1"/>
+      <c r="IIJ14" s="1"/>
+      <c r="IIN14" s="1"/>
+      <c r="IIR14" s="1"/>
+      <c r="IIV14" s="1"/>
+      <c r="IIZ14" s="1"/>
+      <c r="IJD14" s="1"/>
+      <c r="IJH14" s="1"/>
+      <c r="IJL14" s="1"/>
+      <c r="IJP14" s="1"/>
+      <c r="IJT14" s="1"/>
+      <c r="IJX14" s="1"/>
+      <c r="IKB14" s="1"/>
+      <c r="IKF14" s="1"/>
+      <c r="IKJ14" s="1"/>
+      <c r="IKN14" s="1"/>
+      <c r="IKR14" s="1"/>
+      <c r="IKV14" s="1"/>
+      <c r="IKZ14" s="1"/>
+      <c r="ILD14" s="1"/>
+      <c r="ILH14" s="1"/>
+      <c r="ILL14" s="1"/>
+      <c r="ILP14" s="1"/>
+      <c r="ILT14" s="1"/>
+      <c r="ILX14" s="1"/>
+      <c r="IMB14" s="1"/>
+      <c r="IMF14" s="1"/>
+      <c r="IMJ14" s="1"/>
+      <c r="IMN14" s="1"/>
+      <c r="IMR14" s="1"/>
+      <c r="IMV14" s="1"/>
+      <c r="IMZ14" s="1"/>
+      <c r="IND14" s="1"/>
+      <c r="INH14" s="1"/>
+      <c r="INL14" s="1"/>
+      <c r="INP14" s="1"/>
+      <c r="INT14" s="1"/>
+      <c r="INX14" s="1"/>
+      <c r="IOB14" s="1"/>
+      <c r="IOF14" s="1"/>
+      <c r="IOJ14" s="1"/>
+      <c r="ION14" s="1"/>
+      <c r="IOR14" s="1"/>
+      <c r="IOV14" s="1"/>
+      <c r="IOZ14" s="1"/>
+      <c r="IPD14" s="1"/>
+      <c r="IPH14" s="1"/>
+      <c r="IPL14" s="1"/>
+      <c r="IPP14" s="1"/>
+      <c r="IPT14" s="1"/>
+      <c r="IPX14" s="1"/>
+      <c r="IQB14" s="1"/>
+      <c r="IQF14" s="1"/>
+      <c r="IQJ14" s="1"/>
+      <c r="IQN14" s="1"/>
+      <c r="IQR14" s="1"/>
+      <c r="IQV14" s="1"/>
+      <c r="IQZ14" s="1"/>
+      <c r="IRD14" s="1"/>
+      <c r="IRH14" s="1"/>
+      <c r="IRL14" s="1"/>
+      <c r="IRP14" s="1"/>
+      <c r="IRT14" s="1"/>
+      <c r="IRX14" s="1"/>
+      <c r="ISB14" s="1"/>
+      <c r="ISF14" s="1"/>
+      <c r="ISJ14" s="1"/>
+      <c r="ISN14" s="1"/>
+      <c r="ISR14" s="1"/>
+      <c r="ISV14" s="1"/>
+      <c r="ISZ14" s="1"/>
+      <c r="ITD14" s="1"/>
+      <c r="ITH14" s="1"/>
+      <c r="ITL14" s="1"/>
+      <c r="ITP14" s="1"/>
+      <c r="ITT14" s="1"/>
+      <c r="ITX14" s="1"/>
+      <c r="IUB14" s="1"/>
+      <c r="IUF14" s="1"/>
+      <c r="IUJ14" s="1"/>
+      <c r="IUN14" s="1"/>
+      <c r="IUR14" s="1"/>
+      <c r="IUV14" s="1"/>
+      <c r="IUZ14" s="1"/>
+      <c r="IVD14" s="1"/>
+      <c r="IVH14" s="1"/>
+      <c r="IVL14" s="1"/>
+      <c r="IVP14" s="1"/>
+      <c r="IVT14" s="1"/>
+      <c r="IVX14" s="1"/>
+      <c r="IWB14" s="1"/>
+      <c r="IWF14" s="1"/>
+      <c r="IWJ14" s="1"/>
+      <c r="IWN14" s="1"/>
+      <c r="IWR14" s="1"/>
+      <c r="IWV14" s="1"/>
+      <c r="IWZ14" s="1"/>
+      <c r="IXD14" s="1"/>
+      <c r="IXH14" s="1"/>
+      <c r="IXL14" s="1"/>
+      <c r="IXP14" s="1"/>
+      <c r="IXT14" s="1"/>
+      <c r="IXX14" s="1"/>
+      <c r="IYB14" s="1"/>
+      <c r="IYF14" s="1"/>
+      <c r="IYJ14" s="1"/>
+      <c r="IYN14" s="1"/>
+      <c r="IYR14" s="1"/>
+      <c r="IYV14" s="1"/>
+      <c r="IYZ14" s="1"/>
+      <c r="IZD14" s="1"/>
+      <c r="IZH14" s="1"/>
+      <c r="IZL14" s="1"/>
+      <c r="IZP14" s="1"/>
+      <c r="IZT14" s="1"/>
+      <c r="IZX14" s="1"/>
+      <c r="JAB14" s="1"/>
+      <c r="JAF14" s="1"/>
+      <c r="JAJ14" s="1"/>
+      <c r="JAN14" s="1"/>
+      <c r="JAR14" s="1"/>
+      <c r="JAV14" s="1"/>
+      <c r="JAZ14" s="1"/>
+      <c r="JBD14" s="1"/>
+      <c r="JBH14" s="1"/>
+      <c r="JBL14" s="1"/>
+      <c r="JBP14" s="1"/>
+      <c r="JBT14" s="1"/>
+      <c r="JBX14" s="1"/>
+      <c r="JCB14" s="1"/>
+      <c r="JCF14" s="1"/>
+      <c r="JCJ14" s="1"/>
+      <c r="JCN14" s="1"/>
+      <c r="JCR14" s="1"/>
+      <c r="JCV14" s="1"/>
+      <c r="JCZ14" s="1"/>
+      <c r="JDD14" s="1"/>
+      <c r="JDH14" s="1"/>
+      <c r="JDL14" s="1"/>
+      <c r="JDP14" s="1"/>
+      <c r="JDT14" s="1"/>
+      <c r="JDX14" s="1"/>
+      <c r="JEB14" s="1"/>
+      <c r="JEF14" s="1"/>
+      <c r="JEJ14" s="1"/>
+      <c r="JEN14" s="1"/>
+      <c r="JER14" s="1"/>
+      <c r="JEV14" s="1"/>
+      <c r="JEZ14" s="1"/>
+      <c r="JFD14" s="1"/>
+      <c r="JFH14" s="1"/>
+      <c r="JFL14" s="1"/>
+      <c r="JFP14" s="1"/>
+      <c r="JFT14" s="1"/>
+      <c r="JFX14" s="1"/>
+      <c r="JGB14" s="1"/>
+      <c r="JGF14" s="1"/>
+      <c r="JGJ14" s="1"/>
+      <c r="JGN14" s="1"/>
+      <c r="JGR14" s="1"/>
+      <c r="JGV14" s="1"/>
+      <c r="JGZ14" s="1"/>
+      <c r="JHD14" s="1"/>
+      <c r="JHH14" s="1"/>
+      <c r="JHL14" s="1"/>
+      <c r="JHP14" s="1"/>
+      <c r="JHT14" s="1"/>
+      <c r="JHX14" s="1"/>
+      <c r="JIB14" s="1"/>
+      <c r="JIF14" s="1"/>
+      <c r="JIJ14" s="1"/>
+      <c r="JIN14" s="1"/>
+      <c r="JIR14" s="1"/>
+      <c r="JIV14" s="1"/>
+      <c r="JIZ14" s="1"/>
+      <c r="JJD14" s="1"/>
+      <c r="JJH14" s="1"/>
+      <c r="JJL14" s="1"/>
+      <c r="JJP14" s="1"/>
+      <c r="JJT14" s="1"/>
+      <c r="JJX14" s="1"/>
+      <c r="JKB14" s="1"/>
+      <c r="JKF14" s="1"/>
+      <c r="JKJ14" s="1"/>
+      <c r="JKN14" s="1"/>
+      <c r="JKR14" s="1"/>
+      <c r="JKV14" s="1"/>
+      <c r="JKZ14" s="1"/>
+      <c r="JLD14" s="1"/>
+      <c r="JLH14" s="1"/>
+      <c r="JLL14" s="1"/>
+      <c r="JLP14" s="1"/>
+      <c r="JLT14" s="1"/>
+      <c r="JLX14" s="1"/>
+      <c r="JMB14" s="1"/>
+      <c r="JMF14" s="1"/>
+      <c r="JMJ14" s="1"/>
+      <c r="JMN14" s="1"/>
+      <c r="JMR14" s="1"/>
+      <c r="JMV14" s="1"/>
+      <c r="JMZ14" s="1"/>
+      <c r="JND14" s="1"/>
+      <c r="JNH14" s="1"/>
+      <c r="JNL14" s="1"/>
+      <c r="JNP14" s="1"/>
+      <c r="JNT14" s="1"/>
+      <c r="JNX14" s="1"/>
+      <c r="JOB14" s="1"/>
+      <c r="JOF14" s="1"/>
+      <c r="JOJ14" s="1"/>
+      <c r="JON14" s="1"/>
+      <c r="JOR14" s="1"/>
+      <c r="JOV14" s="1"/>
+      <c r="JOZ14" s="1"/>
+      <c r="JPD14" s="1"/>
+      <c r="JPH14" s="1"/>
+      <c r="JPL14" s="1"/>
+      <c r="JPP14" s="1"/>
+      <c r="JPT14" s="1"/>
+      <c r="JPX14" s="1"/>
+      <c r="JQB14" s="1"/>
+      <c r="JQF14" s="1"/>
+      <c r="JQJ14" s="1"/>
+      <c r="JQN14" s="1"/>
+      <c r="JQR14" s="1"/>
+      <c r="JQV14" s="1"/>
+      <c r="JQZ14" s="1"/>
+      <c r="JRD14" s="1"/>
+      <c r="JRH14" s="1"/>
+      <c r="JRL14" s="1"/>
+      <c r="JRP14" s="1"/>
+      <c r="JRT14" s="1"/>
+      <c r="JRX14" s="1"/>
+      <c r="JSB14" s="1"/>
+      <c r="JSF14" s="1"/>
+      <c r="JSJ14" s="1"/>
+      <c r="JSN14" s="1"/>
+      <c r="JSR14" s="1"/>
+      <c r="JSV14" s="1"/>
+      <c r="JSZ14" s="1"/>
+      <c r="JTD14" s="1"/>
+      <c r="JTH14" s="1"/>
+      <c r="JTL14" s="1"/>
+      <c r="JTP14" s="1"/>
+      <c r="JTT14" s="1"/>
+      <c r="JTX14" s="1"/>
+      <c r="JUB14" s="1"/>
+      <c r="JUF14" s="1"/>
+      <c r="JUJ14" s="1"/>
+      <c r="JUN14" s="1"/>
+      <c r="JUR14" s="1"/>
+      <c r="JUV14" s="1"/>
+      <c r="JUZ14" s="1"/>
+      <c r="JVD14" s="1"/>
+      <c r="JVH14" s="1"/>
+      <c r="JVL14" s="1"/>
+      <c r="JVP14" s="1"/>
+      <c r="JVT14" s="1"/>
+      <c r="JVX14" s="1"/>
+      <c r="JWB14" s="1"/>
+      <c r="JWF14" s="1"/>
+      <c r="JWJ14" s="1"/>
+      <c r="JWN14" s="1"/>
+      <c r="JWR14" s="1"/>
+      <c r="JWV14" s="1"/>
+      <c r="JWZ14" s="1"/>
+      <c r="JXD14" s="1"/>
+      <c r="JXH14" s="1"/>
+      <c r="JXL14" s="1"/>
+      <c r="JXP14" s="1"/>
+      <c r="JXT14" s="1"/>
+      <c r="JXX14" s="1"/>
+      <c r="JYB14" s="1"/>
+      <c r="JYF14" s="1"/>
+      <c r="JYJ14" s="1"/>
+      <c r="JYN14" s="1"/>
+      <c r="JYR14" s="1"/>
+      <c r="JYV14" s="1"/>
+      <c r="JYZ14" s="1"/>
+      <c r="JZD14" s="1"/>
+      <c r="JZH14" s="1"/>
+      <c r="JZL14" s="1"/>
+      <c r="JZP14" s="1"/>
+      <c r="JZT14" s="1"/>
+      <c r="JZX14" s="1"/>
+      <c r="KAB14" s="1"/>
+      <c r="KAF14" s="1"/>
+      <c r="KAJ14" s="1"/>
+      <c r="KAN14" s="1"/>
+      <c r="KAR14" s="1"/>
+      <c r="KAV14" s="1"/>
+      <c r="KAZ14" s="1"/>
+      <c r="KBD14" s="1"/>
+      <c r="KBH14" s="1"/>
+      <c r="KBL14" s="1"/>
+      <c r="KBP14" s="1"/>
+      <c r="KBT14" s="1"/>
+      <c r="KBX14" s="1"/>
+      <c r="KCB14" s="1"/>
+      <c r="KCF14" s="1"/>
+      <c r="KCJ14" s="1"/>
+      <c r="KCN14" s="1"/>
+      <c r="KCR14" s="1"/>
+      <c r="KCV14" s="1"/>
+      <c r="KCZ14" s="1"/>
+      <c r="KDD14" s="1"/>
+      <c r="KDH14" s="1"/>
+      <c r="KDL14" s="1"/>
+      <c r="KDP14" s="1"/>
+      <c r="KDT14" s="1"/>
+      <c r="KDX14" s="1"/>
+      <c r="KEB14" s="1"/>
+      <c r="KEF14" s="1"/>
+      <c r="KEJ14" s="1"/>
+      <c r="KEN14" s="1"/>
+      <c r="KER14" s="1"/>
+      <c r="KEV14" s="1"/>
+      <c r="KEZ14" s="1"/>
+      <c r="KFD14" s="1"/>
+      <c r="KFH14" s="1"/>
+      <c r="KFL14" s="1"/>
+      <c r="KFP14" s="1"/>
+      <c r="KFT14" s="1"/>
+      <c r="KFX14" s="1"/>
+      <c r="KGB14" s="1"/>
+      <c r="KGF14" s="1"/>
+      <c r="KGJ14" s="1"/>
+      <c r="KGN14" s="1"/>
+      <c r="KGR14" s="1"/>
+      <c r="KGV14" s="1"/>
+      <c r="KGZ14" s="1"/>
+      <c r="KHD14" s="1"/>
+      <c r="KHH14" s="1"/>
+      <c r="KHL14" s="1"/>
+      <c r="KHP14" s="1"/>
+      <c r="KHT14" s="1"/>
+      <c r="KHX14" s="1"/>
+      <c r="KIB14" s="1"/>
+      <c r="KIF14" s="1"/>
+      <c r="KIJ14" s="1"/>
+      <c r="KIN14" s="1"/>
+      <c r="KIR14" s="1"/>
+      <c r="KIV14" s="1"/>
+      <c r="KIZ14" s="1"/>
+      <c r="KJD14" s="1"/>
+      <c r="KJH14" s="1"/>
+      <c r="KJL14" s="1"/>
+      <c r="KJP14" s="1"/>
+      <c r="KJT14" s="1"/>
+      <c r="KJX14" s="1"/>
+      <c r="KKB14" s="1"/>
+      <c r="KKF14" s="1"/>
+      <c r="KKJ14" s="1"/>
+      <c r="KKN14" s="1"/>
+      <c r="KKR14" s="1"/>
+      <c r="KKV14" s="1"/>
+      <c r="KKZ14" s="1"/>
+      <c r="KLD14" s="1"/>
+      <c r="KLH14" s="1"/>
+      <c r="KLL14" s="1"/>
+      <c r="KLP14" s="1"/>
+      <c r="KLT14" s="1"/>
+      <c r="KLX14" s="1"/>
+      <c r="KMB14" s="1"/>
+      <c r="KMF14" s="1"/>
+      <c r="KMJ14" s="1"/>
+      <c r="KMN14" s="1"/>
+      <c r="KMR14" s="1"/>
+      <c r="KMV14" s="1"/>
+      <c r="KMZ14" s="1"/>
+      <c r="KND14" s="1"/>
+      <c r="KNH14" s="1"/>
+      <c r="KNL14" s="1"/>
+      <c r="KNP14" s="1"/>
+      <c r="KNT14" s="1"/>
+      <c r="KNX14" s="1"/>
+      <c r="KOB14" s="1"/>
+      <c r="KOF14" s="1"/>
+      <c r="KOJ14" s="1"/>
+      <c r="KON14" s="1"/>
+      <c r="KOR14" s="1"/>
+      <c r="KOV14" s="1"/>
+      <c r="KOZ14" s="1"/>
+      <c r="KPD14" s="1"/>
+      <c r="KPH14" s="1"/>
+      <c r="KPL14" s="1"/>
+      <c r="KPP14" s="1"/>
+      <c r="KPT14" s="1"/>
+      <c r="KPX14" s="1"/>
+      <c r="KQB14" s="1"/>
+      <c r="KQF14" s="1"/>
+      <c r="KQJ14" s="1"/>
+      <c r="KQN14" s="1"/>
+      <c r="KQR14" s="1"/>
+      <c r="KQV14" s="1"/>
+      <c r="KQZ14" s="1"/>
+      <c r="KRD14" s="1"/>
+      <c r="KRH14" s="1"/>
+      <c r="KRL14" s="1"/>
+      <c r="KRP14" s="1"/>
+      <c r="KRT14" s="1"/>
+      <c r="KRX14" s="1"/>
+      <c r="KSB14" s="1"/>
+      <c r="KSF14" s="1"/>
+      <c r="KSJ14" s="1"/>
+      <c r="KSN14" s="1"/>
+      <c r="KSR14" s="1"/>
+      <c r="KSV14" s="1"/>
+      <c r="KSZ14" s="1"/>
+      <c r="KTD14" s="1"/>
+      <c r="KTH14" s="1"/>
+      <c r="KTL14" s="1"/>
+      <c r="KTP14" s="1"/>
+      <c r="KTT14" s="1"/>
+      <c r="KTX14" s="1"/>
+      <c r="KUB14" s="1"/>
+      <c r="KUF14" s="1"/>
+      <c r="KUJ14" s="1"/>
+      <c r="KUN14" s="1"/>
+      <c r="KUR14" s="1"/>
+      <c r="KUV14" s="1"/>
+      <c r="KUZ14" s="1"/>
+      <c r="KVD14" s="1"/>
+      <c r="KVH14" s="1"/>
+      <c r="KVL14" s="1"/>
+      <c r="KVP14" s="1"/>
+      <c r="KVT14" s="1"/>
+      <c r="KVX14" s="1"/>
+      <c r="KWB14" s="1"/>
+      <c r="KWF14" s="1"/>
+      <c r="KWJ14" s="1"/>
+      <c r="KWN14" s="1"/>
+      <c r="KWR14" s="1"/>
+      <c r="KWV14" s="1"/>
+      <c r="KWZ14" s="1"/>
+      <c r="KXD14" s="1"/>
+      <c r="KXH14" s="1"/>
+      <c r="KXL14" s="1"/>
+      <c r="KXP14" s="1"/>
+      <c r="KXT14" s="1"/>
+      <c r="KXX14" s="1"/>
+      <c r="KYB14" s="1"/>
+      <c r="KYF14" s="1"/>
+      <c r="KYJ14" s="1"/>
+      <c r="KYN14" s="1"/>
+      <c r="KYR14" s="1"/>
+      <c r="KYV14" s="1"/>
+      <c r="KYZ14" s="1"/>
+      <c r="KZD14" s="1"/>
+      <c r="KZH14" s="1"/>
+      <c r="KZL14" s="1"/>
+      <c r="KZP14" s="1"/>
+      <c r="KZT14" s="1"/>
+      <c r="KZX14" s="1"/>
+      <c r="LAB14" s="1"/>
+      <c r="LAF14" s="1"/>
+      <c r="LAJ14" s="1"/>
+      <c r="LAN14" s="1"/>
+      <c r="LAR14" s="1"/>
+      <c r="LAV14" s="1"/>
+      <c r="LAZ14" s="1"/>
+      <c r="LBD14" s="1"/>
+      <c r="LBH14" s="1"/>
+      <c r="LBL14" s="1"/>
+      <c r="LBP14" s="1"/>
+      <c r="LBT14" s="1"/>
+      <c r="LBX14" s="1"/>
+      <c r="LCB14" s="1"/>
+      <c r="LCF14" s="1"/>
+      <c r="LCJ14" s="1"/>
+      <c r="LCN14" s="1"/>
+      <c r="LCR14" s="1"/>
+      <c r="LCV14" s="1"/>
+      <c r="LCZ14" s="1"/>
+      <c r="LDD14" s="1"/>
+      <c r="LDH14" s="1"/>
+      <c r="LDL14" s="1"/>
+      <c r="LDP14" s="1"/>
+      <c r="LDT14" s="1"/>
+      <c r="LDX14" s="1"/>
+      <c r="LEB14" s="1"/>
+      <c r="LEF14" s="1"/>
+      <c r="LEJ14" s="1"/>
+      <c r="LEN14" s="1"/>
+      <c r="LER14" s="1"/>
+      <c r="LEV14" s="1"/>
+      <c r="LEZ14" s="1"/>
+      <c r="LFD14" s="1"/>
+      <c r="LFH14" s="1"/>
+      <c r="LFL14" s="1"/>
+      <c r="LFP14" s="1"/>
+      <c r="LFT14" s="1"/>
+      <c r="LFX14" s="1"/>
+      <c r="LGB14" s="1"/>
+      <c r="LGF14" s="1"/>
+      <c r="LGJ14" s="1"/>
+      <c r="LGN14" s="1"/>
+      <c r="LGR14" s="1"/>
+      <c r="LGV14" s="1"/>
+      <c r="LGZ14" s="1"/>
+      <c r="LHD14" s="1"/>
+      <c r="LHH14" s="1"/>
+      <c r="LHL14" s="1"/>
+      <c r="LHP14" s="1"/>
+      <c r="LHT14" s="1"/>
+      <c r="LHX14" s="1"/>
+      <c r="LIB14" s="1"/>
+      <c r="LIF14" s="1"/>
+      <c r="LIJ14" s="1"/>
+      <c r="LIN14" s="1"/>
+      <c r="LIR14" s="1"/>
+      <c r="LIV14" s="1"/>
+      <c r="LIZ14" s="1"/>
+      <c r="LJD14" s="1"/>
+      <c r="LJH14" s="1"/>
+      <c r="LJL14" s="1"/>
+      <c r="LJP14" s="1"/>
+      <c r="LJT14" s="1"/>
+      <c r="LJX14" s="1"/>
+      <c r="LKB14" s="1"/>
+      <c r="LKF14" s="1"/>
+      <c r="LKJ14" s="1"/>
+      <c r="LKN14" s="1"/>
+      <c r="LKR14" s="1"/>
+      <c r="LKV14" s="1"/>
+      <c r="LKZ14" s="1"/>
+      <c r="LLD14" s="1"/>
+      <c r="LLH14" s="1"/>
+      <c r="LLL14" s="1"/>
+      <c r="LLP14" s="1"/>
+      <c r="LLT14" s="1"/>
+      <c r="LLX14" s="1"/>
+      <c r="LMB14" s="1"/>
+      <c r="LMF14" s="1"/>
+      <c r="LMJ14" s="1"/>
+      <c r="LMN14" s="1"/>
+      <c r="LMR14" s="1"/>
+      <c r="LMV14" s="1"/>
+      <c r="LMZ14" s="1"/>
+      <c r="LND14" s="1"/>
+      <c r="LNH14" s="1"/>
+      <c r="LNL14" s="1"/>
+      <c r="LNP14" s="1"/>
+      <c r="LNT14" s="1"/>
+      <c r="LNX14" s="1"/>
+      <c r="LOB14" s="1"/>
+      <c r="LOF14" s="1"/>
+      <c r="LOJ14" s="1"/>
+      <c r="LON14" s="1"/>
+      <c r="LOR14" s="1"/>
+      <c r="LOV14" s="1"/>
+      <c r="LOZ14" s="1"/>
+      <c r="LPD14" s="1"/>
+      <c r="LPH14" s="1"/>
+      <c r="LPL14" s="1"/>
+      <c r="LPP14" s="1"/>
+      <c r="LPT14" s="1"/>
+      <c r="LPX14" s="1"/>
+      <c r="LQB14" s="1"/>
+      <c r="LQF14" s="1"/>
+      <c r="LQJ14" s="1"/>
+      <c r="LQN14" s="1"/>
+      <c r="LQR14" s="1"/>
+      <c r="LQV14" s="1"/>
+      <c r="LQZ14" s="1"/>
+      <c r="LRD14" s="1"/>
+      <c r="LRH14" s="1"/>
+      <c r="LRL14" s="1"/>
+      <c r="LRP14" s="1"/>
+      <c r="LRT14" s="1"/>
+      <c r="LRX14" s="1"/>
+      <c r="LSB14" s="1"/>
+      <c r="LSF14" s="1"/>
+      <c r="LSJ14" s="1"/>
+      <c r="LSN14" s="1"/>
+      <c r="LSR14" s="1"/>
+      <c r="LSV14" s="1"/>
+      <c r="LSZ14" s="1"/>
+      <c r="LTD14" s="1"/>
+      <c r="LTH14" s="1"/>
+      <c r="LTL14" s="1"/>
+      <c r="LTP14" s="1"/>
+      <c r="LTT14" s="1"/>
+      <c r="LTX14" s="1"/>
+      <c r="LUB14" s="1"/>
+      <c r="LUF14" s="1"/>
+      <c r="LUJ14" s="1"/>
+      <c r="LUN14" s="1"/>
+      <c r="LUR14" s="1"/>
+      <c r="LUV14" s="1"/>
+      <c r="LUZ14" s="1"/>
+      <c r="LVD14" s="1"/>
+      <c r="LVH14" s="1"/>
+      <c r="LVL14" s="1"/>
+      <c r="LVP14" s="1"/>
+      <c r="LVT14" s="1"/>
+      <c r="LVX14" s="1"/>
+      <c r="LWB14" s="1"/>
+      <c r="LWF14" s="1"/>
+      <c r="LWJ14" s="1"/>
+      <c r="LWN14" s="1"/>
+      <c r="LWR14" s="1"/>
+      <c r="LWV14" s="1"/>
+      <c r="LWZ14" s="1"/>
+      <c r="LXD14" s="1"/>
+      <c r="LXH14" s="1"/>
+      <c r="LXL14" s="1"/>
+      <c r="LXP14" s="1"/>
+      <c r="LXT14" s="1"/>
+      <c r="LXX14" s="1"/>
+      <c r="LYB14" s="1"/>
+      <c r="LYF14" s="1"/>
+      <c r="LYJ14" s="1"/>
+      <c r="LYN14" s="1"/>
+      <c r="LYR14" s="1"/>
+      <c r="LYV14" s="1"/>
+      <c r="LYZ14" s="1"/>
+      <c r="LZD14" s="1"/>
+      <c r="LZH14" s="1"/>
+      <c r="LZL14" s="1"/>
+      <c r="LZP14" s="1"/>
+      <c r="LZT14" s="1"/>
+      <c r="LZX14" s="1"/>
+      <c r="MAB14" s="1"/>
+      <c r="MAF14" s="1"/>
+      <c r="MAJ14" s="1"/>
+      <c r="MAN14" s="1"/>
+      <c r="MAR14" s="1"/>
+      <c r="MAV14" s="1"/>
+      <c r="MAZ14" s="1"/>
+      <c r="MBD14" s="1"/>
+      <c r="MBH14" s="1"/>
+      <c r="MBL14" s="1"/>
+      <c r="MBP14" s="1"/>
+      <c r="MBT14" s="1"/>
+      <c r="MBX14" s="1"/>
+      <c r="MCB14" s="1"/>
+      <c r="MCF14" s="1"/>
+      <c r="MCJ14" s="1"/>
+      <c r="MCN14" s="1"/>
+      <c r="MCR14" s="1"/>
+      <c r="MCV14" s="1"/>
+      <c r="MCZ14" s="1"/>
+      <c r="MDD14" s="1"/>
+      <c r="MDH14" s="1"/>
+      <c r="MDL14" s="1"/>
+      <c r="MDP14" s="1"/>
+      <c r="MDT14" s="1"/>
+      <c r="MDX14" s="1"/>
+      <c r="MEB14" s="1"/>
+      <c r="MEF14" s="1"/>
+      <c r="MEJ14" s="1"/>
+      <c r="MEN14" s="1"/>
+      <c r="MER14" s="1"/>
+      <c r="MEV14" s="1"/>
+      <c r="MEZ14" s="1"/>
+      <c r="MFD14" s="1"/>
+      <c r="MFH14" s="1"/>
+      <c r="MFL14" s="1"/>
+      <c r="MFP14" s="1"/>
+      <c r="MFT14" s="1"/>
+      <c r="MFX14" s="1"/>
+      <c r="MGB14" s="1"/>
+      <c r="MGF14" s="1"/>
+      <c r="MGJ14" s="1"/>
+      <c r="MGN14" s="1"/>
+      <c r="MGR14" s="1"/>
+      <c r="MGV14" s="1"/>
+      <c r="MGZ14" s="1"/>
+      <c r="MHD14" s="1"/>
+      <c r="MHH14" s="1"/>
+      <c r="MHL14" s="1"/>
+      <c r="MHP14" s="1"/>
+      <c r="MHT14" s="1"/>
+      <c r="MHX14" s="1"/>
+      <c r="MIB14" s="1"/>
+      <c r="MIF14" s="1"/>
+      <c r="MIJ14" s="1"/>
+      <c r="MIN14" s="1"/>
+      <c r="MIR14" s="1"/>
+      <c r="MIV14" s="1"/>
+      <c r="MIZ14" s="1"/>
+      <c r="MJD14" s="1"/>
+      <c r="MJH14" s="1"/>
+      <c r="MJL14" s="1"/>
+      <c r="MJP14" s="1"/>
+      <c r="MJT14" s="1"/>
+      <c r="MJX14" s="1"/>
+      <c r="MKB14" s="1"/>
+      <c r="MKF14" s="1"/>
+      <c r="MKJ14" s="1"/>
+      <c r="MKN14" s="1"/>
+      <c r="MKR14" s="1"/>
+      <c r="MKV14" s="1"/>
+      <c r="MKZ14" s="1"/>
+      <c r="MLD14" s="1"/>
+      <c r="MLH14" s="1"/>
+      <c r="MLL14" s="1"/>
+      <c r="MLP14" s="1"/>
+      <c r="MLT14" s="1"/>
+      <c r="MLX14" s="1"/>
+      <c r="MMB14" s="1"/>
+      <c r="MMF14" s="1"/>
+      <c r="MMJ14" s="1"/>
+      <c r="MMN14" s="1"/>
+      <c r="MMR14" s="1"/>
+      <c r="MMV14" s="1"/>
+      <c r="MMZ14" s="1"/>
+      <c r="MND14" s="1"/>
+      <c r="MNH14" s="1"/>
+      <c r="MNL14" s="1"/>
+      <c r="MNP14" s="1"/>
+      <c r="MNT14" s="1"/>
+      <c r="MNX14" s="1"/>
+      <c r="MOB14" s="1"/>
+      <c r="MOF14" s="1"/>
+      <c r="MOJ14" s="1"/>
+      <c r="MON14" s="1"/>
+      <c r="MOR14" s="1"/>
+      <c r="MOV14" s="1"/>
+      <c r="MOZ14" s="1"/>
+      <c r="MPD14" s="1"/>
+      <c r="MPH14" s="1"/>
+      <c r="MPL14" s="1"/>
+      <c r="MPP14" s="1"/>
+      <c r="MPT14" s="1"/>
+      <c r="MPX14" s="1"/>
+      <c r="MQB14" s="1"/>
+      <c r="MQF14" s="1"/>
+      <c r="MQJ14" s="1"/>
+      <c r="MQN14" s="1"/>
+      <c r="MQR14" s="1"/>
+      <c r="MQV14" s="1"/>
+      <c r="MQZ14" s="1"/>
+      <c r="MRD14" s="1"/>
+      <c r="MRH14" s="1"/>
+      <c r="MRL14" s="1"/>
+      <c r="MRP14" s="1"/>
+      <c r="MRT14" s="1"/>
+      <c r="MRX14" s="1"/>
+      <c r="MSB14" s="1"/>
+      <c r="MSF14" s="1"/>
+      <c r="MSJ14" s="1"/>
+      <c r="MSN14" s="1"/>
+      <c r="MSR14" s="1"/>
+      <c r="MSV14" s="1"/>
+      <c r="MSZ14" s="1"/>
+      <c r="MTD14" s="1"/>
+      <c r="MTH14" s="1"/>
+      <c r="MTL14" s="1"/>
+      <c r="MTP14" s="1"/>
+      <c r="MTT14" s="1"/>
+      <c r="MTX14" s="1"/>
+      <c r="MUB14" s="1"/>
+      <c r="MUF14" s="1"/>
+      <c r="MUJ14" s="1"/>
+      <c r="MUN14" s="1"/>
+      <c r="MUR14" s="1"/>
+      <c r="MUV14" s="1"/>
+      <c r="MUZ14" s="1"/>
+      <c r="MVD14" s="1"/>
+      <c r="MVH14" s="1"/>
+      <c r="MVL14" s="1"/>
+      <c r="MVP14" s="1"/>
+      <c r="MVT14" s="1"/>
+      <c r="MVX14" s="1"/>
+      <c r="MWB14" s="1"/>
+      <c r="MWF14" s="1"/>
+      <c r="MWJ14" s="1"/>
+      <c r="MWN14" s="1"/>
+      <c r="MWR14" s="1"/>
+      <c r="MWV14" s="1"/>
+      <c r="MWZ14" s="1"/>
+      <c r="MXD14" s="1"/>
+      <c r="MXH14" s="1"/>
+      <c r="MXL14" s="1"/>
+      <c r="MXP14" s="1"/>
+      <c r="MXT14" s="1"/>
+      <c r="MXX14" s="1"/>
+      <c r="MYB14" s="1"/>
+      <c r="MYF14" s="1"/>
+      <c r="MYJ14" s="1"/>
+      <c r="MYN14" s="1"/>
+      <c r="MYR14" s="1"/>
+      <c r="MYV14" s="1"/>
+      <c r="MYZ14" s="1"/>
+      <c r="MZD14" s="1"/>
+      <c r="MZH14" s="1"/>
+      <c r="MZL14" s="1"/>
+      <c r="MZP14" s="1"/>
+      <c r="MZT14" s="1"/>
+      <c r="MZX14" s="1"/>
+      <c r="NAB14" s="1"/>
+      <c r="NAF14" s="1"/>
+      <c r="NAJ14" s="1"/>
+      <c r="NAN14" s="1"/>
+      <c r="NAR14" s="1"/>
+      <c r="NAV14" s="1"/>
+      <c r="NAZ14" s="1"/>
+      <c r="NBD14" s="1"/>
+      <c r="NBH14" s="1"/>
+      <c r="NBL14" s="1"/>
+      <c r="NBP14" s="1"/>
+      <c r="NBT14" s="1"/>
+      <c r="NBX14" s="1"/>
+      <c r="NCB14" s="1"/>
+      <c r="NCF14" s="1"/>
+      <c r="NCJ14" s="1"/>
+      <c r="NCN14" s="1"/>
+      <c r="NCR14" s="1"/>
+      <c r="NCV14" s="1"/>
+      <c r="NCZ14" s="1"/>
+      <c r="NDD14" s="1"/>
+      <c r="NDH14" s="1"/>
+      <c r="NDL14" s="1"/>
+      <c r="NDP14" s="1"/>
+      <c r="NDT14" s="1"/>
+      <c r="NDX14" s="1"/>
+      <c r="NEB14" s="1"/>
+      <c r="NEF14" s="1"/>
+      <c r="NEJ14" s="1"/>
+      <c r="NEN14" s="1"/>
+      <c r="NER14" s="1"/>
+      <c r="NEV14" s="1"/>
+      <c r="NEZ14" s="1"/>
+      <c r="NFD14" s="1"/>
+      <c r="NFH14" s="1"/>
+      <c r="NFL14" s="1"/>
+      <c r="NFP14" s="1"/>
+      <c r="NFT14" s="1"/>
+      <c r="NFX14" s="1"/>
+      <c r="NGB14" s="1"/>
+      <c r="NGF14" s="1"/>
+      <c r="NGJ14" s="1"/>
+      <c r="NGN14" s="1"/>
+      <c r="NGR14" s="1"/>
+      <c r="NGV14" s="1"/>
+      <c r="NGZ14" s="1"/>
+      <c r="NHD14" s="1"/>
+      <c r="NHH14" s="1"/>
+      <c r="NHL14" s="1"/>
+      <c r="NHP14" s="1"/>
+      <c r="NHT14" s="1"/>
+      <c r="NHX14" s="1"/>
+      <c r="NIB14" s="1"/>
+      <c r="NIF14" s="1"/>
+      <c r="NIJ14" s="1"/>
+      <c r="NIN14" s="1"/>
+      <c r="NIR14" s="1"/>
+      <c r="NIV14" s="1"/>
+      <c r="NIZ14" s="1"/>
+      <c r="NJD14" s="1"/>
+      <c r="NJH14" s="1"/>
+      <c r="NJL14" s="1"/>
+      <c r="NJP14" s="1"/>
+      <c r="NJT14" s="1"/>
+      <c r="NJX14" s="1"/>
+      <c r="NKB14" s="1"/>
+      <c r="NKF14" s="1"/>
+      <c r="NKJ14" s="1"/>
+      <c r="NKN14" s="1"/>
+      <c r="NKR14" s="1"/>
+      <c r="NKV14" s="1"/>
+      <c r="NKZ14" s="1"/>
+      <c r="NLD14" s="1"/>
+      <c r="NLH14" s="1"/>
+      <c r="NLL14" s="1"/>
+      <c r="NLP14" s="1"/>
+      <c r="NLT14" s="1"/>
+      <c r="NLX14" s="1"/>
+      <c r="NMB14" s="1"/>
+      <c r="NMF14" s="1"/>
+      <c r="NMJ14" s="1"/>
+      <c r="NMN14" s="1"/>
+      <c r="NMR14" s="1"/>
+      <c r="NMV14" s="1"/>
+      <c r="NMZ14" s="1"/>
+      <c r="NND14" s="1"/>
+      <c r="NNH14" s="1"/>
+      <c r="NNL14" s="1"/>
+      <c r="NNP14" s="1"/>
+      <c r="NNT14" s="1"/>
+      <c r="NNX14" s="1"/>
+      <c r="NOB14" s="1"/>
+      <c r="NOF14" s="1"/>
+      <c r="NOJ14" s="1"/>
+      <c r="NON14" s="1"/>
+      <c r="NOR14" s="1"/>
+      <c r="NOV14" s="1"/>
+      <c r="NOZ14" s="1"/>
+      <c r="NPD14" s="1"/>
+      <c r="NPH14" s="1"/>
+      <c r="NPL14" s="1"/>
+      <c r="NPP14" s="1"/>
+      <c r="NPT14" s="1"/>
+      <c r="NPX14" s="1"/>
+      <c r="NQB14" s="1"/>
+      <c r="NQF14" s="1"/>
+      <c r="NQJ14" s="1"/>
+      <c r="NQN14" s="1"/>
+      <c r="NQR14" s="1"/>
+      <c r="NQV14" s="1"/>
+      <c r="NQZ14" s="1"/>
+      <c r="NRD14" s="1"/>
+      <c r="NRH14" s="1"/>
+      <c r="NRL14" s="1"/>
+      <c r="NRP14" s="1"/>
+      <c r="NRT14" s="1"/>
+      <c r="NRX14" s="1"/>
+      <c r="NSB14" s="1"/>
+      <c r="NSF14" s="1"/>
+      <c r="NSJ14" s="1"/>
+      <c r="NSN14" s="1"/>
+      <c r="NSR14" s="1"/>
+      <c r="NSV14" s="1"/>
+      <c r="NSZ14" s="1"/>
+      <c r="NTD14" s="1"/>
+      <c r="NTH14" s="1"/>
+      <c r="NTL14" s="1"/>
+      <c r="NTP14" s="1"/>
+      <c r="NTT14" s="1"/>
+      <c r="NTX14" s="1"/>
+      <c r="NUB14" s="1"/>
+      <c r="NUF14" s="1"/>
+      <c r="NUJ14" s="1"/>
+      <c r="NUN14" s="1"/>
+      <c r="NUR14" s="1"/>
+      <c r="NUV14" s="1"/>
+      <c r="NUZ14" s="1"/>
+      <c r="NVD14" s="1"/>
+      <c r="NVH14" s="1"/>
+      <c r="NVL14" s="1"/>
+      <c r="NVP14" s="1"/>
+      <c r="NVT14" s="1"/>
+      <c r="NVX14" s="1"/>
+      <c r="NWB14" s="1"/>
+      <c r="NWF14" s="1"/>
+      <c r="NWJ14" s="1"/>
+      <c r="NWN14" s="1"/>
+      <c r="NWR14" s="1"/>
+      <c r="NWV14" s="1"/>
+      <c r="NWZ14" s="1"/>
+      <c r="NXD14" s="1"/>
+      <c r="NXH14" s="1"/>
+      <c r="NXL14" s="1"/>
+      <c r="NXP14" s="1"/>
+      <c r="NXT14" s="1"/>
+      <c r="NXX14" s="1"/>
+      <c r="NYB14" s="1"/>
+      <c r="NYF14" s="1"/>
+      <c r="NYJ14" s="1"/>
+      <c r="NYN14" s="1"/>
+      <c r="NYR14" s="1"/>
+      <c r="NYV14" s="1"/>
+      <c r="NYZ14" s="1"/>
+      <c r="NZD14" s="1"/>
+      <c r="NZH14" s="1"/>
+      <c r="NZL14" s="1"/>
+      <c r="NZP14" s="1"/>
+      <c r="NZT14" s="1"/>
+      <c r="NZX14" s="1"/>
+      <c r="OAB14" s="1"/>
+      <c r="OAF14" s="1"/>
+      <c r="OAJ14" s="1"/>
+      <c r="OAN14" s="1"/>
+      <c r="OAR14" s="1"/>
+      <c r="OAV14" s="1"/>
+      <c r="OAZ14" s="1"/>
+      <c r="OBD14" s="1"/>
+      <c r="OBH14" s="1"/>
+      <c r="OBL14" s="1"/>
+      <c r="OBP14" s="1"/>
+      <c r="OBT14" s="1"/>
+      <c r="OBX14" s="1"/>
+      <c r="OCB14" s="1"/>
+      <c r="OCF14" s="1"/>
+      <c r="OCJ14" s="1"/>
+      <c r="OCN14" s="1"/>
+      <c r="OCR14" s="1"/>
+      <c r="OCV14" s="1"/>
+      <c r="OCZ14" s="1"/>
+      <c r="ODD14" s="1"/>
+      <c r="ODH14" s="1"/>
+      <c r="ODL14" s="1"/>
+      <c r="ODP14" s="1"/>
+      <c r="ODT14" s="1"/>
+      <c r="ODX14" s="1"/>
+      <c r="OEB14" s="1"/>
+      <c r="OEF14" s="1"/>
+      <c r="OEJ14" s="1"/>
+      <c r="OEN14" s="1"/>
+      <c r="OER14" s="1"/>
+      <c r="OEV14" s="1"/>
+      <c r="OEZ14" s="1"/>
+      <c r="OFD14" s="1"/>
+      <c r="OFH14" s="1"/>
+      <c r="OFL14" s="1"/>
+      <c r="OFP14" s="1"/>
+      <c r="OFT14" s="1"/>
+      <c r="OFX14" s="1"/>
+      <c r="OGB14" s="1"/>
+      <c r="OGF14" s="1"/>
+      <c r="OGJ14" s="1"/>
+      <c r="OGN14" s="1"/>
+      <c r="OGR14" s="1"/>
+      <c r="OGV14" s="1"/>
+      <c r="OGZ14" s="1"/>
+      <c r="OHD14" s="1"/>
+      <c r="OHH14" s="1"/>
+      <c r="OHL14" s="1"/>
+      <c r="OHP14" s="1"/>
+      <c r="OHT14" s="1"/>
+      <c r="OHX14" s="1"/>
+      <c r="OIB14" s="1"/>
+      <c r="OIF14" s="1"/>
+      <c r="OIJ14" s="1"/>
+      <c r="OIN14" s="1"/>
+      <c r="OIR14" s="1"/>
+      <c r="OIV14" s="1"/>
+      <c r="OIZ14" s="1"/>
+      <c r="OJD14" s="1"/>
+      <c r="OJH14" s="1"/>
+      <c r="OJL14" s="1"/>
+      <c r="OJP14" s="1"/>
+      <c r="OJT14" s="1"/>
+      <c r="OJX14" s="1"/>
+      <c r="OKB14" s="1"/>
+      <c r="OKF14" s="1"/>
+      <c r="OKJ14" s="1"/>
+      <c r="OKN14" s="1"/>
+      <c r="OKR14" s="1"/>
+      <c r="OKV14" s="1"/>
+      <c r="OKZ14" s="1"/>
+      <c r="OLD14" s="1"/>
+      <c r="OLH14" s="1"/>
+      <c r="OLL14" s="1"/>
+      <c r="OLP14" s="1"/>
+      <c r="OLT14" s="1"/>
+      <c r="OLX14" s="1"/>
+      <c r="OMB14" s="1"/>
+      <c r="OMF14" s="1"/>
+      <c r="OMJ14" s="1"/>
+      <c r="OMN14" s="1"/>
+      <c r="OMR14" s="1"/>
+      <c r="OMV14" s="1"/>
+      <c r="OMZ14" s="1"/>
+      <c r="OND14" s="1"/>
+      <c r="ONH14" s="1"/>
+      <c r="ONL14" s="1"/>
+      <c r="ONP14" s="1"/>
+      <c r="ONT14" s="1"/>
+      <c r="ONX14" s="1"/>
+      <c r="OOB14" s="1"/>
+      <c r="OOF14" s="1"/>
+      <c r="OOJ14" s="1"/>
+      <c r="OON14" s="1"/>
+      <c r="OOR14" s="1"/>
+      <c r="OOV14" s="1"/>
+      <c r="OOZ14" s="1"/>
+      <c r="OPD14" s="1"/>
+      <c r="OPH14" s="1"/>
+      <c r="OPL14" s="1"/>
+      <c r="OPP14" s="1"/>
+      <c r="OPT14" s="1"/>
+      <c r="OPX14" s="1"/>
+      <c r="OQB14" s="1"/>
+      <c r="OQF14" s="1"/>
+      <c r="OQJ14" s="1"/>
+      <c r="OQN14" s="1"/>
+      <c r="OQR14" s="1"/>
+      <c r="OQV14" s="1"/>
+      <c r="OQZ14" s="1"/>
+      <c r="ORD14" s="1"/>
+      <c r="ORH14" s="1"/>
+      <c r="ORL14" s="1"/>
+      <c r="ORP14" s="1"/>
+      <c r="ORT14" s="1"/>
+      <c r="ORX14" s="1"/>
+      <c r="OSB14" s="1"/>
+      <c r="OSF14" s="1"/>
+      <c r="OSJ14" s="1"/>
+      <c r="OSN14" s="1"/>
+      <c r="OSR14" s="1"/>
+      <c r="OSV14" s="1"/>
+      <c r="OSZ14" s="1"/>
+      <c r="OTD14" s="1"/>
+      <c r="OTH14" s="1"/>
+      <c r="OTL14" s="1"/>
+      <c r="OTP14" s="1"/>
+      <c r="OTT14" s="1"/>
+      <c r="OTX14" s="1"/>
+      <c r="OUB14" s="1"/>
+      <c r="OUF14" s="1"/>
+      <c r="OUJ14" s="1"/>
+      <c r="OUN14" s="1"/>
+      <c r="OUR14" s="1"/>
+      <c r="OUV14" s="1"/>
+      <c r="OUZ14" s="1"/>
+      <c r="OVD14" s="1"/>
+      <c r="OVH14" s="1"/>
+      <c r="OVL14" s="1"/>
+      <c r="OVP14" s="1"/>
+      <c r="OVT14" s="1"/>
+      <c r="OVX14" s="1"/>
+      <c r="OWB14" s="1"/>
+      <c r="OWF14" s="1"/>
+      <c r="OWJ14" s="1"/>
+      <c r="OWN14" s="1"/>
+      <c r="OWR14" s="1"/>
+      <c r="OWV14" s="1"/>
+      <c r="OWZ14" s="1"/>
+      <c r="OXD14" s="1"/>
+      <c r="OXH14" s="1"/>
+      <c r="OXL14" s="1"/>
+      <c r="OXP14" s="1"/>
+      <c r="OXT14" s="1"/>
+      <c r="OXX14" s="1"/>
+      <c r="OYB14" s="1"/>
+      <c r="OYF14" s="1"/>
+      <c r="OYJ14" s="1"/>
+      <c r="OYN14" s="1"/>
+      <c r="OYR14" s="1"/>
+      <c r="OYV14" s="1"/>
+      <c r="OYZ14" s="1"/>
+      <c r="OZD14" s="1"/>
+      <c r="OZH14" s="1"/>
+      <c r="OZL14" s="1"/>
+      <c r="OZP14" s="1"/>
+      <c r="OZT14" s="1"/>
+      <c r="OZX14" s="1"/>
+      <c r="PAB14" s="1"/>
+      <c r="PAF14" s="1"/>
+      <c r="PAJ14" s="1"/>
+      <c r="PAN14" s="1"/>
+      <c r="PAR14" s="1"/>
+      <c r="PAV14" s="1"/>
+      <c r="PAZ14" s="1"/>
+      <c r="PBD14" s="1"/>
+      <c r="PBH14" s="1"/>
+      <c r="PBL14" s="1"/>
+      <c r="PBP14" s="1"/>
+      <c r="PBT14" s="1"/>
+      <c r="PBX14" s="1"/>
+      <c r="PCB14" s="1"/>
+      <c r="PCF14" s="1"/>
+      <c r="PCJ14" s="1"/>
+      <c r="PCN14" s="1"/>
+      <c r="PCR14" s="1"/>
+      <c r="PCV14" s="1"/>
+      <c r="PCZ14" s="1"/>
+      <c r="PDD14" s="1"/>
+      <c r="PDH14" s="1"/>
+      <c r="PDL14" s="1"/>
+      <c r="PDP14" s="1"/>
+      <c r="PDT14" s="1"/>
+      <c r="PDX14" s="1"/>
+      <c r="PEB14" s="1"/>
+      <c r="PEF14" s="1"/>
+      <c r="PEJ14" s="1"/>
+      <c r="PEN14" s="1"/>
+      <c r="PER14" s="1"/>
+      <c r="PEV14" s="1"/>
+      <c r="PEZ14" s="1"/>
+      <c r="PFD14" s="1"/>
+      <c r="PFH14" s="1"/>
+      <c r="PFL14" s="1"/>
+      <c r="PFP14" s="1"/>
+      <c r="PFT14" s="1"/>
+      <c r="PFX14" s="1"/>
+      <c r="PGB14" s="1"/>
+      <c r="PGF14" s="1"/>
+      <c r="PGJ14" s="1"/>
+      <c r="PGN14" s="1"/>
+      <c r="PGR14" s="1"/>
+      <c r="PGV14" s="1"/>
+      <c r="PGZ14" s="1"/>
+      <c r="PHD14" s="1"/>
+      <c r="PHH14" s="1"/>
+      <c r="PHL14" s="1"/>
+      <c r="PHP14" s="1"/>
+      <c r="PHT14" s="1"/>
+      <c r="PHX14" s="1"/>
+      <c r="PIB14" s="1"/>
+      <c r="PIF14" s="1"/>
+      <c r="PIJ14" s="1"/>
+      <c r="PIN14" s="1"/>
+      <c r="PIR14" s="1"/>
+      <c r="PIV14" s="1"/>
+      <c r="PIZ14" s="1"/>
+      <c r="PJD14" s="1"/>
+      <c r="PJH14" s="1"/>
+      <c r="PJL14" s="1"/>
+      <c r="PJP14" s="1"/>
+      <c r="PJT14" s="1"/>
+      <c r="PJX14" s="1"/>
+      <c r="PKB14" s="1"/>
+      <c r="PKF14" s="1"/>
+      <c r="PKJ14" s="1"/>
+      <c r="PKN14" s="1"/>
+      <c r="PKR14" s="1"/>
+      <c r="PKV14" s="1"/>
+      <c r="PKZ14" s="1"/>
+      <c r="PLD14" s="1"/>
+      <c r="PLH14" s="1"/>
+      <c r="PLL14" s="1"/>
+      <c r="PLP14" s="1"/>
+      <c r="PLT14" s="1"/>
+      <c r="PLX14" s="1"/>
+      <c r="PMB14" s="1"/>
+      <c r="PMF14" s="1"/>
+      <c r="PMJ14" s="1"/>
+      <c r="PMN14" s="1"/>
+      <c r="PMR14" s="1"/>
+      <c r="PMV14" s="1"/>
+      <c r="PMZ14" s="1"/>
+      <c r="PND14" s="1"/>
+      <c r="PNH14" s="1"/>
+      <c r="PNL14" s="1"/>
+      <c r="PNP14" s="1"/>
+      <c r="PNT14" s="1"/>
+      <c r="PNX14" s="1"/>
+      <c r="POB14" s="1"/>
+      <c r="POF14" s="1"/>
+      <c r="POJ14" s="1"/>
+      <c r="PON14" s="1"/>
+      <c r="POR14" s="1"/>
+      <c r="POV14" s="1"/>
+      <c r="POZ14" s="1"/>
+      <c r="PPD14" s="1"/>
+      <c r="PPH14" s="1"/>
+      <c r="PPL14" s="1"/>
+      <c r="PPP14" s="1"/>
+      <c r="PPT14" s="1"/>
+      <c r="PPX14" s="1"/>
+      <c r="PQB14" s="1"/>
+      <c r="PQF14" s="1"/>
+      <c r="PQJ14" s="1"/>
+      <c r="PQN14" s="1"/>
+      <c r="PQR14" s="1"/>
+      <c r="PQV14" s="1"/>
+      <c r="PQZ14" s="1"/>
+      <c r="PRD14" s="1"/>
+      <c r="PRH14" s="1"/>
+      <c r="PRL14" s="1"/>
+      <c r="PRP14" s="1"/>
+      <c r="PRT14" s="1"/>
+      <c r="PRX14" s="1"/>
+      <c r="PSB14" s="1"/>
+      <c r="PSF14" s="1"/>
+      <c r="PSJ14" s="1"/>
+      <c r="PSN14" s="1"/>
+      <c r="PSR14" s="1"/>
+      <c r="PSV14" s="1"/>
+      <c r="PSZ14" s="1"/>
+      <c r="PTD14" s="1"/>
+      <c r="PTH14" s="1"/>
+      <c r="PTL14" s="1"/>
+      <c r="PTP14" s="1"/>
+      <c r="PTT14" s="1"/>
+      <c r="PTX14" s="1"/>
+      <c r="PUB14" s="1"/>
+      <c r="PUF14" s="1"/>
+      <c r="PUJ14" s="1"/>
+      <c r="PUN14" s="1"/>
+      <c r="PUR14" s="1"/>
+      <c r="PUV14" s="1"/>
+      <c r="PUZ14" s="1"/>
+      <c r="PVD14" s="1"/>
+      <c r="PVH14" s="1"/>
+      <c r="PVL14" s="1"/>
+      <c r="PVP14" s="1"/>
+      <c r="PVT14" s="1"/>
+      <c r="PVX14" s="1"/>
+      <c r="PWB14" s="1"/>
+      <c r="PWF14" s="1"/>
+      <c r="PWJ14" s="1"/>
+      <c r="PWN14" s="1"/>
+      <c r="PWR14" s="1"/>
+      <c r="PWV14" s="1"/>
+      <c r="PWZ14" s="1"/>
+      <c r="PXD14" s="1"/>
+      <c r="PXH14" s="1"/>
+      <c r="PXL14" s="1"/>
+      <c r="PXP14" s="1"/>
+      <c r="PXT14" s="1"/>
+      <c r="PXX14" s="1"/>
+      <c r="PYB14" s="1"/>
+      <c r="PYF14" s="1"/>
+      <c r="PYJ14" s="1"/>
+      <c r="PYN14" s="1"/>
+      <c r="PYR14" s="1"/>
+      <c r="PYV14" s="1"/>
+      <c r="PYZ14" s="1"/>
+      <c r="PZD14" s="1"/>
+      <c r="PZH14" s="1"/>
+      <c r="PZL14" s="1"/>
+      <c r="PZP14" s="1"/>
+      <c r="PZT14" s="1"/>
+      <c r="PZX14" s="1"/>
+      <c r="QAB14" s="1"/>
+      <c r="QAF14" s="1"/>
+      <c r="QAJ14" s="1"/>
+      <c r="QAN14" s="1"/>
+      <c r="QAR14" s="1"/>
+      <c r="QAV14" s="1"/>
+      <c r="QAZ14" s="1"/>
+      <c r="QBD14" s="1"/>
+      <c r="QBH14" s="1"/>
+      <c r="QBL14" s="1"/>
+      <c r="QBP14" s="1"/>
+      <c r="QBT14" s="1"/>
+      <c r="QBX14" s="1"/>
+      <c r="QCB14" s="1"/>
+      <c r="QCF14" s="1"/>
+      <c r="QCJ14" s="1"/>
+      <c r="QCN14" s="1"/>
+      <c r="QCR14" s="1"/>
+      <c r="QCV14" s="1"/>
+      <c r="QCZ14" s="1"/>
+      <c r="QDD14" s="1"/>
+      <c r="QDH14" s="1"/>
+      <c r="QDL14" s="1"/>
+      <c r="QDP14" s="1"/>
+      <c r="QDT14" s="1"/>
+      <c r="QDX14" s="1"/>
+      <c r="QEB14" s="1"/>
+      <c r="QEF14" s="1"/>
+      <c r="QEJ14" s="1"/>
+      <c r="QEN14" s="1"/>
+      <c r="QER14" s="1"/>
+      <c r="QEV14" s="1"/>
+      <c r="QEZ14" s="1"/>
+      <c r="QFD14" s="1"/>
+      <c r="QFH14" s="1"/>
+      <c r="QFL14" s="1"/>
+      <c r="QFP14" s="1"/>
+      <c r="QFT14" s="1"/>
+      <c r="QFX14" s="1"/>
+      <c r="QGB14" s="1"/>
+      <c r="QGF14" s="1"/>
+      <c r="QGJ14" s="1"/>
+      <c r="QGN14" s="1"/>
+      <c r="QGR14" s="1"/>
+      <c r="QGV14" s="1"/>
+      <c r="QGZ14" s="1"/>
+      <c r="QHD14" s="1"/>
+      <c r="QHH14" s="1"/>
+      <c r="QHL14" s="1"/>
+      <c r="QHP14" s="1"/>
+      <c r="QHT14" s="1"/>
+      <c r="QHX14" s="1"/>
+      <c r="QIB14" s="1"/>
+      <c r="QIF14" s="1"/>
+      <c r="QIJ14" s="1"/>
+      <c r="QIN14" s="1"/>
+      <c r="QIR14" s="1"/>
+      <c r="QIV14" s="1"/>
+      <c r="QIZ14" s="1"/>
+      <c r="QJD14" s="1"/>
+      <c r="QJH14" s="1"/>
+      <c r="QJL14" s="1"/>
+      <c r="QJP14" s="1"/>
+      <c r="QJT14" s="1"/>
+      <c r="QJX14" s="1"/>
+      <c r="QKB14" s="1"/>
+      <c r="QKF14" s="1"/>
+      <c r="QKJ14" s="1"/>
+      <c r="QKN14" s="1"/>
+      <c r="QKR14" s="1"/>
+      <c r="QKV14" s="1"/>
+      <c r="QKZ14" s="1"/>
+      <c r="QLD14" s="1"/>
+      <c r="QLH14" s="1"/>
+      <c r="QLL14" s="1"/>
+      <c r="QLP14" s="1"/>
+      <c r="QLT14" s="1"/>
+      <c r="QLX14" s="1"/>
+      <c r="QMB14" s="1"/>
+      <c r="QMF14" s="1"/>
+      <c r="QMJ14" s="1"/>
+      <c r="QMN14" s="1"/>
+      <c r="QMR14" s="1"/>
+      <c r="QMV14" s="1"/>
+      <c r="QMZ14" s="1"/>
+      <c r="QND14" s="1"/>
+      <c r="QNH14" s="1"/>
+      <c r="QNL14" s="1"/>
+      <c r="QNP14" s="1"/>
+      <c r="QNT14" s="1"/>
+      <c r="QNX14" s="1"/>
+      <c r="QOB14" s="1"/>
+      <c r="QOF14" s="1"/>
+      <c r="QOJ14" s="1"/>
+      <c r="QON14" s="1"/>
+      <c r="QOR14" s="1"/>
+      <c r="QOV14" s="1"/>
+      <c r="QOZ14" s="1"/>
+      <c r="QPD14" s="1"/>
+      <c r="QPH14" s="1"/>
+      <c r="QPL14" s="1"/>
+      <c r="QPP14" s="1"/>
+      <c r="QPT14" s="1"/>
+      <c r="QPX14" s="1"/>
+      <c r="QQB14" s="1"/>
+      <c r="QQF14" s="1"/>
+      <c r="QQJ14" s="1"/>
+      <c r="QQN14" s="1"/>
+      <c r="QQR14" s="1"/>
+      <c r="QQV14" s="1"/>
+      <c r="QQZ14" s="1"/>
+      <c r="QRD14" s="1"/>
+      <c r="QRH14" s="1"/>
+      <c r="QRL14" s="1"/>
+      <c r="QRP14" s="1"/>
+      <c r="QRT14" s="1"/>
+      <c r="QRX14" s="1"/>
+      <c r="QSB14" s="1"/>
+      <c r="QSF14" s="1"/>
+      <c r="QSJ14" s="1"/>
+      <c r="QSN14" s="1"/>
+      <c r="QSR14" s="1"/>
+      <c r="QSV14" s="1"/>
+      <c r="QSZ14" s="1"/>
+      <c r="QTD14" s="1"/>
+      <c r="QTH14" s="1"/>
+      <c r="QTL14" s="1"/>
+      <c r="QTP14" s="1"/>
+      <c r="QTT14" s="1"/>
+      <c r="QTX14" s="1"/>
+      <c r="QUB14" s="1"/>
+      <c r="QUF14" s="1"/>
+      <c r="QUJ14" s="1"/>
+      <c r="QUN14" s="1"/>
+      <c r="QUR14" s="1"/>
+      <c r="QUV14" s="1"/>
+      <c r="QUZ14" s="1"/>
+      <c r="QVD14" s="1"/>
+      <c r="QVH14" s="1"/>
+      <c r="QVL14" s="1"/>
+      <c r="QVP14" s="1"/>
+      <c r="QVT14" s="1"/>
+      <c r="QVX14" s="1"/>
+      <c r="QWB14" s="1"/>
+      <c r="QWF14" s="1"/>
+      <c r="QWJ14" s="1"/>
+      <c r="QWN14" s="1"/>
+      <c r="QWR14" s="1"/>
+      <c r="QWV14" s="1"/>
+      <c r="QWZ14" s="1"/>
+      <c r="QXD14" s="1"/>
+      <c r="QXH14" s="1"/>
+      <c r="QXL14" s="1"/>
+      <c r="QXP14" s="1"/>
+      <c r="QXT14" s="1"/>
+      <c r="QXX14" s="1"/>
+      <c r="QYB14" s="1"/>
+      <c r="QYF14" s="1"/>
+      <c r="QYJ14" s="1"/>
+      <c r="QYN14" s="1"/>
+      <c r="QYR14" s="1"/>
+      <c r="QYV14" s="1"/>
+      <c r="QYZ14" s="1"/>
+      <c r="QZD14" s="1"/>
+      <c r="QZH14" s="1"/>
+      <c r="QZL14" s="1"/>
+      <c r="QZP14" s="1"/>
+      <c r="QZT14" s="1"/>
+      <c r="QZX14" s="1"/>
+      <c r="RAB14" s="1"/>
+      <c r="RAF14" s="1"/>
+      <c r="RAJ14" s="1"/>
+      <c r="RAN14" s="1"/>
+      <c r="RAR14" s="1"/>
+      <c r="RAV14" s="1"/>
+      <c r="RAZ14" s="1"/>
+      <c r="RBD14" s="1"/>
+      <c r="RBH14" s="1"/>
+      <c r="RBL14" s="1"/>
+      <c r="RBP14" s="1"/>
+      <c r="RBT14" s="1"/>
+      <c r="RBX14" s="1"/>
+      <c r="RCB14" s="1"/>
+      <c r="RCF14" s="1"/>
+      <c r="RCJ14" s="1"/>
+      <c r="RCN14" s="1"/>
+      <c r="RCR14" s="1"/>
+      <c r="RCV14" s="1"/>
+      <c r="RCZ14" s="1"/>
+      <c r="RDD14" s="1"/>
+      <c r="RDH14" s="1"/>
+      <c r="RDL14" s="1"/>
+      <c r="RDP14" s="1"/>
+      <c r="RDT14" s="1"/>
+      <c r="RDX14" s="1"/>
+      <c r="REB14" s="1"/>
+      <c r="REF14" s="1"/>
+      <c r="REJ14" s="1"/>
+      <c r="REN14" s="1"/>
+      <c r="RER14" s="1"/>
+      <c r="REV14" s="1"/>
+      <c r="REZ14" s="1"/>
+      <c r="RFD14" s="1"/>
+      <c r="RFH14" s="1"/>
+      <c r="RFL14" s="1"/>
+      <c r="RFP14" s="1"/>
+      <c r="RFT14" s="1"/>
+      <c r="RFX14" s="1"/>
+      <c r="RGB14" s="1"/>
+      <c r="RGF14" s="1"/>
+      <c r="RGJ14" s="1"/>
+      <c r="RGN14" s="1"/>
+      <c r="RGR14" s="1"/>
+      <c r="RGV14" s="1"/>
+      <c r="RGZ14" s="1"/>
+      <c r="RHD14" s="1"/>
+      <c r="RHH14" s="1"/>
+      <c r="RHL14" s="1"/>
+      <c r="RHP14" s="1"/>
+      <c r="RHT14" s="1"/>
+      <c r="RHX14" s="1"/>
+      <c r="RIB14" s="1"/>
+      <c r="RIF14" s="1"/>
+      <c r="RIJ14" s="1"/>
+      <c r="RIN14" s="1"/>
+      <c r="RIR14" s="1"/>
+      <c r="RIV14" s="1"/>
+      <c r="RIZ14" s="1"/>
+      <c r="RJD14" s="1"/>
+      <c r="RJH14" s="1"/>
+      <c r="RJL14" s="1"/>
+      <c r="RJP14" s="1"/>
+      <c r="RJT14" s="1"/>
+      <c r="RJX14" s="1"/>
+      <c r="RKB14" s="1"/>
+      <c r="RKF14" s="1"/>
+      <c r="RKJ14" s="1"/>
+      <c r="RKN14" s="1"/>
+      <c r="RKR14" s="1"/>
+      <c r="RKV14" s="1"/>
+      <c r="RKZ14" s="1"/>
+      <c r="RLD14" s="1"/>
+      <c r="RLH14" s="1"/>
+      <c r="RLL14" s="1"/>
+      <c r="RLP14" s="1"/>
+      <c r="RLT14" s="1"/>
+      <c r="RLX14" s="1"/>
+      <c r="RMB14" s="1"/>
+      <c r="RMF14" s="1"/>
+      <c r="RMJ14" s="1"/>
+      <c r="RMN14" s="1"/>
+      <c r="RMR14" s="1"/>
+      <c r="RMV14" s="1"/>
+      <c r="RMZ14" s="1"/>
+      <c r="RND14" s="1"/>
+      <c r="RNH14" s="1"/>
+      <c r="RNL14" s="1"/>
+      <c r="RNP14" s="1"/>
+      <c r="RNT14" s="1"/>
+      <c r="RNX14" s="1"/>
+      <c r="ROB14" s="1"/>
+      <c r="ROF14" s="1"/>
+      <c r="ROJ14" s="1"/>
+      <c r="RON14" s="1"/>
+      <c r="ROR14" s="1"/>
+      <c r="ROV14" s="1"/>
+      <c r="ROZ14" s="1"/>
+      <c r="RPD14" s="1"/>
+      <c r="RPH14" s="1"/>
+      <c r="RPL14" s="1"/>
+      <c r="RPP14" s="1"/>
+      <c r="RPT14" s="1"/>
+      <c r="RPX14" s="1"/>
+      <c r="RQB14" s="1"/>
+      <c r="RQF14" s="1"/>
+      <c r="RQJ14" s="1"/>
+      <c r="RQN14" s="1"/>
+      <c r="RQR14" s="1"/>
+      <c r="RQV14" s="1"/>
+      <c r="RQZ14" s="1"/>
+      <c r="RRD14" s="1"/>
+      <c r="RRH14" s="1"/>
+      <c r="RRL14" s="1"/>
+      <c r="RRP14" s="1"/>
+      <c r="RRT14" s="1"/>
+      <c r="RRX14" s="1"/>
+      <c r="RSB14" s="1"/>
+      <c r="RSF14" s="1"/>
+      <c r="RSJ14" s="1"/>
+      <c r="RSN14" s="1"/>
+      <c r="RSR14" s="1"/>
+      <c r="RSV14" s="1"/>
+      <c r="RSZ14" s="1"/>
+      <c r="RTD14" s="1"/>
+      <c r="RTH14" s="1"/>
+      <c r="RTL14" s="1"/>
+      <c r="RTP14" s="1"/>
+      <c r="RTT14" s="1"/>
+      <c r="RTX14" s="1"/>
+      <c r="RUB14" s="1"/>
+      <c r="RUF14" s="1"/>
+      <c r="RUJ14" s="1"/>
+      <c r="RUN14" s="1"/>
+      <c r="RUR14" s="1"/>
+      <c r="RUV14" s="1"/>
+      <c r="RUZ14" s="1"/>
+      <c r="RVD14" s="1"/>
+      <c r="RVH14" s="1"/>
+      <c r="RVL14" s="1"/>
+      <c r="RVP14" s="1"/>
+      <c r="RVT14" s="1"/>
+      <c r="RVX14" s="1"/>
+      <c r="RWB14" s="1"/>
+      <c r="RWF14" s="1"/>
+      <c r="RWJ14" s="1"/>
+      <c r="RWN14" s="1"/>
+      <c r="RWR14" s="1"/>
+      <c r="RWV14" s="1"/>
+      <c r="RWZ14" s="1"/>
+      <c r="RXD14" s="1"/>
+      <c r="RXH14" s="1"/>
+      <c r="RXL14" s="1"/>
+      <c r="RXP14" s="1"/>
+      <c r="RXT14" s="1"/>
+      <c r="RXX14" s="1"/>
+      <c r="RYB14" s="1"/>
+      <c r="RYF14" s="1"/>
+      <c r="RYJ14" s="1"/>
+      <c r="RYN14" s="1"/>
+      <c r="RYR14" s="1"/>
+      <c r="RYV14" s="1"/>
+      <c r="RYZ14" s="1"/>
+      <c r="RZD14" s="1"/>
+      <c r="RZH14" s="1"/>
+      <c r="RZL14" s="1"/>
+      <c r="RZP14" s="1"/>
+      <c r="RZT14" s="1"/>
+      <c r="RZX14" s="1"/>
+      <c r="SAB14" s="1"/>
+      <c r="SAF14" s="1"/>
+      <c r="SAJ14" s="1"/>
+      <c r="SAN14" s="1"/>
+      <c r="SAR14" s="1"/>
+      <c r="SAV14" s="1"/>
+      <c r="SAZ14" s="1"/>
+      <c r="SBD14" s="1"/>
+      <c r="SBH14" s="1"/>
+      <c r="SBL14" s="1"/>
+      <c r="SBP14" s="1"/>
+      <c r="SBT14" s="1"/>
+      <c r="SBX14" s="1"/>
+      <c r="SCB14" s="1"/>
+      <c r="SCF14" s="1"/>
+      <c r="SCJ14" s="1"/>
+      <c r="SCN14" s="1"/>
+      <c r="SCR14" s="1"/>
+      <c r="SCV14" s="1"/>
+      <c r="SCZ14" s="1"/>
+      <c r="SDD14" s="1"/>
+      <c r="SDH14" s="1"/>
+      <c r="SDL14" s="1"/>
+      <c r="SDP14" s="1"/>
+      <c r="SDT14" s="1"/>
+      <c r="SDX14" s="1"/>
+      <c r="SEB14" s="1"/>
+      <c r="SEF14" s="1"/>
+      <c r="SEJ14" s="1"/>
+      <c r="SEN14" s="1"/>
+      <c r="SER14" s="1"/>
+      <c r="SEV14" s="1"/>
+      <c r="SEZ14" s="1"/>
+      <c r="SFD14" s="1"/>
+      <c r="SFH14" s="1"/>
+      <c r="SFL14" s="1"/>
+      <c r="SFP14" s="1"/>
+      <c r="SFT14" s="1"/>
+      <c r="SFX14" s="1"/>
+      <c r="SGB14" s="1"/>
+      <c r="SGF14" s="1"/>
+      <c r="SGJ14" s="1"/>
+      <c r="SGN14" s="1"/>
+      <c r="SGR14" s="1"/>
+      <c r="SGV14" s="1"/>
+      <c r="SGZ14" s="1"/>
+      <c r="SHD14" s="1"/>
+      <c r="SHH14" s="1"/>
+      <c r="SHL14" s="1"/>
+      <c r="SHP14" s="1"/>
+      <c r="SHT14" s="1"/>
+      <c r="SHX14" s="1"/>
+      <c r="SIB14" s="1"/>
+      <c r="SIF14" s="1"/>
+      <c r="SIJ14" s="1"/>
+      <c r="SIN14" s="1"/>
+      <c r="SIR14" s="1"/>
+      <c r="SIV14" s="1"/>
+      <c r="SIZ14" s="1"/>
+      <c r="SJD14" s="1"/>
+      <c r="SJH14" s="1"/>
+      <c r="SJL14" s="1"/>
+      <c r="SJP14" s="1"/>
+      <c r="SJT14" s="1"/>
+      <c r="SJX14" s="1"/>
+      <c r="SKB14" s="1"/>
+      <c r="SKF14" s="1"/>
+      <c r="SKJ14" s="1"/>
+      <c r="SKN14" s="1"/>
+      <c r="SKR14" s="1"/>
+      <c r="SKV14" s="1"/>
+      <c r="SKZ14" s="1"/>
+      <c r="SLD14" s="1"/>
+      <c r="SLH14" s="1"/>
+      <c r="SLL14" s="1"/>
+      <c r="SLP14" s="1"/>
+      <c r="SLT14" s="1"/>
+      <c r="SLX14" s="1"/>
+      <c r="SMB14" s="1"/>
+      <c r="SMF14" s="1"/>
+      <c r="SMJ14" s="1"/>
+      <c r="SMN14" s="1"/>
+      <c r="SMR14" s="1"/>
+      <c r="SMV14" s="1"/>
+      <c r="SMZ14" s="1"/>
+      <c r="SND14" s="1"/>
+      <c r="SNH14" s="1"/>
+      <c r="SNL14" s="1"/>
+      <c r="SNP14" s="1"/>
+      <c r="SNT14" s="1"/>
+      <c r="SNX14" s="1"/>
+      <c r="SOB14" s="1"/>
+      <c r="SOF14" s="1"/>
+      <c r="SOJ14" s="1"/>
+      <c r="SON14" s="1"/>
+      <c r="SOR14" s="1"/>
+      <c r="SOV14" s="1"/>
+      <c r="SOZ14" s="1"/>
+      <c r="SPD14" s="1"/>
+      <c r="SPH14" s="1"/>
+      <c r="SPL14" s="1"/>
+      <c r="SPP14" s="1"/>
+      <c r="SPT14" s="1"/>
+      <c r="SPX14" s="1"/>
+      <c r="SQB14" s="1"/>
+      <c r="SQF14" s="1"/>
+      <c r="SQJ14" s="1"/>
+      <c r="SQN14" s="1"/>
+      <c r="SQR14" s="1"/>
+      <c r="SQV14" s="1"/>
+      <c r="SQZ14" s="1"/>
+      <c r="SRD14" s="1"/>
+      <c r="SRH14" s="1"/>
+      <c r="SRL14" s="1"/>
+      <c r="SRP14" s="1"/>
+      <c r="SRT14" s="1"/>
+      <c r="SRX14" s="1"/>
+      <c r="SSB14" s="1"/>
+      <c r="SSF14" s="1"/>
+      <c r="SSJ14" s="1"/>
+      <c r="SSN14" s="1"/>
+      <c r="SSR14" s="1"/>
+      <c r="SSV14" s="1"/>
+      <c r="SSZ14" s="1"/>
+      <c r="STD14" s="1"/>
+      <c r="STH14" s="1"/>
+      <c r="STL14" s="1"/>
+      <c r="STP14" s="1"/>
+      <c r="STT14" s="1"/>
+      <c r="STX14" s="1"/>
+      <c r="SUB14" s="1"/>
+      <c r="SUF14" s="1"/>
+      <c r="SUJ14" s="1"/>
+      <c r="SUN14" s="1"/>
+      <c r="SUR14" s="1"/>
+      <c r="SUV14" s="1"/>
+      <c r="SUZ14" s="1"/>
+      <c r="SVD14" s="1"/>
+      <c r="SVH14" s="1"/>
+      <c r="SVL14" s="1"/>
+      <c r="SVP14" s="1"/>
+      <c r="SVT14" s="1"/>
+      <c r="SVX14" s="1"/>
+      <c r="SWB14" s="1"/>
+      <c r="SWF14" s="1"/>
+      <c r="SWJ14" s="1"/>
+      <c r="SWN14" s="1"/>
+      <c r="SWR14" s="1"/>
+      <c r="SWV14" s="1"/>
+      <c r="SWZ14" s="1"/>
+      <c r="SXD14" s="1"/>
+      <c r="SXH14" s="1"/>
+      <c r="SXL14" s="1"/>
+      <c r="SXP14" s="1"/>
+      <c r="SXT14" s="1"/>
+      <c r="SXX14" s="1"/>
+      <c r="SYB14" s="1"/>
+      <c r="SYF14" s="1"/>
+      <c r="SYJ14" s="1"/>
+      <c r="SYN14" s="1"/>
+      <c r="SYR14" s="1"/>
+      <c r="SYV14" s="1"/>
+      <c r="SYZ14" s="1"/>
+      <c r="SZD14" s="1"/>
+      <c r="SZH14" s="1"/>
+      <c r="SZL14" s="1"/>
+      <c r="SZP14" s="1"/>
+      <c r="SZT14" s="1"/>
+      <c r="SZX14" s="1"/>
+      <c r="TAB14" s="1"/>
+      <c r="TAF14" s="1"/>
+      <c r="TAJ14" s="1"/>
+      <c r="TAN14" s="1"/>
+      <c r="TAR14" s="1"/>
+      <c r="TAV14" s="1"/>
+      <c r="TAZ14" s="1"/>
+      <c r="TBD14" s="1"/>
+      <c r="TBH14" s="1"/>
+      <c r="TBL14" s="1"/>
+      <c r="TBP14" s="1"/>
+      <c r="TBT14" s="1"/>
+      <c r="TBX14" s="1"/>
+      <c r="TCB14" s="1"/>
+      <c r="TCF14" s="1"/>
+      <c r="TCJ14" s="1"/>
+      <c r="TCN14" s="1"/>
+      <c r="TCR14" s="1"/>
+      <c r="TCV14" s="1"/>
+      <c r="TCZ14" s="1"/>
+      <c r="TDD14" s="1"/>
+      <c r="TDH14" s="1"/>
+      <c r="TDL14" s="1"/>
+      <c r="TDP14" s="1"/>
+      <c r="TDT14" s="1"/>
+      <c r="TDX14" s="1"/>
+      <c r="TEB14" s="1"/>
+      <c r="TEF14" s="1"/>
+      <c r="TEJ14" s="1"/>
+      <c r="TEN14" s="1"/>
+      <c r="TER14" s="1"/>
+      <c r="TEV14" s="1"/>
+      <c r="TEZ14" s="1"/>
+      <c r="TFD14" s="1"/>
+      <c r="TFH14" s="1"/>
+      <c r="TFL14" s="1"/>
+      <c r="TFP14" s="1"/>
+      <c r="TFT14" s="1"/>
+      <c r="TFX14" s="1"/>
+      <c r="TGB14" s="1"/>
+      <c r="TGF14" s="1"/>
+      <c r="TGJ14" s="1"/>
+      <c r="TGN14" s="1"/>
+      <c r="TGR14" s="1"/>
+      <c r="TGV14" s="1"/>
+      <c r="TGZ14" s="1"/>
+      <c r="THD14" s="1"/>
+      <c r="THH14" s="1"/>
+      <c r="THL14" s="1"/>
+      <c r="THP14" s="1"/>
+      <c r="THT14" s="1"/>
+      <c r="THX14" s="1"/>
+      <c r="TIB14" s="1"/>
+      <c r="TIF14" s="1"/>
+      <c r="TIJ14" s="1"/>
+      <c r="TIN14" s="1"/>
+      <c r="TIR14" s="1"/>
+      <c r="TIV14" s="1"/>
+      <c r="TIZ14" s="1"/>
+      <c r="TJD14" s="1"/>
+      <c r="TJH14" s="1"/>
+      <c r="TJL14" s="1"/>
+      <c r="TJP14" s="1"/>
+      <c r="TJT14" s="1"/>
+      <c r="TJX14" s="1"/>
+      <c r="TKB14" s="1"/>
+      <c r="TKF14" s="1"/>
+      <c r="TKJ14" s="1"/>
+      <c r="TKN14" s="1"/>
+      <c r="TKR14" s="1"/>
+      <c r="TKV14" s="1"/>
+      <c r="TKZ14" s="1"/>
+      <c r="TLD14" s="1"/>
+      <c r="TLH14" s="1"/>
+      <c r="TLL14" s="1"/>
+      <c r="TLP14" s="1"/>
+      <c r="TLT14" s="1"/>
+      <c r="TLX14" s="1"/>
+      <c r="TMB14" s="1"/>
+      <c r="TMF14" s="1"/>
+      <c r="TMJ14" s="1"/>
+      <c r="TMN14" s="1"/>
+      <c r="TMR14" s="1"/>
+      <c r="TMV14" s="1"/>
+      <c r="TMZ14" s="1"/>
+      <c r="TND14" s="1"/>
+      <c r="TNH14" s="1"/>
+      <c r="TNL14" s="1"/>
+      <c r="TNP14" s="1"/>
+      <c r="TNT14" s="1"/>
+      <c r="TNX14" s="1"/>
+      <c r="TOB14" s="1"/>
+      <c r="TOF14" s="1"/>
+      <c r="TOJ14" s="1"/>
+      <c r="TON14" s="1"/>
+      <c r="TOR14" s="1"/>
+      <c r="TOV14" s="1"/>
+      <c r="TOZ14" s="1"/>
+      <c r="TPD14" s="1"/>
+      <c r="TPH14" s="1"/>
+      <c r="TPL14" s="1"/>
+      <c r="TPP14" s="1"/>
+      <c r="TPT14" s="1"/>
+      <c r="TPX14" s="1"/>
+      <c r="TQB14" s="1"/>
+      <c r="TQF14" s="1"/>
+      <c r="TQJ14" s="1"/>
+      <c r="TQN14" s="1"/>
+      <c r="TQR14" s="1"/>
+      <c r="TQV14" s="1"/>
+      <c r="TQZ14" s="1"/>
+      <c r="TRD14" s="1"/>
+      <c r="TRH14" s="1"/>
+      <c r="TRL14" s="1"/>
+      <c r="TRP14" s="1"/>
+      <c r="TRT14" s="1"/>
+      <c r="TRX14" s="1"/>
+      <c r="TSB14" s="1"/>
+      <c r="TSF14" s="1"/>
+      <c r="TSJ14" s="1"/>
+      <c r="TSN14" s="1"/>
+      <c r="TSR14" s="1"/>
+      <c r="TSV14" s="1"/>
+      <c r="TSZ14" s="1"/>
+      <c r="TTD14" s="1"/>
+      <c r="TTH14" s="1"/>
+      <c r="TTL14" s="1"/>
+      <c r="TTP14" s="1"/>
+      <c r="TTT14" s="1"/>
+      <c r="TTX14" s="1"/>
+      <c r="TUB14" s="1"/>
+      <c r="TUF14" s="1"/>
+      <c r="TUJ14" s="1"/>
+      <c r="TUN14" s="1"/>
+      <c r="TUR14" s="1"/>
+      <c r="TUV14" s="1"/>
+      <c r="TUZ14" s="1"/>
+      <c r="TVD14" s="1"/>
+      <c r="TVH14" s="1"/>
+      <c r="TVL14" s="1"/>
+      <c r="TVP14" s="1"/>
+      <c r="TVT14" s="1"/>
+      <c r="TVX14" s="1"/>
+      <c r="TWB14" s="1"/>
+      <c r="TWF14" s="1"/>
+      <c r="TWJ14" s="1"/>
+      <c r="TWN14" s="1"/>
+      <c r="TWR14" s="1"/>
+      <c r="TWV14" s="1"/>
+      <c r="TWZ14" s="1"/>
+      <c r="TXD14" s="1"/>
+      <c r="TXH14" s="1"/>
+      <c r="TXL14" s="1"/>
+      <c r="TXP14" s="1"/>
+      <c r="TXT14" s="1"/>
+      <c r="TXX14" s="1"/>
+      <c r="TYB14" s="1"/>
+      <c r="TYF14" s="1"/>
+      <c r="TYJ14" s="1"/>
+      <c r="TYN14" s="1"/>
+      <c r="TYR14" s="1"/>
+      <c r="TYV14" s="1"/>
+      <c r="TYZ14" s="1"/>
+      <c r="TZD14" s="1"/>
+      <c r="TZH14" s="1"/>
+      <c r="TZL14" s="1"/>
+      <c r="TZP14" s="1"/>
+      <c r="TZT14" s="1"/>
+      <c r="TZX14" s="1"/>
+      <c r="UAB14" s="1"/>
+      <c r="UAF14" s="1"/>
+      <c r="UAJ14" s="1"/>
+      <c r="UAN14" s="1"/>
+      <c r="UAR14" s="1"/>
+      <c r="UAV14" s="1"/>
+      <c r="UAZ14" s="1"/>
+      <c r="UBD14" s="1"/>
+      <c r="UBH14" s="1"/>
+      <c r="UBL14" s="1"/>
+      <c r="UBP14" s="1"/>
+      <c r="UBT14" s="1"/>
+      <c r="UBX14" s="1"/>
+      <c r="UCB14" s="1"/>
+      <c r="UCF14" s="1"/>
+      <c r="UCJ14" s="1"/>
+      <c r="UCN14" s="1"/>
+      <c r="UCR14" s="1"/>
+      <c r="UCV14" s="1"/>
+      <c r="UCZ14" s="1"/>
+      <c r="UDD14" s="1"/>
+      <c r="UDH14" s="1"/>
+      <c r="UDL14" s="1"/>
+      <c r="UDP14" s="1"/>
+      <c r="UDT14" s="1"/>
+      <c r="UDX14" s="1"/>
+      <c r="UEB14" s="1"/>
+      <c r="UEF14" s="1"/>
+      <c r="UEJ14" s="1"/>
+      <c r="UEN14" s="1"/>
+      <c r="UER14" s="1"/>
+      <c r="UEV14" s="1"/>
+      <c r="UEZ14" s="1"/>
+      <c r="UFD14" s="1"/>
+      <c r="UFH14" s="1"/>
+      <c r="UFL14" s="1"/>
+      <c r="UFP14" s="1"/>
+      <c r="UFT14" s="1"/>
+      <c r="UFX14" s="1"/>
+      <c r="UGB14" s="1"/>
+      <c r="UGF14" s="1"/>
+      <c r="UGJ14" s="1"/>
+      <c r="UGN14" s="1"/>
+      <c r="UGR14" s="1"/>
+      <c r="UGV14" s="1"/>
+      <c r="UGZ14" s="1"/>
+      <c r="UHD14" s="1"/>
+      <c r="UHH14" s="1"/>
+      <c r="UHL14" s="1"/>
+      <c r="UHP14" s="1"/>
+      <c r="UHT14" s="1"/>
+      <c r="UHX14" s="1"/>
+      <c r="UIB14" s="1"/>
+      <c r="UIF14" s="1"/>
+      <c r="UIJ14" s="1"/>
+      <c r="UIN14" s="1"/>
+      <c r="UIR14" s="1"/>
+      <c r="UIV14" s="1"/>
+      <c r="UIZ14" s="1"/>
+      <c r="UJD14" s="1"/>
+      <c r="UJH14" s="1"/>
+      <c r="UJL14" s="1"/>
+      <c r="UJP14" s="1"/>
+      <c r="UJT14" s="1"/>
+      <c r="UJX14" s="1"/>
+      <c r="UKB14" s="1"/>
+      <c r="UKF14" s="1"/>
+      <c r="UKJ14" s="1"/>
+      <c r="UKN14" s="1"/>
+      <c r="UKR14" s="1"/>
+      <c r="UKV14" s="1"/>
+      <c r="UKZ14" s="1"/>
+      <c r="ULD14" s="1"/>
+      <c r="ULH14" s="1"/>
+      <c r="ULL14" s="1"/>
+      <c r="ULP14" s="1"/>
+      <c r="ULT14" s="1"/>
+      <c r="ULX14" s="1"/>
+      <c r="UMB14" s="1"/>
+      <c r="UMF14" s="1"/>
+      <c r="UMJ14" s="1"/>
+      <c r="UMN14" s="1"/>
+      <c r="UMR14" s="1"/>
+      <c r="UMV14" s="1"/>
+      <c r="UMZ14" s="1"/>
+      <c r="UND14" s="1"/>
+      <c r="UNH14" s="1"/>
+      <c r="UNL14" s="1"/>
+      <c r="UNP14" s="1"/>
+      <c r="UNT14" s="1"/>
+      <c r="UNX14" s="1"/>
+      <c r="UOB14" s="1"/>
+      <c r="UOF14" s="1"/>
+      <c r="UOJ14" s="1"/>
+      <c r="UON14" s="1"/>
+      <c r="UOR14" s="1"/>
+      <c r="UOV14" s="1"/>
+      <c r="UOZ14" s="1"/>
+      <c r="UPD14" s="1"/>
+      <c r="UPH14" s="1"/>
+      <c r="UPL14" s="1"/>
+      <c r="UPP14" s="1"/>
+      <c r="UPT14" s="1"/>
+      <c r="UPX14" s="1"/>
+      <c r="UQB14" s="1"/>
+      <c r="UQF14" s="1"/>
+      <c r="UQJ14" s="1"/>
+      <c r="UQN14" s="1"/>
+      <c r="UQR14" s="1"/>
+      <c r="UQV14" s="1"/>
+      <c r="UQZ14" s="1"/>
+      <c r="URD14" s="1"/>
+      <c r="URH14" s="1"/>
+      <c r="URL14" s="1"/>
+      <c r="URP14" s="1"/>
+      <c r="URT14" s="1"/>
+      <c r="URX14" s="1"/>
+      <c r="USB14" s="1"/>
+      <c r="USF14" s="1"/>
+      <c r="USJ14" s="1"/>
+      <c r="USN14" s="1"/>
+      <c r="USR14" s="1"/>
+      <c r="USV14" s="1"/>
+      <c r="USZ14" s="1"/>
+      <c r="UTD14" s="1"/>
+      <c r="UTH14" s="1"/>
+      <c r="UTL14" s="1"/>
+      <c r="UTP14" s="1"/>
+      <c r="UTT14" s="1"/>
+      <c r="UTX14" s="1"/>
+      <c r="UUB14" s="1"/>
+      <c r="UUF14" s="1"/>
+      <c r="UUJ14" s="1"/>
+      <c r="UUN14" s="1"/>
+      <c r="UUR14" s="1"/>
+      <c r="UUV14" s="1"/>
+      <c r="UUZ14" s="1"/>
+      <c r="UVD14" s="1"/>
+      <c r="UVH14" s="1"/>
+      <c r="UVL14" s="1"/>
+      <c r="UVP14" s="1"/>
+      <c r="UVT14" s="1"/>
+      <c r="UVX14" s="1"/>
+      <c r="UWB14" s="1"/>
+      <c r="UWF14" s="1"/>
+      <c r="UWJ14" s="1"/>
+      <c r="UWN14" s="1"/>
+      <c r="UWR14" s="1"/>
+      <c r="UWV14" s="1"/>
+      <c r="UWZ14" s="1"/>
+      <c r="UXD14" s="1"/>
+      <c r="UXH14" s="1"/>
+      <c r="UXL14" s="1"/>
+      <c r="UXP14" s="1"/>
+      <c r="UXT14" s="1"/>
+      <c r="UXX14" s="1"/>
+      <c r="UYB14" s="1"/>
+      <c r="UYF14" s="1"/>
+      <c r="UYJ14" s="1"/>
+      <c r="UYN14" s="1"/>
+      <c r="UYR14" s="1"/>
+      <c r="UYV14" s="1"/>
+      <c r="UYZ14" s="1"/>
+      <c r="UZD14" s="1"/>
+      <c r="UZH14" s="1"/>
+      <c r="UZL14" s="1"/>
+      <c r="UZP14" s="1"/>
+      <c r="UZT14" s="1"/>
+      <c r="UZX14" s="1"/>
+      <c r="VAB14" s="1"/>
+      <c r="VAF14" s="1"/>
+      <c r="VAJ14" s="1"/>
+      <c r="VAN14" s="1"/>
+      <c r="VAR14" s="1"/>
+      <c r="VAV14" s="1"/>
+      <c r="VAZ14" s="1"/>
+      <c r="VBD14" s="1"/>
+      <c r="VBH14" s="1"/>
+      <c r="VBL14" s="1"/>
+      <c r="VBP14" s="1"/>
+      <c r="VBT14" s="1"/>
+      <c r="VBX14" s="1"/>
+      <c r="VCB14" s="1"/>
+      <c r="VCF14" s="1"/>
+      <c r="VCJ14" s="1"/>
+      <c r="VCN14" s="1"/>
+      <c r="VCR14" s="1"/>
+      <c r="VCV14" s="1"/>
+      <c r="VCZ14" s="1"/>
+      <c r="VDD14" s="1"/>
+      <c r="VDH14" s="1"/>
+      <c r="VDL14" s="1"/>
+      <c r="VDP14" s="1"/>
+      <c r="VDT14" s="1"/>
+      <c r="VDX14" s="1"/>
+      <c r="VEB14" s="1"/>
+      <c r="VEF14" s="1"/>
+      <c r="VEJ14" s="1"/>
+      <c r="VEN14" s="1"/>
+      <c r="VER14" s="1"/>
+      <c r="VEV14" s="1"/>
+      <c r="VEZ14" s="1"/>
+      <c r="VFD14" s="1"/>
+      <c r="VFH14" s="1"/>
+      <c r="VFL14" s="1"/>
+      <c r="VFP14" s="1"/>
+      <c r="VFT14" s="1"/>
+      <c r="VFX14" s="1"/>
+      <c r="VGB14" s="1"/>
+      <c r="VGF14" s="1"/>
+      <c r="VGJ14" s="1"/>
+      <c r="VGN14" s="1"/>
+      <c r="VGR14" s="1"/>
+      <c r="VGV14" s="1"/>
+      <c r="VGZ14" s="1"/>
+      <c r="VHD14" s="1"/>
+      <c r="VHH14" s="1"/>
+      <c r="VHL14" s="1"/>
+      <c r="VHP14" s="1"/>
+      <c r="VHT14" s="1"/>
+      <c r="VHX14" s="1"/>
+      <c r="VIB14" s="1"/>
+      <c r="VIF14" s="1"/>
+      <c r="VIJ14" s="1"/>
+      <c r="VIN14" s="1"/>
+      <c r="VIR14" s="1"/>
+      <c r="VIV14" s="1"/>
+      <c r="VIZ14" s="1"/>
+      <c r="VJD14" s="1"/>
+      <c r="VJH14" s="1"/>
+      <c r="VJL14" s="1"/>
+      <c r="VJP14" s="1"/>
+      <c r="VJT14" s="1"/>
+      <c r="VJX14" s="1"/>
+      <c r="VKB14" s="1"/>
+      <c r="VKF14" s="1"/>
+      <c r="VKJ14" s="1"/>
+      <c r="VKN14" s="1"/>
+      <c r="VKR14" s="1"/>
+      <c r="VKV14" s="1"/>
+      <c r="VKZ14" s="1"/>
+      <c r="VLD14" s="1"/>
+      <c r="VLH14" s="1"/>
+      <c r="VLL14" s="1"/>
+      <c r="VLP14" s="1"/>
+      <c r="VLT14" s="1"/>
+      <c r="VLX14" s="1"/>
+      <c r="VMB14" s="1"/>
+      <c r="VMF14" s="1"/>
+      <c r="VMJ14" s="1"/>
+      <c r="VMN14" s="1"/>
+      <c r="VMR14" s="1"/>
+      <c r="VMV14" s="1"/>
+      <c r="VMZ14" s="1"/>
+      <c r="VND14" s="1"/>
+      <c r="VNH14" s="1"/>
+      <c r="VNL14" s="1"/>
+      <c r="VNP14" s="1"/>
+      <c r="VNT14" s="1"/>
+      <c r="VNX14" s="1"/>
+      <c r="VOB14" s="1"/>
+      <c r="VOF14" s="1"/>
+      <c r="VOJ14" s="1"/>
+      <c r="VON14" s="1"/>
+      <c r="VOR14" s="1"/>
+      <c r="VOV14" s="1"/>
+      <c r="VOZ14" s="1"/>
+      <c r="VPD14" s="1"/>
+      <c r="VPH14" s="1"/>
+      <c r="VPL14" s="1"/>
+      <c r="VPP14" s="1"/>
+      <c r="VPT14" s="1"/>
+      <c r="VPX14" s="1"/>
+      <c r="VQB14" s="1"/>
+      <c r="VQF14" s="1"/>
+      <c r="VQJ14" s="1"/>
+      <c r="VQN14" s="1"/>
+      <c r="VQR14" s="1"/>
+      <c r="VQV14" s="1"/>
+      <c r="VQZ14" s="1"/>
+      <c r="VRD14" s="1"/>
+      <c r="VRH14" s="1"/>
+      <c r="VRL14" s="1"/>
+      <c r="VRP14" s="1"/>
+      <c r="VRT14" s="1"/>
+      <c r="VRX14" s="1"/>
+      <c r="VSB14" s="1"/>
+      <c r="VSF14" s="1"/>
+      <c r="VSJ14" s="1"/>
+      <c r="VSN14" s="1"/>
+      <c r="VSR14" s="1"/>
+      <c r="VSV14" s="1"/>
+      <c r="VSZ14" s="1"/>
+      <c r="VTD14" s="1"/>
+      <c r="VTH14" s="1"/>
+      <c r="VTL14" s="1"/>
+      <c r="VTP14" s="1"/>
+      <c r="VTT14" s="1"/>
+      <c r="VTX14" s="1"/>
+      <c r="VUB14" s="1"/>
+      <c r="VUF14" s="1"/>
+      <c r="VUJ14" s="1"/>
+      <c r="VUN14" s="1"/>
+      <c r="VUR14" s="1"/>
+      <c r="VUV14" s="1"/>
+      <c r="VUZ14" s="1"/>
+      <c r="VVD14" s="1"/>
+      <c r="VVH14" s="1"/>
+      <c r="VVL14" s="1"/>
+      <c r="VVP14" s="1"/>
+      <c r="VVT14" s="1"/>
+      <c r="VVX14" s="1"/>
+      <c r="VWB14" s="1"/>
+      <c r="VWF14" s="1"/>
+      <c r="VWJ14" s="1"/>
+      <c r="VWN14" s="1"/>
+      <c r="VWR14" s="1"/>
+      <c r="VWV14" s="1"/>
+      <c r="VWZ14" s="1"/>
+      <c r="VXD14" s="1"/>
+      <c r="VXH14" s="1"/>
+      <c r="VXL14" s="1"/>
+      <c r="VXP14" s="1"/>
+      <c r="VXT14" s="1"/>
+      <c r="VXX14" s="1"/>
+      <c r="VYB14" s="1"/>
+      <c r="VYF14" s="1"/>
+      <c r="VYJ14" s="1"/>
+      <c r="VYN14" s="1"/>
+      <c r="VYR14" s="1"/>
+      <c r="VYV14" s="1"/>
+      <c r="VYZ14" s="1"/>
+      <c r="VZD14" s="1"/>
+      <c r="VZH14" s="1"/>
+      <c r="VZL14" s="1"/>
+      <c r="VZP14" s="1"/>
+      <c r="VZT14" s="1"/>
+      <c r="VZX14" s="1"/>
+      <c r="WAB14" s="1"/>
+      <c r="WAF14" s="1"/>
+      <c r="WAJ14" s="1"/>
+      <c r="WAN14" s="1"/>
+      <c r="WAR14" s="1"/>
+      <c r="WAV14" s="1"/>
+      <c r="WAZ14" s="1"/>
+      <c r="WBD14" s="1"/>
+      <c r="WBH14" s="1"/>
+      <c r="WBL14" s="1"/>
+      <c r="WBP14" s="1"/>
+      <c r="WBT14" s="1"/>
+      <c r="WBX14" s="1"/>
+      <c r="WCB14" s="1"/>
+      <c r="WCF14" s="1"/>
+      <c r="WCJ14" s="1"/>
+      <c r="WCN14" s="1"/>
+      <c r="WCR14" s="1"/>
+      <c r="WCV14" s="1"/>
+      <c r="WCZ14" s="1"/>
+      <c r="WDD14" s="1"/>
+      <c r="WDH14" s="1"/>
+      <c r="WDL14" s="1"/>
+      <c r="WDP14" s="1"/>
+      <c r="WDT14" s="1"/>
+      <c r="WDX14" s="1"/>
+      <c r="WEB14" s="1"/>
+      <c r="WEF14" s="1"/>
+      <c r="WEJ14" s="1"/>
+      <c r="WEN14" s="1"/>
+      <c r="WER14" s="1"/>
+      <c r="WEV14" s="1"/>
+      <c r="WEZ14" s="1"/>
+      <c r="WFD14" s="1"/>
+      <c r="WFH14" s="1"/>
+      <c r="WFL14" s="1"/>
+      <c r="WFP14" s="1"/>
+      <c r="WFT14" s="1"/>
+      <c r="WFX14" s="1"/>
+      <c r="WGB14" s="1"/>
+      <c r="WGF14" s="1"/>
+      <c r="WGJ14" s="1"/>
+      <c r="WGN14" s="1"/>
+      <c r="WGR14" s="1"/>
+      <c r="WGV14" s="1"/>
+      <c r="WGZ14" s="1"/>
+      <c r="WHD14" s="1"/>
+      <c r="WHH14" s="1"/>
+      <c r="WHL14" s="1"/>
+      <c r="WHP14" s="1"/>
+      <c r="WHT14" s="1"/>
+      <c r="WHX14" s="1"/>
+      <c r="WIB14" s="1"/>
+      <c r="WIF14" s="1"/>
+      <c r="WIJ14" s="1"/>
+      <c r="WIN14" s="1"/>
+      <c r="WIR14" s="1"/>
+      <c r="WIV14" s="1"/>
+      <c r="WIZ14" s="1"/>
+      <c r="WJD14" s="1"/>
+      <c r="WJH14" s="1"/>
+      <c r="WJL14" s="1"/>
+      <c r="WJP14" s="1"/>
+      <c r="WJT14" s="1"/>
+      <c r="WJX14" s="1"/>
+      <c r="WKB14" s="1"/>
+      <c r="WKF14" s="1"/>
+      <c r="WKJ14" s="1"/>
+      <c r="WKN14" s="1"/>
+      <c r="WKR14" s="1"/>
+      <c r="WKV14" s="1"/>
+      <c r="WKZ14" s="1"/>
+      <c r="WLD14" s="1"/>
+      <c r="WLH14" s="1"/>
+      <c r="WLL14" s="1"/>
+      <c r="WLP14" s="1"/>
+      <c r="WLT14" s="1"/>
+      <c r="WLX14" s="1"/>
+      <c r="WMB14" s="1"/>
+      <c r="WMF14" s="1"/>
+      <c r="WMJ14" s="1"/>
+      <c r="WMN14" s="1"/>
+      <c r="WMR14" s="1"/>
+      <c r="WMV14" s="1"/>
+      <c r="WMZ14" s="1"/>
+      <c r="WND14" s="1"/>
+      <c r="WNH14" s="1"/>
+      <c r="WNL14" s="1"/>
+      <c r="WNP14" s="1"/>
+      <c r="WNT14" s="1"/>
+      <c r="WNX14" s="1"/>
+      <c r="WOB14" s="1"/>
+      <c r="WOF14" s="1"/>
+      <c r="WOJ14" s="1"/>
+      <c r="WON14" s="1"/>
+      <c r="WOR14" s="1"/>
+      <c r="WOV14" s="1"/>
+      <c r="WOZ14" s="1"/>
+      <c r="WPD14" s="1"/>
+      <c r="WPH14" s="1"/>
+      <c r="WPL14" s="1"/>
+      <c r="WPP14" s="1"/>
+      <c r="WPT14" s="1"/>
+      <c r="WPX14" s="1"/>
+      <c r="WQB14" s="1"/>
+      <c r="WQF14" s="1"/>
+      <c r="WQJ14" s="1"/>
+      <c r="WQN14" s="1"/>
+      <c r="WQR14" s="1"/>
+      <c r="WQV14" s="1"/>
+      <c r="WQZ14" s="1"/>
+      <c r="WRD14" s="1"/>
+      <c r="WRH14" s="1"/>
+      <c r="WRL14" s="1"/>
+      <c r="WRP14" s="1"/>
+      <c r="WRT14" s="1"/>
+      <c r="WRX14" s="1"/>
+      <c r="WSB14" s="1"/>
+      <c r="WSF14" s="1"/>
+      <c r="WSJ14" s="1"/>
+      <c r="WSN14" s="1"/>
+      <c r="WSR14" s="1"/>
+      <c r="WSV14" s="1"/>
+      <c r="WSZ14" s="1"/>
+      <c r="WTD14" s="1"/>
+      <c r="WTH14" s="1"/>
+      <c r="WTL14" s="1"/>
+      <c r="WTP14" s="1"/>
+      <c r="WTT14" s="1"/>
+      <c r="WTX14" s="1"/>
+      <c r="WUB14" s="1"/>
+      <c r="WUF14" s="1"/>
+      <c r="WUJ14" s="1"/>
+      <c r="WUN14" s="1"/>
+      <c r="WUR14" s="1"/>
+      <c r="WUV14" s="1"/>
+      <c r="WUZ14" s="1"/>
+      <c r="WVD14" s="1"/>
+      <c r="WVH14" s="1"/>
+      <c r="WVL14" s="1"/>
+      <c r="WVP14" s="1"/>
+      <c r="WVT14" s="1"/>
+      <c r="WVX14" s="1"/>
+      <c r="WWB14" s="1"/>
+      <c r="WWF14" s="1"/>
+      <c r="WWJ14" s="1"/>
+      <c r="WWN14" s="1"/>
+      <c r="WWR14" s="1"/>
+      <c r="WWV14" s="1"/>
+      <c r="WWZ14" s="1"/>
+      <c r="WXD14" s="1"/>
+      <c r="WXH14" s="1"/>
+      <c r="WXL14" s="1"/>
+      <c r="WXP14" s="1"/>
+      <c r="WXT14" s="1"/>
+      <c r="WXX14" s="1"/>
+      <c r="WYB14" s="1"/>
+      <c r="WYF14" s="1"/>
+      <c r="WYJ14" s="1"/>
+      <c r="WYN14" s="1"/>
+      <c r="WYR14" s="1"/>
+      <c r="WYV14" s="1"/>
+      <c r="WYZ14" s="1"/>
+      <c r="WZD14" s="1"/>
+      <c r="WZH14" s="1"/>
+      <c r="WZL14" s="1"/>
+      <c r="WZP14" s="1"/>
+      <c r="WZT14" s="1"/>
+      <c r="WZX14" s="1"/>
+      <c r="XAB14" s="1"/>
+      <c r="XAF14" s="1"/>
+      <c r="XAJ14" s="1"/>
+      <c r="XAN14" s="1"/>
+      <c r="XAR14" s="1"/>
+      <c r="XAV14" s="1"/>
+      <c r="XAZ14" s="1"/>
+      <c r="XBD14" s="1"/>
+      <c r="XBH14" s="1"/>
+      <c r="XBL14" s="1"/>
+      <c r="XBP14" s="1"/>
+      <c r="XBT14" s="1"/>
+      <c r="XBX14" s="1"/>
+      <c r="XCB14" s="1"/>
+      <c r="XCF14" s="1"/>
+      <c r="XCJ14" s="1"/>
+      <c r="XCN14" s="1"/>
+      <c r="XCR14" s="1"/>
+      <c r="XCV14" s="1"/>
+      <c r="XCZ14" s="1"/>
+      <c r="XDD14" s="1"/>
+      <c r="XDH14" s="1"/>
+      <c r="XDL14" s="1"/>
+      <c r="XDP14" s="1"/>
+      <c r="XDT14" s="1"/>
+      <c r="XDX14" s="1"/>
+      <c r="XEB14" s="1"/>
+      <c r="XEF14" s="1"/>
+      <c r="XEJ14" s="1"/>
+      <c r="XEN14" s="1"/>
+      <c r="XER14" s="1"/>
+      <c r="XEV14" s="1"/>
+      <c r="XEZ14" s="1"/>
+      <c r="XFD14" s="1"/>
     </row>
-    <row r="15" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -10070,12 +10101,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -10084,12 +10115,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -10098,12 +10129,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -10112,12 +10143,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -10126,26 +10157,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -10154,12 +10185,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -10168,12 +10199,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -10182,12 +10213,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -10196,12 +10227,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -10210,12 +10241,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -10224,12 +10255,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -10238,26 +10269,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>76</v>
@@ -10266,31 +10297,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10301,6 +10346,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008352E896BEBC3B4BBE556B9821A22447" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f913282166a0f4e6fae5234b1a10d1bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a77fb7f8-12c9-4609-ac08-7d2a28f77de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1fdcbb55615e8c28d62e918f83ed0de" ns2:_="">
     <xsd:import namespace="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
@@ -10478,22 +10538,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3839E01-B9A0-42A9-8974-3B924CEB6D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10509,28 +10578,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prado\OneDrive\Documentos\GitHub\proyecto-grado\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DC8B59-D87E-4DB2-A032-098FF8E610BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14479C-22B9-4C53-8DF5-5F256EA8CA11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="103">
   <si>
     <t>Class</t>
   </si>
@@ -311,6 +311,36 @@
   </si>
   <si>
     <t>Microservice</t>
+  </si>
+  <si>
+    <t>owner.org.springframework.boot.autoconfigure.SpringBootApplication</t>
+  </si>
+  <si>
+    <t>org.springframework.boot.autoconfigure</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Has Annotation</t>
+  </si>
+  <si>
+    <t>pet1.org.springframework.boot.autoconfigure.SpringBootApplication</t>
+  </si>
+  <si>
+    <t>pet2.org.springframework.boot.autoconfigure.SpringBootApplication</t>
+  </si>
+  <si>
+    <t>Src</t>
+  </si>
+  <si>
+    <t>Dst</t>
+  </si>
+  <si>
+    <t>owner.org.springframework.samples.petclinic.owner.OwnerRepository.save(Owner)</t>
+  </si>
+  <si>
+    <t>OwnerRepository.save(Owner)</t>
   </si>
 </sst>
 </file>
@@ -663,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1488,13 +1518,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -1503,7 +1533,7 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
@@ -1511,30 +1541,30 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
@@ -1549,15 +1579,15 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
@@ -1572,44 +1602,44 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -1626,7 +1656,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -1644,18 +1674,18 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -1672,24 +1702,116 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
       </c>
       <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
         <v>0</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>24</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1701,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XFD32"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1714,8 +1836,21 @@
     <col min="3" max="3" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1729,7 +1864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1743,7 +1878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1757,7 +1892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1771,7 +1906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1785,7 +1920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1799,7 +1934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1813,7 +1948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1827,7 +1962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1841,7 +1976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1855,7 +1990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1869,7 +2004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -5978,7 +6113,7 @@
       <c r="XEZ13" s="1"/>
       <c r="XFD13" s="1"/>
     </row>
-    <row r="14" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -10087,7 +10222,7 @@
       <c r="XEZ14" s="1"/>
       <c r="XFD14" s="1"/>
     </row>
-    <row r="15" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -10101,7 +10236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -10115,7 +10250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -10129,7 +10264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -10143,7 +10278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -10157,7 +10292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -10171,7 +10306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -10185,7 +10320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -10199,7 +10334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -10213,7 +10348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -10227,7 +10362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -10241,7 +10376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -10255,7 +10390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -10269,7 +10404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -10283,7 +10418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -10297,7 +10432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -10311,7 +10446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -10325,7 +10460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -10339,6 +10474,69 @@
         <v>21</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10346,21 +10544,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008352E896BEBC3B4BBE556B9821A22447" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f913282166a0f4e6fae5234b1a10d1bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a77fb7f8-12c9-4609-ac08-7d2a28f77de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1fdcbb55615e8c28d62e918f83ed0de" ns2:_="">
     <xsd:import namespace="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
@@ -10538,31 +10721,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3839E01-B9A0-42A9-8974-3B924CEB6D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10578,4 +10752,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prado\OneDrive\Documentos\GitHub\proyecto-grado\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\proyecto-grado\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14479C-22B9-4C53-8DF5-5F256EA8CA11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676A7975-4525-463B-87A3-7011510F6A52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -695,23 +695,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="96.21875" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" customWidth="1"/>
-    <col min="3" max="3" width="69.77734375" customWidth="1"/>
+    <col min="1" max="1" width="96.1796875" customWidth="1"/>
+    <col min="2" max="2" width="45.1796875" customWidth="1"/>
+    <col min="3" max="3" width="69.81640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="5" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -734,7 +734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -757,7 +757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -780,7 +780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -803,7 +803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -826,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -849,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -872,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -895,7 +895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -918,7 +918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -941,7 +941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -964,7 +964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -1823,20 +1823,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XFD39"/>
+  <dimension ref="A1:XFD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="84.77734375" customWidth="1"/>
-    <col min="2" max="2" width="99.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="84.81640625" customWidth="1"/>
+    <col min="2" max="2" width="99.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -6113,7 +6113,7 @@
       <c r="XEZ13" s="1"/>
       <c r="XFD13" s="1"/>
     </row>
-    <row r="14" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -10222,7 +10222,7 @@
       <c r="XEZ14" s="1"/>
       <c r="XFD14" s="1"/>
     </row>
-    <row r="15" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -10530,13 +10530,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10544,6 +10543,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008352E896BEBC3B4BBE556B9821A22447" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f913282166a0f4e6fae5234b1a10d1bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a77fb7f8-12c9-4609-ac08-7d2a28f77de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1fdcbb55615e8c28d62e918f83ed0de" ns2:_="">
     <xsd:import namespace="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
@@ -10721,22 +10735,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3839E01-B9A0-42A9-8974-3B924CEB6D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10752,28 +10775,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prado\OneDrive\Documentos\GitHub\proyecto-grado\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\proyecto-grado\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090A5F80-922E-4D9F-BD59-F25F3EF2FF8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9082F37B-843A-4D2D-87BF-39EE781764B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -844,23 +844,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="96.21875" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" customWidth="1"/>
-    <col min="3" max="3" width="69.77734375" customWidth="1"/>
+    <col min="1" max="1" width="96.1796875" customWidth="1"/>
+    <col min="2" max="2" width="45.1796875" customWidth="1"/>
+    <col min="3" max="3" width="69.81640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="5" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -883,7 +883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -906,7 +906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -929,7 +929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -952,7 +952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>132</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>115</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>116</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>105</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -2641,18 +2641,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="84.77734375" customWidth="1"/>
-    <col min="2" max="2" width="99.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="84.81640625" customWidth="1"/>
+    <col min="2" max="2" width="99.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -6929,7 +6929,7 @@
       <c r="XEZ13" s="1"/>
       <c r="XFD13" s="1"/>
     </row>
-    <row r="14" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -11038,7 +11038,7 @@
       <c r="XEZ14" s="1"/>
       <c r="XFD14" s="1"/>
     </row>
-    <row r="15" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -15301,7 +15301,7 @@
       <c r="XEZ26" s="1"/>
       <c r="XFD26" s="1"/>
     </row>
-    <row r="27" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -19410,7 +19410,7 @@
       <c r="XEZ27" s="1"/>
       <c r="XFD27" s="1"/>
     </row>
-    <row r="28" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -19550,7 +19550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -19620,7 +19620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -19662,7 +19662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -19704,7 +19704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>115</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>134</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -19746,7 +19746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -23883,7 +23883,7 @@
       <c r="XEZ54" s="1"/>
       <c r="XFD54" s="1"/>
     </row>
-    <row r="55" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>144</v>
       </c>
@@ -27992,7 +27992,7 @@
       <c r="XEZ55" s="1"/>
       <c r="XFD55" s="1"/>
     </row>
-    <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -28006,7 +28006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -28020,7 +28020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -28034,7 +28034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -28055,6 +28055,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008352E896BEBC3B4BBE556B9821A22447" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f913282166a0f4e6fae5234b1a10d1bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a77fb7f8-12c9-4609-ac08-7d2a28f77de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1fdcbb55615e8c28d62e918f83ed0de" ns2:_="">
     <xsd:import namespace="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
@@ -28232,22 +28247,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3839E01-B9A0-42A9-8974-3B924CEB6D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28263,28 +28287,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41A2B81-AB11-41E7-9B8C-6A9391946BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4066899A-7741-4BF8-9BC2-E588D9B1CCA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a77fb7f8-12c9-4609-ac08-7d2a28f77de9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>